--- a/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="463">
-  <si>
-    <t>Generated from schema\openc2.jaen, Sat Mar 11 12:06:01 2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="518">
+  <si>
+    <t>Generated from schema\openc2.jaen, Mon Mar 13 12:57:34 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -417,7 +417,7 @@
     <t>user_account</t>
   </si>
   <si>
-    <t>user-account (Record)</t>
+    <t>user-account (Map)</t>
   </si>
   <si>
     <t>user_session</t>
@@ -663,6 +663,9 @@
     <t>pattern: "^\d{4}-\d\d-\d\dT\d\d:\d\d:\d\d(\.\d{1,6})?(Z|[-+]\d\d:\d\d)$"</t>
   </si>
   <si>
+    <t>RFC 3339 format date and time</t>
+  </si>
+  <si>
     <t>ResponseValue</t>
   </si>
   <si>
@@ -849,12 +852,6 @@
     <t>A sequence of octets encoded as a hexadecimal string</t>
   </si>
   <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>RFC 3339 format date and time</t>
-  </si>
-  <si>
     <t>hashes-type</t>
   </si>
   <si>
@@ -990,6 +987,30 @@
     <t>MUST be a valid URL that resolves to the un-encoded content</t>
   </si>
   <si>
+    <t>autonomous-system</t>
+  </si>
+  <si>
+    <t>number (required)</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Number assigned to the AS, typically by a Regional Internet Registry</t>
+  </si>
+  <si>
+    <t>name (optional)</t>
+  </si>
+  <si>
+    <t>Name of the AS</t>
+  </si>
+  <si>
+    <t>rir (optional)</t>
+  </si>
+  <si>
+    <t>Regional Internet Registry (RIR) that assigned the number to the AS</t>
+  </si>
+  <si>
     <t>Target used to query Actuator for its supported capabilities</t>
   </si>
   <si>
@@ -1041,9 +1062,6 @@
     <t>created (optional)</t>
   </si>
   <si>
-    <t>Timestamp (String)</t>
-  </si>
-  <si>
     <t>Date/time the directory was created</t>
   </si>
   <si>
@@ -1188,7 +1206,7 @@
     <t>asystems</t>
   </si>
   <si>
-    <t>autonomous-system</t>
+    <t>autonomous-system (Record)</t>
   </si>
   <si>
     <t>ip-connection</t>
@@ -1251,9 +1269,6 @@
     <t>number</t>
   </si>
   <si>
-    <t>Integer</t>
-  </si>
-  <si>
     <t>Port number (e.g., dynamically assigned)</t>
   </si>
   <si>
@@ -1398,7 +1413,157 @@
     <t>Version of the software</t>
   </si>
   <si>
+    <t>Uniform Resource Locator</t>
+  </si>
+  <si>
     <t>user-account</t>
+  </si>
+  <si>
+    <t>user_id (required)</t>
+  </si>
+  <si>
+    <t>Identifier of the account.  Format depends on the system the account is maintained in.</t>
+  </si>
+  <si>
+    <t>account_login (optional)</t>
+  </si>
+  <si>
+    <t>Account login string, in cases where user_id is other than what the user types to log in.</t>
+  </si>
+  <si>
+    <t>account_type (optional)</t>
+  </si>
+  <si>
+    <t>Value from the account-type vocabulary</t>
+  </si>
+  <si>
+    <t>Display name of the account (e.g., Unix GECOS field)</t>
+  </si>
+  <si>
+    <t>is_service_account (optional)</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Account is associated with a network service or system process, not an individual.</t>
+  </si>
+  <si>
+    <t>is_privileged (optional)</t>
+  </si>
+  <si>
+    <t>Account has elevated privileges</t>
+  </si>
+  <si>
+    <t>can_escalate_privs (optional)</t>
+  </si>
+  <si>
+    <t>Account has the ability to escalate privileges</t>
+  </si>
+  <si>
+    <t>is_disabled (optional)</t>
+  </si>
+  <si>
+    <t>Account is disabled</t>
+  </si>
+  <si>
+    <t>account_created (optional)</t>
+  </si>
+  <si>
+    <t>Creation date of the account</t>
+  </si>
+  <si>
+    <t>account_expires (optional)</t>
+  </si>
+  <si>
+    <t>Expiration date of the account</t>
+  </si>
+  <si>
+    <t>password_last_changed (optional)</t>
+  </si>
+  <si>
+    <t>When the account password was last changed</t>
+  </si>
+  <si>
+    <t>account_first_login (optional)</t>
+  </si>
+  <si>
+    <t>When the account was first accessed</t>
+  </si>
+  <si>
+    <t>account_last_login (optional)</t>
+  </si>
+  <si>
+    <t>When the account was last accessed</t>
+  </si>
+  <si>
+    <t>account-type</t>
+  </si>
+  <si>
+    <t>unix</t>
+  </si>
+  <si>
+    <t>POSIX account</t>
+  </si>
+  <si>
+    <t>windows-local</t>
+  </si>
+  <si>
+    <t>Windows local account</t>
+  </si>
+  <si>
+    <t>windows-domain</t>
+  </si>
+  <si>
+    <t>Windows domain account</t>
+  </si>
+  <si>
+    <t>ldap</t>
+  </si>
+  <si>
+    <t>Lightweight Directory Access Protocol (LDAP) account</t>
+  </si>
+  <si>
+    <t>tacacs</t>
+  </si>
+  <si>
+    <t>Terminal Access Controller Access Control System (TACACS) account</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>Remote Authentication Dial-in User Service (RADIUS - RFC 2865) account</t>
+  </si>
+  <si>
+    <t>nis</t>
+  </si>
+  <si>
+    <t>Network Information System (NIS) account</t>
+  </si>
+  <si>
+    <t>openid</t>
+  </si>
+  <si>
+    <t>OpenID account</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>Facebook account</t>
+  </si>
+  <si>
+    <t>skype</t>
+  </si>
+  <si>
+    <t>Skype account</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>Twitter account</t>
   </si>
   <si>
     <t>windows-registry-key</t>
@@ -1888,7 +2053,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E406"/>
+  <dimension ref="A2:E425"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3462,778 +3627,774 @@
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
     </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
+    <row r="154" spans="1:5">
+      <c r="A154" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
     </row>
-    <row r="160" spans="1:5">
-      <c r="B160" s="7" t="s">
+    <row r="159" spans="1:5">
+      <c r="A159" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="B161" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C161" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D161" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="E161" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="B161" s="8">
-        <v>1</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="B162" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D162" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E162" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="B163" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D163" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E163" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="B164" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D164" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E164" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="B165" s="8">
+        <v>4</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="B166" s="8">
         <v>5</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C166" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D165" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E165" s="8" t="s">
+      <c r="D166" s="8" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
+      <c r="E166" s="8" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>257</v>
+        <v>49</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
     </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B173" s="5" t="s">
+    <row r="171" spans="1:5">
+      <c r="A171" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
     </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
+    <row r="176" spans="1:5">
+      <c r="A176" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>274</v>
+        <v>49</v>
       </c>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
     </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B183" s="5" t="s">
+    <row r="181" spans="1:5">
+      <c r="A181" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B188" s="5" t="s">
+    <row r="186" spans="1:5">
+      <c r="A186" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
     </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="4" t="s">
+    <row r="192" spans="1:5">
+      <c r="B192" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" s="8">
+        <v>1</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" s="8">
+        <v>2</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" s="8">
+        <v>3</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" s="8">
+        <v>4</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" s="8">
+        <v>5</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" s="8">
+        <v>6</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5">
+      <c r="B199" s="8">
+        <v>7</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5">
+      <c r="B200" s="8">
+        <v>8</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5">
+      <c r="B201" s="8">
+        <v>9</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5">
+      <c r="B202" s="8">
+        <v>10</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5">
+      <c r="B203" s="8">
+        <v>11</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5">
+      <c r="B204" s="8">
+        <v>12</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5">
+      <c r="B205" s="8">
+        <v>13</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5">
+      <c r="B206" s="8">
+        <v>14</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B193" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="4" t="s">
+      <c r="B209" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B210" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="B212" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="B213" s="8">
+        <v>1</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="B214" s="8">
+        <v>2</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="B215" s="8">
+        <v>3</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="B216" s="8">
+        <v>4</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="B222" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="B223" s="8">
+        <v>1</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="B224" s="8">
+        <v>2</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="B230" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="B231" s="8">
+        <v>1</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="B232" s="8">
+        <v>2</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="B233" s="8">
+        <v>3</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="B196" s="7" t="s">
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="B239" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C239" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D196" s="7" t="s">
+      <c r="D239" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E196" s="7" t="s">
+      <c r="E239" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="B197" s="8">
-        <v>1</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E197" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="B198" s="8">
-        <v>2</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="B199" s="8">
-        <v>3</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E199" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="B200" s="8">
-        <v>4</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="B201" s="8">
-        <v>5</v>
-      </c>
-      <c r="C201" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E201" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="B202" s="8">
-        <v>6</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E202" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="B203" s="8">
-        <v>7</v>
-      </c>
-      <c r="C203" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D203" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E203" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="B204" s="8">
-        <v>8</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="B205" s="8">
-        <v>9</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E205" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="B206" s="8">
-        <v>10</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E206" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="B207" s="8">
-        <v>11</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E207" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="B208" s="8">
-        <v>12</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E208" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="B209" s="8">
-        <v>13</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E209" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="B210" s="8">
-        <v>14</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D210" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E210" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-      <c r="E214" s="6"/>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="B216" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D216" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E216" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="B217" s="8">
-        <v>1</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E217" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="B218" s="8">
-        <v>2</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E218" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="B219" s="8">
-        <v>3</v>
-      </c>
-      <c r="C219" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="E219" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="B220" s="8">
-        <v>4</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="E220" s="8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C223" s="5"/>
-      <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C224" s="6"/>
-      <c r="D224" s="6"/>
-      <c r="E224" s="6"/>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="B226" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E226" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="B227" s="8">
-        <v>1</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E227" s="8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="B228" s="8">
-        <v>2</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E228" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C231" s="5"/>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C232" s="6"/>
-      <c r="D232" s="6"/>
-      <c r="E232" s="6"/>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="B234" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D234" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E234" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="B235" s="8">
-        <v>1</v>
-      </c>
-      <c r="C235" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="D235" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E235" s="8"/>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="B236" s="8">
-        <v>2</v>
-      </c>
-      <c r="C236" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D236" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E236" s="8"/>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="B237" s="8">
-        <v>3</v>
-      </c>
-      <c r="C237" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E237" s="8"/>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="B238" s="8">
-        <v>4</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D238" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E238" s="8"/>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="B239" s="8">
-        <v>5</v>
-      </c>
-      <c r="C239" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E239" s="8"/>
     </row>
     <row r="240" spans="1:5">
       <c r="B240" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D240" s="8" t="s">
         <v>49</v>
@@ -4242,174 +4403,202 @@
     </row>
     <row r="241" spans="1:5">
       <c r="B241" s="8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D241" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E241" s="8"/>
     </row>
+    <row r="242" spans="1:5">
+      <c r="B242" s="8">
+        <v>3</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E242" s="8"/>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="B243" s="8">
+        <v>4</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E243" s="8"/>
+    </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="4" t="s">
+      <c r="B244" s="8">
+        <v>5</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E244" s="8"/>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="B245" s="8">
+        <v>6</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E245" s="8"/>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="B246" s="8">
+        <v>7</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E246" s="8"/>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="B249" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C244" s="5"/>
-      <c r="D244" s="5"/>
-      <c r="E244" s="5"/>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="4" t="s">
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B250" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C245" s="6"/>
-      <c r="D245" s="6"/>
-      <c r="E245" s="6"/>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="B247" s="7" t="s">
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="B252" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C247" s="7" t="s">
+      <c r="C252" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D247" s="7" t="s">
+      <c r="D252" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E247" s="7" t="s">
+      <c r="E252" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="B248" s="8">
-        <v>1</v>
-      </c>
-      <c r="C248" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D248" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E248" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="B249" s="8">
-        <v>2</v>
-      </c>
-      <c r="C249" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="D249" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E249" s="8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="B250" s="8">
-        <v>3</v>
-      </c>
-      <c r="C250" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D250" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E250" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="B251" s="8">
-        <v>4</v>
-      </c>
-      <c r="C251" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D251" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E251" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="B252" s="8">
-        <v>5</v>
-      </c>
-      <c r="C252" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="D252" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E252" s="8" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="B253" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C253" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="B254" s="8">
+        <v>2</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E254" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="B255" s="8">
+        <v>3</v>
+      </c>
+      <c r="C255" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="D253" s="8" t="s">
+      <c r="D255" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E255" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E253" s="8" t="s">
+    </row>
+    <row r="256" spans="1:5">
+      <c r="B256" s="8">
+        <v>4</v>
+      </c>
+      <c r="C256" s="8" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B256" s="5" t="s">
+      <c r="D256" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E256" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C256" s="5"/>
-      <c r="D256" s="5"/>
-      <c r="E256" s="5"/>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B257" s="6" t="s">
+      <c r="B257" s="8">
+        <v>5</v>
+      </c>
+      <c r="C257" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C257" s="6"/>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
+      <c r="D257" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="258" spans="1:5">
       <c r="B258" s="8">
-        <v>0</v>
-      </c>
-      <c r="C258" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>353</v>
+      </c>
       <c r="D258" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="E258" s="8"/>
+        <v>354</v>
+      </c>
+      <c r="E258" s="8" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
@@ -4420,595 +4609,595 @@
         <v>16</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>17</v>
+        <v>357</v>
       </c>
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
     </row>
-    <row r="264" spans="1:5">
-      <c r="B264" s="7" t="s">
+    <row r="263" spans="1:5">
+      <c r="B263" s="8">
+        <v>0</v>
+      </c>
+      <c r="C263" s="8"/>
+      <c r="D263" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E263" s="8"/>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267" s="6"/>
+      <c r="D267" s="6"/>
+      <c r="E267" s="6"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="B269" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C264" s="7" t="s">
+      <c r="C269" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D264" s="7" t="s">
+      <c r="D269" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E264" s="7" t="s">
+      <c r="E269" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
-      <c r="B265" s="8">
+    <row r="270" spans="1:5">
+      <c r="B270" s="8">
         <v>1</v>
       </c>
-      <c r="C265" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="D265" s="8" t="s">
+      <c r="C270" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D270" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E265" s="8"/>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="B266" s="8">
+      <c r="E270" s="8"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="B271" s="8">
         <v>2</v>
       </c>
-      <c r="C266" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D266" s="8" t="s">
+      <c r="C271" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D271" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E266" s="8"/>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="4" t="s">
+      <c r="E271" s="8"/>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B269" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="C269" s="5"/>
-      <c r="D269" s="5"/>
-      <c r="E269" s="5"/>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270" s="4" t="s">
+      <c r="B274" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="B275" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C270" s="6"/>
-      <c r="D270" s="6"/>
-      <c r="E270" s="6"/>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="B272" s="7" t="s">
+      <c r="C275" s="6"/>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="B277" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C277" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D272" s="7" t="s">
+      <c r="D277" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E272" s="7" t="s">
+      <c r="E277" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
-      <c r="B273" s="8">
+    <row r="278" spans="1:5">
+      <c r="B278" s="8">
         <v>1</v>
       </c>
-      <c r="C273" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D273" s="8" t="s">
+      <c r="C278" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D278" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E273" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="B274" s="8">
+      <c r="E278" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="B279" s="8">
         <v>2</v>
       </c>
-      <c r="C274" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D274" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="E274" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277" s="4" t="s">
+      <c r="C279" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D279" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E279" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B277" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C277" s="5"/>
-      <c r="D277" s="5"/>
-      <c r="E277" s="5"/>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C278" s="6"/>
-      <c r="D278" s="6"/>
-      <c r="E278" s="6"/>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
-      <c r="E279" s="6"/>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="B280" s="8">
-        <v>0</v>
-      </c>
-      <c r="C280" s="8"/>
-      <c r="D280" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="E280" s="8"/>
+      <c r="B282" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C283" s="5"/>
-      <c r="D283" s="5"/>
-      <c r="E283" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C283" s="6"/>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="4" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>17</v>
+        <v>367</v>
       </c>
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
     </row>
-    <row r="286" spans="1:5">
-      <c r="B286" s="7" t="s">
+    <row r="285" spans="1:5">
+      <c r="B285" s="8">
+        <v>0</v>
+      </c>
+      <c r="C285" s="8"/>
+      <c r="D285" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E285" s="8"/>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5"/>
+      <c r="E288" s="5"/>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C289" s="6"/>
+      <c r="D289" s="6"/>
+      <c r="E289" s="6"/>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="B291" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C286" s="7" t="s">
+      <c r="C291" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D286" s="7" t="s">
+      <c r="D291" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E286" s="7" t="s">
+      <c r="E291" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
-      <c r="B287" s="8">
+    <row r="292" spans="1:5">
+      <c r="B292" s="8">
         <v>1</v>
       </c>
-      <c r="C287" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D287" s="8" t="s">
+      <c r="C292" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D292" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E287" s="8"/>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="B288" s="8">
+      <c r="E292" s="8"/>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="B293" s="8">
         <v>2</v>
       </c>
-      <c r="C288" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D288" s="8" t="s">
+      <c r="C293" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D293" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E288" s="8"/>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="B289" s="8">
+      <c r="E293" s="8"/>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="B294" s="8">
         <v>3</v>
       </c>
-      <c r="C289" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="D289" s="8" t="s">
+      <c r="C294" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D294" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E289" s="8"/>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="A292" s="4" t="s">
+      <c r="E294" s="8"/>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B292" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C292" s="5"/>
-      <c r="D292" s="5"/>
-      <c r="E292" s="5"/>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="A293" s="4" t="s">
+      <c r="B297" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="B298" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C293" s="6"/>
-      <c r="D293" s="6"/>
-      <c r="E293" s="6"/>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="B295" s="7" t="s">
+      <c r="C298" s="6"/>
+      <c r="D298" s="6"/>
+      <c r="E298" s="6"/>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="B300" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C295" s="7" t="s">
+      <c r="C300" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D295" s="7" t="s">
+      <c r="D300" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E295" s="7" t="s">
+      <c r="E300" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
-      <c r="B296" s="8">
+    <row r="301" spans="1:5">
+      <c r="B301" s="8">
         <v>1</v>
       </c>
-      <c r="C296" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D296" s="8" t="s">
+      <c r="C301" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D301" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E296" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="B297" s="8">
+      <c r="E301" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="B302" s="8">
         <v>2</v>
       </c>
-      <c r="C297" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="D297" s="8" t="s">
+      <c r="C302" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D302" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E297" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="B298" s="8">
+      <c r="E302" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="B303" s="8">
         <v>3</v>
       </c>
-      <c r="C298" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D298" s="8" t="s">
+      <c r="C303" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D303" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E298" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
-      <c r="A301" s="4" t="s">
+      <c r="E303" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B301" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="C301" s="5"/>
-      <c r="D301" s="5"/>
-      <c r="E301" s="5"/>
-    </row>
-    <row r="302" spans="1:5">
-      <c r="A302" s="4" t="s">
+      <c r="B306" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5"/>
+      <c r="E306" s="5"/>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B302" s="6" t="s">
+      <c r="B307" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C302" s="6"/>
-      <c r="D302" s="6"/>
-      <c r="E302" s="6"/>
-    </row>
-    <row r="303" spans="1:5">
-      <c r="A303" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C303" s="6"/>
-      <c r="D303" s="6"/>
-      <c r="E303" s="6"/>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="B305" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C305" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D305" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E305" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C307" s="6"/>
+      <c r="D307" s="6"/>
+      <c r="E307" s="6"/>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C308" s="6"/>
+      <c r="D308" s="6"/>
+      <c r="E308" s="6"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="B310" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E310" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B308" s="5" t="s">
+      <c r="B313" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C308" s="5"/>
-      <c r="D308" s="5"/>
-      <c r="E308" s="5"/>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="A309" s="4" t="s">
+      <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B309" s="6" t="s">
+      <c r="B314" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C309" s="6"/>
-      <c r="D309" s="6"/>
-      <c r="E309" s="6"/>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="A310" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B310" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C310" s="6"/>
-      <c r="D310" s="6"/>
-      <c r="E310" s="6"/>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="B312" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C312" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D312" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E312" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C314" s="6"/>
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C315" s="6"/>
+      <c r="D315" s="6"/>
+      <c r="E315" s="6"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="B317" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D317" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E317" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B315" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C315" s="5"/>
-      <c r="D315" s="5"/>
-      <c r="E315" s="5"/>
-    </row>
-    <row r="316" spans="1:5">
-      <c r="A316" s="4" t="s">
+      <c r="B320" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5"/>
+      <c r="E320" s="5"/>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B316" s="6" t="s">
+      <c r="B321" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C316" s="6"/>
-      <c r="D316" s="6"/>
-      <c r="E316" s="6"/>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="B318" s="7" t="s">
+      <c r="C321" s="6"/>
+      <c r="D321" s="6"/>
+      <c r="E321" s="6"/>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="B323" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C318" s="7" t="s">
+      <c r="C323" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D318" s="7" t="s">
+      <c r="D323" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E318" s="7" t="s">
+      <c r="E323" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
-      <c r="B319" s="8">
+    <row r="324" spans="1:5">
+      <c r="B324" s="8">
         <v>1</v>
       </c>
-      <c r="C319" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D319" s="8" t="s">
+      <c r="C324" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D324" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E319" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="B320" s="8">
+      <c r="E324" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="B325" s="8">
         <v>2</v>
       </c>
-      <c r="C320" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D320" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="E320" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="B321" s="8">
+      <c r="C325" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D325" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E325" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="B326" s="8">
         <v>3</v>
       </c>
-      <c r="C321" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="D321" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="E321" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="A324" s="4" t="s">
+      <c r="C326" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D326" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E326" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B324" s="5" t="s">
+      <c r="B329" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C329" s="5"/>
+      <c r="D329" s="5"/>
+      <c r="E329" s="5"/>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C330" s="6"/>
+      <c r="D330" s="6"/>
+      <c r="E330" s="6"/>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="B332" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D332" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E332" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="B333" s="8">
+        <v>1</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D333" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E333" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="B334" s="8">
+        <v>2</v>
+      </c>
+      <c r="C334" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C324" s="5"/>
-      <c r="D324" s="5"/>
-      <c r="E324" s="5"/>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="A325" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C325" s="6"/>
-      <c r="D325" s="6"/>
-      <c r="E325" s="6"/>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="B327" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D327" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E327" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="B328" s="8">
-        <v>1</v>
-      </c>
-      <c r="C328" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D328" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E328" s="8" t="s">
+      <c r="D334" s="8" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="B329" s="8">
-        <v>2</v>
-      </c>
-      <c r="C329" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D329" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="E329" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="B330" s="8">
-        <v>3</v>
-      </c>
-      <c r="C330" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="D330" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="E330" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="A333" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B333" s="5" t="s">
+      <c r="E334" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C333" s="5"/>
-      <c r="D333" s="5"/>
-      <c r="E333" s="5"/>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="A334" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B334" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C334" s="6"/>
-      <c r="D334" s="6"/>
-      <c r="E334" s="6"/>
     </row>
     <row r="335" spans="1:5">
       <c r="B335" s="8">
-        <v>0</v>
-      </c>
-      <c r="C335" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>387</v>
+      </c>
       <c r="D335" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E335" s="8"/>
+        <v>388</v>
+      </c>
+      <c r="E335" s="8" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
@@ -5019,29 +5208,28 @@
         <v>16</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
     </row>
     <row r="340" spans="1:5">
-      <c r="A340" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B340" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C340" s="6"/>
-      <c r="D340" s="6"/>
-      <c r="E340" s="6"/>
+      <c r="B340" s="8">
+        <v>0</v>
+      </c>
+      <c r="C340" s="8"/>
+      <c r="D340" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E340" s="8"/>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
@@ -5052,28 +5240,29 @@
         <v>16</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>351</v>
+        <v>49</v>
       </c>
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
     </row>
     <row r="345" spans="1:5">
-      <c r="B345" s="8">
-        <v>0</v>
-      </c>
-      <c r="C345" s="8"/>
-      <c r="D345" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="E345" s="8"/>
+      <c r="A345" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C345" s="6"/>
+      <c r="D345" s="6"/>
+      <c r="E345" s="6"/>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
@@ -5084,402 +5273,409 @@
         <v>16</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>29</v>
+        <v>357</v>
       </c>
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
     </row>
     <row r="350" spans="1:5">
-      <c r="A350" s="4" t="s">
+      <c r="B350" s="8">
+        <v>0</v>
+      </c>
+      <c r="C350" s="8"/>
+      <c r="D350" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E350" s="8"/>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C353" s="5"/>
+      <c r="D353" s="5"/>
+      <c r="E353" s="5"/>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C354" s="6"/>
+      <c r="D354" s="6"/>
+      <c r="E354" s="6"/>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B350" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C350" s="6"/>
-      <c r="D350" s="6"/>
-      <c r="E350" s="6"/>
-    </row>
-    <row r="352" spans="1:5">
-      <c r="B352" s="7" t="s">
+      <c r="B355" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C355" s="6"/>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="B357" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C352" s="7" t="s">
+      <c r="C357" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D352" s="7" t="s">
+      <c r="D357" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E352" s="7" t="s">
+      <c r="E357" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
-      <c r="B353" s="8">
-        <v>1</v>
-      </c>
-      <c r="C353" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="D353" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="E353" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
-      <c r="B354" s="8">
-        <v>2</v>
-      </c>
-      <c r="C354" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D354" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E354" s="8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
-      <c r="B355" s="8">
-        <v>3</v>
-      </c>
-      <c r="C355" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="D355" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="E355" s="8" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="B356" s="8">
-        <v>4</v>
-      </c>
-      <c r="C356" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="D356" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E356" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
-      <c r="B357" s="8">
-        <v>5</v>
-      </c>
-      <c r="C357" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="D357" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="E357" s="8" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="B358" s="8">
+        <v>1</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D358" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E358" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="B359" s="8">
+        <v>2</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D359" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E359" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="B360" s="8">
+        <v>3</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D360" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E360" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="B361" s="8">
+        <v>4</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D361" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E361" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="B362" s="8">
+        <v>5</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D362" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E362" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="B363" s="8">
         <v>6</v>
       </c>
-      <c r="C358" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D358" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E358" s="8" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
-      <c r="A361" s="4" t="s">
+      <c r="C363" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D363" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E363" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B361" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="C361" s="5"/>
-      <c r="D361" s="5"/>
-      <c r="E361" s="5"/>
-    </row>
-    <row r="362" spans="1:5">
-      <c r="A362" s="4" t="s">
+      <c r="B366" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C366" s="5"/>
+      <c r="D366" s="5"/>
+      <c r="E366" s="5"/>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B362" s="6" t="s">
+      <c r="B367" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C362" s="6"/>
-      <c r="D362" s="6"/>
-      <c r="E362" s="6"/>
-    </row>
-    <row r="363" spans="1:5">
-      <c r="A363" s="4" t="s">
+      <c r="C367" s="6"/>
+      <c r="D367" s="6"/>
+      <c r="E367" s="6"/>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B363" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="C363" s="6"/>
-      <c r="D363" s="6"/>
-      <c r="E363" s="6"/>
-    </row>
-    <row r="365" spans="1:5">
-      <c r="B365" s="7" t="s">
+      <c r="B368" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C368" s="6"/>
+      <c r="D368" s="6"/>
+      <c r="E368" s="6"/>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="B370" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C365" s="7" t="s">
+      <c r="C370" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D365" s="7" t="s">
+      <c r="D370" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E365" s="7" t="s">
+      <c r="E370" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
-      <c r="B366" s="8">
+    <row r="371" spans="1:5">
+      <c r="B371" s="8">
         <v>1</v>
       </c>
-      <c r="C366" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="D366" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="E366" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
-      <c r="B367" s="8">
+      <c r="C371" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D371" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E371" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="B372" s="8">
         <v>2</v>
       </c>
-      <c r="C367" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="D367" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E367" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
-      <c r="A370" s="4" t="s">
+      <c r="C372" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D372" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E372" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B370" s="5" t="s">
+      <c r="B375" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C370" s="5"/>
-      <c r="D370" s="5"/>
-      <c r="E370" s="5"/>
-    </row>
-    <row r="371" spans="1:5">
-      <c r="A371" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B371" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C371" s="6"/>
-      <c r="D371" s="6"/>
-      <c r="E371" s="6"/>
-    </row>
-    <row r="373" spans="1:5">
-      <c r="B373" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C373" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D373" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E373" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C375" s="5"/>
+      <c r="D375" s="5"/>
+      <c r="E375" s="5"/>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B376" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C376" s="6"/>
+      <c r="D376" s="6"/>
+      <c r="E376" s="6"/>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="B378" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D378" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E378" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B376" s="5" t="s">
+      <c r="B381" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C376" s="5"/>
-      <c r="D376" s="5"/>
-      <c r="E376" s="5"/>
-    </row>
-    <row r="377" spans="1:5">
-      <c r="A377" s="4" t="s">
+      <c r="C381" s="5"/>
+      <c r="D381" s="5"/>
+      <c r="E381" s="5"/>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B377" s="6" t="s">
+      <c r="B382" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C377" s="6"/>
-      <c r="D377" s="6"/>
-      <c r="E377" s="6"/>
-    </row>
-    <row r="379" spans="1:5">
-      <c r="B379" s="7" t="s">
+      <c r="C382" s="6"/>
+      <c r="D382" s="6"/>
+      <c r="E382" s="6"/>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="B384" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C379" s="7" t="s">
+      <c r="C384" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D379" s="7" t="s">
+      <c r="D384" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E379" s="7" t="s">
+      <c r="E384" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
-      <c r="B380" s="8">
+    <row r="385" spans="1:5">
+      <c r="B385" s="8">
         <v>1</v>
       </c>
-      <c r="C380" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="D380" s="8" t="s">
+      <c r="C385" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D385" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E380" s="8" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="B381" s="8">
+      <c r="E385" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="B386" s="8">
         <v>2</v>
       </c>
-      <c r="C381" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="D381" s="8" t="s">
+      <c r="C386" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D386" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E381" s="8" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
-      <c r="B382" s="8">
+      <c r="E386" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="B387" s="8">
         <v>3</v>
       </c>
-      <c r="C382" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="D382" s="8" t="s">
+      <c r="C387" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D387" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E382" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
-      <c r="B383" s="8">
+      <c r="E387" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="B388" s="8">
         <v>4</v>
       </c>
-      <c r="C383" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="D383" s="8" t="s">
+      <c r="C388" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D388" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E383" s="8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
-      <c r="B384" s="8">
+      <c r="E388" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="B389" s="8">
         <v>5</v>
       </c>
-      <c r="C384" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="D384" s="8" t="s">
+      <c r="C389" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D389" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E384" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
-      <c r="A387" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B387" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C387" s="5"/>
-      <c r="D387" s="5"/>
-      <c r="E387" s="5"/>
-    </row>
-    <row r="388" spans="1:5">
-      <c r="A388" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B388" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C388" s="6"/>
-      <c r="D388" s="6"/>
-      <c r="E388" s="6"/>
-    </row>
-    <row r="391" spans="1:5">
-      <c r="A391" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B391" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="C391" s="5"/>
-      <c r="D391" s="5"/>
-      <c r="E391" s="5"/>
+      <c r="E389" s="8" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C392" s="5"/>
+      <c r="D392" s="5"/>
+      <c r="E392" s="5"/>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B392" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C392" s="6"/>
-      <c r="D392" s="6"/>
-      <c r="E392" s="6"/>
+      <c r="B393" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C393" s="6"/>
+      <c r="D393" s="6"/>
+      <c r="E393" s="6"/>
     </row>
     <row r="394" spans="1:5">
-      <c r="B394" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C394" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D394" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E394" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="A394" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C394" s="6"/>
+      <c r="D394" s="6"/>
+      <c r="E394" s="6"/>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
@@ -5490,7 +5686,7 @@
         <v>16</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="C398" s="6"/>
       <c r="D398" s="6"/>
@@ -5510,44 +5706,262 @@
         <v>21</v>
       </c>
     </row>
+    <row r="401" spans="1:5">
+      <c r="B401" s="8">
+        <v>1</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D401" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E401" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="B402" s="8">
+        <v>2</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D402" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E402" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
     <row r="403" spans="1:5">
-      <c r="A403" s="4" t="s">
+      <c r="B403" s="8">
+        <v>3</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D403" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E403" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="B404" s="8">
+        <v>4</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D404" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E404" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="B405" s="8">
+        <v>5</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D405" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E405" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="B406" s="8">
+        <v>6</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D406" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E406" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="B407" s="8">
+        <v>7</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D407" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E407" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="B408" s="8">
+        <v>8</v>
+      </c>
+      <c r="C408" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D408" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E408" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="B409" s="8">
+        <v>9</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D409" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E409" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="B410" s="8">
+        <v>10</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D410" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E410" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="B411" s="8">
+        <v>11</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D411" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E411" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="B412" s="8">
+        <v>12</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="D412" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E412" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="B413" s="8">
+        <v>13</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D413" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E413" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B403" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="C403" s="5"/>
-      <c r="D403" s="5"/>
-      <c r="E403" s="5"/>
-    </row>
-    <row r="404" spans="1:5">
-      <c r="A404" s="4" t="s">
+      <c r="B416" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C416" s="5"/>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B404" s="6" t="s">
+      <c r="B417" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C404" s="6"/>
-      <c r="D404" s="6"/>
-      <c r="E404" s="6"/>
-    </row>
-    <row r="406" spans="1:5">
-      <c r="B406" s="7" t="s">
+      <c r="C417" s="6"/>
+      <c r="D417" s="6"/>
+      <c r="E417" s="6"/>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="B419" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="7" t="s">
+      <c r="C419" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D406" s="7" t="s">
+      <c r="D419" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E406" s="7" t="s">
+      <c r="E419" s="7" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C422" s="5"/>
+      <c r="D422" s="5"/>
+      <c r="E422" s="5"/>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B423" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C423" s="6"/>
+      <c r="D423" s="6"/>
+      <c r="E423" s="6"/>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="B425" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C425" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D425" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E425" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="100">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B11:E11"/>
@@ -5571,82 +5985,83 @@
     <mergeCell ref="B151:E151"/>
     <mergeCell ref="B152:E152"/>
     <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="B154:E154"/>
     <mergeCell ref="B157:E157"/>
     <mergeCell ref="B158:E158"/>
-    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B159:E159"/>
     <mergeCell ref="B169:E169"/>
     <mergeCell ref="B170:E170"/>
-    <mergeCell ref="B173:E173"/>
+    <mergeCell ref="B171:E171"/>
     <mergeCell ref="B174:E174"/>
     <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="B176:E176"/>
     <mergeCell ref="B179:E179"/>
     <mergeCell ref="B180:E180"/>
-    <mergeCell ref="B183:E183"/>
+    <mergeCell ref="B181:E181"/>
     <mergeCell ref="B184:E184"/>
     <mergeCell ref="B185:E185"/>
-    <mergeCell ref="B188:E188"/>
+    <mergeCell ref="B186:E186"/>
     <mergeCell ref="B189:E189"/>
     <mergeCell ref="B190:E190"/>
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="B213:E213"/>
-    <mergeCell ref="B214:E214"/>
-    <mergeCell ref="B223:E223"/>
-    <mergeCell ref="B224:E224"/>
-    <mergeCell ref="B231:E231"/>
-    <mergeCell ref="B232:E232"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="B256:E256"/>
-    <mergeCell ref="B257:E257"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="B236:E236"/>
+    <mergeCell ref="B237:E237"/>
+    <mergeCell ref="B249:E249"/>
+    <mergeCell ref="B250:E250"/>
     <mergeCell ref="B261:E261"/>
     <mergeCell ref="B262:E262"/>
-    <mergeCell ref="B269:E269"/>
-    <mergeCell ref="B270:E270"/>
-    <mergeCell ref="B277:E277"/>
-    <mergeCell ref="B278:E278"/>
-    <mergeCell ref="B279:E279"/>
+    <mergeCell ref="B266:E266"/>
+    <mergeCell ref="B267:E267"/>
+    <mergeCell ref="B274:E274"/>
+    <mergeCell ref="B275:E275"/>
+    <mergeCell ref="B282:E282"/>
     <mergeCell ref="B283:E283"/>
     <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B293:E293"/>
-    <mergeCell ref="B301:E301"/>
-    <mergeCell ref="B302:E302"/>
-    <mergeCell ref="B303:E303"/>
+    <mergeCell ref="B288:E288"/>
+    <mergeCell ref="B289:E289"/>
+    <mergeCell ref="B297:E297"/>
+    <mergeCell ref="B298:E298"/>
+    <mergeCell ref="B306:E306"/>
+    <mergeCell ref="B307:E307"/>
     <mergeCell ref="B308:E308"/>
-    <mergeCell ref="B309:E309"/>
-    <mergeCell ref="B310:E310"/>
+    <mergeCell ref="B313:E313"/>
+    <mergeCell ref="B314:E314"/>
     <mergeCell ref="B315:E315"/>
-    <mergeCell ref="B316:E316"/>
-    <mergeCell ref="B324:E324"/>
-    <mergeCell ref="B325:E325"/>
-    <mergeCell ref="B333:E333"/>
-    <mergeCell ref="B334:E334"/>
+    <mergeCell ref="B320:E320"/>
+    <mergeCell ref="B321:E321"/>
+    <mergeCell ref="B329:E329"/>
+    <mergeCell ref="B330:E330"/>
     <mergeCell ref="B338:E338"/>
     <mergeCell ref="B339:E339"/>
-    <mergeCell ref="B340:E340"/>
     <mergeCell ref="B343:E343"/>
     <mergeCell ref="B344:E344"/>
+    <mergeCell ref="B345:E345"/>
     <mergeCell ref="B348:E348"/>
     <mergeCell ref="B349:E349"/>
-    <mergeCell ref="B350:E350"/>
-    <mergeCell ref="B361:E361"/>
-    <mergeCell ref="B362:E362"/>
-    <mergeCell ref="B363:E363"/>
-    <mergeCell ref="B370:E370"/>
-    <mergeCell ref="B371:E371"/>
+    <mergeCell ref="B353:E353"/>
+    <mergeCell ref="B354:E354"/>
+    <mergeCell ref="B355:E355"/>
+    <mergeCell ref="B366:E366"/>
+    <mergeCell ref="B367:E367"/>
+    <mergeCell ref="B368:E368"/>
+    <mergeCell ref="B375:E375"/>
     <mergeCell ref="B376:E376"/>
-    <mergeCell ref="B377:E377"/>
-    <mergeCell ref="B387:E387"/>
-    <mergeCell ref="B388:E388"/>
-    <mergeCell ref="B391:E391"/>
+    <mergeCell ref="B381:E381"/>
+    <mergeCell ref="B382:E382"/>
     <mergeCell ref="B392:E392"/>
+    <mergeCell ref="B393:E393"/>
+    <mergeCell ref="B394:E394"/>
     <mergeCell ref="B397:E397"/>
     <mergeCell ref="B398:E398"/>
-    <mergeCell ref="B403:E403"/>
-    <mergeCell ref="B404:E404"/>
+    <mergeCell ref="B416:E416"/>
+    <mergeCell ref="B417:E417"/>
+    <mergeCell ref="B422:E422"/>
+    <mergeCell ref="B423:E423"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5654,7 +6069,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D138"/>
+  <dimension ref="A2:D153"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5989,7 +6404,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -6010,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D42" s="8"/>
     </row>
@@ -6019,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D43" s="8"/>
     </row>
@@ -6028,7 +6443,7 @@
         <v>55</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -6049,7 +6464,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D48" s="8"/>
     </row>
@@ -6058,7 +6473,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D49" s="8"/>
     </row>
@@ -6067,7 +6482,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D50" s="8"/>
     </row>
@@ -6076,7 +6491,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D51" s="8"/>
     </row>
@@ -6085,7 +6500,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D52" s="8"/>
     </row>
@@ -6094,7 +6509,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -6115,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D57" s="8"/>
     </row>
@@ -6124,7 +6539,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D58" s="8"/>
     </row>
@@ -6133,7 +6548,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D59" s="8"/>
     </row>
@@ -6142,7 +6557,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -6163,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D64" s="8"/>
     </row>
@@ -6172,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D65" s="8"/>
     </row>
@@ -6181,7 +6596,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -6202,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D70" s="8"/>
     </row>
@@ -6211,7 +6626,7 @@
         <v>55</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -6232,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D75" s="8"/>
     </row>
@@ -6241,7 +6656,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D76" s="8"/>
     </row>
@@ -6250,7 +6665,7 @@
         <v>55</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -6271,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D81" s="8"/>
     </row>
@@ -6280,7 +6695,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D82" s="8"/>
     </row>
@@ -6289,7 +6704,7 @@
         <v>55</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -6310,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
     </row>
@@ -6319,7 +6734,7 @@
         <v>2</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
     </row>
@@ -6328,7 +6743,7 @@
         <v>3</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
     </row>
@@ -6337,7 +6752,7 @@
         <v>4</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
     </row>
@@ -6346,7 +6761,7 @@
         <v>55</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -6377,10 +6792,10 @@
         <v>102</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -6388,10 +6803,10 @@
         <v>200</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -6399,10 +6814,10 @@
         <v>400</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -6410,10 +6825,10 @@
         <v>401</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -6421,7 +6836,7 @@
         <v>403</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
     </row>
@@ -6430,10 +6845,10 @@
         <v>500</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6441,7 +6856,7 @@
         <v>501</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D102" s="8"/>
     </row>
@@ -6460,7 +6875,7 @@
         <v>92</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -6481,10 +6896,10 @@
         <v>1</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6492,10 +6907,10 @@
         <v>2</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6503,7 +6918,7 @@
         <v>55</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -6513,7 +6928,7 @@
         <v>92</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -6534,10 +6949,10 @@
         <v>2048</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6545,10 +6960,10 @@
         <v>2054</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6556,10 +6971,10 @@
         <v>34525</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6567,10 +6982,10 @@
         <v>34887</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6578,7 +6993,7 @@
         <v>55</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -6588,7 +7003,7 @@
         <v>92</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -6609,10 +7024,10 @@
         <v>1</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6620,10 +7035,10 @@
         <v>6</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6631,10 +7046,10 @@
         <v>17</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -6642,7 +7057,7 @@
         <v>55</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -6652,7 +7067,7 @@
         <v>92</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -6673,10 +7088,10 @@
         <v>20</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6684,10 +7099,10 @@
         <v>21</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6695,10 +7110,10 @@
         <v>22</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6706,10 +7121,10 @@
         <v>23</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6717,10 +7132,10 @@
         <v>25</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6728,10 +7143,10 @@
         <v>80</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6739,14 +7154,156 @@
         <v>443</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>449</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="B142" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="B143" s="8">
+        <v>1</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="B144" s="8">
+        <v>2</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" s="8">
+        <v>3</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" s="8">
+        <v>4</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" s="8">
+        <v>5</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" s="8">
+        <v>6</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" s="8">
+        <v>7</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" s="8">
+        <v>8</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" s="8">
+        <v>9</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" s="8">
+        <v>10</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" s="8">
+        <v>11</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B45:D45"/>
@@ -6766,6 +7323,7 @@
     <mergeCell ref="B121:D121"/>
     <mergeCell ref="B128:D128"/>
     <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B140:D140"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="518">
-  <si>
-    <t>Generated from schema\openc2.jaen, Mon Mar 13 12:57:34 2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="520">
+  <si>
+    <t>Generated from schema\openc2.jaen, Thu Mar 16 11:41:45 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -1024,6 +1024,12 @@
   </si>
   <si>
     <t>results = JAEN syntax of supported commands</t>
+  </si>
+  <si>
+    <t>actuators</t>
+  </si>
+  <si>
+    <t>results = JSON array of actuator group names</t>
   </si>
   <si>
     <t>description (optional)</t>
@@ -4394,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D240" s="8" t="s">
         <v>49</v>
@@ -4406,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D241" s="8" t="s">
         <v>49</v>
@@ -4418,7 +4424,7 @@
         <v>3</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D242" s="8" t="s">
         <v>49</v>
@@ -4430,7 +4436,7 @@
         <v>4</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D243" s="8" t="s">
         <v>49</v>
@@ -4442,7 +4448,7 @@
         <v>5</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D244" s="8" t="s">
         <v>49</v>
@@ -4454,7 +4460,7 @@
         <v>6</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D245" s="8" t="s">
         <v>49</v>
@@ -4466,7 +4472,7 @@
         <v>7</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D246" s="8" t="s">
         <v>49</v>
@@ -4514,13 +4520,13 @@
         <v>1</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D253" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4528,13 +4534,13 @@
         <v>2</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D254" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4542,13 +4548,13 @@
         <v>3</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D255" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4556,13 +4562,13 @@
         <v>4</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D256" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4570,13 +4576,13 @@
         <v>5</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D257" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4584,13 +4590,13 @@
         <v>6</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4598,7 +4604,7 @@
         <v>15</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
@@ -4609,7 +4615,7 @@
         <v>16</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
@@ -4621,7 +4627,7 @@
       </c>
       <c r="C263" s="8"/>
       <c r="D263" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E263" s="8"/>
     </row>
@@ -4630,7 +4636,7 @@
         <v>15</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
@@ -4666,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D270" s="8" t="s">
         <v>104</v>
@@ -4678,7 +4684,7 @@
         <v>2</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D271" s="8" t="s">
         <v>115</v>
@@ -4690,7 +4696,7 @@
         <v>15</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
@@ -4726,13 +4732,13 @@
         <v>1</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D278" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -4740,13 +4746,13 @@
         <v>2</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -4754,7 +4760,7 @@
         <v>15</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
@@ -4765,7 +4771,7 @@
         <v>16</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C283" s="6"/>
       <c r="D283" s="6"/>
@@ -4776,7 +4782,7 @@
         <v>92</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
@@ -4788,7 +4794,7 @@
       </c>
       <c r="C285" s="8"/>
       <c r="D285" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E285" s="8"/>
     </row>
@@ -4797,7 +4803,7 @@
         <v>15</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
@@ -4833,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D292" s="8" t="s">
         <v>117</v>
@@ -4845,7 +4851,7 @@
         <v>2</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D293" s="8" t="s">
         <v>119</v>
@@ -4857,7 +4863,7 @@
         <v>3</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D294" s="8" t="s">
         <v>109</v>
@@ -4869,7 +4875,7 @@
         <v>15</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
@@ -4905,13 +4911,13 @@
         <v>1</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D301" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -4919,13 +4925,13 @@
         <v>2</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D302" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -4933,13 +4939,13 @@
         <v>3</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D303" s="8" t="s">
         <v>133</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -4947,7 +4953,7 @@
         <v>15</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
@@ -4969,7 +4975,7 @@
         <v>92</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C308" s="6"/>
       <c r="D308" s="6"/>
@@ -5016,7 +5022,7 @@
         <v>92</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
@@ -5041,7 +5047,7 @@
         <v>15</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
@@ -5077,13 +5083,13 @@
         <v>1</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D324" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E324" s="8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5091,13 +5097,13 @@
         <v>2</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E325" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5105,13 +5111,13 @@
         <v>3</v>
       </c>
       <c r="C326" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E326" s="8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5119,7 +5125,7 @@
         <v>15</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
@@ -5155,13 +5161,13 @@
         <v>1</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D333" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E333" s="8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -5169,13 +5175,13 @@
         <v>2</v>
       </c>
       <c r="C334" s="8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -5183,13 +5189,13 @@
         <v>3</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D335" s="8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E335" s="8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -5197,7 +5203,7 @@
         <v>15</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
@@ -5208,7 +5214,7 @@
         <v>16</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
@@ -5229,7 +5235,7 @@
         <v>15</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
@@ -5251,7 +5257,7 @@
         <v>92</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
@@ -5262,7 +5268,7 @@
         <v>15</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
@@ -5273,7 +5279,7 @@
         <v>16</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
@@ -5285,7 +5291,7 @@
       </c>
       <c r="C350" s="8"/>
       <c r="D350" s="8" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E350" s="8"/>
     </row>
@@ -5294,7 +5300,7 @@
         <v>15</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
@@ -5316,7 +5322,7 @@
         <v>92</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
@@ -5341,13 +5347,13 @@
         <v>1</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D358" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E358" s="8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -5355,13 +5361,13 @@
         <v>2</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D359" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E359" s="8" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -5369,13 +5375,13 @@
         <v>3</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E360" s="8" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -5383,13 +5389,13 @@
         <v>4</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E361" s="8" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -5397,13 +5403,13 @@
         <v>5</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E362" s="8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -5411,13 +5417,13 @@
         <v>6</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D363" s="8" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E363" s="8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -5425,7 +5431,7 @@
         <v>15</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
@@ -5447,7 +5453,7 @@
         <v>92</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C368" s="6"/>
       <c r="D368" s="6"/>
@@ -5472,13 +5478,13 @@
         <v>1</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D371" s="8" t="s">
         <v>325</v>
       </c>
       <c r="E371" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -5486,13 +5492,13 @@
         <v>2</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E372" s="8" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -5572,13 +5578,13 @@
         <v>1</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D385" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E385" s="8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -5586,13 +5592,13 @@
         <v>2</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D386" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E386" s="8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -5600,13 +5606,13 @@
         <v>3</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D387" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E387" s="8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -5614,13 +5620,13 @@
         <v>4</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D388" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E388" s="8" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -5628,13 +5634,13 @@
         <v>5</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D389" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E389" s="8" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -5664,7 +5670,7 @@
         <v>92</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
@@ -5675,7 +5681,7 @@
         <v>15</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
@@ -5711,13 +5717,13 @@
         <v>1</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D401" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E401" s="8" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -5725,13 +5731,13 @@
         <v>2</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D402" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E402" s="8" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -5739,13 +5745,13 @@
         <v>3</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D403" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E403" s="8" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -5753,13 +5759,13 @@
         <v>4</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D404" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E404" s="8" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -5767,13 +5773,13 @@
         <v>5</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D405" s="8" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E405" s="8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -5781,13 +5787,13 @@
         <v>6</v>
       </c>
       <c r="C406" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D406" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="D406" s="8" t="s">
-        <v>475</v>
-      </c>
       <c r="E406" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -5795,13 +5801,13 @@
         <v>7</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D407" s="8" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E407" s="8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -5809,13 +5815,13 @@
         <v>8</v>
       </c>
       <c r="C408" s="8" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D408" s="8" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E408" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -5823,13 +5829,13 @@
         <v>9</v>
       </c>
       <c r="C409" s="8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D409" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E409" s="8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -5837,13 +5843,13 @@
         <v>10</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D410" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E410" s="8" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -5851,13 +5857,13 @@
         <v>11</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D411" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E411" s="8" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -5865,13 +5871,13 @@
         <v>12</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D412" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E412" s="8" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -5879,13 +5885,13 @@
         <v>13</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D413" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E413" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -5893,7 +5899,7 @@
         <v>15</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
@@ -5929,7 +5935,7 @@
         <v>15</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
@@ -6069,7 +6075,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D153"/>
+  <dimension ref="A2:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6913,51 +6919,51 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
+    <row r="110" spans="1:4">
+      <c r="B110" s="8">
+        <v>3</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="B114" s="7" t="s">
+      <c r="B113" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="B115" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C115" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D115" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="B115" s="8">
-        <v>2048</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="B116" s="8">
-        <v>2054</v>
+        <v>2048</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>425</v>
@@ -6968,7 +6974,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="B117" s="8">
-        <v>34525</v>
+        <v>2054</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>427</v>
@@ -6979,7 +6985,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="B118" s="8">
-        <v>34887</v>
+        <v>34525</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>429</v>
@@ -6988,51 +6994,51 @@
         <v>430</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B120" s="5" t="s">
+    <row r="119" spans="1:4">
+      <c r="B119" s="8">
+        <v>34887</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
+      <c r="D119" s="8" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B121" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="B123" s="7" t="s">
+      <c r="B122" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="B124" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C124" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D124" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="B124" s="8">
-        <v>1</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="B125" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>435</v>
@@ -7043,7 +7049,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="B126" s="8">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>437</v>
@@ -7052,51 +7058,51 @@
         <v>438</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B128" s="5" t="s">
+    <row r="127" spans="1:4">
+      <c r="B127" s="8">
+        <v>17</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
+      <c r="D127" s="8" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="B131" s="7" t="s">
+      <c r="B130" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="B132" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C132" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D132" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="B132" s="8">
-        <v>20</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="B133" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>443</v>
@@ -7107,7 +7113,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="B134" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>445</v>
@@ -7118,7 +7124,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="B135" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>447</v>
@@ -7129,7 +7135,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="B136" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>449</v>
@@ -7140,7 +7146,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="B137" s="8">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>451</v>
@@ -7151,7 +7157,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="B138" s="8">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>453</v>
@@ -7160,41 +7166,41 @@
         <v>454</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="4" t="s">
+    <row r="139" spans="1:4">
+      <c r="B139" s="8">
+        <v>443</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="B142" s="7" t="s">
+      <c r="B141" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="B143" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C143" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D143" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="B143" s="8">
-        <v>1</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="B144" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>496</v>
@@ -7205,7 +7211,7 @@
     </row>
     <row r="145" spans="2:4">
       <c r="B145" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>498</v>
@@ -7216,7 +7222,7 @@
     </row>
     <row r="146" spans="2:4">
       <c r="B146" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>500</v>
@@ -7227,7 +7233,7 @@
     </row>
     <row r="147" spans="2:4">
       <c r="B147" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>502</v>
@@ -7238,7 +7244,7 @@
     </row>
     <row r="148" spans="2:4">
       <c r="B148" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>504</v>
@@ -7249,7 +7255,7 @@
     </row>
     <row r="149" spans="2:4">
       <c r="B149" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>506</v>
@@ -7260,7 +7266,7 @@
     </row>
     <row r="150" spans="2:4">
       <c r="B150" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>508</v>
@@ -7271,7 +7277,7 @@
     </row>
     <row r="151" spans="2:4">
       <c r="B151" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>510</v>
@@ -7282,7 +7288,7 @@
     </row>
     <row r="152" spans="2:4">
       <c r="B152" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>512</v>
@@ -7293,13 +7299,24 @@
     </row>
     <row r="153" spans="2:4">
       <c r="B153" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>514</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>515</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" s="8">
+        <v>11</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -7317,13 +7334,13 @@
     <mergeCell ref="B93:D93"/>
     <mergeCell ref="B104:D104"/>
     <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B111:D111"/>
     <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B113:D113"/>
     <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B122:D122"/>
     <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B141:D141"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="520">
   <si>
-    <t>Generated from schema\openc2.jaen, Thu Mar 16 11:41:45 2017</t>
+    <t>Generated from schema\openc2.jaen, Fri Mar 17 11:25:14 2017</t>
   </si>
   <si>
     <t>module</t>

--- a/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="520">
-  <si>
-    <t>Generated from schema\openc2.jaen, Fri Mar 17 11:25:14 2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="567">
+  <si>
+    <t>Generated from schema\openc2.jaen, Wed Mar 22 16:59:37 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -615,7 +615,7 @@
     <t>frequency (optional)</t>
   </si>
   <si>
-    <t>command_ref (optional)</t>
+    <t>command_id (optional)</t>
   </si>
   <si>
     <t>response (optional)</t>
@@ -648,22 +648,37 @@
     <t>command_src (optional)</t>
   </si>
   <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>Options:</t>
+  </si>
+  <si>
+    <t>pattern: "^\d{4}-\d\d-\d\dT\d\d:\d\d:\d\d(\.\d{1,6})?(Z|[-+]\d\d:\d\d)$"</t>
+  </si>
+  <si>
+    <t>RFC 3339 date-time</t>
+  </si>
+  <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>Options:</t>
-  </si>
-  <si>
     <t>pattern: "^PT(\d+H(\d+M(\d+S)?)?|\d+M(\d+S)?|\d+S)$"</t>
   </si>
   <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>pattern: "^\d{4}-\d\d-\d\dT\d\d:\d\d:\d\d(\.\d{1,6})?(Z|[-+]\d\d:\d\d)$"</t>
-  </si>
-  <si>
-    <t>RFC 3339 format date and time</t>
+    <t>RFC 3339 / ISO 8601 duration (dur-time option)</t>
+  </si>
+  <si>
+    <t>CommandID</t>
+  </si>
+  <si>
+    <t>Command unique identifier</t>
+  </si>
+  <si>
+    <t>DeviceID</t>
+  </si>
+  <si>
+    <t>Device Identifier of the command issuer</t>
   </si>
   <si>
     <t>ResponseValue</t>
@@ -765,6 +780,21 @@
     <t>immediate</t>
   </si>
   <si>
+    <t>SearchValue</t>
+  </si>
+  <si>
+    <t>cve</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>vendor-bulletin</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
     <t>WhereValue</t>
   </si>
   <si>
@@ -774,33 +804,6 @@
     <t>perimeter</t>
   </si>
   <si>
-    <t>SearchValue</t>
-  </si>
-  <si>
-    <t>cve</t>
-  </si>
-  <si>
-    <t>patch</t>
-  </si>
-  <si>
-    <t>vendor-bulletin</t>
-  </si>
-  <si>
-    <t>signature</t>
-  </si>
-  <si>
-    <t>DeviceID</t>
-  </si>
-  <si>
-    <t>Device Identifier of the command issuer</t>
-  </si>
-  <si>
-    <t>CommandID</t>
-  </si>
-  <si>
-    <t>Command unique identifier</t>
-  </si>
-  <si>
     <t>StatusCode</t>
   </si>
   <si>
@@ -1026,7 +1029,7 @@
     <t>results = JAEN syntax of supported commands</t>
   </si>
   <si>
-    <t>actuators</t>
+    <t>actuator_groups</t>
   </si>
   <si>
     <t>results = JSON array of actuator group names</t>
@@ -1573,6 +1576,144 @@
   </si>
   <si>
     <t>windows-registry-key</t>
+  </si>
+  <si>
+    <t>key (required)</t>
+  </si>
+  <si>
+    <t>Full registry key including the hive.</t>
+  </si>
+  <si>
+    <t>values (optional)</t>
+  </si>
+  <si>
+    <t>windows-registry-values (Array)</t>
+  </si>
+  <si>
+    <t>Values found under the registry key.</t>
+  </si>
+  <si>
+    <t>Last date-time the registry key was modified.</t>
+  </si>
+  <si>
+    <t>creator_user (optional)</t>
+  </si>
+  <si>
+    <t>User account that created the registry key</t>
+  </si>
+  <si>
+    <t>number_of_subkeys (optional)</t>
+  </si>
+  <si>
+    <t>Number of subkeys contained under the registry key</t>
+  </si>
+  <si>
+    <t>windows-registry-values</t>
+  </si>
+  <si>
+    <t>windows-registry-value (Record)</t>
+  </si>
+  <si>
+    <t>windows-registry-value</t>
+  </si>
+  <si>
+    <t>Name of the registry value.  Empty string specifies the default value.</t>
+  </si>
+  <si>
+    <t>data (optional)</t>
+  </si>
+  <si>
+    <t>Data contained in the registry key.</t>
+  </si>
+  <si>
+    <t>data_type (optional)</t>
+  </si>
+  <si>
+    <t>windows-registry-datatype-enum (vocab)</t>
+  </si>
+  <si>
+    <t>Registry data type used in the registry value.</t>
+  </si>
+  <si>
+    <t>windows-registry-datatype-enum</t>
+  </si>
+  <si>
+    <t>REG_NONE</t>
+  </si>
+  <si>
+    <t>No defined value type.</t>
+  </si>
+  <si>
+    <t>REG_SZ</t>
+  </si>
+  <si>
+    <t>A null-terminated string.</t>
+  </si>
+  <si>
+    <t>REG_EXPAND_SZ</t>
+  </si>
+  <si>
+    <t>A null-terminated string with unexpanded references to environment variables.</t>
+  </si>
+  <si>
+    <t>REG_BINARY</t>
+  </si>
+  <si>
+    <t>Binary data in any form.</t>
+  </si>
+  <si>
+    <t>REG_DWORD</t>
+  </si>
+  <si>
+    <t>A 32 bit number.</t>
+  </si>
+  <si>
+    <t>REG_DWORD_BIG_ENDIAN</t>
+  </si>
+  <si>
+    <t>A 32 bit number in big-endian format.</t>
+  </si>
+  <si>
+    <t>REG_LINK</t>
+  </si>
+  <si>
+    <t>A null-terminated string that contains the target path of a symbolic link.</t>
+  </si>
+  <si>
+    <t>REG_MULTI_SZ</t>
+  </si>
+  <si>
+    <t>A sequence of null-terminated strings, terminated by an empty string (\0).</t>
+  </si>
+  <si>
+    <t>REG_RESOURCE_LIST</t>
+  </si>
+  <si>
+    <t>A series of nested lists designed to store a resource list used by a hardware device driver.</t>
+  </si>
+  <si>
+    <t>REG_FULL_RESOURCE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>A series of nested lists designed to store a resource list used by a physical hardware device.</t>
+  </si>
+  <si>
+    <t>REG_RESOURCE_REQUIREMENTS_LIST</t>
+  </si>
+  <si>
+    <t>Device driver list of hardware resource requirements in Resource Map tree.</t>
+  </si>
+  <si>
+    <t>REG_QWORD</t>
+  </si>
+  <si>
+    <t>A 64 bit number.</t>
+  </si>
+  <si>
+    <t>REG_INVALID_TYPE</t>
+  </si>
+  <si>
+    <t>An invalid key.</t>
   </si>
   <si>
     <t>x509-certificate</t>
@@ -2059,7 +2200,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E425"/>
+  <dimension ref="A2:E445"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3600,34 +3741,34 @@
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
     </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B151" s="5" t="s">
+    <row r="149" spans="1:5">
+      <c r="A149" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="4" t="s">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>214</v>
+        <v>49</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -3635,7 +3776,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="4" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>215</v>
@@ -3644,772 +3785,771 @@
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
     </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
+    <row r="155" spans="1:5">
+      <c r="A155" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
     </row>
-    <row r="161" spans="1:5">
-      <c r="B161" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="B162" s="8">
-        <v>1</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>222</v>
-      </c>
+    <row r="160" spans="1:5">
+      <c r="A160" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="B163" s="8">
-        <v>2</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E163" s="8" t="s">
+      <c r="A163" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="5" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="B164" s="8">
-        <v>3</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="B165" s="8">
-        <v>4</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E165" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="B166" s="8">
-        <v>5</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>230</v>
-      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="4" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
+    <row r="172" spans="1:5">
+      <c r="B172" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="B173" s="8">
+        <v>1</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
+      <c r="B174" s="8">
+        <v>2</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
+      <c r="B175" s="8">
+        <v>3</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
+      <c r="B176" s="8">
+        <v>4</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="B177" s="8">
+        <v>5</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>275</v>
+        <v>49</v>
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
     </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B184" s="5" t="s">
+    <row r="182" spans="1:5">
+      <c r="A182" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>277</v>
+        <v>49</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
     </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B189" s="5" t="s">
+    <row r="187" spans="1:5">
+      <c r="A187" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B191" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="B192" s="7" t="s">
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C193" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="D193" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E192" s="7" t="s">
+      <c r="E193" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5">
-      <c r="B193" s="8">
-        <v>1</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="194" spans="2:5">
       <c r="B194" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E194" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="195" spans="2:5">
       <c r="B195" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C195" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E195" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E195" s="8" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="196" spans="2:5">
       <c r="B196" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C196" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E196" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E196" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="197" spans="2:5">
       <c r="B197" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C197" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E197" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E197" s="8" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="198" spans="2:5">
       <c r="B198" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E198" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="199" spans="2:5">
       <c r="B199" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E199" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E199" s="8" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="200" spans="2:5">
       <c r="B200" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E200" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="201" spans="2:5">
       <c r="B201" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C201" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E201" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E201" s="8" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="202" spans="2:5">
       <c r="B202" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C202" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E202" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E202" s="8" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="203" spans="2:5">
       <c r="B203" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C203" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E203" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="D203" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E203" s="8" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="204" spans="2:5">
       <c r="B204" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C204" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E204" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="205" spans="2:5">
       <c r="B205" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C205" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E205" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E205" s="8" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="206" spans="2:5">
       <c r="B206" s="8">
+        <v>13</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5">
+      <c r="B207" s="8">
         <v>14</v>
       </c>
-      <c r="C206" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E206" s="8" t="s">
+      <c r="C207" s="8" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
+      <c r="D207" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B211" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="B212" s="7" t="s">
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="B213" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C212" s="7" t="s">
+      <c r="C213" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D212" s="7" t="s">
+      <c r="D213" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E212" s="7" t="s">
+      <c r="E213" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="B213" s="8">
-        <v>1</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E213" s="8" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="B214" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D214" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="B215" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C215" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E215" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E215" s="8" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="B216" s="8">
+        <v>3</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="B217" s="8">
         <v>4</v>
       </c>
-      <c r="C216" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="D216" s="8" t="s">
+      <c r="C217" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E216" s="8" t="s">
+      <c r="D217" s="8" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B219" s="5" t="s">
+      <c r="E217" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B221" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C220" s="6"/>
-      <c r="D220" s="6"/>
-      <c r="E220" s="6"/>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="B222" s="7" t="s">
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="B223" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C223" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D222" s="7" t="s">
+      <c r="D223" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E222" s="7" t="s">
+      <c r="E223" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="B223" s="8">
-        <v>1</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="E223" s="8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="B224" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>49</v>
+        <v>321</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
-      <c r="A227" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B227" s="5" t="s">
+    <row r="225" spans="1:5">
+      <c r="B225" s="8">
+        <v>2</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E225" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C227" s="5"/>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B229" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C228" s="6"/>
-      <c r="D228" s="6"/>
-      <c r="E228" s="6"/>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="B230" s="7" t="s">
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="B231" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C231" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D230" s="7" t="s">
+      <c r="D231" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E230" s="7" t="s">
+      <c r="E231" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="B231" s="8">
-        <v>1</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E231" s="8" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="B232" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E232" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E232" s="8" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="B233" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D233" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E233" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="B234" s="8">
+        <v>3</v>
+      </c>
+      <c r="C234" s="8" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C236" s="5"/>
-      <c r="D236" s="5"/>
-      <c r="E236" s="5"/>
+      <c r="D234" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E234" s="8" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B238" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
-      <c r="E237" s="6"/>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="B239" s="7" t="s">
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="B240" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C240" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D239" s="7" t="s">
+      <c r="D240" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E239" s="7" t="s">
+      <c r="E240" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="B240" s="8">
-        <v>1</v>
-      </c>
-      <c r="C240" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E240" s="8"/>
     </row>
     <row r="241" spans="1:5">
       <c r="B241" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>339</v>
@@ -4421,7 +4561,7 @@
     </row>
     <row r="242" spans="1:5">
       <c r="B242" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>340</v>
@@ -4433,7 +4573,7 @@
     </row>
     <row r="243" spans="1:5">
       <c r="B243" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>341</v>
@@ -4445,7 +4585,7 @@
     </row>
     <row r="244" spans="1:5">
       <c r="B244" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>342</v>
@@ -4457,7 +4597,7 @@
     </row>
     <row r="245" spans="1:5">
       <c r="B245" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245" s="8" t="s">
         <v>343</v>
@@ -4469,7 +4609,7 @@
     </row>
     <row r="246" spans="1:5">
       <c r="B246" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>344</v>
@@ -4479,1287 +4619,1285 @@
       </c>
       <c r="E246" s="8"/>
     </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C249" s="5"/>
-      <c r="D249" s="5"/>
-      <c r="E249" s="5"/>
+    <row r="247" spans="1:5">
+      <c r="B247" s="8">
+        <v>7</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E247" s="8"/>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B251" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C250" s="6"/>
-      <c r="D250" s="6"/>
-      <c r="E250" s="6"/>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="B252" s="7" t="s">
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="B253" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C252" s="7" t="s">
+      <c r="C253" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D252" s="7" t="s">
+      <c r="D253" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E252" s="7" t="s">
+      <c r="E253" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="B253" s="8">
-        <v>1</v>
-      </c>
-      <c r="C253" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="D253" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E253" s="8" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="B254" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D254" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="B255" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C255" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D255" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E255" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="D255" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E255" s="8" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="B256" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D256" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="B257" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D257" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="B258" s="8">
+        <v>5</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E258" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="B259" s="8">
         <v>6</v>
       </c>
-      <c r="C258" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D258" s="8" t="s">
+      <c r="C259" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="E258" s="8" t="s">
+      <c r="D259" s="8" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B261" s="5" t="s">
+      <c r="E259" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C261" s="5"/>
-      <c r="D261" s="5"/>
-      <c r="E261" s="5"/>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B262" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="B263" s="8">
+      <c r="B263" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C263" s="6"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="B264" s="8">
         <v>0</v>
       </c>
-      <c r="C263" s="8"/>
-      <c r="D263" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="E263" s="8"/>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B266" s="5" t="s">
+      <c r="C264" s="8"/>
+      <c r="D264" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C266" s="5"/>
-      <c r="D266" s="5"/>
-      <c r="E266" s="5"/>
+      <c r="E264" s="8"/>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="B268" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C267" s="6"/>
-      <c r="D267" s="6"/>
-      <c r="E267" s="6"/>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="B269" s="7" t="s">
+      <c r="C268" s="6"/>
+      <c r="D268" s="6"/>
+      <c r="E268" s="6"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="B270" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C269" s="7" t="s">
+      <c r="C270" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D269" s="7" t="s">
+      <c r="D270" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E269" s="7" t="s">
+      <c r="E270" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="B270" s="8">
-        <v>1</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D270" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E270" s="8"/>
     </row>
     <row r="271" spans="1:5">
       <c r="B271" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>363</v>
       </c>
       <c r="D271" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E271" s="8"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="B272" s="8">
+        <v>2</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D272" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E271" s="8"/>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C274" s="5"/>
-      <c r="D274" s="5"/>
-      <c r="E274" s="5"/>
+      <c r="E272" s="8"/>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B276" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C275" s="6"/>
-      <c r="D275" s="6"/>
-      <c r="E275" s="6"/>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="B277" s="7" t="s">
+      <c r="C276" s="6"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="B278" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C277" s="7" t="s">
+      <c r="C278" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D277" s="7" t="s">
+      <c r="D278" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E277" s="7" t="s">
+      <c r="E278" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="B278" s="8">
-        <v>1</v>
-      </c>
-      <c r="C278" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D278" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E278" s="8" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="B279" s="8">
+        <v>1</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D279" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E279" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="B280" s="8">
         <v>2</v>
       </c>
-      <c r="C279" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="D279" s="8" t="s">
+      <c r="C280" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E279" s="8" t="s">
+      <c r="D280" s="8" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B282" s="5" t="s">
+      <c r="E280" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C282" s="5"/>
-      <c r="D282" s="5"/>
-      <c r="E282" s="5"/>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C283" s="6"/>
-      <c r="D283" s="6"/>
-      <c r="E283" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
     </row>
     <row r="285" spans="1:5">
-      <c r="B285" s="8">
+      <c r="A285" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C285" s="6"/>
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="B286" s="8">
         <v>0</v>
       </c>
-      <c r="C285" s="8"/>
-      <c r="D285" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E285" s="8"/>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="A288" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B288" s="5" t="s">
+      <c r="C286" s="8"/>
+      <c r="D286" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C288" s="5"/>
-      <c r="D288" s="5"/>
-      <c r="E288" s="5"/>
+      <c r="E286" s="8"/>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="5"/>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="B290" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C289" s="6"/>
-      <c r="D289" s="6"/>
-      <c r="E289" s="6"/>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="B291" s="7" t="s">
+      <c r="C290" s="6"/>
+      <c r="D290" s="6"/>
+      <c r="E290" s="6"/>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="B292" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C291" s="7" t="s">
+      <c r="C292" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D291" s="7" t="s">
+      <c r="D292" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E291" s="7" t="s">
+      <c r="E292" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="B292" s="8">
-        <v>1</v>
-      </c>
-      <c r="C292" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D292" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E292" s="8"/>
     </row>
     <row r="293" spans="1:5">
       <c r="B293" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C293" s="8" t="s">
         <v>374</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E293" s="8"/>
     </row>
     <row r="294" spans="1:5">
       <c r="B294" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C294" s="8" t="s">
         <v>375</v>
       </c>
       <c r="D294" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E294" s="8"/>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="B295" s="8">
+        <v>3</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D295" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E294" s="8"/>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="A297" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B297" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C297" s="5"/>
-      <c r="D297" s="5"/>
-      <c r="E297" s="5"/>
+      <c r="E295" s="8"/>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B299" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C298" s="6"/>
-      <c r="D298" s="6"/>
-      <c r="E298" s="6"/>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="B300" s="7" t="s">
+      <c r="C299" s="6"/>
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="B301" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C300" s="7" t="s">
+      <c r="C301" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D300" s="7" t="s">
+      <c r="D301" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E300" s="7" t="s">
+      <c r="E301" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
-      <c r="B301" s="8">
-        <v>1</v>
-      </c>
-      <c r="C301" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D301" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E301" s="8" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="B302" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D302" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="B303" s="8">
+        <v>2</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D303" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E303" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="B304" s="8">
         <v>3</v>
       </c>
-      <c r="C303" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="D303" s="8" t="s">
+      <c r="C304" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D304" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E303" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
-      <c r="A306" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B306" s="5" t="s">
+      <c r="E304" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C306" s="5"/>
-      <c r="D306" s="5"/>
-      <c r="E306" s="5"/>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C307" s="6"/>
-      <c r="D307" s="6"/>
-      <c r="E307" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>383</v>
+        <v>29</v>
       </c>
       <c r="C308" s="6"/>
       <c r="D308" s="6"/>
       <c r="E308" s="6"/>
     </row>
-    <row r="310" spans="1:5">
-      <c r="B310" s="7" t="s">
+    <row r="309" spans="1:5">
+      <c r="A309" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C309" s="6"/>
+      <c r="D309" s="6"/>
+      <c r="E309" s="6"/>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="B311" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C310" s="7" t="s">
+      <c r="C311" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D310" s="7" t="s">
+      <c r="D311" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E310" s="7" t="s">
+      <c r="E311" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="A313" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B313" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C313" s="5"/>
-      <c r="D313" s="5"/>
-      <c r="E313" s="5"/>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B314" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C314" s="6"/>
-      <c r="D314" s="6"/>
-      <c r="E314" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="5"/>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>383</v>
+        <v>29</v>
       </c>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
     </row>
-    <row r="317" spans="1:5">
-      <c r="B317" s="7" t="s">
+    <row r="316" spans="1:5">
+      <c r="A316" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C316" s="6"/>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="B318" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C317" s="7" t="s">
+      <c r="C318" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D317" s="7" t="s">
+      <c r="D318" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E317" s="7" t="s">
+      <c r="E318" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B320" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="C320" s="5"/>
-      <c r="D320" s="5"/>
-      <c r="E320" s="5"/>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B321" s="6" t="s">
+      <c r="B322" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C321" s="6"/>
-      <c r="D321" s="6"/>
-      <c r="E321" s="6"/>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="B323" s="7" t="s">
+      <c r="C322" s="6"/>
+      <c r="D322" s="6"/>
+      <c r="E322" s="6"/>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="B324" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="7" t="s">
+      <c r="C324" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D323" s="7" t="s">
+      <c r="D324" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E323" s="7" t="s">
+      <c r="E324" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="B324" s="8">
-        <v>1</v>
-      </c>
-      <c r="C324" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D324" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E324" s="8" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="B325" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C325" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D325" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E325" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="D325" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="E325" s="8" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="B326" s="8">
+        <v>2</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D326" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E326" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="B327" s="8">
         <v>3</v>
       </c>
-      <c r="C326" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="D326" s="8" t="s">
+      <c r="C327" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="E326" s="8" t="s">
+      <c r="D327" s="8" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B329" s="5" t="s">
+      <c r="E327" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C329" s="5"/>
-      <c r="D329" s="5"/>
-      <c r="E329" s="5"/>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C330" s="5"/>
+      <c r="D330" s="5"/>
+      <c r="E330" s="5"/>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B330" s="6" t="s">
+      <c r="B331" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C330" s="6"/>
-      <c r="D330" s="6"/>
-      <c r="E330" s="6"/>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="B332" s="7" t="s">
+      <c r="C331" s="6"/>
+      <c r="D331" s="6"/>
+      <c r="E331" s="6"/>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="B333" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C332" s="7" t="s">
+      <c r="C333" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D332" s="7" t="s">
+      <c r="D333" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E332" s="7" t="s">
+      <c r="E333" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="B333" s="8">
-        <v>1</v>
-      </c>
-      <c r="C333" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D333" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E333" s="8" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="B334" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C334" s="8" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>387</v>
+        <v>49</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="B335" s="8">
+        <v>2</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D335" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E335" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="B336" s="8">
         <v>3</v>
       </c>
-      <c r="C335" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="D335" s="8" t="s">
+      <c r="C336" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="E335" s="8" t="s">
+      <c r="D336" s="8" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="338" spans="1:5">
-      <c r="A338" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C338" s="5"/>
-      <c r="D338" s="5"/>
-      <c r="E338" s="5"/>
+      <c r="E336" s="8" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C339" s="5"/>
+      <c r="D339" s="5"/>
+      <c r="E339" s="5"/>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B339" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C339" s="6"/>
-      <c r="D339" s="6"/>
-      <c r="E339" s="6"/>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="B340" s="8">
+      <c r="B340" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C340" s="6"/>
+      <c r="D340" s="6"/>
+      <c r="E340" s="6"/>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="B341" s="8">
         <v>0</v>
       </c>
-      <c r="C340" s="8"/>
-      <c r="D340" s="8" t="s">
+      <c r="C341" s="8"/>
+      <c r="D341" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E340" s="8"/>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="A343" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B343" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C343" s="5"/>
-      <c r="D343" s="5"/>
-      <c r="E343" s="5"/>
+      <c r="E341" s="8"/>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B344" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C344" s="6"/>
-      <c r="D344" s="6"/>
-      <c r="E344" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C344" s="5"/>
+      <c r="D344" s="5"/>
+      <c r="E344" s="5"/>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>396</v>
+        <v>49</v>
       </c>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
     </row>
-    <row r="348" spans="1:5">
-      <c r="A348" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B348" s="5" t="s">
+    <row r="346" spans="1:5">
+      <c r="A346" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B346" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C348" s="5"/>
-      <c r="D348" s="5"/>
-      <c r="E348" s="5"/>
+      <c r="C346" s="6"/>
+      <c r="D346" s="6"/>
+      <c r="E346" s="6"/>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C349" s="5"/>
+      <c r="D349" s="5"/>
+      <c r="E349" s="5"/>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B349" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C349" s="6"/>
-      <c r="D349" s="6"/>
-      <c r="E349" s="6"/>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="B350" s="8">
+      <c r="B350" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C350" s="6"/>
+      <c r="D350" s="6"/>
+      <c r="E350" s="6"/>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="B351" s="8">
         <v>0</v>
       </c>
-      <c r="C350" s="8"/>
-      <c r="D350" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="E350" s="8"/>
-    </row>
-    <row r="353" spans="1:5">
-      <c r="A353" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B353" s="5" t="s">
+      <c r="C351" s="8"/>
+      <c r="D351" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C353" s="5"/>
-      <c r="D353" s="5"/>
-      <c r="E353" s="5"/>
+      <c r="E351" s="8"/>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B354" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C354" s="6"/>
-      <c r="D354" s="6"/>
-      <c r="E354" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C354" s="5"/>
+      <c r="D354" s="5"/>
+      <c r="E354" s="5"/>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>400</v>
+        <v>29</v>
       </c>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
     </row>
-    <row r="357" spans="1:5">
-      <c r="B357" s="7" t="s">
+    <row r="356" spans="1:5">
+      <c r="A356" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C356" s="6"/>
+      <c r="D356" s="6"/>
+      <c r="E356" s="6"/>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="B358" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C357" s="7" t="s">
+      <c r="C358" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D357" s="7" t="s">
+      <c r="D358" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E357" s="7" t="s">
+      <c r="E358" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
-      <c r="B358" s="8">
-        <v>1</v>
-      </c>
-      <c r="C358" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="D358" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E358" s="8" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="B359" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C359" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D359" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E359" s="8" t="s">
         <v>403</v>
-      </c>
-      <c r="D359" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="E359" s="8" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="B360" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C360" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D360" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E360" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="D360" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E360" s="8" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="B361" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C361" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D361" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E361" s="8" t="s">
         <v>408</v>
-      </c>
-      <c r="D361" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="E361" s="8" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="B362" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C362" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D362" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E362" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="D362" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="E362" s="8" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="B363" s="8">
+        <v>5</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D363" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E363" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="B364" s="8">
         <v>6</v>
       </c>
-      <c r="C363" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="D363" s="8" t="s">
+      <c r="C364" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="E363" s="8" t="s">
+      <c r="D364" s="8" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="366" spans="1:5">
-      <c r="A366" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B366" s="5" t="s">
+      <c r="E364" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C366" s="5"/>
-      <c r="D366" s="5"/>
-      <c r="E366" s="5"/>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B367" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C367" s="6"/>
-      <c r="D367" s="6"/>
-      <c r="E367" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C367" s="5"/>
+      <c r="D367" s="5"/>
+      <c r="E367" s="5"/>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>417</v>
+        <v>17</v>
       </c>
       <c r="C368" s="6"/>
       <c r="D368" s="6"/>
       <c r="E368" s="6"/>
     </row>
-    <row r="370" spans="1:5">
-      <c r="B370" s="7" t="s">
+    <row r="369" spans="1:5">
+      <c r="A369" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C369" s="6"/>
+      <c r="D369" s="6"/>
+      <c r="E369" s="6"/>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="B371" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C370" s="7" t="s">
+      <c r="C371" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D370" s="7" t="s">
+      <c r="D371" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E370" s="7" t="s">
+      <c r="E371" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
-      <c r="B371" s="8">
-        <v>1</v>
-      </c>
-      <c r="C371" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="D371" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E371" s="8" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="B372" s="8">
+        <v>1</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D372" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E372" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="B373" s="8">
         <v>2</v>
       </c>
-      <c r="C372" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D372" s="8" t="s">
+      <c r="C373" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="E372" s="8" t="s">
+      <c r="D373" s="8" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="375" spans="1:5">
-      <c r="A375" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B375" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C375" s="5"/>
-      <c r="D375" s="5"/>
-      <c r="E375" s="5"/>
+      <c r="E373" s="8" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C376" s="5"/>
+      <c r="D376" s="5"/>
+      <c r="E376" s="5"/>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B376" s="6" t="s">
+      <c r="B377" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C376" s="6"/>
-      <c r="D376" s="6"/>
-      <c r="E376" s="6"/>
-    </row>
-    <row r="378" spans="1:5">
-      <c r="B378" s="7" t="s">
+      <c r="C377" s="6"/>
+      <c r="D377" s="6"/>
+      <c r="E377" s="6"/>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="B379" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="7" t="s">
+      <c r="C379" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D378" s="7" t="s">
+      <c r="D379" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E378" s="7" t="s">
+      <c r="E379" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="A381" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B381" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C381" s="5"/>
-      <c r="D381" s="5"/>
-      <c r="E381" s="5"/>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C382" s="5"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="5"/>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B382" s="6" t="s">
+      <c r="B383" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C382" s="6"/>
-      <c r="D382" s="6"/>
-      <c r="E382" s="6"/>
-    </row>
-    <row r="384" spans="1:5">
-      <c r="B384" s="7" t="s">
+      <c r="C383" s="6"/>
+      <c r="D383" s="6"/>
+      <c r="E383" s="6"/>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="B385" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C384" s="7" t="s">
+      <c r="C385" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D384" s="7" t="s">
+      <c r="D385" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E384" s="7" t="s">
+      <c r="E385" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
-      <c r="B385" s="8">
-        <v>1</v>
-      </c>
-      <c r="C385" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="D385" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E385" s="8" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="386" spans="1:5">
       <c r="B386" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D386" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E386" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="B387" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D387" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E387" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="388" spans="1:5">
       <c r="B388" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D388" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E388" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="389" spans="1:5">
       <c r="B389" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D389" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E389" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="B390" s="8">
+        <v>5</v>
+      </c>
+      <c r="C390" s="8" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="392" spans="1:5">
-      <c r="A392" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B392" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C392" s="5"/>
-      <c r="D392" s="5"/>
-      <c r="E392" s="5"/>
+      <c r="D390" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E390" s="8" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B393" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C393" s="6"/>
-      <c r="D393" s="6"/>
-      <c r="E393" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C393" s="5"/>
+      <c r="D393" s="5"/>
+      <c r="E393" s="5"/>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>467</v>
+        <v>49</v>
       </c>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
       <c r="E394" s="6"/>
     </row>
-    <row r="397" spans="1:5">
-      <c r="A397" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B397" s="5" t="s">
+    <row r="395" spans="1:5">
+      <c r="A395" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B395" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C397" s="5"/>
-      <c r="D397" s="5"/>
-      <c r="E397" s="5"/>
+      <c r="C395" s="6"/>
+      <c r="D395" s="6"/>
+      <c r="E395" s="6"/>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C398" s="5"/>
+      <c r="D398" s="5"/>
+      <c r="E398" s="5"/>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B398" s="6" t="s">
+      <c r="B399" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C398" s="6"/>
-      <c r="D398" s="6"/>
-      <c r="E398" s="6"/>
-    </row>
-    <row r="400" spans="1:5">
-      <c r="B400" s="7" t="s">
+      <c r="C399" s="6"/>
+      <c r="D399" s="6"/>
+      <c r="E399" s="6"/>
+    </row>
+    <row r="401" spans="2:5">
+      <c r="B401" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C400" s="7" t="s">
+      <c r="C401" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D400" s="7" t="s">
+      <c r="D401" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E400" s="7" t="s">
+      <c r="E401" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
-      <c r="B401" s="8">
+    <row r="402" spans="2:5">
+      <c r="B402" s="8">
         <v>1</v>
       </c>
-      <c r="C401" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="D401" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E401" s="8" t="s">
+      <c r="C402" s="8" t="s">
         <v>470</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
-      <c r="B402" s="8">
-        <v>2</v>
-      </c>
-      <c r="C402" s="8" t="s">
-        <v>471</v>
       </c>
       <c r="D402" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E402" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="403" spans="2:5">
+      <c r="B403" s="8">
+        <v>2</v>
+      </c>
+      <c r="C403" s="8" t="s">
         <v>472</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
-      <c r="B403" s="8">
-        <v>3</v>
-      </c>
-      <c r="C403" s="8" t="s">
-        <v>473</v>
       </c>
       <c r="D403" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E403" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="404" spans="2:5">
+      <c r="B404" s="8">
+        <v>3</v>
+      </c>
+      <c r="C404" s="8" t="s">
         <v>474</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
-      <c r="B404" s="8">
-        <v>4</v>
-      </c>
-      <c r="C404" s="8" t="s">
-        <v>378</v>
       </c>
       <c r="D404" s="8" t="s">
         <v>49</v>
@@ -5768,206 +5906,400 @@
         <v>475</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="2:5">
       <c r="B405" s="8">
+        <v>4</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D405" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E405" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="406" spans="2:5">
+      <c r="B406" s="8">
         <v>5</v>
       </c>
-      <c r="C405" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="D405" s="8" t="s">
+      <c r="C406" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="E405" s="8" t="s">
+      <c r="D406" s="8" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="406" spans="1:5">
-      <c r="B406" s="8">
+      <c r="E406" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="407" spans="2:5">
+      <c r="B407" s="8">
         <v>6</v>
       </c>
-      <c r="C406" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D406" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="E406" s="8" t="s">
+      <c r="C407" s="8" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="407" spans="1:5">
-      <c r="B407" s="8">
+      <c r="D407" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E407" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="408" spans="2:5">
+      <c r="B408" s="8">
         <v>7</v>
       </c>
-      <c r="C407" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="D407" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="E407" s="8" t="s">
+      <c r="C408" s="8" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="B408" s="8">
+      <c r="D408" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E408" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="409" spans="2:5">
+      <c r="B409" s="8">
         <v>8</v>
       </c>
-      <c r="C408" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="D408" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="E408" s="8" t="s">
+      <c r="C409" s="8" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="409" spans="1:5">
-      <c r="B409" s="8">
+      <c r="D409" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E409" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="410" spans="2:5">
+      <c r="B410" s="8">
         <v>9</v>
       </c>
-      <c r="C409" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="D409" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E409" s="8" t="s">
+      <c r="C410" s="8" t="s">
         <v>486</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
-      <c r="B410" s="8">
-        <v>10</v>
-      </c>
-      <c r="C410" s="8" t="s">
-        <v>487</v>
       </c>
       <c r="D410" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E410" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="411" spans="2:5">
+      <c r="B411" s="8">
+        <v>10</v>
+      </c>
+      <c r="C411" s="8" t="s">
         <v>488</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
-      <c r="B411" s="8">
-        <v>11</v>
-      </c>
-      <c r="C411" s="8" t="s">
-        <v>489</v>
       </c>
       <c r="D411" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E411" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="412" spans="2:5">
+      <c r="B412" s="8">
+        <v>11</v>
+      </c>
+      <c r="C412" s="8" t="s">
         <v>490</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
-      <c r="B412" s="8">
-        <v>12</v>
-      </c>
-      <c r="C412" s="8" t="s">
-        <v>491</v>
       </c>
       <c r="D412" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E412" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="413" spans="2:5">
+      <c r="B413" s="8">
+        <v>12</v>
+      </c>
+      <c r="C413" s="8" t="s">
         <v>492</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
-      <c r="B413" s="8">
-        <v>13</v>
-      </c>
-      <c r="C413" s="8" t="s">
-        <v>493</v>
       </c>
       <c r="D413" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E413" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="414" spans="2:5">
+      <c r="B414" s="8">
+        <v>13</v>
+      </c>
+      <c r="C414" s="8" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="416" spans="1:5">
-      <c r="A416" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B416" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="C416" s="5"/>
-      <c r="D416" s="5"/>
-      <c r="E416" s="5"/>
+      <c r="D414" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E414" s="8" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C417" s="5"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="5"/>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B417" s="6" t="s">
+      <c r="B418" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C417" s="6"/>
-      <c r="D417" s="6"/>
-      <c r="E417" s="6"/>
-    </row>
-    <row r="419" spans="1:5">
-      <c r="B419" s="7" t="s">
+      <c r="C418" s="6"/>
+      <c r="D418" s="6"/>
+      <c r="E418" s="6"/>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="B420" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C419" s="7" t="s">
+      <c r="C420" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D419" s="7" t="s">
+      <c r="D420" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E419" s="7" t="s">
+      <c r="E420" s="7" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="421" spans="1:5">
+      <c r="B421" s="8">
+        <v>1</v>
+      </c>
+      <c r="C421" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="D421" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E421" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
     <row r="422" spans="1:5">
-      <c r="A422" s="4" t="s">
+      <c r="B422" s="8">
+        <v>2</v>
+      </c>
+      <c r="C422" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="D422" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="E422" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="B423" s="8">
+        <v>3</v>
+      </c>
+      <c r="C423" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D423" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E423" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="B424" s="8">
+        <v>4</v>
+      </c>
+      <c r="C424" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="D424" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E424" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="B425" s="8">
+        <v>5</v>
+      </c>
+      <c r="C425" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D425" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E425" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B422" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="C422" s="5"/>
-      <c r="D422" s="5"/>
-      <c r="E422" s="5"/>
-    </row>
-    <row r="423" spans="1:5">
-      <c r="A423" s="4" t="s">
+      <c r="B428" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C428" s="5"/>
+      <c r="D428" s="5"/>
+      <c r="E428" s="5"/>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B423" s="6" t="s">
+      <c r="B429" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C429" s="6"/>
+      <c r="D429" s="6"/>
+      <c r="E429" s="6"/>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="B430" s="8">
+        <v>0</v>
+      </c>
+      <c r="C430" s="8"/>
+      <c r="D430" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="E430" s="8"/>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C433" s="5"/>
+      <c r="D433" s="5"/>
+      <c r="E433" s="5"/>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B434" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C423" s="6"/>
-      <c r="D423" s="6"/>
-      <c r="E423" s="6"/>
-    </row>
-    <row r="425" spans="1:5">
-      <c r="B425" s="7" t="s">
+      <c r="C434" s="6"/>
+      <c r="D434" s="6"/>
+      <c r="E434" s="6"/>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="B436" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C425" s="7" t="s">
+      <c r="C436" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D425" s="7" t="s">
+      <c r="D436" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E425" s="7" t="s">
+      <c r="E436" s="7" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="437" spans="1:5">
+      <c r="B437" s="8">
+        <v>1</v>
+      </c>
+      <c r="C437" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D437" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E437" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="B438" s="8">
+        <v>2</v>
+      </c>
+      <c r="C438" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="D438" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E438" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="B439" s="8">
+        <v>3</v>
+      </c>
+      <c r="C439" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="D439" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E439" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C442" s="5"/>
+      <c r="D442" s="5"/>
+      <c r="E442" s="5"/>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C443" s="6"/>
+      <c r="D443" s="6"/>
+      <c r="E443" s="6"/>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="B445" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C445" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D445" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E445" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="105">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B11:E11"/>
@@ -5988,86 +6320,91 @@
     <mergeCell ref="B146:E146"/>
     <mergeCell ref="B147:E147"/>
     <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B149:E149"/>
     <mergeCell ref="B152:E152"/>
     <mergeCell ref="B153:E153"/>
     <mergeCell ref="B154:E154"/>
-    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="B155:E155"/>
     <mergeCell ref="B158:E158"/>
     <mergeCell ref="B159:E159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="B168:E168"/>
     <mergeCell ref="B169:E169"/>
     <mergeCell ref="B170:E170"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B179:E179"/>
     <mergeCell ref="B180:E180"/>
     <mergeCell ref="B181:E181"/>
-    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="B182:E182"/>
     <mergeCell ref="B185:E185"/>
     <mergeCell ref="B186:E186"/>
-    <mergeCell ref="B189:E189"/>
+    <mergeCell ref="B187:E187"/>
     <mergeCell ref="B190:E190"/>
-    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B191:E191"/>
     <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B211:E211"/>
     <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="B221:E221"/>
     <mergeCell ref="B228:E228"/>
-    <mergeCell ref="B236:E236"/>
+    <mergeCell ref="B229:E229"/>
     <mergeCell ref="B237:E237"/>
-    <mergeCell ref="B249:E249"/>
+    <mergeCell ref="B238:E238"/>
     <mergeCell ref="B250:E250"/>
-    <mergeCell ref="B261:E261"/>
+    <mergeCell ref="B251:E251"/>
     <mergeCell ref="B262:E262"/>
-    <mergeCell ref="B266:E266"/>
+    <mergeCell ref="B263:E263"/>
     <mergeCell ref="B267:E267"/>
-    <mergeCell ref="B274:E274"/>
+    <mergeCell ref="B268:E268"/>
     <mergeCell ref="B275:E275"/>
-    <mergeCell ref="B282:E282"/>
+    <mergeCell ref="B276:E276"/>
     <mergeCell ref="B283:E283"/>
     <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B288:E288"/>
+    <mergeCell ref="B285:E285"/>
     <mergeCell ref="B289:E289"/>
-    <mergeCell ref="B297:E297"/>
+    <mergeCell ref="B290:E290"/>
     <mergeCell ref="B298:E298"/>
-    <mergeCell ref="B306:E306"/>
+    <mergeCell ref="B299:E299"/>
     <mergeCell ref="B307:E307"/>
     <mergeCell ref="B308:E308"/>
-    <mergeCell ref="B313:E313"/>
+    <mergeCell ref="B309:E309"/>
     <mergeCell ref="B314:E314"/>
     <mergeCell ref="B315:E315"/>
-    <mergeCell ref="B320:E320"/>
+    <mergeCell ref="B316:E316"/>
     <mergeCell ref="B321:E321"/>
-    <mergeCell ref="B329:E329"/>
+    <mergeCell ref="B322:E322"/>
     <mergeCell ref="B330:E330"/>
-    <mergeCell ref="B338:E338"/>
+    <mergeCell ref="B331:E331"/>
     <mergeCell ref="B339:E339"/>
-    <mergeCell ref="B343:E343"/>
+    <mergeCell ref="B340:E340"/>
     <mergeCell ref="B344:E344"/>
     <mergeCell ref="B345:E345"/>
-    <mergeCell ref="B348:E348"/>
+    <mergeCell ref="B346:E346"/>
     <mergeCell ref="B349:E349"/>
-    <mergeCell ref="B353:E353"/>
+    <mergeCell ref="B350:E350"/>
     <mergeCell ref="B354:E354"/>
     <mergeCell ref="B355:E355"/>
-    <mergeCell ref="B366:E366"/>
+    <mergeCell ref="B356:E356"/>
     <mergeCell ref="B367:E367"/>
     <mergeCell ref="B368:E368"/>
-    <mergeCell ref="B375:E375"/>
+    <mergeCell ref="B369:E369"/>
     <mergeCell ref="B376:E376"/>
-    <mergeCell ref="B381:E381"/>
+    <mergeCell ref="B377:E377"/>
     <mergeCell ref="B382:E382"/>
-    <mergeCell ref="B392:E392"/>
+    <mergeCell ref="B383:E383"/>
     <mergeCell ref="B393:E393"/>
     <mergeCell ref="B394:E394"/>
-    <mergeCell ref="B397:E397"/>
+    <mergeCell ref="B395:E395"/>
     <mergeCell ref="B398:E398"/>
-    <mergeCell ref="B416:E416"/>
+    <mergeCell ref="B399:E399"/>
     <mergeCell ref="B417:E417"/>
-    <mergeCell ref="B422:E422"/>
-    <mergeCell ref="B423:E423"/>
+    <mergeCell ref="B418:E418"/>
+    <mergeCell ref="B428:E428"/>
+    <mergeCell ref="B429:E429"/>
+    <mergeCell ref="B433:E433"/>
+    <mergeCell ref="B434:E434"/>
+    <mergeCell ref="B442:E442"/>
+    <mergeCell ref="B443:E443"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6075,7 +6412,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D154"/>
+  <dimension ref="A2:D171"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6410,7 +6747,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -6431,7 +6768,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D42" s="8"/>
     </row>
@@ -6440,7 +6777,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D43" s="8"/>
     </row>
@@ -6449,7 +6786,7 @@
         <v>55</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -6470,7 +6807,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D48" s="8"/>
     </row>
@@ -6479,7 +6816,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D49" s="8"/>
     </row>
@@ -6488,7 +6825,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D50" s="8"/>
     </row>
@@ -6497,7 +6834,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D51" s="8"/>
     </row>
@@ -6506,7 +6843,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D52" s="8"/>
     </row>
@@ -6515,7 +6852,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -6536,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D57" s="8"/>
     </row>
@@ -6545,7 +6882,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D58" s="8"/>
     </row>
@@ -6554,7 +6891,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D59" s="8"/>
     </row>
@@ -6563,7 +6900,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -6584,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D64" s="8"/>
     </row>
@@ -6593,7 +6930,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D65" s="8"/>
     </row>
@@ -6602,7 +6939,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -6623,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D70" s="8"/>
     </row>
@@ -6632,7 +6969,7 @@
         <v>55</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -6653,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D75" s="8"/>
     </row>
@@ -6662,7 +6999,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D76" s="8"/>
     </row>
@@ -6671,7 +7008,7 @@
         <v>55</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -6692,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D81" s="8"/>
     </row>
@@ -6701,64 +7038,64 @@
         <v>2</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D82" s="8"/>
     </row>
+    <row r="83" spans="1:4">
+      <c r="B83" s="8">
+        <v>3</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D83" s="8"/>
+    </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="4" t="s">
+      <c r="B84" s="8">
+        <v>4</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D84" s="8"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D88" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="B87" s="8">
-        <v>1</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D87" s="8"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="B88" s="8">
-        <v>2</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D88" s="8"/>
     </row>
     <row r="89" spans="1:4">
       <c r="B89" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:4">
       <c r="B90" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
     </row>
@@ -6767,7 +7104,7 @@
         <v>55</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -6798,10 +7135,10 @@
         <v>102</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -6809,10 +7146,10 @@
         <v>200</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -6820,10 +7157,10 @@
         <v>400</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -6831,10 +7168,10 @@
         <v>401</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -6842,7 +7179,7 @@
         <v>403</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
     </row>
@@ -6851,10 +7188,10 @@
         <v>500</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6862,7 +7199,7 @@
         <v>501</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
     </row>
@@ -6881,7 +7218,7 @@
         <v>92</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -6902,10 +7239,10 @@
         <v>1</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6913,10 +7250,10 @@
         <v>2</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -6924,10 +7261,10 @@
         <v>3</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -6935,7 +7272,7 @@
         <v>55</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -6945,7 +7282,7 @@
         <v>92</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -6966,10 +7303,10 @@
         <v>2048</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6977,10 +7314,10 @@
         <v>2054</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6988,10 +7325,10 @@
         <v>34525</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6999,10 +7336,10 @@
         <v>34887</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -7010,7 +7347,7 @@
         <v>55</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -7020,7 +7357,7 @@
         <v>92</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -7041,10 +7378,10 @@
         <v>1</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -7052,10 +7389,10 @@
         <v>6</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -7063,10 +7400,10 @@
         <v>17</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -7074,7 +7411,7 @@
         <v>55</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -7084,7 +7421,7 @@
         <v>92</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -7105,10 +7442,10 @@
         <v>20</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -7116,10 +7453,10 @@
         <v>21</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -7127,10 +7464,10 @@
         <v>22</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -7138,10 +7475,10 @@
         <v>23</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -7149,10 +7486,10 @@
         <v>25</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -7160,10 +7497,10 @@
         <v>80</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -7171,10 +7508,10 @@
         <v>443</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -7182,7 +7519,7 @@
         <v>55</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -7203,124 +7540,288 @@
         <v>1</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="B145" s="8">
         <v>2</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="B146" s="8">
         <v>3</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="B147" s="8">
         <v>4</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="B148" s="8">
         <v>5</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="B149" s="8">
         <v>6</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="B150" s="8">
         <v>7</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="B151" s="8">
         <v>8</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="B152" s="8">
         <v>9</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="B153" s="8">
         <v>10</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="B154" s="8">
         <v>11</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="B158" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="B159" s="8">
+        <v>0</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="B160" s="8">
+        <v>1</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="B161" s="8">
+        <v>2</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="B162" s="8">
+        <v>3</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="B163" s="8">
+        <v>4</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="B164" s="8">
+        <v>5</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="B165" s="8">
+        <v>6</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="B166" s="8">
+        <v>7</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="B167" s="8">
+        <v>8</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4">
+      <c r="B168" s="8">
+        <v>9</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4">
+      <c r="B169" s="8">
+        <v>10</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4">
+      <c r="B170" s="8">
+        <v>11</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4">
+      <c r="B171" s="8">
+        <v>12</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B45:D45"/>
@@ -7329,7 +7830,7 @@
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B86:D86"/>
     <mergeCell ref="B92:D92"/>
     <mergeCell ref="B93:D93"/>
     <mergeCell ref="B104:D104"/>
@@ -7341,6 +7842,7 @@
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B130:D130"/>
     <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B156:D156"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="597">
   <si>
-    <t>Generated from schema\openc2.jaen, Fri Mar 24 16:33:09 2017</t>
+    <t>Generated from schema\openc2.jaen, Mon Mar 27 11:47:38 2017</t>
   </si>
   <si>
     <t>module</t>

--- a/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="597">
-  <si>
-    <t>Generated from schema\openc2.jaen, Mon Mar 27 11:47:38 2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="598">
+  <si>
+    <t>Generated from schema\openc2.jaen, Mon Mar 27 15:17:55 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -660,16 +660,19 @@
     <t>response-type (vocab)</t>
   </si>
   <si>
-    <t>respond_to (optional)</t>
-  </si>
-  <si>
-    <t>universal (investigate/mitigate/remediate was report-to)</t>
+    <t>source (optional)</t>
+  </si>
+  <si>
+    <t>destination (optional)</t>
+  </si>
+  <si>
+    <t>(investigate/mitigate/remediate was report_to, copy, move, save)</t>
   </si>
   <si>
     <t>options (optional)</t>
   </si>
   <si>
-    <t>add to universal? (restart, set, move, restore, save, substitute)</t>
+    <t>add to universal? (restart, set, substitute, restore)</t>
   </si>
   <si>
     <t>method (optional)</t>
@@ -693,7 +696,7 @@
     <t>where (vocab)</t>
   </si>
   <si>
-    <t>deny, contain, allow</t>
+    <t>allow, deny, contain, allow</t>
   </si>
   <si>
     <t>message (optional)</t>
@@ -2290,7 +2293,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E496"/>
+  <dimension ref="A2:E497"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3746,7 +3749,7 @@
         <v>210</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>211</v>
@@ -3774,10 +3777,10 @@
         <v>214</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>215</v>
+        <v>77</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3785,13 +3788,13 @@
         <v>10</v>
       </c>
       <c r="C141" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E141" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3799,13 +3802,13 @@
         <v>11</v>
       </c>
       <c r="C142" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E142" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3813,13 +3816,13 @@
         <v>12</v>
       </c>
       <c r="C143" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E143" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3827,13 +3830,13 @@
         <v>13</v>
       </c>
       <c r="C144" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D144" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D144" s="8" t="s">
-        <v>224</v>
-      </c>
       <c r="E144" s="8" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3841,13 +3844,13 @@
         <v>14</v>
       </c>
       <c r="C145" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E145" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3858,10 +3861,10 @@
         <v>227</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3872,10 +3875,10 @@
         <v>228</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>230</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3883,43 +3886,46 @@
         <v>17</v>
       </c>
       <c r="C148" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E148" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D148" s="8" t="s">
+    </row>
+    <row r="149" spans="1:5">
+      <c r="B149" s="8">
+        <v>18</v>
+      </c>
+      <c r="C149" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E148" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B151" s="5" t="s">
+      <c r="D149" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
+      <c r="E149" s="8" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="4" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>235</v>
+        <v>49</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -3927,7 +3933,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="4" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>236</v>
@@ -3936,34 +3942,34 @@
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
     </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B157" s="5" t="s">
+    <row r="155" spans="1:5">
+      <c r="A155" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="4" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -3971,7 +3977,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="4" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>239</v>
@@ -3980,844 +3986,843 @@
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
     </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B163" s="5" t="s">
+    <row r="161" spans="1:5">
+      <c r="A161" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
     </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B168" s="5" t="s">
+    <row r="166" spans="1:5">
+      <c r="A166" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>243</v>
+        <v>49</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
     </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
+    <row r="171" spans="1:5">
+      <c r="A171" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
     </row>
-    <row r="177" spans="1:5">
-      <c r="B177" s="7" t="s">
+    <row r="176" spans="1:5">
+      <c r="A176" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="B178" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C178" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D177" s="7" t="s">
+      <c r="D178" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E177" s="7" t="s">
+      <c r="E178" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="B178" s="8">
-        <v>1</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="B179" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D179" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E179" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="E179" s="8" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="B180" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D180" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E180" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="E180" s="8" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="B181" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D181" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E181" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="E181" s="8" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="B182" s="8">
+        <v>4</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="B183" s="8">
         <v>5</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C183" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D182" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E182" s="8" t="s">
+      <c r="D183" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
+      <c r="E183" s="8" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B187" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="B188" s="7" t="s">
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="B189" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C188" s="7" t="s">
+      <c r="C189" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D188" s="7" t="s">
+      <c r="D189" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E188" s="7" t="s">
+      <c r="E189" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B193" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="B194" s="7" t="s">
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="B195" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="C195" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D194" s="7" t="s">
+      <c r="D195" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E194" s="7" t="s">
+      <c r="E195" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>303</v>
+        <v>49</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
     </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B202" s="5" t="s">
+    <row r="200" spans="1:5">
+      <c r="A200" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
-      <c r="E203" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>305</v>
+        <v>49</v>
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
     </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B207" s="5" t="s">
+    <row r="205" spans="1:5">
+      <c r="A205" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B209" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6"/>
-    </row>
-    <row r="210" spans="2:5">
-      <c r="B210" s="7" t="s">
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="B211" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C210" s="7" t="s">
+      <c r="C211" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D210" s="7" t="s">
+      <c r="D211" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E210" s="7" t="s">
+      <c r="E211" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="2:5">
-      <c r="B211" s="8">
+    <row r="212" spans="1:5">
+      <c r="B212" s="8">
         <v>1</v>
       </c>
-      <c r="C211" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D211" s="8" t="s">
+      <c r="C212" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E211" s="8" t="s">
+      <c r="D212" s="8" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="212" spans="2:5">
-      <c r="B212" s="8">
+      <c r="E212" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="B213" s="8">
         <v>2</v>
       </c>
-      <c r="C212" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E212" s="8" t="s">
+      <c r="C213" s="8" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="213" spans="2:5">
-      <c r="B213" s="8">
+      <c r="D213" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="B214" s="8">
         <v>3</v>
       </c>
-      <c r="C213" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E213" s="8" t="s">
+      <c r="C214" s="8" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="214" spans="2:5">
-      <c r="B214" s="8">
+      <c r="D214" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="B215" s="8">
         <v>4</v>
       </c>
-      <c r="C214" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D214" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E214" s="8" t="s">
+      <c r="C215" s="8" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="215" spans="2:5">
-      <c r="B215" s="8">
+      <c r="D215" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="B216" s="8">
         <v>5</v>
       </c>
-      <c r="C215" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E215" s="8" t="s">
+      <c r="C216" s="8" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="216" spans="2:5">
-      <c r="B216" s="8">
+      <c r="D216" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="B217" s="8">
         <v>6</v>
       </c>
-      <c r="C216" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E216" s="8" t="s">
+      <c r="C217" s="8" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="217" spans="2:5">
-      <c r="B217" s="8">
+      <c r="D217" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="B218" s="8">
         <v>7</v>
       </c>
-      <c r="C217" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E217" s="8" t="s">
+      <c r="C218" s="8" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="218" spans="2:5">
-      <c r="B218" s="8">
+      <c r="D218" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="B219" s="8">
         <v>8</v>
       </c>
-      <c r="C218" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E218" s="8" t="s">
+      <c r="C219" s="8" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="219" spans="2:5">
-      <c r="B219" s="8">
+      <c r="D219" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="B220" s="8">
         <v>9</v>
       </c>
-      <c r="C219" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E219" s="8" t="s">
+      <c r="C220" s="8" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="220" spans="2:5">
-      <c r="B220" s="8">
+      <c r="D220" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="B221" s="8">
         <v>10</v>
       </c>
-      <c r="C220" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E220" s="8" t="s">
+      <c r="C221" s="8" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="221" spans="2:5">
-      <c r="B221" s="8">
+      <c r="D221" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="B222" s="8">
         <v>11</v>
       </c>
-      <c r="C221" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="D221" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E221" s="8" t="s">
+      <c r="C222" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="222" spans="2:5">
-      <c r="B222" s="8">
+      <c r="D222" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="B223" s="8">
         <v>12</v>
       </c>
-      <c r="C222" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E222" s="8" t="s">
+      <c r="C223" s="8" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="223" spans="2:5">
-      <c r="B223" s="8">
+      <c r="D223" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="B224" s="8">
         <v>13</v>
       </c>
-      <c r="C223" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E223" s="8" t="s">
+      <c r="C224" s="8" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="224" spans="2:5">
-      <c r="B224" s="8">
+      <c r="D224" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="B225" s="8">
         <v>14</v>
       </c>
-      <c r="C224" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="D224" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E224" s="8" t="s">
+      <c r="C225" s="8" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C227" s="5"/>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
+      <c r="D225" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B229" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C228" s="6"/>
-      <c r="D228" s="6"/>
-      <c r="E228" s="6"/>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="B230" s="7" t="s">
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="B231" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C231" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D230" s="7" t="s">
+      <c r="D231" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E230" s="7" t="s">
+      <c r="E231" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="B231" s="8">
-        <v>1</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E231" s="8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="B232" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D232" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="B233" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E233" s="8" t="s">
         <v>340</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E233" s="8" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="B234" s="8">
+        <v>3</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E234" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="B235" s="8">
         <v>4</v>
       </c>
-      <c r="C234" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D234" s="8" t="s">
+      <c r="C235" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="E234" s="8" t="s">
+      <c r="D235" s="8" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B237" s="5" t="s">
+      <c r="E235" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B239" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="B240" s="7" t="s">
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="B241" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C241" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D240" s="7" t="s">
+      <c r="D241" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E240" s="7" t="s">
+      <c r="E241" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="B241" s="8">
-        <v>1</v>
-      </c>
-      <c r="C241" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D241" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E241" s="8" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="B242" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>136</v>
+        <v>348</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="E242" s="8" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B245" s="5" t="s">
+    <row r="243" spans="1:5">
+      <c r="B243" s="8">
+        <v>2</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E243" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C245" s="5"/>
-      <c r="D245" s="5"/>
-      <c r="E245" s="5"/>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B247" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="6"/>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="B248" s="7" t="s">
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="B249" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C248" s="7" t="s">
+      <c r="C249" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D248" s="7" t="s">
+      <c r="D249" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E248" s="7" t="s">
+      <c r="E249" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="B249" s="8">
-        <v>1</v>
-      </c>
-      <c r="C249" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D249" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E249" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="B250" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C250" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E250" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="D250" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E250" s="8" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="B251" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D251" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E251" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="B252" s="8">
+        <v>3</v>
+      </c>
+      <c r="C252" s="8" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C254" s="5"/>
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
+      <c r="D252" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E252" s="8" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B255" s="6" t="s">
+      <c r="B256" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="B257" s="7" t="s">
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="B258" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C257" s="7" t="s">
+      <c r="C258" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D257" s="7" t="s">
+      <c r="D258" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E257" s="7" t="s">
+      <c r="E258" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="B258" s="8">
-        <v>1</v>
-      </c>
-      <c r="C258" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D258" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E258" s="8"/>
     </row>
     <row r="259" spans="1:5">
       <c r="B259" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>367</v>
@@ -4829,7 +4834,7 @@
     </row>
     <row r="260" spans="1:5">
       <c r="B260" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>368</v>
@@ -4841,7 +4846,7 @@
     </row>
     <row r="261" spans="1:5">
       <c r="B261" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>369</v>
@@ -4853,7 +4858,7 @@
     </row>
     <row r="262" spans="1:5">
       <c r="B262" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>370</v>
@@ -4865,7 +4870,7 @@
     </row>
     <row r="263" spans="1:5">
       <c r="B263" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>371</v>
@@ -4877,7 +4882,7 @@
     </row>
     <row r="264" spans="1:5">
       <c r="B264" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C264" s="8" t="s">
         <v>372</v>
@@ -4887,1420 +4892,1418 @@
       </c>
       <c r="E264" s="8"/>
     </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C267" s="5"/>
-      <c r="D267" s="5"/>
-      <c r="E267" s="5"/>
+    <row r="265" spans="1:5">
+      <c r="B265" s="8">
+        <v>7</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D265" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E265" s="8"/>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="B269" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C268" s="6"/>
-      <c r="D268" s="6"/>
-      <c r="E268" s="6"/>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="B270" s="7" t="s">
+      <c r="C269" s="6"/>
+      <c r="D269" s="6"/>
+      <c r="E269" s="6"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="B271" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C270" s="7" t="s">
+      <c r="C271" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D270" s="7" t="s">
+      <c r="D271" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E270" s="7" t="s">
+      <c r="E271" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="B271" s="8">
-        <v>1</v>
-      </c>
-      <c r="C271" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D271" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E271" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="B272" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D272" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="B273" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C273" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D273" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E273" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="D273" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E273" s="8" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="B274" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D274" s="8" t="s">
         <v>202</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="B275" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D275" s="8" t="s">
         <v>202</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="B276" s="8">
+        <v>5</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D276" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E276" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="B277" s="8">
         <v>6</v>
       </c>
-      <c r="C276" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="D276" s="8" t="s">
+      <c r="C277" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="E276" s="8" t="s">
+      <c r="D277" s="8" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B279" s="5" t="s">
+      <c r="E277" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C279" s="5"/>
-      <c r="D279" s="5"/>
-      <c r="E279" s="5"/>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B280" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C280" s="6"/>
-      <c r="D280" s="6"/>
-      <c r="E280" s="6"/>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="B281" s="8">
+      <c r="B281" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="B282" s="8">
         <v>0</v>
       </c>
-      <c r="C281" s="8"/>
-      <c r="D281" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E281" s="8"/>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B284" s="5" t="s">
+      <c r="C282" s="8"/>
+      <c r="D282" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C284" s="5"/>
-      <c r="D284" s="5"/>
-      <c r="E284" s="5"/>
+      <c r="E282" s="8"/>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5"/>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B285" s="6" t="s">
+      <c r="B286" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C285" s="6"/>
-      <c r="D285" s="6"/>
-      <c r="E285" s="6"/>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="B287" s="7" t="s">
+      <c r="C286" s="6"/>
+      <c r="D286" s="6"/>
+      <c r="E286" s="6"/>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="B288" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C287" s="7" t="s">
+      <c r="C288" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D287" s="7" t="s">
+      <c r="D288" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E287" s="7" t="s">
+      <c r="E288" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="B288" s="8">
-        <v>1</v>
-      </c>
-      <c r="C288" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="D288" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E288" s="8"/>
     </row>
     <row r="289" spans="1:5">
       <c r="B289" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C289" s="8" t="s">
         <v>391</v>
       </c>
       <c r="D289" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E289" s="8"/>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="B290" s="8">
+        <v>2</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D290" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E289" s="8"/>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="A292" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B292" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C292" s="5"/>
-      <c r="D292" s="5"/>
-      <c r="E292" s="5"/>
+      <c r="E290" s="8"/>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C293" s="6"/>
-      <c r="D293" s="6"/>
-      <c r="E293" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
+      <c r="E293" s="5"/>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="C294" s="6"/>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
     </row>
-    <row r="296" spans="1:5">
-      <c r="B296" s="7" t="s">
+    <row r="295" spans="1:5">
+      <c r="A295" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C295" s="6"/>
+      <c r="D295" s="6"/>
+      <c r="E295" s="6"/>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="B297" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C296" s="7" t="s">
+      <c r="C297" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D296" s="7" t="s">
+      <c r="D297" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E296" s="7" t="s">
+      <c r="E297" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="A299" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B299" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C299" s="5"/>
-      <c r="D299" s="5"/>
-      <c r="E299" s="5"/>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B300" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C300" s="6"/>
-      <c r="D300" s="6"/>
-      <c r="E300" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="C301" s="6"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
     </row>
-    <row r="303" spans="1:5">
-      <c r="B303" s="7" t="s">
+    <row r="302" spans="1:5">
+      <c r="A302" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C302" s="6"/>
+      <c r="D302" s="6"/>
+      <c r="E302" s="6"/>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="B304" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C303" s="7" t="s">
+      <c r="C304" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D303" s="7" t="s">
+      <c r="D304" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E303" s="7" t="s">
+      <c r="E304" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="306" spans="1:5">
-      <c r="A306" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C306" s="5"/>
-      <c r="D306" s="5"/>
-      <c r="E306" s="5"/>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B307" s="6" t="s">
+      <c r="B308" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C307" s="6"/>
-      <c r="D307" s="6"/>
-      <c r="E307" s="6"/>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="B309" s="7" t="s">
+      <c r="C308" s="6"/>
+      <c r="D308" s="6"/>
+      <c r="E308" s="6"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="B310" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="7" t="s">
+      <c r="C310" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D309" s="7" t="s">
+      <c r="D310" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E309" s="7" t="s">
+      <c r="E310" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="B310" s="8">
-        <v>1</v>
-      </c>
-      <c r="C310" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="D310" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E310" s="8" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="B311" s="8">
+        <v>1</v>
+      </c>
+      <c r="C311" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D311" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E311" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="B312" s="8">
         <v>2</v>
       </c>
-      <c r="C311" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="D311" s="8" t="s">
+      <c r="C312" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="E311" s="8" t="s">
+      <c r="D312" s="8" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="314" spans="1:5">
-      <c r="A314" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B314" s="5" t="s">
+      <c r="E312" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C314" s="5"/>
-      <c r="D314" s="5"/>
-      <c r="E314" s="5"/>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="5"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B315" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C315" s="6"/>
-      <c r="D315" s="6"/>
-      <c r="E315" s="6"/>
-    </row>
-    <row r="316" spans="1:5">
-      <c r="B316" s="8">
+      <c r="B316" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C316" s="6"/>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="B317" s="8">
         <v>0</v>
       </c>
-      <c r="C316" s="8"/>
-      <c r="D316" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="E316" s="8"/>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="A319" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B319" s="5" t="s">
+      <c r="C317" s="8"/>
+      <c r="D317" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C319" s="5"/>
-      <c r="D319" s="5"/>
-      <c r="E319" s="5"/>
+      <c r="E317" s="8"/>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5"/>
+      <c r="E320" s="5"/>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B320" s="6" t="s">
+      <c r="B321" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C320" s="6"/>
-      <c r="D320" s="6"/>
-      <c r="E320" s="6"/>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="B322" s="7" t="s">
+      <c r="C321" s="6"/>
+      <c r="D321" s="6"/>
+      <c r="E321" s="6"/>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="B323" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C322" s="7" t="s">
+      <c r="C323" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D322" s="7" t="s">
+      <c r="D323" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E322" s="7" t="s">
+      <c r="E323" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="B323" s="8">
-        <v>1</v>
-      </c>
-      <c r="C323" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="D323" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E323" s="8"/>
     </row>
     <row r="324" spans="1:5">
       <c r="B324" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C324" s="8" t="s">
         <v>403</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E324" s="8"/>
     </row>
     <row r="325" spans="1:5">
       <c r="B325" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C325" s="8" t="s">
         <v>404</v>
       </c>
       <c r="D325" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E325" s="8"/>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="B326" s="8">
+        <v>3</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D326" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E325" s="8"/>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="A328" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B328" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C328" s="5"/>
-      <c r="D328" s="5"/>
-      <c r="E328" s="5"/>
+      <c r="E326" s="8"/>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C329" s="5"/>
+      <c r="D329" s="5"/>
+      <c r="E329" s="5"/>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B329" s="6" t="s">
+      <c r="B330" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C329" s="6"/>
-      <c r="D329" s="6"/>
-      <c r="E329" s="6"/>
-    </row>
-    <row r="331" spans="1:5">
-      <c r="B331" s="7" t="s">
+      <c r="C330" s="6"/>
+      <c r="D330" s="6"/>
+      <c r="E330" s="6"/>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="B332" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C331" s="7" t="s">
+      <c r="C332" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D331" s="7" t="s">
+      <c r="D332" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E331" s="7" t="s">
+      <c r="E332" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="B332" s="8">
-        <v>1</v>
-      </c>
-      <c r="C332" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="D332" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E332" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="B333" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D333" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E333" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="B334" s="8">
+        <v>2</v>
+      </c>
+      <c r="C334" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D334" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E334" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="B335" s="8">
         <v>3</v>
       </c>
-      <c r="C334" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="D334" s="8" t="s">
+      <c r="C335" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D335" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E334" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
-      <c r="A337" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B337" s="5" t="s">
+      <c r="E335" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C337" s="5"/>
-      <c r="D337" s="5"/>
-      <c r="E337" s="5"/>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B338" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C338" s="6"/>
-      <c r="D338" s="6"/>
-      <c r="E338" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5"/>
+      <c r="E338" s="5"/>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>412</v>
+        <v>29</v>
       </c>
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
     </row>
-    <row r="341" spans="1:5">
-      <c r="B341" s="7" t="s">
+    <row r="340" spans="1:5">
+      <c r="A340" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C340" s="6"/>
+      <c r="D340" s="6"/>
+      <c r="E340" s="6"/>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="B342" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C341" s="7" t="s">
+      <c r="C342" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D341" s="7" t="s">
+      <c r="D342" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E341" s="7" t="s">
+      <c r="E342" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="A344" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C344" s="5"/>
-      <c r="D344" s="5"/>
-      <c r="E344" s="5"/>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C345" s="6"/>
-      <c r="D345" s="6"/>
-      <c r="E345" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C345" s="5"/>
+      <c r="D345" s="5"/>
+      <c r="E345" s="5"/>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>412</v>
+        <v>29</v>
       </c>
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
     </row>
-    <row r="348" spans="1:5">
-      <c r="B348" s="7" t="s">
+    <row r="347" spans="1:5">
+      <c r="A347" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C347" s="6"/>
+      <c r="D347" s="6"/>
+      <c r="E347" s="6"/>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="B349" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C348" s="7" t="s">
+      <c r="C349" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D348" s="7" t="s">
+      <c r="D349" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E348" s="7" t="s">
+      <c r="E349" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="A351" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B351" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C351" s="5"/>
-      <c r="D351" s="5"/>
-      <c r="E351" s="5"/>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C352" s="5"/>
+      <c r="D352" s="5"/>
+      <c r="E352" s="5"/>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B352" s="6" t="s">
+      <c r="B353" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C352" s="6"/>
-      <c r="D352" s="6"/>
-      <c r="E352" s="6"/>
-    </row>
-    <row r="354" spans="1:5">
-      <c r="B354" s="7" t="s">
+      <c r="C353" s="6"/>
+      <c r="D353" s="6"/>
+      <c r="E353" s="6"/>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="B355" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C354" s="7" t="s">
+      <c r="C355" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D354" s="7" t="s">
+      <c r="D355" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E354" s="7" t="s">
+      <c r="E355" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
-      <c r="B355" s="8">
-        <v>1</v>
-      </c>
-      <c r="C355" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="D355" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E355" s="8" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="B356" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C356" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D356" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E356" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="D356" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="E356" s="8" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="B357" s="8">
+        <v>2</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D357" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="E357" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="B358" s="8">
         <v>3</v>
       </c>
-      <c r="C357" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="D357" s="8" t="s">
+      <c r="C358" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="E357" s="8" t="s">
+      <c r="D358" s="8" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="360" spans="1:5">
-      <c r="A360" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B360" s="5" t="s">
+      <c r="E358" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C360" s="5"/>
-      <c r="D360" s="5"/>
-      <c r="E360" s="5"/>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C361" s="5"/>
+      <c r="D361" s="5"/>
+      <c r="E361" s="5"/>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B361" s="6" t="s">
+      <c r="B362" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C361" s="6"/>
-      <c r="D361" s="6"/>
-      <c r="E361" s="6"/>
-    </row>
-    <row r="363" spans="1:5">
-      <c r="B363" s="7" t="s">
+      <c r="C362" s="6"/>
+      <c r="D362" s="6"/>
+      <c r="E362" s="6"/>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="B364" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C363" s="7" t="s">
+      <c r="C364" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D363" s="7" t="s">
+      <c r="D364" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E363" s="7" t="s">
+      <c r="E364" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
-      <c r="B364" s="8">
-        <v>1</v>
-      </c>
-      <c r="C364" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="D364" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E364" s="8" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="B365" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>416</v>
+        <v>49</v>
       </c>
       <c r="E365" s="8" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="B366" s="8">
+        <v>2</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D366" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="E366" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="B367" s="8">
         <v>3</v>
       </c>
-      <c r="C366" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="D366" s="8" t="s">
+      <c r="C367" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="E366" s="8" t="s">
+      <c r="D367" s="8" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="369" spans="1:5">
-      <c r="A369" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B369" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="C369" s="5"/>
-      <c r="D369" s="5"/>
-      <c r="E369" s="5"/>
+      <c r="E367" s="8" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C370" s="5"/>
+      <c r="D370" s="5"/>
+      <c r="E370" s="5"/>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B370" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C370" s="6"/>
-      <c r="D370" s="6"/>
-      <c r="E370" s="6"/>
-    </row>
-    <row r="371" spans="1:5">
-      <c r="B371" s="8">
+      <c r="B371" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C371" s="6"/>
+      <c r="D371" s="6"/>
+      <c r="E371" s="6"/>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="B372" s="8">
         <v>0</v>
       </c>
-      <c r="C371" s="8"/>
-      <c r="D371" s="8" t="s">
+      <c r="C372" s="8"/>
+      <c r="D372" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E371" s="8"/>
-    </row>
-    <row r="374" spans="1:5">
-      <c r="A374" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B374" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C374" s="5"/>
-      <c r="D374" s="5"/>
-      <c r="E374" s="5"/>
+      <c r="E372" s="8"/>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B375" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C375" s="6"/>
-      <c r="D375" s="6"/>
-      <c r="E375" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C375" s="5"/>
+      <c r="D375" s="5"/>
+      <c r="E375" s="5"/>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>425</v>
+        <v>49</v>
       </c>
       <c r="C376" s="6"/>
       <c r="D376" s="6"/>
       <c r="E376" s="6"/>
     </row>
-    <row r="379" spans="1:5">
-      <c r="A379" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B379" s="5" t="s">
+    <row r="377" spans="1:5">
+      <c r="A377" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B377" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C379" s="5"/>
-      <c r="D379" s="5"/>
-      <c r="E379" s="5"/>
+      <c r="C377" s="6"/>
+      <c r="D377" s="6"/>
+      <c r="E377" s="6"/>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C380" s="5"/>
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B380" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C380" s="6"/>
-      <c r="D380" s="6"/>
-      <c r="E380" s="6"/>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="B381" s="8">
+      <c r="B381" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C381" s="6"/>
+      <c r="D381" s="6"/>
+      <c r="E381" s="6"/>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="B382" s="8">
         <v>0</v>
       </c>
-      <c r="C381" s="8"/>
-      <c r="D381" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="E381" s="8"/>
-    </row>
-    <row r="384" spans="1:5">
-      <c r="A384" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B384" s="5" t="s">
+      <c r="C382" s="8"/>
+      <c r="D382" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="C384" s="5"/>
-      <c r="D384" s="5"/>
-      <c r="E384" s="5"/>
+      <c r="E382" s="8"/>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B385" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C385" s="6"/>
-      <c r="D385" s="6"/>
-      <c r="E385" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C385" s="5"/>
+      <c r="D385" s="5"/>
+      <c r="E385" s="5"/>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>429</v>
+        <v>29</v>
       </c>
       <c r="C386" s="6"/>
       <c r="D386" s="6"/>
       <c r="E386" s="6"/>
     </row>
-    <row r="388" spans="1:5">
-      <c r="B388" s="7" t="s">
+    <row r="387" spans="1:5">
+      <c r="A387" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C387" s="6"/>
+      <c r="D387" s="6"/>
+      <c r="E387" s="6"/>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="B389" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C388" s="7" t="s">
+      <c r="C389" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D388" s="7" t="s">
+      <c r="D389" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E388" s="7" t="s">
+      <c r="E389" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
-      <c r="B389" s="8">
-        <v>1</v>
-      </c>
-      <c r="C389" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="D389" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="E389" s="8" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="B390" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C390" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="D390" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="E390" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="D390" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="E390" s="8" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="391" spans="1:5">
       <c r="B391" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C391" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D391" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E391" s="8" t="s">
         <v>435</v>
-      </c>
-      <c r="D391" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="E391" s="8" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="392" spans="1:5">
       <c r="B392" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C392" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D392" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="E392" s="8" t="s">
         <v>437</v>
-      </c>
-      <c r="D392" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="E392" s="8" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="393" spans="1:5">
       <c r="B393" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C393" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D393" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E393" s="8" t="s">
         <v>439</v>
-      </c>
-      <c r="D393" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="E393" s="8" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="394" spans="1:5">
       <c r="B394" s="8">
+        <v>5</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D394" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E394" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="B395" s="8">
         <v>6</v>
       </c>
-      <c r="C394" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="D394" s="8" t="s">
+      <c r="C395" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="E394" s="8" t="s">
+      <c r="D395" s="8" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="397" spans="1:5">
-      <c r="A397" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B397" s="5" t="s">
+      <c r="E395" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="C397" s="5"/>
-      <c r="D397" s="5"/>
-      <c r="E397" s="5"/>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B398" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C398" s="6"/>
-      <c r="D398" s="6"/>
-      <c r="E398" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C398" s="5"/>
+      <c r="D398" s="5"/>
+      <c r="E398" s="5"/>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>446</v>
+        <v>17</v>
       </c>
       <c r="C399" s="6"/>
       <c r="D399" s="6"/>
       <c r="E399" s="6"/>
     </row>
-    <row r="401" spans="1:5">
-      <c r="B401" s="7" t="s">
+    <row r="400" spans="1:5">
+      <c r="A400" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C400" s="6"/>
+      <c r="D400" s="6"/>
+      <c r="E400" s="6"/>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="B402" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C401" s="7" t="s">
+      <c r="C402" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D401" s="7" t="s">
+      <c r="D402" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E401" s="7" t="s">
+      <c r="E402" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
-      <c r="B402" s="8">
-        <v>1</v>
-      </c>
-      <c r="C402" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="D402" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E402" s="8" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="403" spans="1:5">
       <c r="B403" s="8">
+        <v>1</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D403" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E403" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="B404" s="8">
         <v>2</v>
       </c>
-      <c r="C403" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D403" s="8" t="s">
+      <c r="C404" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="E403" s="8" t="s">
+      <c r="D404" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="406" spans="1:5">
-      <c r="A406" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B406" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C406" s="5"/>
-      <c r="D406" s="5"/>
-      <c r="E406" s="5"/>
+      <c r="E404" s="8" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B407" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C407" s="6"/>
-      <c r="D407" s="6"/>
-      <c r="E407" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B407" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C407" s="5"/>
+      <c r="D407" s="5"/>
+      <c r="E407" s="5"/>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="C408" s="6"/>
       <c r="D408" s="6"/>
       <c r="E408" s="6"/>
     </row>
-    <row r="410" spans="1:5">
-      <c r="B410" s="7" t="s">
+    <row r="409" spans="1:5">
+      <c r="A409" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C409" s="6"/>
+      <c r="D409" s="6"/>
+      <c r="E409" s="6"/>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="B411" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C410" s="7" t="s">
+      <c r="C411" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D410" s="7" t="s">
+      <c r="D411" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E410" s="7" t="s">
+      <c r="E411" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="413" spans="1:5">
-      <c r="A413" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B413" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C413" s="5"/>
-      <c r="D413" s="5"/>
-      <c r="E413" s="5"/>
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C414" s="5"/>
+      <c r="D414" s="5"/>
+      <c r="E414" s="5"/>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B414" s="6" t="s">
+      <c r="B415" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C414" s="6"/>
-      <c r="D414" s="6"/>
-      <c r="E414" s="6"/>
-    </row>
-    <row r="416" spans="1:5">
-      <c r="B416" s="7" t="s">
+      <c r="C415" s="6"/>
+      <c r="D415" s="6"/>
+      <c r="E415" s="6"/>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="B417" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C416" s="7" t="s">
+      <c r="C417" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D416" s="7" t="s">
+      <c r="D417" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E416" s="7" t="s">
+      <c r="E417" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="419" spans="1:5">
-      <c r="A419" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B419" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C419" s="5"/>
-      <c r="D419" s="5"/>
-      <c r="E419" s="5"/>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C420" s="5"/>
+      <c r="D420" s="5"/>
+      <c r="E420" s="5"/>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B420" s="6" t="s">
+      <c r="B421" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C420" s="6"/>
-      <c r="D420" s="6"/>
-      <c r="E420" s="6"/>
-    </row>
-    <row r="422" spans="1:5">
-      <c r="B422" s="7" t="s">
+      <c r="C421" s="6"/>
+      <c r="D421" s="6"/>
+      <c r="E421" s="6"/>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="B423" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C422" s="7" t="s">
+      <c r="C423" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D422" s="7" t="s">
+      <c r="D423" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E422" s="7" t="s">
+      <c r="E423" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
-      <c r="B423" s="8">
-        <v>1</v>
-      </c>
-      <c r="C423" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="D423" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E423" s="8" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="424" spans="1:5">
       <c r="B424" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D424" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E424" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="425" spans="1:5">
       <c r="B425" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D425" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E425" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="426" spans="1:5">
       <c r="B426" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D426" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E426" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="427" spans="1:5">
       <c r="B427" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D427" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E427" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="B428" s="8">
+        <v>5</v>
+      </c>
+      <c r="C428" s="8" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="430" spans="1:5">
-      <c r="A430" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B430" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C430" s="5"/>
-      <c r="D430" s="5"/>
-      <c r="E430" s="5"/>
+      <c r="D428" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E428" s="8" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B431" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C431" s="6"/>
-      <c r="D431" s="6"/>
-      <c r="E431" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C431" s="5"/>
+      <c r="D431" s="5"/>
+      <c r="E431" s="5"/>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>496</v>
+        <v>49</v>
       </c>
       <c r="C432" s="6"/>
       <c r="D432" s="6"/>
       <c r="E432" s="6"/>
     </row>
-    <row r="435" spans="1:5">
-      <c r="A435" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B435" s="5" t="s">
+    <row r="433" spans="1:5">
+      <c r="A433" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B433" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C435" s="5"/>
-      <c r="D435" s="5"/>
-      <c r="E435" s="5"/>
+      <c r="C433" s="6"/>
+      <c r="D433" s="6"/>
+      <c r="E433" s="6"/>
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C436" s="5"/>
+      <c r="D436" s="5"/>
+      <c r="E436" s="5"/>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B436" s="6" t="s">
+      <c r="B437" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C436" s="6"/>
-      <c r="D436" s="6"/>
-      <c r="E436" s="6"/>
-    </row>
-    <row r="438" spans="1:5">
-      <c r="B438" s="7" t="s">
+      <c r="C437" s="6"/>
+      <c r="D437" s="6"/>
+      <c r="E437" s="6"/>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="B439" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C438" s="7" t="s">
+      <c r="C439" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D438" s="7" t="s">
+      <c r="D439" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E438" s="7" t="s">
+      <c r="E439" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
-      <c r="B439" s="8">
-        <v>1</v>
-      </c>
-      <c r="C439" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="D439" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E439" s="8" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="440" spans="1:5">
       <c r="B440" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D440" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E440" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="441" spans="1:5">
       <c r="B441" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C441" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D441" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E441" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="D441" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="E441" s="8" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="442" spans="1:5">
       <c r="B442" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>407</v>
+        <v>503</v>
       </c>
       <c r="D442" s="8" t="s">
-        <v>49</v>
+        <v>504</v>
       </c>
       <c r="E442" s="8" t="s">
         <v>505</v>
@@ -6308,297 +6311,297 @@
     </row>
     <row r="443" spans="1:5">
       <c r="B443" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C443" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D443" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E443" s="8" t="s">
         <v>506</v>
-      </c>
-      <c r="D443" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="E443" s="8" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="444" spans="1:5">
       <c r="B444" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C444" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D444" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E444" s="8" t="s">
         <v>509</v>
-      </c>
-      <c r="D444" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="E444" s="8" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="445" spans="1:5">
       <c r="B445" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C445" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="D445" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E445" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="D445" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="E445" s="8" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="446" spans="1:5">
       <c r="B446" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C446" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="D446" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E446" s="8" t="s">
         <v>513</v>
-      </c>
-      <c r="D446" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="E446" s="8" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="447" spans="1:5">
       <c r="B447" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C447" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="D447" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E447" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="D447" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E447" s="8" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="448" spans="1:5">
       <c r="B448" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D448" s="8" t="s">
         <v>202</v>
       </c>
       <c r="E448" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="449" spans="1:5">
       <c r="B449" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D449" s="8" t="s">
         <v>202</v>
       </c>
       <c r="E449" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="450" spans="1:5">
       <c r="B450" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D450" s="8" t="s">
         <v>202</v>
       </c>
       <c r="E450" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="451" spans="1:5">
       <c r="B451" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D451" s="8" t="s">
         <v>202</v>
       </c>
       <c r="E451" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="B452" s="8">
+        <v>13</v>
+      </c>
+      <c r="C452" s="8" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="454" spans="1:5">
-      <c r="A454" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B454" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="C454" s="5"/>
-      <c r="D454" s="5"/>
-      <c r="E454" s="5"/>
+      <c r="D452" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E452" s="8" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="455" spans="1:5">
       <c r="A455" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B455" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C455" s="6"/>
-      <c r="D455" s="6"/>
-      <c r="E455" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B455" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C455" s="5"/>
+      <c r="D455" s="5"/>
+      <c r="E455" s="5"/>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="C456" s="6"/>
       <c r="D456" s="6"/>
       <c r="E456" s="6"/>
     </row>
-    <row r="458" spans="1:5">
-      <c r="B458" s="7" t="s">
+    <row r="457" spans="1:5">
+      <c r="A457" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B457" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C457" s="6"/>
+      <c r="D457" s="6"/>
+      <c r="E457" s="6"/>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="B459" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C458" s="7" t="s">
+      <c r="C459" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D458" s="7" t="s">
+      <c r="D459" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E458" s="7" t="s">
+      <c r="E459" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="461" spans="1:5">
-      <c r="A461" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B461" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C461" s="5"/>
-      <c r="D461" s="5"/>
-      <c r="E461" s="5"/>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B462" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C462" s="6"/>
-      <c r="D462" s="6"/>
-      <c r="E462" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B462" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C462" s="5"/>
+      <c r="D462" s="5"/>
+      <c r="E462" s="5"/>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="C463" s="6"/>
       <c r="D463" s="6"/>
       <c r="E463" s="6"/>
     </row>
-    <row r="465" spans="1:5">
-      <c r="B465" s="7" t="s">
+    <row r="464" spans="1:5">
+      <c r="A464" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B464" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C464" s="6"/>
+      <c r="D464" s="6"/>
+      <c r="E464" s="6"/>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="B466" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C465" s="7" t="s">
+      <c r="C466" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D465" s="7" t="s">
+      <c r="D466" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E465" s="7" t="s">
+      <c r="E466" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="468" spans="1:5">
-      <c r="A468" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B468" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="C468" s="5"/>
-      <c r="D468" s="5"/>
-      <c r="E468" s="5"/>
     </row>
     <row r="469" spans="1:5">
       <c r="A469" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B469" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C469" s="5"/>
+      <c r="D469" s="5"/>
+      <c r="E469" s="5"/>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B469" s="6" t="s">
+      <c r="B470" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C469" s="6"/>
-      <c r="D469" s="6"/>
-      <c r="E469" s="6"/>
-    </row>
-    <row r="471" spans="1:5">
-      <c r="B471" s="7" t="s">
+      <c r="C470" s="6"/>
+      <c r="D470" s="6"/>
+      <c r="E470" s="6"/>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="B472" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C471" s="7" t="s">
+      <c r="C472" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D471" s="7" t="s">
+      <c r="D472" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E471" s="7" t="s">
+      <c r="E472" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
-      <c r="B472" s="8">
-        <v>1</v>
-      </c>
-      <c r="C472" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="D472" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E472" s="8" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="473" spans="1:5">
       <c r="B473" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C473" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="D473" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E473" s="8" t="s">
         <v>552</v>
-      </c>
-      <c r="D473" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="E473" s="8" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="474" spans="1:5">
       <c r="B474" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>379</v>
+        <v>553</v>
       </c>
       <c r="D474" s="8" t="s">
-        <v>202</v>
+        <v>554</v>
       </c>
       <c r="E474" s="8" t="s">
         <v>555</v>
@@ -6606,175 +6609,189 @@
     </row>
     <row r="475" spans="1:5">
       <c r="B475" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C475" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D475" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E475" s="8" t="s">
         <v>556</v>
-      </c>
-      <c r="D475" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E475" s="8" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="476" spans="1:5">
       <c r="B476" s="8">
+        <v>4</v>
+      </c>
+      <c r="C476" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="D476" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E476" s="8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="B477" s="8">
         <v>5</v>
       </c>
-      <c r="C476" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="D476" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E476" s="8" t="s">
+      <c r="C477" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="479" spans="1:5">
-      <c r="A479" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B479" s="5" t="s">
+      <c r="D477" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E477" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="C479" s="5"/>
-      <c r="D479" s="5"/>
-      <c r="E479" s="5"/>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C480" s="5"/>
+      <c r="D480" s="5"/>
+      <c r="E480" s="5"/>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B480" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C480" s="6"/>
-      <c r="D480" s="6"/>
-      <c r="E480" s="6"/>
-    </row>
-    <row r="481" spans="1:5">
-      <c r="B481" s="8">
+      <c r="B481" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C481" s="6"/>
+      <c r="D481" s="6"/>
+      <c r="E481" s="6"/>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="B482" s="8">
         <v>0</v>
       </c>
-      <c r="C481" s="8"/>
-      <c r="D481" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="E481" s="8"/>
-    </row>
-    <row r="484" spans="1:5">
-      <c r="A484" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B484" s="5" t="s">
+      <c r="C482" s="8"/>
+      <c r="D482" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="C484" s="5"/>
-      <c r="D484" s="5"/>
-      <c r="E484" s="5"/>
+      <c r="E482" s="8"/>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C485" s="5"/>
+      <c r="D485" s="5"/>
+      <c r="E485" s="5"/>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B485" s="6" t="s">
+      <c r="B486" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C485" s="6"/>
-      <c r="D485" s="6"/>
-      <c r="E485" s="6"/>
-    </row>
-    <row r="487" spans="1:5">
-      <c r="B487" s="7" t="s">
+      <c r="C486" s="6"/>
+      <c r="D486" s="6"/>
+      <c r="E486" s="6"/>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="B488" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C487" s="7" t="s">
+      <c r="C488" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D487" s="7" t="s">
+      <c r="D488" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E487" s="7" t="s">
+      <c r="E488" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
-      <c r="B488" s="8">
-        <v>1</v>
-      </c>
-      <c r="C488" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="D488" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E488" s="8" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="489" spans="1:5">
       <c r="B489" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>564</v>
+        <v>487</v>
       </c>
       <c r="D489" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E489" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="490" spans="1:5">
       <c r="B490" s="8">
+        <v>2</v>
+      </c>
+      <c r="C490" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D490" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E490" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="B491" s="8">
         <v>3</v>
       </c>
-      <c r="C490" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="D490" s="8" t="s">
+      <c r="C491" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="E490" s="8" t="s">
+      <c r="D491" s="8" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="493" spans="1:5">
-      <c r="A493" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B493" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="C493" s="5"/>
-      <c r="D493" s="5"/>
-      <c r="E493" s="5"/>
+      <c r="E491" s="8" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="494" spans="1:5">
       <c r="A494" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C494" s="5"/>
+      <c r="D494" s="5"/>
+      <c r="E494" s="5"/>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B494" s="6" t="s">
+      <c r="B495" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C494" s="6"/>
-      <c r="D494" s="6"/>
-      <c r="E494" s="6"/>
-    </row>
-    <row r="496" spans="1:5">
-      <c r="B496" s="7" t="s">
+      <c r="C495" s="6"/>
+      <c r="D495" s="6"/>
+      <c r="E495" s="6"/>
+    </row>
+    <row r="497" spans="2:5">
+      <c r="B497" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C496" s="7" t="s">
+      <c r="C497" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D496" s="7" t="s">
+      <c r="D497" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E496" s="7" t="s">
+      <c r="E497" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6797,112 +6814,112 @@
     <mergeCell ref="B121:E121"/>
     <mergeCell ref="B128:E128"/>
     <mergeCell ref="B129:E129"/>
-    <mergeCell ref="B151:E151"/>
     <mergeCell ref="B152:E152"/>
     <mergeCell ref="B153:E153"/>
     <mergeCell ref="B154:E154"/>
-    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="B155:E155"/>
     <mergeCell ref="B158:E158"/>
     <mergeCell ref="B159:E159"/>
     <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="B161:E161"/>
     <mergeCell ref="B164:E164"/>
     <mergeCell ref="B165:E165"/>
-    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B166:E166"/>
     <mergeCell ref="B169:E169"/>
     <mergeCell ref="B170:E170"/>
-    <mergeCell ref="B173:E173"/>
+    <mergeCell ref="B171:E171"/>
     <mergeCell ref="B174:E174"/>
     <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B185:E185"/>
+    <mergeCell ref="B176:E176"/>
     <mergeCell ref="B186:E186"/>
-    <mergeCell ref="B191:E191"/>
+    <mergeCell ref="B187:E187"/>
     <mergeCell ref="B192:E192"/>
-    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="B193:E193"/>
     <mergeCell ref="B198:E198"/>
     <mergeCell ref="B199:E199"/>
-    <mergeCell ref="B202:E202"/>
+    <mergeCell ref="B200:E200"/>
     <mergeCell ref="B203:E203"/>
     <mergeCell ref="B204:E204"/>
-    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="B205:E205"/>
     <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="B209:E209"/>
     <mergeCell ref="B228:E228"/>
-    <mergeCell ref="B237:E237"/>
+    <mergeCell ref="B229:E229"/>
     <mergeCell ref="B238:E238"/>
-    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B239:E239"/>
     <mergeCell ref="B246:E246"/>
-    <mergeCell ref="B254:E254"/>
+    <mergeCell ref="B247:E247"/>
     <mergeCell ref="B255:E255"/>
-    <mergeCell ref="B267:E267"/>
+    <mergeCell ref="B256:E256"/>
     <mergeCell ref="B268:E268"/>
-    <mergeCell ref="B279:E279"/>
+    <mergeCell ref="B269:E269"/>
     <mergeCell ref="B280:E280"/>
-    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B281:E281"/>
     <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B286:E286"/>
     <mergeCell ref="B293:E293"/>
     <mergeCell ref="B294:E294"/>
-    <mergeCell ref="B299:E299"/>
+    <mergeCell ref="B295:E295"/>
     <mergeCell ref="B300:E300"/>
     <mergeCell ref="B301:E301"/>
-    <mergeCell ref="B306:E306"/>
+    <mergeCell ref="B302:E302"/>
     <mergeCell ref="B307:E307"/>
-    <mergeCell ref="B314:E314"/>
+    <mergeCell ref="B308:E308"/>
     <mergeCell ref="B315:E315"/>
-    <mergeCell ref="B319:E319"/>
+    <mergeCell ref="B316:E316"/>
     <mergeCell ref="B320:E320"/>
-    <mergeCell ref="B328:E328"/>
+    <mergeCell ref="B321:E321"/>
     <mergeCell ref="B329:E329"/>
-    <mergeCell ref="B337:E337"/>
+    <mergeCell ref="B330:E330"/>
     <mergeCell ref="B338:E338"/>
     <mergeCell ref="B339:E339"/>
-    <mergeCell ref="B344:E344"/>
+    <mergeCell ref="B340:E340"/>
     <mergeCell ref="B345:E345"/>
     <mergeCell ref="B346:E346"/>
-    <mergeCell ref="B351:E351"/>
+    <mergeCell ref="B347:E347"/>
     <mergeCell ref="B352:E352"/>
-    <mergeCell ref="B360:E360"/>
+    <mergeCell ref="B353:E353"/>
     <mergeCell ref="B361:E361"/>
-    <mergeCell ref="B369:E369"/>
+    <mergeCell ref="B362:E362"/>
     <mergeCell ref="B370:E370"/>
-    <mergeCell ref="B374:E374"/>
+    <mergeCell ref="B371:E371"/>
     <mergeCell ref="B375:E375"/>
     <mergeCell ref="B376:E376"/>
-    <mergeCell ref="B379:E379"/>
+    <mergeCell ref="B377:E377"/>
     <mergeCell ref="B380:E380"/>
-    <mergeCell ref="B384:E384"/>
+    <mergeCell ref="B381:E381"/>
     <mergeCell ref="B385:E385"/>
     <mergeCell ref="B386:E386"/>
-    <mergeCell ref="B397:E397"/>
+    <mergeCell ref="B387:E387"/>
     <mergeCell ref="B398:E398"/>
     <mergeCell ref="B399:E399"/>
-    <mergeCell ref="B406:E406"/>
+    <mergeCell ref="B400:E400"/>
     <mergeCell ref="B407:E407"/>
     <mergeCell ref="B408:E408"/>
-    <mergeCell ref="B413:E413"/>
+    <mergeCell ref="B409:E409"/>
     <mergeCell ref="B414:E414"/>
-    <mergeCell ref="B419:E419"/>
+    <mergeCell ref="B415:E415"/>
     <mergeCell ref="B420:E420"/>
-    <mergeCell ref="B430:E430"/>
+    <mergeCell ref="B421:E421"/>
     <mergeCell ref="B431:E431"/>
     <mergeCell ref="B432:E432"/>
-    <mergeCell ref="B435:E435"/>
+    <mergeCell ref="B433:E433"/>
     <mergeCell ref="B436:E436"/>
-    <mergeCell ref="B454:E454"/>
+    <mergeCell ref="B437:E437"/>
     <mergeCell ref="B455:E455"/>
     <mergeCell ref="B456:E456"/>
-    <mergeCell ref="B461:E461"/>
+    <mergeCell ref="B457:E457"/>
     <mergeCell ref="B462:E462"/>
     <mergeCell ref="B463:E463"/>
-    <mergeCell ref="B468:E468"/>
+    <mergeCell ref="B464:E464"/>
     <mergeCell ref="B469:E469"/>
-    <mergeCell ref="B479:E479"/>
+    <mergeCell ref="B470:E470"/>
     <mergeCell ref="B480:E480"/>
-    <mergeCell ref="B484:E484"/>
+    <mergeCell ref="B481:E481"/>
     <mergeCell ref="B485:E485"/>
-    <mergeCell ref="B493:E493"/>
+    <mergeCell ref="B486:E486"/>
     <mergeCell ref="B494:E494"/>
+    <mergeCell ref="B495:E495"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7253,7 +7270,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -7274,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D42" s="8"/>
     </row>
@@ -7283,7 +7300,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D43" s="8"/>
     </row>
@@ -7292,7 +7309,7 @@
         <v>55</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -7313,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D48" s="8"/>
     </row>
@@ -7322,7 +7339,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D49" s="8"/>
     </row>
@@ -7331,7 +7348,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D50" s="8"/>
     </row>
@@ -7340,7 +7357,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D51" s="8"/>
     </row>
@@ -7349,7 +7366,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D52" s="8"/>
     </row>
@@ -7358,7 +7375,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -7379,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D57" s="8"/>
     </row>
@@ -7388,7 +7405,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D58" s="8"/>
     </row>
@@ -7397,7 +7414,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D59" s="8"/>
     </row>
@@ -7406,7 +7423,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -7427,7 +7444,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D64" s="8"/>
     </row>
@@ -7436,7 +7453,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D65" s="8"/>
     </row>
@@ -7445,7 +7462,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -7466,7 +7483,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D70" s="8"/>
     </row>
@@ -7475,7 +7492,7 @@
         <v>55</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -7496,7 +7513,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D75" s="8"/>
     </row>
@@ -7505,7 +7522,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D76" s="8"/>
     </row>
@@ -7514,7 +7531,7 @@
         <v>55</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -7535,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D81" s="8"/>
     </row>
@@ -7544,7 +7561,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D82" s="8"/>
     </row>
@@ -7553,7 +7570,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D83" s="8"/>
     </row>
@@ -7562,7 +7579,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D84" s="8"/>
     </row>
@@ -7571,7 +7588,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -7592,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D89" s="8"/>
     </row>
@@ -7601,7 +7618,7 @@
         <v>2</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D90" s="8"/>
     </row>
@@ -7610,10 +7627,10 @@
         <v>3</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7621,7 +7638,7 @@
         <v>55</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -7652,10 +7669,10 @@
         <v>102</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7663,10 +7680,10 @@
         <v>200</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7674,10 +7691,10 @@
         <v>400</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -7685,10 +7702,10 @@
         <v>401</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7696,7 +7713,7 @@
         <v>403</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D101" s="8"/>
     </row>
@@ -7705,10 +7722,10 @@
         <v>500</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -7716,7 +7733,7 @@
         <v>501</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D103" s="8"/>
     </row>
@@ -7735,7 +7752,7 @@
         <v>96</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -7756,10 +7773,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7767,10 +7784,10 @@
         <v>2</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -7778,10 +7795,10 @@
         <v>3</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -7789,7 +7806,7 @@
         <v>55</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -7799,7 +7816,7 @@
         <v>96</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -7820,10 +7837,10 @@
         <v>2048</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -7831,10 +7848,10 @@
         <v>2054</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -7842,10 +7859,10 @@
         <v>34525</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -7853,10 +7870,10 @@
         <v>34887</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -7864,7 +7881,7 @@
         <v>55</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -7874,7 +7891,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -7895,10 +7912,10 @@
         <v>1</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -7906,10 +7923,10 @@
         <v>6</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -7917,10 +7934,10 @@
         <v>17</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -7928,7 +7945,7 @@
         <v>55</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -7938,7 +7955,7 @@
         <v>96</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -7959,10 +7976,10 @@
         <v>20</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -7970,10 +7987,10 @@
         <v>21</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -7981,10 +7998,10 @@
         <v>22</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -7992,10 +8009,10 @@
         <v>23</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -8003,10 +8020,10 @@
         <v>25</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8014,10 +8031,10 @@
         <v>80</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8025,10 +8042,10 @@
         <v>443</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -8036,7 +8053,7 @@
         <v>55</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -8057,10 +8074,10 @@
         <v>1</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8068,10 +8085,10 @@
         <v>2</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -8079,10 +8096,10 @@
         <v>3</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -8090,10 +8107,10 @@
         <v>4</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -8101,10 +8118,10 @@
         <v>5</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8112,10 +8129,10 @@
         <v>6</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8123,10 +8140,10 @@
         <v>7</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -8134,10 +8151,10 @@
         <v>8</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -8145,10 +8162,10 @@
         <v>9</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -8156,10 +8173,10 @@
         <v>10</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -8167,10 +8184,10 @@
         <v>11</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -8178,7 +8195,7 @@
         <v>55</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -8199,10 +8216,10 @@
         <v>0</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="161" spans="2:4">
@@ -8210,10 +8227,10 @@
         <v>1</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="162" spans="2:4">
@@ -8221,10 +8238,10 @@
         <v>2</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="163" spans="2:4">
@@ -8232,10 +8249,10 @@
         <v>3</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="164" spans="2:4">
@@ -8243,10 +8260,10 @@
         <v>4</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="165" spans="2:4">
@@ -8254,10 +8271,10 @@
         <v>5</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="166" spans="2:4">
@@ -8265,10 +8282,10 @@
         <v>6</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="167" spans="2:4">
@@ -8276,10 +8293,10 @@
         <v>7</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="168" spans="2:4">
@@ -8287,10 +8304,10 @@
         <v>8</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="169" spans="2:4">
@@ -8298,10 +8315,10 @@
         <v>9</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="170" spans="2:4">
@@ -8309,10 +8326,10 @@
         <v>10</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="171" spans="2:4">
@@ -8320,10 +8337,10 @@
         <v>11</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="172" spans="2:4">
@@ -8331,10 +8348,10 @@
         <v>12</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="598">
   <si>
-    <t>Generated from schema\openc2.jaen, Mon Mar 27 15:17:55 2017</t>
+    <t>Generated from schema\openc2.jaen, Mon Mar 27 15:57:46 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -141,7 +141,7 @@
     <t>device-id (String)</t>
   </si>
   <si>
-    <t>ID of the command issuer, from "command-src" modifier</t>
+    <t>ID of the command issuer, from "command_src" modifier</t>
   </si>
   <si>
     <t>command_ref (required)</t>
@@ -150,7 +150,7 @@
     <t>command-id (String)</t>
   </si>
   <si>
-    <t>Command unique identifier, from "command-id" modifier</t>
+    <t>Command unique identifier, from "command_id" modifier</t>
   </si>
   <si>
     <t>status (required)</t>
@@ -603,7 +603,7 @@
     <t>ActuatorSpecifiers</t>
   </si>
   <si>
-    <t>port (optional)</t>
+    <t>device_id (optional)</t>
   </si>
   <si>
     <t>asset_id (optional)</t>
@@ -696,7 +696,7 @@
     <t>where (vocab)</t>
   </si>
   <si>
-    <t>allow, deny, contain, allow</t>
+    <t>allow, deny, contain</t>
   </si>
   <si>
     <t>message (optional)</t>
@@ -750,7 +750,7 @@
     <t>device-id</t>
   </si>
   <si>
-    <t>Device Identifier / Address</t>
+    <t>Device Identifier / Address (url)</t>
   </si>
   <si>
     <t>response-type</t>
@@ -3605,7 +3605,7 @@
         <v>195</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="E124" s="8"/>
     </row>
@@ -3749,7 +3749,7 @@
         <v>210</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>211</v>

--- a/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="598">
-  <si>
-    <t>Generated from schema\openc2.jaen, Mon Mar 27 15:57:46 2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="606">
+  <si>
+    <t>Generated from schema\openc2.jaen, Thu Mar 30 09:55:46 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -660,13 +660,25 @@
     <t>response-type (vocab)</t>
   </si>
   <si>
+    <t>respond_to (optional)</t>
+  </si>
+  <si>
+    <t>respond-to (String)</t>
+  </si>
+  <si>
+    <t>investigate/mitigate/remediate, was report_to</t>
+  </si>
+  <si>
     <t>source (optional)</t>
   </si>
   <si>
+    <t>location (String)</t>
+  </si>
+  <si>
     <t>destination (optional)</t>
   </si>
   <si>
-    <t>(investigate/mitigate/remediate was report_to, copy, move, save)</t>
+    <t>copy, move, save</t>
   </si>
   <si>
     <t>options (optional)</t>
@@ -751,6 +763,18 @@
   </si>
   <si>
     <t>Device Identifier / Address (url)</t>
+  </si>
+  <si>
+    <t>respond-to</t>
+  </si>
+  <si>
+    <t>Location to send responses to (url)</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Object/data locations (url)</t>
   </si>
   <si>
     <t>response-type</t>
@@ -2293,7 +2317,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E497"/>
+  <dimension ref="A2:E508"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3777,10 +3801,10 @@
         <v>214</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>77</v>
+        <v>216</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3788,13 +3812,13 @@
         <v>10</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>216</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3802,13 +3826,13 @@
         <v>11</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>49</v>
+        <v>218</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3816,13 +3840,13 @@
         <v>12</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3830,13 +3854,13 @@
         <v>13</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3844,13 +3868,13 @@
         <v>14</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>226</v>
+        <v>58</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3858,13 +3882,13 @@
         <v>15</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3872,13 +3896,13 @@
         <v>16</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3886,13 +3910,13 @@
         <v>17</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>231</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3900,43 +3924,46 @@
         <v>18</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="B150" s="8">
+        <v>19</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="4" t="s">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -3944,43 +3971,43 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="4" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
     </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
+    <row r="156" spans="1:5">
+      <c r="A156" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="4" t="s">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>239</v>
+        <v>49</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -3988,215 +4015,186 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="4" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
+    <row r="162" spans="1:5">
+      <c r="A162" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
     </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
+    <row r="167" spans="1:5">
+      <c r="A167" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>244</v>
+        <v>49</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
     </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B174" s="5" t="s">
+    <row r="172" spans="1:5">
+      <c r="A172" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
     </row>
-    <row r="178" spans="1:5">
-      <c r="B178" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="B179" s="8">
-        <v>1</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D179" s="8" t="s">
+    <row r="177" spans="1:5">
+      <c r="A177" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E179" s="8" t="s">
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="B180" s="8">
-        <v>2</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D180" s="8" t="s">
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E180" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="B181" s="8">
-        <v>3</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E181" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="B182" s="8">
-        <v>4</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D182" s="8" t="s">
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E182" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="B183" s="8">
-        <v>5</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E183" s="8" t="s">
-        <v>259</v>
-      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="4" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -4216,81 +4214,118 @@
         <v>21</v>
       </c>
     </row>
+    <row r="190" spans="1:5">
+      <c r="B190" s="8">
+        <v>1</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="B191" s="8">
+        <v>2</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="4" t="s">
+      <c r="B192" s="8">
+        <v>3</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="B193" s="8">
+        <v>4</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="B194" s="8">
+        <v>5</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B192" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="B195" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E195" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B197" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B199" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
+      <c r="B198" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="6"/>
+      <c r="B200" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
@@ -4301,1901 +4336,1864 @@
         <v>16</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
     </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C205" s="6"/>
-      <c r="D205" s="6"/>
-      <c r="E205" s="6"/>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
+    <row r="206" spans="1:5">
+      <c r="B206" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B210" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B220" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C209" s="6"/>
-      <c r="D209" s="6"/>
-      <c r="E209" s="6"/>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="B211" s="7" t="s">
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="B222" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="C222" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D211" s="7" t="s">
+      <c r="D222" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E211" s="7" t="s">
+      <c r="E222" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="B212" s="8">
-        <v>1</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E212" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="B213" s="8">
-        <v>2</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E213" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="B214" s="8">
-        <v>3</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D214" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E214" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="B215" s="8">
-        <v>4</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E215" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="B216" s="8">
-        <v>5</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E216" s="8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="B217" s="8">
-        <v>6</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E217" s="8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="B218" s="8">
-        <v>7</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E218" s="8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="B219" s="8">
-        <v>8</v>
-      </c>
-      <c r="C219" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E219" s="8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="B220" s="8">
-        <v>9</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E220" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="B221" s="8">
-        <v>10</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D221" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E221" s="8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="B222" s="8">
-        <v>11</v>
-      </c>
-      <c r="C222" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E222" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="B223" s="8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="B224" s="8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E224" s="8" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="B225" s="8">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>336</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="B226" s="8">
+        <v>4</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E226" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="B227" s="8">
+        <v>5</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C228" s="5"/>
-      <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
+      <c r="B228" s="8">
+        <v>6</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C229" s="6"/>
-      <c r="D229" s="6"/>
-      <c r="E229" s="6"/>
+      <c r="B229" s="8">
+        <v>7</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="B230" s="8">
+        <v>8</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="231" spans="1:5">
-      <c r="B231" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C231" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D231" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E231" s="7" t="s">
-        <v>21</v>
+      <c r="B231" s="8">
+        <v>9</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="B232" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="B233" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="B234" s="8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="B235" s="8">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C235" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="B236" s="8">
+        <v>14</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E236" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="D235" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="E235" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B238" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C238" s="5"/>
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B239" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="6"/>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="B241" s="7" t="s">
+      <c r="B240" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="B242" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="C242" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D241" s="7" t="s">
+      <c r="D242" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E241" s="7" t="s">
+      <c r="E242" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="B242" s="8">
-        <v>1</v>
-      </c>
-      <c r="C242" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E242" s="8" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="B243" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>136</v>
+        <v>345</v>
       </c>
       <c r="D243" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E243" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="B244" s="8">
+        <v>2</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E244" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="B245" s="8">
+        <v>3</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E245" s="8" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="4" t="s">
+      <c r="B246" s="8">
+        <v>4</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E246" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B246" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C246" s="5"/>
-      <c r="D246" s="5"/>
-      <c r="E246" s="5"/>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="4" t="s">
+      <c r="B249" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B250" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="B252" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="B253" s="8">
+        <v>1</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="B254" s="8">
+        <v>2</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E254" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B258" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="B249" s="7" t="s">
+      <c r="C258" s="6"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="B260" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="C260" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D249" s="7" t="s">
+      <c r="D260" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E249" s="7" t="s">
+      <c r="E260" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="B250" s="8">
-        <v>1</v>
-      </c>
-      <c r="C250" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D250" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E250" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="B251" s="8">
-        <v>2</v>
-      </c>
-      <c r="C251" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="D251" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E251" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="B252" s="8">
-        <v>3</v>
-      </c>
-      <c r="C252" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D252" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E252" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C255" s="5"/>
-      <c r="D255" s="5"/>
-      <c r="E255" s="5"/>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="B258" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D258" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E258" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="B259" s="8">
-        <v>1</v>
-      </c>
-      <c r="C259" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="D259" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E259" s="8"/>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="B260" s="8">
-        <v>2</v>
-      </c>
-      <c r="C260" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="D260" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E260" s="8"/>
     </row>
     <row r="261" spans="1:5">
       <c r="B261" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E261" s="8"/>
+        <v>362</v>
+      </c>
+      <c r="E261" s="8" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="262" spans="1:5">
       <c r="B262" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D262" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E262" s="8"/>
+      <c r="E262" s="8" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="263" spans="1:5">
       <c r="B263" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D263" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E263" s="8"/>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="B264" s="8">
-        <v>6</v>
-      </c>
-      <c r="C264" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D264" s="8" t="s">
+      <c r="E263" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C267" s="6"/>
+      <c r="D267" s="6"/>
+      <c r="E267" s="6"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="B269" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D269" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E269" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="B270" s="8">
+        <v>1</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D270" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E264" s="8"/>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="B265" s="8">
-        <v>7</v>
-      </c>
-      <c r="C265" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D265" s="8" t="s">
+      <c r="E270" s="8"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="B271" s="8">
+        <v>2</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D271" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E265" s="8"/>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C268" s="5"/>
-      <c r="D268" s="5"/>
-      <c r="E268" s="5"/>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C269" s="6"/>
-      <c r="D269" s="6"/>
-      <c r="E269" s="6"/>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="B271" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D271" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E271" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="E271" s="8"/>
     </row>
     <row r="272" spans="1:5">
       <c r="B272" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D272" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E272" s="8" t="s">
-        <v>375</v>
-      </c>
+      <c r="E272" s="8"/>
     </row>
     <row r="273" spans="1:5">
       <c r="B273" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D273" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E273" s="8" t="s">
-        <v>377</v>
-      </c>
+      <c r="E273" s="8"/>
     </row>
     <row r="274" spans="1:5">
       <c r="B274" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E274" s="8" t="s">
-        <v>379</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E274" s="8"/>
     </row>
     <row r="275" spans="1:5">
       <c r="B275" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C275" s="8" t="s">
         <v>380</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E275" s="8" t="s">
-        <v>381</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E275" s="8"/>
     </row>
     <row r="276" spans="1:5">
       <c r="B276" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E276" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="B277" s="8">
-        <v>6</v>
-      </c>
-      <c r="C277" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="D277" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E277" s="8" t="s">
-        <v>386</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E276" s="8"/>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="B282" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D282" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E282" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="B283" s="8">
+        <v>1</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D283" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E283" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="B284" s="8">
+        <v>2</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D284" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E284" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="B285" s="8">
+        <v>3</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D285" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E285" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="B286" s="8">
+        <v>4</v>
+      </c>
+      <c r="C286" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D286" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E286" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="B287" s="8">
+        <v>5</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D287" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E287" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="B288" s="8">
+        <v>6</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D288" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E288" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B280" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C280" s="5"/>
-      <c r="D280" s="5"/>
-      <c r="E280" s="5"/>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281" s="4" t="s">
+      <c r="B291" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B281" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C281" s="6"/>
-      <c r="D281" s="6"/>
-      <c r="E281" s="6"/>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="B282" s="8">
+      <c r="B292" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C292" s="6"/>
+      <c r="D292" s="6"/>
+      <c r="E292" s="6"/>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="B293" s="8">
         <v>0</v>
       </c>
-      <c r="C282" s="8"/>
-      <c r="D282" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="E282" s="8"/>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285" s="4" t="s">
+      <c r="C293" s="8"/>
+      <c r="D293" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E293" s="8"/>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B285" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C285" s="5"/>
-      <c r="D285" s="5"/>
-      <c r="E285" s="5"/>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="A286" s="4" t="s">
+      <c r="B296" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B286" s="6" t="s">
+      <c r="B297" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C286" s="6"/>
-      <c r="D286" s="6"/>
-      <c r="E286" s="6"/>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="B288" s="7" t="s">
+      <c r="C297" s="6"/>
+      <c r="D297" s="6"/>
+      <c r="E297" s="6"/>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="B299" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C288" s="7" t="s">
+      <c r="C299" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D288" s="7" t="s">
+      <c r="D299" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E288" s="7" t="s">
+      <c r="E299" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
-      <c r="B289" s="8">
+    <row r="300" spans="1:5">
+      <c r="B300" s="8">
         <v>1</v>
       </c>
-      <c r="C289" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="D289" s="8" t="s">
+      <c r="C300" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D300" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E289" s="8"/>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="B290" s="8">
+      <c r="E300" s="8"/>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="B301" s="8">
         <v>2</v>
       </c>
-      <c r="C290" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="D290" s="8" t="s">
+      <c r="C301" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D301" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E290" s="8"/>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="A293" s="4" t="s">
+      <c r="E301" s="8"/>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B293" s="5" t="s">
+      <c r="B304" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C293" s="5"/>
-      <c r="D293" s="5"/>
-      <c r="E293" s="5"/>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="A294" s="4" t="s">
+      <c r="C304" s="5"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="5"/>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B294" s="6" t="s">
+      <c r="B305" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C294" s="6"/>
-      <c r="D294" s="6"/>
-      <c r="E294" s="6"/>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="A295" s="4" t="s">
+      <c r="C305" s="6"/>
+      <c r="D305" s="6"/>
+      <c r="E305" s="6"/>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B295" s="6" t="s">
+      <c r="B306" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C295" s="6"/>
-      <c r="D295" s="6"/>
-      <c r="E295" s="6"/>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="B297" s="7" t="s">
+      <c r="C306" s="6"/>
+      <c r="D306" s="6"/>
+      <c r="E306" s="6"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="B308" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C297" s="7" t="s">
+      <c r="C308" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D297" s="7" t="s">
+      <c r="D308" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E297" s="7" t="s">
+      <c r="E308" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
-      <c r="A300" s="4" t="s">
+    <row r="311" spans="1:5">
+      <c r="A311" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B300" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C300" s="5"/>
-      <c r="D300" s="5"/>
-      <c r="E300" s="5"/>
-    </row>
-    <row r="301" spans="1:5">
-      <c r="A301" s="4" t="s">
+      <c r="B311" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
+      <c r="E311" s="5"/>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B301" s="6" t="s">
+      <c r="B312" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C301" s="6"/>
-      <c r="D301" s="6"/>
-      <c r="E301" s="6"/>
-    </row>
-    <row r="302" spans="1:5">
-      <c r="A302" s="4" t="s">
+      <c r="C312" s="6"/>
+      <c r="D312" s="6"/>
+      <c r="E312" s="6"/>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B302" s="6" t="s">
+      <c r="B313" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C302" s="6"/>
-      <c r="D302" s="6"/>
-      <c r="E302" s="6"/>
-    </row>
-    <row r="304" spans="1:5">
-      <c r="B304" s="7" t="s">
+      <c r="C313" s="6"/>
+      <c r="D313" s="6"/>
+      <c r="E313" s="6"/>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="B315" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C304" s="7" t="s">
+      <c r="C315" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D304" s="7" t="s">
+      <c r="D315" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E304" s="7" t="s">
+      <c r="E315" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
-      <c r="A307" s="4" t="s">
+    <row r="318" spans="1:5">
+      <c r="A318" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B307" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C307" s="5"/>
-      <c r="D307" s="5"/>
-      <c r="E307" s="5"/>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="A308" s="4" t="s">
+      <c r="B318" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C318" s="5"/>
+      <c r="D318" s="5"/>
+      <c r="E318" s="5"/>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B308" s="6" t="s">
+      <c r="B319" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C308" s="6"/>
-      <c r="D308" s="6"/>
-      <c r="E308" s="6"/>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="B310" s="7" t="s">
+      <c r="C319" s="6"/>
+      <c r="D319" s="6"/>
+      <c r="E319" s="6"/>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="B321" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C310" s="7" t="s">
+      <c r="C321" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D310" s="7" t="s">
+      <c r="D321" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E310" s="7" t="s">
+      <c r="E321" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
-      <c r="B311" s="8">
+    <row r="322" spans="1:5">
+      <c r="B322" s="8">
         <v>1</v>
       </c>
-      <c r="C311" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D311" s="8" t="s">
+      <c r="C322" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D322" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E311" s="8" t="s">
+      <c r="E322" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="B323" s="8">
+        <v>2</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D323" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E323" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C326" s="5"/>
+      <c r="D326" s="5"/>
+      <c r="E326" s="5"/>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B327" s="6" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="B312" s="8">
-        <v>2</v>
-      </c>
-      <c r="C312" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="D312" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="E312" s="8" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="A315" s="4" t="s">
+      <c r="C327" s="6"/>
+      <c r="D327" s="6"/>
+      <c r="E327" s="6"/>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="B328" s="8">
+        <v>0</v>
+      </c>
+      <c r="C328" s="8"/>
+      <c r="D328" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E328" s="8"/>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B315" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C315" s="5"/>
-      <c r="D315" s="5"/>
-      <c r="E315" s="5"/>
-    </row>
-    <row r="316" spans="1:5">
-      <c r="A316" s="4" t="s">
+      <c r="B331" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C331" s="5"/>
+      <c r="D331" s="5"/>
+      <c r="E331" s="5"/>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B316" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C316" s="6"/>
-      <c r="D316" s="6"/>
-      <c r="E316" s="6"/>
-    </row>
-    <row r="317" spans="1:5">
-      <c r="B317" s="8">
-        <v>0</v>
-      </c>
-      <c r="C317" s="8"/>
-      <c r="D317" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="E317" s="8"/>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B320" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C320" s="5"/>
-      <c r="D320" s="5"/>
-      <c r="E320" s="5"/>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="A321" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B321" s="6" t="s">
+      <c r="B332" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C321" s="6"/>
-      <c r="D321" s="6"/>
-      <c r="E321" s="6"/>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="B323" s="7" t="s">
+      <c r="C332" s="6"/>
+      <c r="D332" s="6"/>
+      <c r="E332" s="6"/>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="B334" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="7" t="s">
+      <c r="C334" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D323" s="7" t="s">
+      <c r="D334" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E323" s="7" t="s">
+      <c r="E334" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="B324" s="8">
-        <v>1</v>
-      </c>
-      <c r="C324" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="D324" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E324" s="8"/>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="B325" s="8">
-        <v>2</v>
-      </c>
-      <c r="C325" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="D325" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E325" s="8"/>
-    </row>
-    <row r="326" spans="1:5">
-      <c r="B326" s="8">
-        <v>3</v>
-      </c>
-      <c r="C326" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D326" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E326" s="8"/>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B329" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C329" s="5"/>
-      <c r="D329" s="5"/>
-      <c r="E329" s="5"/>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="A330" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B330" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C330" s="6"/>
-      <c r="D330" s="6"/>
-      <c r="E330" s="6"/>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="B332" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C332" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D332" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E332" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="B333" s="8">
-        <v>1</v>
-      </c>
-      <c r="C333" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D333" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E333" s="8" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="B334" s="8">
-        <v>2</v>
-      </c>
-      <c r="C334" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D334" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E334" s="8" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="B335" s="8">
+        <v>1</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D335" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E335" s="8"/>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="B336" s="8">
+        <v>2</v>
+      </c>
+      <c r="C336" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D336" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E336" s="8"/>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="B337" s="8">
         <v>3</v>
       </c>
-      <c r="C335" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="D335" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E335" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
-      <c r="A338" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C338" s="5"/>
-      <c r="D338" s="5"/>
-      <c r="E338" s="5"/>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="A339" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C339" s="6"/>
-      <c r="D339" s="6"/>
-      <c r="E339" s="6"/>
+      <c r="C337" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D337" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E337" s="8"/>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C340" s="5"/>
+      <c r="D340" s="5"/>
+      <c r="E340" s="5"/>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C341" s="6"/>
+      <c r="D341" s="6"/>
+      <c r="E341" s="6"/>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="B343" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D343" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E343" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="B344" s="8">
+        <v>1</v>
+      </c>
+      <c r="C344" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D344" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E344" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="B345" s="8">
+        <v>2</v>
+      </c>
+      <c r="C345" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D345" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E345" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="B346" s="8">
+        <v>3</v>
+      </c>
+      <c r="C346" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D346" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E346" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C349" s="5"/>
+      <c r="D349" s="5"/>
+      <c r="E349" s="5"/>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C350" s="6"/>
+      <c r="D350" s="6"/>
+      <c r="E350" s="6"/>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B340" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C340" s="6"/>
-      <c r="D340" s="6"/>
-      <c r="E340" s="6"/>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="B342" s="7" t="s">
+      <c r="B351" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C351" s="6"/>
+      <c r="D351" s="6"/>
+      <c r="E351" s="6"/>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="B353" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C342" s="7" t="s">
+      <c r="C353" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D342" s="7" t="s">
+      <c r="D353" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E342" s="7" t="s">
+      <c r="E353" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
-      <c r="A345" s="4" t="s">
+    <row r="356" spans="1:5">
+      <c r="A356" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B345" s="5" t="s">
+      <c r="B356" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C345" s="5"/>
-      <c r="D345" s="5"/>
-      <c r="E345" s="5"/>
-    </row>
-    <row r="346" spans="1:5">
-      <c r="A346" s="4" t="s">
+      <c r="C356" s="5"/>
+      <c r="D356" s="5"/>
+      <c r="E356" s="5"/>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B346" s="6" t="s">
+      <c r="B357" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C346" s="6"/>
-      <c r="D346" s="6"/>
-      <c r="E346" s="6"/>
-    </row>
-    <row r="347" spans="1:5">
-      <c r="A347" s="4" t="s">
+      <c r="C357" s="6"/>
+      <c r="D357" s="6"/>
+      <c r="E357" s="6"/>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B347" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C347" s="6"/>
-      <c r="D347" s="6"/>
-      <c r="E347" s="6"/>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="B349" s="7" t="s">
+      <c r="B358" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C358" s="6"/>
+      <c r="D358" s="6"/>
+      <c r="E358" s="6"/>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="B360" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C349" s="7" t="s">
+      <c r="C360" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D349" s="7" t="s">
+      <c r="D360" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E349" s="7" t="s">
+      <c r="E360" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
-      <c r="A352" s="4" t="s">
+    <row r="363" spans="1:5">
+      <c r="A363" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B352" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C352" s="5"/>
-      <c r="D352" s="5"/>
-      <c r="E352" s="5"/>
-    </row>
-    <row r="353" spans="1:5">
-      <c r="A353" s="4" t="s">
+      <c r="B363" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C363" s="5"/>
+      <c r="D363" s="5"/>
+      <c r="E363" s="5"/>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B353" s="6" t="s">
+      <c r="B364" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C353" s="6"/>
-      <c r="D353" s="6"/>
-      <c r="E353" s="6"/>
-    </row>
-    <row r="355" spans="1:5">
-      <c r="B355" s="7" t="s">
+      <c r="C364" s="6"/>
+      <c r="D364" s="6"/>
+      <c r="E364" s="6"/>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="B366" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C355" s="7" t="s">
+      <c r="C366" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D355" s="7" t="s">
+      <c r="D366" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E355" s="7" t="s">
+      <c r="E366" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="B356" s="8">
-        <v>1</v>
-      </c>
-      <c r="C356" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D356" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E356" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
-      <c r="B357" s="8">
-        <v>2</v>
-      </c>
-      <c r="C357" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="D357" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="E357" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
-      <c r="B358" s="8">
-        <v>3</v>
-      </c>
-      <c r="C358" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="D358" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="E358" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
-      <c r="A361" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B361" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C361" s="5"/>
-      <c r="D361" s="5"/>
-      <c r="E361" s="5"/>
-    </row>
-    <row r="362" spans="1:5">
-      <c r="A362" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B362" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C362" s="6"/>
-      <c r="D362" s="6"/>
-      <c r="E362" s="6"/>
-    </row>
-    <row r="364" spans="1:5">
-      <c r="B364" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C364" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D364" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E364" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
-      <c r="B365" s="8">
-        <v>1</v>
-      </c>
-      <c r="C365" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D365" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E365" s="8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
-      <c r="B366" s="8">
-        <v>2</v>
-      </c>
-      <c r="C366" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="D366" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="E366" s="8" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="B367" s="8">
+        <v>1</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D367" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E367" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="B368" s="8">
+        <v>2</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D368" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E368" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="B369" s="8">
         <v>3</v>
       </c>
-      <c r="C367" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="D367" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="E367" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
-      <c r="A370" s="4" t="s">
+      <c r="C369" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D369" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E369" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B370" s="5" t="s">
+      <c r="B372" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C372" s="5"/>
+      <c r="D372" s="5"/>
+      <c r="E372" s="5"/>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C373" s="6"/>
+      <c r="D373" s="6"/>
+      <c r="E373" s="6"/>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="B375" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D375" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E375" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="B376" s="8">
+        <v>1</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D376" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E376" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="B377" s="8">
+        <v>2</v>
+      </c>
+      <c r="C377" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C370" s="5"/>
-      <c r="D370" s="5"/>
-      <c r="E370" s="5"/>
-    </row>
-    <row r="371" spans="1:5">
-      <c r="A371" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B371" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C371" s="6"/>
-      <c r="D371" s="6"/>
-      <c r="E371" s="6"/>
-    </row>
-    <row r="372" spans="1:5">
-      <c r="B372" s="8">
-        <v>0</v>
-      </c>
-      <c r="C372" s="8"/>
-      <c r="D372" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E372" s="8"/>
-    </row>
-    <row r="375" spans="1:5">
-      <c r="A375" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B375" s="5" t="s">
+      <c r="D377" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C375" s="5"/>
-      <c r="D375" s="5"/>
-      <c r="E375" s="5"/>
-    </row>
-    <row r="376" spans="1:5">
-      <c r="A376" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B376" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C376" s="6"/>
-      <c r="D376" s="6"/>
-      <c r="E376" s="6"/>
-    </row>
-    <row r="377" spans="1:5">
-      <c r="A377" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B377" s="6" t="s">
+      <c r="E377" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C377" s="6"/>
-      <c r="D377" s="6"/>
-      <c r="E377" s="6"/>
-    </row>
-    <row r="380" spans="1:5">
-      <c r="A380" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B380" s="5" t="s">
+    </row>
+    <row r="378" spans="1:5">
+      <c r="B378" s="8">
+        <v>3</v>
+      </c>
+      <c r="C378" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C380" s="5"/>
-      <c r="D380" s="5"/>
-      <c r="E380" s="5"/>
+      <c r="D378" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E378" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C381" s="5"/>
+      <c r="D381" s="5"/>
+      <c r="E381" s="5"/>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B381" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C381" s="6"/>
-      <c r="D381" s="6"/>
-      <c r="E381" s="6"/>
-    </row>
-    <row r="382" spans="1:5">
-      <c r="B382" s="8">
+      <c r="B382" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C382" s="6"/>
+      <c r="D382" s="6"/>
+      <c r="E382" s="6"/>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="B383" s="8">
         <v>0</v>
       </c>
-      <c r="C382" s="8"/>
-      <c r="D382" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E382" s="8"/>
-    </row>
-    <row r="385" spans="1:5">
-      <c r="A385" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B385" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C385" s="5"/>
-      <c r="D385" s="5"/>
-      <c r="E385" s="5"/>
+      <c r="C383" s="8"/>
+      <c r="D383" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E383" s="8"/>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B386" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C386" s="6"/>
-      <c r="D386" s="6"/>
-      <c r="E386" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C386" s="5"/>
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>430</v>
+        <v>49</v>
       </c>
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
       <c r="E387" s="6"/>
     </row>
-    <row r="389" spans="1:5">
-      <c r="B389" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C389" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D389" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E389" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
-      <c r="B390" s="8">
-        <v>1</v>
-      </c>
-      <c r="C390" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="D390" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="E390" s="8" t="s">
-        <v>432</v>
-      </c>
+    <row r="388" spans="1:5">
+      <c r="A388" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C388" s="6"/>
+      <c r="D388" s="6"/>
+      <c r="E388" s="6"/>
     </row>
     <row r="391" spans="1:5">
-      <c r="B391" s="8">
-        <v>2</v>
-      </c>
-      <c r="C391" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D391" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E391" s="8" t="s">
+      <c r="A391" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B391" s="5" t="s">
         <v>435</v>
       </c>
+      <c r="C391" s="5"/>
+      <c r="D391" s="5"/>
+      <c r="E391" s="5"/>
     </row>
     <row r="392" spans="1:5">
-      <c r="B392" s="8">
-        <v>3</v>
-      </c>
-      <c r="C392" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="D392" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="E392" s="8" t="s">
-        <v>437</v>
-      </c>
+      <c r="A392" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C392" s="6"/>
+      <c r="D392" s="6"/>
+      <c r="E392" s="6"/>
     </row>
     <row r="393" spans="1:5">
       <c r="B393" s="8">
-        <v>4</v>
-      </c>
-      <c r="C393" s="8" t="s">
-        <v>438</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C393" s="8"/>
       <c r="D393" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E393" s="8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
-      <c r="B394" s="8">
-        <v>5</v>
-      </c>
-      <c r="C394" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="D394" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="E394" s="8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
-      <c r="B395" s="8">
-        <v>6</v>
-      </c>
-      <c r="C395" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="D395" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="E395" s="8" t="s">
-        <v>445</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="E393" s="8"/>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C396" s="5"/>
+      <c r="D396" s="5"/>
+      <c r="E396" s="5"/>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C397" s="6"/>
+      <c r="D397" s="6"/>
+      <c r="E397" s="6"/>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B398" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="C398" s="5"/>
-      <c r="D398" s="5"/>
-      <c r="E398" s="5"/>
-    </row>
-    <row r="399" spans="1:5">
-      <c r="A399" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B399" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C399" s="6"/>
-      <c r="D399" s="6"/>
-      <c r="E399" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="B398" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C398" s="6"/>
+      <c r="D398" s="6"/>
+      <c r="E398" s="6"/>
     </row>
     <row r="400" spans="1:5">
-      <c r="A400" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B400" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C400" s="6"/>
-      <c r="D400" s="6"/>
-      <c r="E400" s="6"/>
+      <c r="B400" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D400" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E400" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="B401" s="8">
+        <v>1</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D401" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E401" s="8" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="402" spans="1:5">
-      <c r="B402" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C402" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D402" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E402" s="7" t="s">
-        <v>21</v>
+      <c r="B402" s="8">
+        <v>2</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D402" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E402" s="8" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="403" spans="1:5">
       <c r="B403" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D403" s="8" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="E403" s="8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="404" spans="1:5">
       <c r="B404" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C404" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D404" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E404" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="B405" s="8">
+        <v>5</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D405" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E405" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="D404" s="8" t="s">
+    </row>
+    <row r="406" spans="1:5">
+      <c r="B406" s="8">
+        <v>6</v>
+      </c>
+      <c r="C406" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="E404" s="8" t="s">
+      <c r="D406" s="8" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="407" spans="1:5">
-      <c r="A407" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B407" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C407" s="5"/>
-      <c r="D407" s="5"/>
-      <c r="E407" s="5"/>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="A408" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B408" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C408" s="6"/>
-      <c r="D408" s="6"/>
-      <c r="E408" s="6"/>
+      <c r="E406" s="8" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C409" s="5"/>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C410" s="6"/>
+      <c r="D410" s="6"/>
+      <c r="E410" s="6"/>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B409" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C409" s="6"/>
-      <c r="D409" s="6"/>
-      <c r="E409" s="6"/>
-    </row>
-    <row r="411" spans="1:5">
-      <c r="B411" s="7" t="s">
+      <c r="B411" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C411" s="6"/>
+      <c r="D411" s="6"/>
+      <c r="E411" s="6"/>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="B413" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C411" s="7" t="s">
+      <c r="C413" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D411" s="7" t="s">
+      <c r="D413" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E411" s="7" t="s">
+      <c r="E413" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="414" spans="1:5">
-      <c r="A414" s="4" t="s">
+      <c r="B414" s="8">
+        <v>1</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D414" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E414" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="B415" s="8">
+        <v>2</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D415" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="E415" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B414" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C414" s="5"/>
-      <c r="D414" s="5"/>
-      <c r="E414" s="5"/>
-    </row>
-    <row r="415" spans="1:5">
-      <c r="A415" s="4" t="s">
+      <c r="B418" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C418" s="5"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B415" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C415" s="6"/>
-      <c r="D415" s="6"/>
-      <c r="E415" s="6"/>
-    </row>
-    <row r="417" spans="1:5">
-      <c r="B417" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C417" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D417" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E417" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B419" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C419" s="6"/>
+      <c r="D419" s="6"/>
+      <c r="E419" s="6"/>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C420" s="6"/>
+      <c r="D420" s="6"/>
+      <c r="E420" s="6"/>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="B422" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D422" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E422" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B420" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C420" s="5"/>
-      <c r="D420" s="5"/>
-      <c r="E420" s="5"/>
-    </row>
-    <row r="421" spans="1:5">
-      <c r="A421" s="4" t="s">
+      <c r="B425" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C425" s="5"/>
+      <c r="D425" s="5"/>
+      <c r="E425" s="5"/>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B421" s="6" t="s">
+      <c r="B426" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C421" s="6"/>
-      <c r="D421" s="6"/>
-      <c r="E421" s="6"/>
-    </row>
-    <row r="423" spans="1:5">
-      <c r="B423" s="7" t="s">
+      <c r="C426" s="6"/>
+      <c r="D426" s="6"/>
+      <c r="E426" s="6"/>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="B428" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C423" s="7" t="s">
+      <c r="C428" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D423" s="7" t="s">
+      <c r="D428" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E423" s="7" t="s">
+      <c r="E428" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
-      <c r="B424" s="8">
-        <v>1</v>
-      </c>
-      <c r="C424" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="D424" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E424" s="8" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
-      <c r="B425" s="8">
-        <v>2</v>
-      </c>
-      <c r="C425" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="D425" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E425" s="8" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
-      <c r="B426" s="8">
-        <v>3</v>
-      </c>
-      <c r="C426" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D426" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E426" s="8" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
-      <c r="B427" s="8">
-        <v>4</v>
-      </c>
-      <c r="C427" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="D427" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E427" s="8" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
-      <c r="B428" s="8">
-        <v>5</v>
-      </c>
-      <c r="C428" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="D428" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E428" s="8" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -6203,7 +6201,7 @@
         <v>15</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
@@ -6214,439 +6212,439 @@
         <v>16</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C432" s="6"/>
       <c r="D432" s="6"/>
       <c r="E432" s="6"/>
     </row>
-    <row r="433" spans="1:5">
-      <c r="A433" s="4" t="s">
+    <row r="434" spans="1:5">
+      <c r="B434" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C434" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D434" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E434" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="B435" s="8">
+        <v>1</v>
+      </c>
+      <c r="C435" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D435" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E435" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="B436" s="8">
+        <v>2</v>
+      </c>
+      <c r="C436" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D436" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E436" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="B437" s="8">
+        <v>3</v>
+      </c>
+      <c r="C437" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D437" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E437" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="B438" s="8">
+        <v>4</v>
+      </c>
+      <c r="C438" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D438" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E438" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="B439" s="8">
+        <v>5</v>
+      </c>
+      <c r="C439" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D439" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E439" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C442" s="5"/>
+      <c r="D442" s="5"/>
+      <c r="E442" s="5"/>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C443" s="6"/>
+      <c r="D443" s="6"/>
+      <c r="E443" s="6"/>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B433" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="C433" s="6"/>
-      <c r="D433" s="6"/>
-      <c r="E433" s="6"/>
-    </row>
-    <row r="436" spans="1:5">
-      <c r="A436" s="4" t="s">
+      <c r="B444" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C444" s="6"/>
+      <c r="D444" s="6"/>
+      <c r="E444" s="6"/>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B436" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="C436" s="5"/>
-      <c r="D436" s="5"/>
-      <c r="E436" s="5"/>
-    </row>
-    <row r="437" spans="1:5">
-      <c r="A437" s="4" t="s">
+      <c r="B447" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C447" s="5"/>
+      <c r="D447" s="5"/>
+      <c r="E447" s="5"/>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B437" s="6" t="s">
+      <c r="B448" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C437" s="6"/>
-      <c r="D437" s="6"/>
-      <c r="E437" s="6"/>
-    </row>
-    <row r="439" spans="1:5">
-      <c r="B439" s="7" t="s">
+      <c r="C448" s="6"/>
+      <c r="D448" s="6"/>
+      <c r="E448" s="6"/>
+    </row>
+    <row r="450" spans="2:5">
+      <c r="B450" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C439" s="7" t="s">
+      <c r="C450" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D439" s="7" t="s">
+      <c r="D450" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E439" s="7" t="s">
+      <c r="E450" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
-      <c r="B440" s="8">
+    <row r="451" spans="2:5">
+      <c r="B451" s="8">
         <v>1</v>
       </c>
-      <c r="C440" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="D440" s="8" t="s">
+      <c r="C451" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D451" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E440" s="8" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
-      <c r="B441" s="8">
+      <c r="E451" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="452" spans="2:5">
+      <c r="B452" s="8">
         <v>2</v>
       </c>
-      <c r="C441" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="D441" s="8" t="s">
+      <c r="C452" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="D452" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E441" s="8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
-      <c r="B442" s="8">
+      <c r="E452" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="453" spans="2:5">
+      <c r="B453" s="8">
         <v>3</v>
       </c>
-      <c r="C442" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="D442" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E442" s="8" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
-      <c r="B443" s="8">
+      <c r="C453" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="D453" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="E453" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="454" spans="2:5">
+      <c r="B454" s="8">
         <v>4</v>
       </c>
-      <c r="C443" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D443" s="8" t="s">
+      <c r="C454" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D454" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E443" s="8" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
-      <c r="B444" s="8">
+      <c r="E454" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="455" spans="2:5">
+      <c r="B455" s="8">
         <v>5</v>
       </c>
-      <c r="C444" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="D444" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E444" s="8" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
-      <c r="B445" s="8">
+      <c r="C455" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="D455" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E455" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="456" spans="2:5">
+      <c r="B456" s="8">
         <v>6</v>
       </c>
-      <c r="C445" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="D445" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E445" s="8" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
-      <c r="B446" s="8">
+      <c r="C456" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="D456" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E456" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="457" spans="2:5">
+      <c r="B457" s="8">
         <v>7</v>
       </c>
-      <c r="C446" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="D446" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E446" s="8" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
-      <c r="B447" s="8">
+      <c r="C457" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="D457" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E457" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="458" spans="2:5">
+      <c r="B458" s="8">
         <v>8</v>
       </c>
-      <c r="C447" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="D447" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E447" s="8" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
-      <c r="B448" s="8">
+      <c r="C458" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="D458" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E458" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="459" spans="2:5">
+      <c r="B459" s="8">
         <v>9</v>
       </c>
-      <c r="C448" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="D448" s="8" t="s">
+      <c r="C459" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D459" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E448" s="8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
-      <c r="B449" s="8">
+      <c r="E459" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="460" spans="2:5">
+      <c r="B460" s="8">
         <v>10</v>
       </c>
-      <c r="C449" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="D449" s="8" t="s">
+      <c r="C460" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="D460" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E449" s="8" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
-      <c r="B450" s="8">
+      <c r="E460" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="461" spans="2:5">
+      <c r="B461" s="8">
         <v>11</v>
       </c>
-      <c r="C450" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="D450" s="8" t="s">
+      <c r="C461" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D461" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E450" s="8" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
-      <c r="B451" s="8">
+      <c r="E461" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="462" spans="2:5">
+      <c r="B462" s="8">
         <v>12</v>
       </c>
-      <c r="C451" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="D451" s="8" t="s">
+      <c r="C462" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D462" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E451" s="8" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
-      <c r="B452" s="8">
+      <c r="E462" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="463" spans="2:5">
+      <c r="B463" s="8">
         <v>13</v>
       </c>
-      <c r="C452" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D452" s="8" t="s">
+      <c r="C463" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D463" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E452" s="8" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
-      <c r="A455" s="4" t="s">
+      <c r="E463" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B455" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="C455" s="5"/>
-      <c r="D455" s="5"/>
-      <c r="E455" s="5"/>
-    </row>
-    <row r="456" spans="1:5">
-      <c r="A456" s="4" t="s">
+      <c r="B466" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C466" s="5"/>
+      <c r="D466" s="5"/>
+      <c r="E466" s="5"/>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B456" s="6" t="s">
+      <c r="B467" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C456" s="6"/>
-      <c r="D456" s="6"/>
-      <c r="E456" s="6"/>
-    </row>
-    <row r="457" spans="1:5">
-      <c r="A457" s="4" t="s">
+      <c r="C467" s="6"/>
+      <c r="D467" s="6"/>
+      <c r="E467" s="6"/>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B457" s="6" t="s">
+      <c r="B468" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C457" s="6"/>
-      <c r="D457" s="6"/>
-      <c r="E457" s="6"/>
-    </row>
-    <row r="459" spans="1:5">
-      <c r="B459" s="7" t="s">
+      <c r="C468" s="6"/>
+      <c r="D468" s="6"/>
+      <c r="E468" s="6"/>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="B470" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C459" s="7" t="s">
+      <c r="C470" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D459" s="7" t="s">
+      <c r="D470" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E459" s="7" t="s">
+      <c r="E470" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
-      <c r="A462" s="4" t="s">
+    <row r="473" spans="1:5">
+      <c r="A473" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B462" s="5" t="s">
+      <c r="B473" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C462" s="5"/>
-      <c r="D462" s="5"/>
-      <c r="E462" s="5"/>
-    </row>
-    <row r="463" spans="1:5">
-      <c r="A463" s="4" t="s">
+      <c r="C473" s="5"/>
+      <c r="D473" s="5"/>
+      <c r="E473" s="5"/>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B463" s="6" t="s">
+      <c r="B474" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C463" s="6"/>
-      <c r="D463" s="6"/>
-      <c r="E463" s="6"/>
-    </row>
-    <row r="464" spans="1:5">
-      <c r="A464" s="4" t="s">
+      <c r="C474" s="6"/>
+      <c r="D474" s="6"/>
+      <c r="E474" s="6"/>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B464" s="6" t="s">
+      <c r="B475" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C464" s="6"/>
-      <c r="D464" s="6"/>
-      <c r="E464" s="6"/>
-    </row>
-    <row r="466" spans="1:5">
-      <c r="B466" s="7" t="s">
+      <c r="C475" s="6"/>
+      <c r="D475" s="6"/>
+      <c r="E475" s="6"/>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="B477" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C466" s="7" t="s">
+      <c r="C477" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D466" s="7" t="s">
+      <c r="D477" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E466" s="7" t="s">
+      <c r="E477" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
-      <c r="A469" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B469" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="C469" s="5"/>
-      <c r="D469" s="5"/>
-      <c r="E469" s="5"/>
-    </row>
-    <row r="470" spans="1:5">
-      <c r="A470" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B470" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C470" s="6"/>
-      <c r="D470" s="6"/>
-      <c r="E470" s="6"/>
-    </row>
-    <row r="472" spans="1:5">
-      <c r="B472" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C472" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D472" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E472" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
-      <c r="B473" s="8">
-        <v>1</v>
-      </c>
-      <c r="C473" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="D473" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E473" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
-      <c r="B474" s="8">
-        <v>2</v>
-      </c>
-      <c r="C474" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D474" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="E474" s="8" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5">
-      <c r="B475" s="8">
-        <v>3</v>
-      </c>
-      <c r="C475" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="D475" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E475" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
-      <c r="B476" s="8">
-        <v>4</v>
-      </c>
-      <c r="C476" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="D476" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E476" s="8" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
-      <c r="B477" s="8">
-        <v>5</v>
-      </c>
-      <c r="C477" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="D477" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E477" s="8" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -6654,7 +6652,7 @@
         <v>15</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C480" s="5"/>
       <c r="D480" s="5"/>
@@ -6665,138 +6663,244 @@
         <v>16</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>388</v>
+        <v>29</v>
       </c>
       <c r="C481" s="6"/>
       <c r="D481" s="6"/>
       <c r="E481" s="6"/>
     </row>
-    <row r="482" spans="1:5">
-      <c r="B482" s="8">
+    <row r="483" spans="1:5">
+      <c r="B483" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C483" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D483" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E483" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="B484" s="8">
+        <v>1</v>
+      </c>
+      <c r="C484" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="D484" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E484" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="B485" s="8">
+        <v>2</v>
+      </c>
+      <c r="C485" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="D485" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E485" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="B486" s="8">
+        <v>3</v>
+      </c>
+      <c r="C486" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D486" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E486" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="B487" s="8">
+        <v>4</v>
+      </c>
+      <c r="C487" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D487" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E487" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="B488" s="8">
+        <v>5</v>
+      </c>
+      <c r="C488" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D488" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E488" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B491" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C491" s="5"/>
+      <c r="D491" s="5"/>
+      <c r="E491" s="5"/>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B492" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C492" s="6"/>
+      <c r="D492" s="6"/>
+      <c r="E492" s="6"/>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="B493" s="8">
         <v>0</v>
       </c>
-      <c r="C482" s="8"/>
-      <c r="D482" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="E482" s="8"/>
-    </row>
-    <row r="485" spans="1:5">
-      <c r="A485" s="4" t="s">
+      <c r="C493" s="8"/>
+      <c r="D493" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="E493" s="8"/>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B485" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="C485" s="5"/>
-      <c r="D485" s="5"/>
-      <c r="E485" s="5"/>
-    </row>
-    <row r="486" spans="1:5">
-      <c r="A486" s="4" t="s">
+      <c r="B496" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C496" s="5"/>
+      <c r="D496" s="5"/>
+      <c r="E496" s="5"/>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B486" s="6" t="s">
+      <c r="B497" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C486" s="6"/>
-      <c r="D486" s="6"/>
-      <c r="E486" s="6"/>
-    </row>
-    <row r="488" spans="1:5">
-      <c r="B488" s="7" t="s">
+      <c r="C497" s="6"/>
+      <c r="D497" s="6"/>
+      <c r="E497" s="6"/>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="B499" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C488" s="7" t="s">
+      <c r="C499" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D488" s="7" t="s">
+      <c r="D499" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E488" s="7" t="s">
+      <c r="E499" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
-      <c r="B489" s="8">
+    <row r="500" spans="1:5">
+      <c r="B500" s="8">
         <v>1</v>
       </c>
-      <c r="C489" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="D489" s="8" t="s">
+      <c r="C500" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D500" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E489" s="8" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
-      <c r="B490" s="8">
+      <c r="E500" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="B501" s="8">
         <v>2</v>
       </c>
-      <c r="C490" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D490" s="8" t="s">
+      <c r="C501" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="D501" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E490" s="8" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
-      <c r="B491" s="8">
+      <c r="E501" s="8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="B502" s="8">
         <v>3</v>
       </c>
-      <c r="C491" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D491" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="E491" s="8" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5">
-      <c r="A494" s="4" t="s">
+      <c r="C502" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="D502" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="E502" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B494" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="C494" s="5"/>
-      <c r="D494" s="5"/>
-      <c r="E494" s="5"/>
-    </row>
-    <row r="495" spans="1:5">
-      <c r="A495" s="4" t="s">
+      <c r="B505" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="C505" s="5"/>
+      <c r="D505" s="5"/>
+      <c r="E505" s="5"/>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B495" s="6" t="s">
+      <c r="B506" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C495" s="6"/>
-      <c r="D495" s="6"/>
-      <c r="E495" s="6"/>
-    </row>
-    <row r="497" spans="2:5">
-      <c r="B497" s="7" t="s">
+      <c r="C506" s="6"/>
+      <c r="D506" s="6"/>
+      <c r="E506" s="6"/>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="B508" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C497" s="7" t="s">
+      <c r="C508" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D497" s="7" t="s">
+      <c r="D508" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E497" s="7" t="s">
+      <c r="E508" s="7" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="123">
+  <mergeCells count="129">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B11:E11"/>
@@ -6814,112 +6918,118 @@
     <mergeCell ref="B121:E121"/>
     <mergeCell ref="B128:E128"/>
     <mergeCell ref="B129:E129"/>
-    <mergeCell ref="B152:E152"/>
     <mergeCell ref="B153:E153"/>
     <mergeCell ref="B154:E154"/>
     <mergeCell ref="B155:E155"/>
-    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="B156:E156"/>
     <mergeCell ref="B159:E159"/>
     <mergeCell ref="B160:E160"/>
     <mergeCell ref="B161:E161"/>
-    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="B162:E162"/>
     <mergeCell ref="B165:E165"/>
     <mergeCell ref="B166:E166"/>
-    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="B167:E167"/>
     <mergeCell ref="B170:E170"/>
     <mergeCell ref="B171:E171"/>
-    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B172:E172"/>
     <mergeCell ref="B175:E175"/>
     <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B180:E180"/>
+    <mergeCell ref="B181:E181"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="B185:E185"/>
     <mergeCell ref="B186:E186"/>
     <mergeCell ref="B187:E187"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="B197:E197"/>
     <mergeCell ref="B198:E198"/>
-    <mergeCell ref="B199:E199"/>
-    <mergeCell ref="B200:E200"/>
     <mergeCell ref="B203:E203"/>
     <mergeCell ref="B204:E204"/>
-    <mergeCell ref="B205:E205"/>
-    <mergeCell ref="B208:E208"/>
     <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="B229:E229"/>
-    <mergeCell ref="B238:E238"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B214:E214"/>
+    <mergeCell ref="B215:E215"/>
+    <mergeCell ref="B216:E216"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:E220"/>
     <mergeCell ref="B239:E239"/>
-    <mergeCell ref="B246:E246"/>
-    <mergeCell ref="B247:E247"/>
-    <mergeCell ref="B255:E255"/>
-    <mergeCell ref="B256:E256"/>
-    <mergeCell ref="B268:E268"/>
-    <mergeCell ref="B269:E269"/>
+    <mergeCell ref="B240:E240"/>
+    <mergeCell ref="B249:E249"/>
+    <mergeCell ref="B250:E250"/>
+    <mergeCell ref="B257:E257"/>
+    <mergeCell ref="B258:E258"/>
+    <mergeCell ref="B266:E266"/>
+    <mergeCell ref="B267:E267"/>
+    <mergeCell ref="B279:E279"/>
     <mergeCell ref="B280:E280"/>
-    <mergeCell ref="B281:E281"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B286:E286"/>
-    <mergeCell ref="B293:E293"/>
-    <mergeCell ref="B294:E294"/>
-    <mergeCell ref="B295:E295"/>
-    <mergeCell ref="B300:E300"/>
-    <mergeCell ref="B301:E301"/>
-    <mergeCell ref="B302:E302"/>
-    <mergeCell ref="B307:E307"/>
-    <mergeCell ref="B308:E308"/>
-    <mergeCell ref="B315:E315"/>
-    <mergeCell ref="B316:E316"/>
-    <mergeCell ref="B320:E320"/>
-    <mergeCell ref="B321:E321"/>
-    <mergeCell ref="B329:E329"/>
-    <mergeCell ref="B330:E330"/>
-    <mergeCell ref="B338:E338"/>
-    <mergeCell ref="B339:E339"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B296:E296"/>
+    <mergeCell ref="B297:E297"/>
+    <mergeCell ref="B304:E304"/>
+    <mergeCell ref="B305:E305"/>
+    <mergeCell ref="B306:E306"/>
+    <mergeCell ref="B311:E311"/>
+    <mergeCell ref="B312:E312"/>
+    <mergeCell ref="B313:E313"/>
+    <mergeCell ref="B318:E318"/>
+    <mergeCell ref="B319:E319"/>
+    <mergeCell ref="B326:E326"/>
+    <mergeCell ref="B327:E327"/>
+    <mergeCell ref="B331:E331"/>
+    <mergeCell ref="B332:E332"/>
     <mergeCell ref="B340:E340"/>
-    <mergeCell ref="B345:E345"/>
-    <mergeCell ref="B346:E346"/>
-    <mergeCell ref="B347:E347"/>
-    <mergeCell ref="B352:E352"/>
-    <mergeCell ref="B353:E353"/>
-    <mergeCell ref="B361:E361"/>
-    <mergeCell ref="B362:E362"/>
-    <mergeCell ref="B370:E370"/>
-    <mergeCell ref="B371:E371"/>
-    <mergeCell ref="B375:E375"/>
-    <mergeCell ref="B376:E376"/>
-    <mergeCell ref="B377:E377"/>
-    <mergeCell ref="B380:E380"/>
+    <mergeCell ref="B341:E341"/>
+    <mergeCell ref="B349:E349"/>
+    <mergeCell ref="B350:E350"/>
+    <mergeCell ref="B351:E351"/>
+    <mergeCell ref="B356:E356"/>
+    <mergeCell ref="B357:E357"/>
+    <mergeCell ref="B358:E358"/>
+    <mergeCell ref="B363:E363"/>
+    <mergeCell ref="B364:E364"/>
+    <mergeCell ref="B372:E372"/>
+    <mergeCell ref="B373:E373"/>
     <mergeCell ref="B381:E381"/>
-    <mergeCell ref="B385:E385"/>
+    <mergeCell ref="B382:E382"/>
     <mergeCell ref="B386:E386"/>
     <mergeCell ref="B387:E387"/>
+    <mergeCell ref="B388:E388"/>
+    <mergeCell ref="B391:E391"/>
+    <mergeCell ref="B392:E392"/>
+    <mergeCell ref="B396:E396"/>
+    <mergeCell ref="B397:E397"/>
     <mergeCell ref="B398:E398"/>
-    <mergeCell ref="B399:E399"/>
-    <mergeCell ref="B400:E400"/>
-    <mergeCell ref="B407:E407"/>
-    <mergeCell ref="B408:E408"/>
     <mergeCell ref="B409:E409"/>
-    <mergeCell ref="B414:E414"/>
-    <mergeCell ref="B415:E415"/>
+    <mergeCell ref="B410:E410"/>
+    <mergeCell ref="B411:E411"/>
+    <mergeCell ref="B418:E418"/>
+    <mergeCell ref="B419:E419"/>
     <mergeCell ref="B420:E420"/>
-    <mergeCell ref="B421:E421"/>
+    <mergeCell ref="B425:E425"/>
+    <mergeCell ref="B426:E426"/>
     <mergeCell ref="B431:E431"/>
     <mergeCell ref="B432:E432"/>
-    <mergeCell ref="B433:E433"/>
-    <mergeCell ref="B436:E436"/>
-    <mergeCell ref="B437:E437"/>
-    <mergeCell ref="B455:E455"/>
-    <mergeCell ref="B456:E456"/>
-    <mergeCell ref="B457:E457"/>
-    <mergeCell ref="B462:E462"/>
-    <mergeCell ref="B463:E463"/>
-    <mergeCell ref="B464:E464"/>
-    <mergeCell ref="B469:E469"/>
-    <mergeCell ref="B470:E470"/>
+    <mergeCell ref="B442:E442"/>
+    <mergeCell ref="B443:E443"/>
+    <mergeCell ref="B444:E444"/>
+    <mergeCell ref="B447:E447"/>
+    <mergeCell ref="B448:E448"/>
+    <mergeCell ref="B466:E466"/>
+    <mergeCell ref="B467:E467"/>
+    <mergeCell ref="B468:E468"/>
+    <mergeCell ref="B473:E473"/>
+    <mergeCell ref="B474:E474"/>
+    <mergeCell ref="B475:E475"/>
     <mergeCell ref="B480:E480"/>
     <mergeCell ref="B481:E481"/>
-    <mergeCell ref="B485:E485"/>
-    <mergeCell ref="B486:E486"/>
-    <mergeCell ref="B494:E494"/>
-    <mergeCell ref="B495:E495"/>
+    <mergeCell ref="B491:E491"/>
+    <mergeCell ref="B492:E492"/>
+    <mergeCell ref="B496:E496"/>
+    <mergeCell ref="B497:E497"/>
+    <mergeCell ref="B505:E505"/>
+    <mergeCell ref="B506:E506"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7270,7 +7380,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -7291,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D42" s="8"/>
     </row>
@@ -7300,7 +7410,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D43" s="8"/>
     </row>
@@ -7309,7 +7419,7 @@
         <v>55</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -7330,7 +7440,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D48" s="8"/>
     </row>
@@ -7339,7 +7449,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D49" s="8"/>
     </row>
@@ -7348,7 +7458,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D50" s="8"/>
     </row>
@@ -7357,7 +7467,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D51" s="8"/>
     </row>
@@ -7366,7 +7476,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D52" s="8"/>
     </row>
@@ -7375,7 +7485,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -7396,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D57" s="8"/>
     </row>
@@ -7405,7 +7515,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D58" s="8"/>
     </row>
@@ -7414,7 +7524,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="D59" s="8"/>
     </row>
@@ -7423,7 +7533,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -7444,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="D64" s="8"/>
     </row>
@@ -7453,7 +7563,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D65" s="8"/>
     </row>
@@ -7462,7 +7572,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -7483,7 +7593,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D70" s="8"/>
     </row>
@@ -7492,7 +7602,7 @@
         <v>55</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -7513,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D75" s="8"/>
     </row>
@@ -7522,7 +7632,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D76" s="8"/>
     </row>
@@ -7531,7 +7641,7 @@
         <v>55</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -7552,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D81" s="8"/>
     </row>
@@ -7561,7 +7671,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D82" s="8"/>
     </row>
@@ -7570,7 +7680,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D83" s="8"/>
     </row>
@@ -7579,7 +7689,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D84" s="8"/>
     </row>
@@ -7588,7 +7698,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -7609,7 +7719,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D89" s="8"/>
     </row>
@@ -7618,7 +7728,7 @@
         <v>2</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D90" s="8"/>
     </row>
@@ -7627,10 +7737,10 @@
         <v>3</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7638,7 +7748,7 @@
         <v>55</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -7669,10 +7779,10 @@
         <v>102</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7680,10 +7790,10 @@
         <v>200</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7691,10 +7801,10 @@
         <v>400</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -7702,10 +7812,10 @@
         <v>401</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7713,7 +7823,7 @@
         <v>403</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D101" s="8"/>
     </row>
@@ -7722,10 +7832,10 @@
         <v>500</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -7733,7 +7843,7 @@
         <v>501</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D103" s="8"/>
     </row>
@@ -7752,7 +7862,7 @@
         <v>96</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -7773,10 +7883,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7784,10 +7894,10 @@
         <v>2</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -7795,10 +7905,10 @@
         <v>3</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -7806,7 +7916,7 @@
         <v>55</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -7816,7 +7926,7 @@
         <v>96</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -7837,10 +7947,10 @@
         <v>2048</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -7848,10 +7958,10 @@
         <v>2054</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -7859,10 +7969,10 @@
         <v>34525</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -7870,10 +7980,10 @@
         <v>34887</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -7881,7 +7991,7 @@
         <v>55</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -7891,7 +8001,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -7912,10 +8022,10 @@
         <v>1</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -7923,10 +8033,10 @@
         <v>6</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -7934,10 +8044,10 @@
         <v>17</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -7945,7 +8055,7 @@
         <v>55</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -7955,7 +8065,7 @@
         <v>96</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -7976,10 +8086,10 @@
         <v>20</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -7987,10 +8097,10 @@
         <v>21</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -7998,10 +8108,10 @@
         <v>22</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -8009,10 +8119,10 @@
         <v>23</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -8020,10 +8130,10 @@
         <v>25</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8031,10 +8141,10 @@
         <v>80</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8042,10 +8152,10 @@
         <v>443</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -8053,7 +8163,7 @@
         <v>55</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -8074,10 +8184,10 @@
         <v>1</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8085,10 +8195,10 @@
         <v>2</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -8096,10 +8206,10 @@
         <v>3</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -8107,10 +8217,10 @@
         <v>4</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -8118,10 +8228,10 @@
         <v>5</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8129,10 +8239,10 @@
         <v>6</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8140,10 +8250,10 @@
         <v>7</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -8151,10 +8261,10 @@
         <v>8</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -8162,10 +8272,10 @@
         <v>9</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -8173,10 +8283,10 @@
         <v>10</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -8184,10 +8294,10 @@
         <v>11</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -8195,7 +8305,7 @@
         <v>55</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -8216,10 +8326,10 @@
         <v>0</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="161" spans="2:4">
@@ -8227,10 +8337,10 @@
         <v>1</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
     </row>
     <row r="162" spans="2:4">
@@ -8238,10 +8348,10 @@
         <v>2</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="163" spans="2:4">
@@ -8249,10 +8359,10 @@
         <v>3</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="164" spans="2:4">
@@ -8260,10 +8370,10 @@
         <v>4</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="165" spans="2:4">
@@ -8271,10 +8381,10 @@
         <v>5</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="166" spans="2:4">
@@ -8282,10 +8392,10 @@
         <v>6</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="167" spans="2:4">
@@ -8293,10 +8403,10 @@
         <v>7</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="168" spans="2:4">
@@ -8304,10 +8414,10 @@
         <v>8</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="169" spans="2:4">
@@ -8315,10 +8425,10 @@
         <v>9</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
     </row>
     <row r="170" spans="2:4">
@@ -8326,10 +8436,10 @@
         <v>10</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="171" spans="2:4">
@@ -8337,10 +8447,10 @@
         <v>11</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
     </row>
     <row r="172" spans="2:4">
@@ -8348,10 +8458,10 @@
         <v>12</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="606">
-  <si>
-    <t>Generated from schema\openc2.jaen, Thu Mar 30 09:55:46 2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="756">
+  <si>
+    <t>Generated from schema\openc2.jaen, Sat Apr  8 16:07:57 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -207,7 +207,7 @@
     <t>query</t>
   </si>
   <si>
-    <t>Initiate a request for information.</t>
+    <t>Initiate a single request for information.</t>
   </si>
   <si>
     <t>report</t>
@@ -219,90 +219,177 @@
     <t>notify</t>
   </si>
   <si>
+    <t>Set an entity's alerting preferences</t>
+  </si>
+  <si>
     <t>deny</t>
   </si>
   <si>
+    <t>Prevent a certain event or action from completion</t>
+  </si>
+  <si>
     <t>contain</t>
   </si>
   <si>
+    <t>Isolate a file or process or entity so that it cannot modify or access other assets or processes</t>
+  </si>
+  <si>
     <t>allow</t>
   </si>
   <si>
+    <t>Permit access to or execution of a target</t>
+  </si>
+  <si>
     <t>start</t>
   </si>
   <si>
+    <t>Initiate a process, application, system, or activity</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>Halt a system or end an activity</t>
+  </si>
+  <si>
     <t>restart</t>
   </si>
   <si>
+    <t>Stop then start a system or activity</t>
+  </si>
+  <si>
     <t>pause</t>
   </si>
   <si>
+    <t>Cease a system or activity while maintaining state</t>
+  </si>
+  <si>
     <t>resume</t>
   </si>
   <si>
+    <t>Start a system or activity from a paused state</t>
+  </si>
+  <si>
     <t>cancel</t>
   </si>
   <si>
+    <t>Invalidate a previous action</t>
+  </si>
+  <si>
     <t>set</t>
   </si>
   <si>
+    <t>Change a value, configuration, or state of a managed entity</t>
+  </si>
+  <si>
     <t>update</t>
   </si>
   <si>
+    <t>Instruct a component to retrieve, install, process, and operate in accordance with a software update, reconfiguration, or other update.</t>
+  </si>
+  <si>
     <t>move</t>
   </si>
   <si>
+    <t>Change the location of a file, subnet, network, or process</t>
+  </si>
+  <si>
     <t>redirect</t>
   </si>
   <si>
+    <t>Change the flow of traffic to a destination other than its original destination</t>
+  </si>
+  <si>
     <t>delete</t>
   </si>
   <si>
+    <t>Remove data and files</t>
+  </si>
+  <si>
     <t>snapshot</t>
   </si>
   <si>
+    <t>Record and store the state of a target at an instant in time</t>
+  </si>
+  <si>
     <t>detonate</t>
   </si>
   <si>
+    <t>Execute and observe the behavior of a target in an isolated environment</t>
+  </si>
+  <si>
     <t>restore</t>
   </si>
   <si>
+    <t>Delete or replace files, settings, or attributes to return the system to an identical or similar known state</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
+    <t>Commit data or system state to memory</t>
+  </si>
+  <si>
     <t>throttle</t>
   </si>
   <si>
+    <t>Adjust the throughput of a data flow</t>
+  </si>
+  <si>
     <t>delay</t>
   </si>
   <si>
+    <t>Stop or hold up an activity or data transmittal</t>
+  </si>
+  <si>
     <t>substitute</t>
   </si>
   <si>
+    <t>Replace all or part of the data, content or payload in the least detectable manner</t>
+  </si>
+  <si>
     <t>copy</t>
   </si>
   <si>
+    <t>Duplicate a file or data flow</t>
+  </si>
+  <si>
     <t>sync</t>
   </si>
   <si>
+    <t>Synchronize a sensor or actuator with other system components</t>
+  </si>
+  <si>
     <t>distill</t>
   </si>
   <si>
+    <t>Task a sensor to send a summary or abstraction of the sensing information instead of the raw data feed</t>
+  </si>
+  <si>
     <t>augment</t>
   </si>
   <si>
+    <t>Task a sensor to do a level of preprocessing or sense making prior to sending the sensor data</t>
+  </si>
+  <si>
     <t>investigate</t>
   </si>
   <si>
+    <t>Task the recipient enclave to aggregate and report information as it pertains to an anomaly</t>
+  </si>
+  <si>
     <t>mitigate</t>
   </si>
   <si>
+    <t>Task the recipient enclave to circumvent the problem without necessarily eliminating the vulnerability or attack point</t>
+  </si>
+  <si>
     <t>remediate</t>
   </si>
   <si>
+    <t>Task the recipient enclave to eliminate the vulnerability or attack point</t>
+  </si>
+  <si>
     <t>Target</t>
   </si>
   <si>
@@ -372,13 +459,13 @@
     <t>email_message</t>
   </si>
   <si>
-    <t>email-message (Record)</t>
+    <t>email-message (Map)</t>
   </si>
   <si>
     <t>file</t>
   </si>
   <si>
-    <t>file (Record)</t>
+    <t>file (Map)</t>
   </si>
   <si>
     <t>ipv4_addr</t>
@@ -417,7 +504,7 @@
     <t>process</t>
   </si>
   <si>
-    <t>process (Record)</t>
+    <t>process (Map)</t>
   </si>
   <si>
     <t>software</t>
@@ -459,7 +546,7 @@
     <t>x509_certificate</t>
   </si>
   <si>
-    <t>x509-certificate (Record)</t>
+    <t>x509-certificate (Map)</t>
   </si>
   <si>
     <t>Actuator</t>
@@ -966,6 +1053,9 @@
     <t>hashes-type</t>
   </si>
   <si>
+    <t>Hash values for algorithms included in hash-algo-ov</t>
+  </si>
+  <si>
     <t>MD5 (required)</t>
   </si>
   <si>
@@ -1053,10 +1143,124 @@
     <t>whirlpool cryptographic hash function as defined in ISO/IEC 10118-3:2004</t>
   </si>
   <si>
-    <t>type (required)</t>
-  </si>
-  <si>
-    <t>MUST be "artifact"</t>
+    <t>encryption-algo</t>
+  </si>
+  <si>
+    <t>Replace with an IANA algorithm registry?  Which one?</t>
+  </si>
+  <si>
+    <t>AES128-ECB</t>
+  </si>
+  <si>
+    <t>Advanced Encryption Standard (AES) with Electronic Codebook (ECB) mode, NIST SP 800-38A</t>
+  </si>
+  <si>
+    <t>AES128-CBC</t>
+  </si>
+  <si>
+    <t>AES with Cipher Block Chaining (CBC) mode, NIST SP 800-38A</t>
+  </si>
+  <si>
+    <t>AES128-CFB</t>
+  </si>
+  <si>
+    <t>AES with Cipher Feedback (CFB) mode, NIST SP 800-38A</t>
+  </si>
+  <si>
+    <t>AES128-OFB</t>
+  </si>
+  <si>
+    <t>AES with Output Feedback (OFB) mode, NIST SP 800-38A</t>
+  </si>
+  <si>
+    <t>AES128-CTR</t>
+  </si>
+  <si>
+    <t>AES with Counter (CTR) mode, NIST SP 800-38A</t>
+  </si>
+  <si>
+    <t>AES128-XTS</t>
+  </si>
+  <si>
+    <t>AES with XEX Tweakable Block Cipher with Ciphertext Stealing (XTS) mode, NIST SP 800-38E</t>
+  </si>
+  <si>
+    <t>AES128-GCM</t>
+  </si>
+  <si>
+    <t>AES with Galois Counter (GCM) mode, NIST SP 800-38D</t>
+  </si>
+  <si>
+    <t>Salsa20</t>
+  </si>
+  <si>
+    <t>Salsa20 stream cipher</t>
+  </si>
+  <si>
+    <t>Salsa12</t>
+  </si>
+  <si>
+    <t>Salsa20/12 stream cipher</t>
+  </si>
+  <si>
+    <t>ChaCha20-Poly1305</t>
+  </si>
+  <si>
+    <t>ChaCha20-Poly1305 stream cipher, RFC 7539</t>
+  </si>
+  <si>
+    <t>ChaCha20</t>
+  </si>
+  <si>
+    <t>ChaCha20 stream cipher without poly1305 authentication, RFC 7539</t>
+  </si>
+  <si>
+    <t>DES-CBC</t>
+  </si>
+  <si>
+    <t>Data Encryption Standard (DES) with CBC mode, NIST FIPS Pub 81</t>
+  </si>
+  <si>
+    <t>3DES-CBC</t>
+  </si>
+  <si>
+    <t>Triple DES (3DES) with CBC mode</t>
+  </si>
+  <si>
+    <t>DES-ECB</t>
+  </si>
+  <si>
+    <t>DES with ECB mode, NIST FIPS Pub 81</t>
+  </si>
+  <si>
+    <t>3DES-ECB</t>
+  </si>
+  <si>
+    <t>3DES with ECB mode</t>
+  </si>
+  <si>
+    <t>CAST128-CBC</t>
+  </si>
+  <si>
+    <t>CAST-128 algorithm with CBC mode, RFC 2144</t>
+  </si>
+  <si>
+    <t>CAST256-CBC</t>
+  </si>
+  <si>
+    <t>CAST-256 algorithm with CBC mode, RFC 2612</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>RSA asymmetric encryption algorithm, RFC 2313</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>Digital Signature Algorithm, NIST FIPS Pub 186-4 (*not an encryption algorithm)</t>
   </si>
   <si>
     <t>mime_type (optional)</t>
@@ -1284,6 +1488,147 @@
     <t>TODO: finish</t>
   </si>
   <si>
+    <t>extensions (optional)</t>
+  </si>
+  <si>
+    <t>file-extensions (Map)</t>
+  </si>
+  <si>
+    <t>Content-specific file information</t>
+  </si>
+  <si>
+    <t>Dictionary of hashes for the file</t>
+  </si>
+  <si>
+    <t>size (optional)</t>
+  </si>
+  <si>
+    <t>Size of the file, in bytes.</t>
+  </si>
+  <si>
+    <t>Name of the file.</t>
+  </si>
+  <si>
+    <t>name_enc (optional)</t>
+  </si>
+  <si>
+    <t>Observed encoding of the file, from IANA Character Set Registry</t>
+  </si>
+  <si>
+    <t>magic_number_hex (optional)</t>
+  </si>
+  <si>
+    <t>Hexadecimal constant associated with a specific file format.</t>
+  </si>
+  <si>
+    <t>MIMI type name for the file, from the IANA media type registry.</t>
+  </si>
+  <si>
+    <t>Date/time the file was created.</t>
+  </si>
+  <si>
+    <t>Date/time the file was last written to / modified.</t>
+  </si>
+  <si>
+    <t>Date/time the file was last accessed.</t>
+  </si>
+  <si>
+    <t>parent-directory (optional)</t>
+  </si>
+  <si>
+    <t>Parent directory of the file.</t>
+  </si>
+  <si>
+    <t>is_encrypted (optional)</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Specifies whether the file is encrypted.</t>
+  </si>
+  <si>
+    <t>encryption_algorithm (optional)</t>
+  </si>
+  <si>
+    <t>encryption-algo (vocab)</t>
+  </si>
+  <si>
+    <t>Specifies the algorithm used to encrypt the file.</t>
+  </si>
+  <si>
+    <t>decryption_key (optional)</t>
+  </si>
+  <si>
+    <t>Decryption key used to decrypt the file.</t>
+  </si>
+  <si>
+    <t>file-contents (Array)</t>
+  </si>
+  <si>
+    <t>List of observables contained within the file</t>
+  </si>
+  <si>
+    <t>content (optional)</t>
+  </si>
+  <si>
+    <t>Content of the file.</t>
+  </si>
+  <si>
+    <t>file-contents</t>
+  </si>
+  <si>
+    <t>file-extensions</t>
+  </si>
+  <si>
+    <t>ntfs_ext (optional)</t>
+  </si>
+  <si>
+    <t>ntfs-ext (Map)</t>
+  </si>
+  <si>
+    <t>raster_image_ext (optional)</t>
+  </si>
+  <si>
+    <t>raster-image-ext (Map)</t>
+  </si>
+  <si>
+    <t>pdf_ext (optional)</t>
+  </si>
+  <si>
+    <t>pdf-ext (Map)</t>
+  </si>
+  <si>
+    <t>archive_ext (optional)</t>
+  </si>
+  <si>
+    <t>archive-ext (Map)</t>
+  </si>
+  <si>
+    <t>windows_pebinary_ext (optional)</t>
+  </si>
+  <si>
+    <t>windows-pebinary-ext (Map)</t>
+  </si>
+  <si>
+    <t>ntfs-ext</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>raster-image-ext</t>
+  </si>
+  <si>
+    <t>pdf-ext</t>
+  </si>
+  <si>
+    <t>archive-ext</t>
+  </si>
+  <si>
+    <t>windows-pebinary-ext</t>
+  </si>
+  <si>
     <t>ipv4-addr</t>
   </si>
   <si>
@@ -1362,15 +1707,6 @@
     <t>destination TCP/UDP port number</t>
   </si>
   <si>
-    <t>layer3_protocol (optional)</t>
-  </si>
-  <si>
-    <t>layer3-protocol (vocab)</t>
-  </si>
-  <si>
-    <t>IEEE 802 Ether Type</t>
-  </si>
-  <si>
     <t>layer4_protocol (optional)</t>
   </si>
   <si>
@@ -1503,6 +1839,114 @@
     <t>HTTP over TLS</t>
   </si>
   <si>
+    <t>process-ext (Map)</t>
+  </si>
+  <si>
+    <t>Process-type specific info</t>
+  </si>
+  <si>
+    <t>is_hidden (optional)</t>
+  </si>
+  <si>
+    <t>Whether the process is hidden</t>
+  </si>
+  <si>
+    <t>pid (optional)</t>
+  </si>
+  <si>
+    <t>Process ID of the process</t>
+  </si>
+  <si>
+    <t>Name of the process</t>
+  </si>
+  <si>
+    <t>Date/time at which the process was created</t>
+  </si>
+  <si>
+    <t>cwd (optional)</t>
+  </si>
+  <si>
+    <t>Current working directory of the process</t>
+  </si>
+  <si>
+    <t>arguments (optional)</t>
+  </si>
+  <si>
+    <t>arguments</t>
+  </si>
+  <si>
+    <t>List of arguments used in executing the process</t>
+  </si>
+  <si>
+    <t>environment_variables (optional)</t>
+  </si>
+  <si>
+    <t>envars</t>
+  </si>
+  <si>
+    <t>List of environment variables associated with the process</t>
+  </si>
+  <si>
+    <t>opened_connections (optional)</t>
+  </si>
+  <si>
+    <t>opened-connections</t>
+  </si>
+  <si>
+    <t>List of network connections opened by the process</t>
+  </si>
+  <si>
+    <t>creator_user (optional)</t>
+  </si>
+  <si>
+    <t>User that created the process</t>
+  </si>
+  <si>
+    <t>binary (optional)</t>
+  </si>
+  <si>
+    <t>Executable binary that was executed as the process</t>
+  </si>
+  <si>
+    <t>parent (optional)</t>
+  </si>
+  <si>
+    <t>Process that spawned this one</t>
+  </si>
+  <si>
+    <t>children (optional)</t>
+  </si>
+  <si>
+    <t>process-children (Array)</t>
+  </si>
+  <si>
+    <t>Processes that were spawned by this one</t>
+  </si>
+  <si>
+    <t>process-ext</t>
+  </si>
+  <si>
+    <t>windows_process_ext (optional)</t>
+  </si>
+  <si>
+    <t>windows-process-ext (Map)</t>
+  </si>
+  <si>
+    <t>windows_service_ext (optional)</t>
+  </si>
+  <si>
+    <t>windows-service-ext (Map)</t>
+  </si>
+  <si>
+    <t>process-children</t>
+  </si>
+  <si>
+    <t>windows-process-ext</t>
+  </si>
+  <si>
+    <t>windows-service-ext</t>
+  </si>
+  <si>
     <t>name (required)</t>
   </si>
   <si>
@@ -1566,9 +2010,6 @@
     <t>is_service_account (optional)</t>
   </si>
   <si>
-    <t>Boolean</t>
-  </si>
-  <si>
     <t>Account is associated with a network service or system process, not an individual.</t>
   </si>
   <si>
@@ -1713,9 +2154,6 @@
     <t>Last date-time the registry key was modified.</t>
   </si>
   <si>
-    <t>creator_user (optional)</t>
-  </si>
-  <si>
     <t>User account that created the registry key</t>
   </si>
   <si>
@@ -1834,6 +2272,18 @@
   </si>
   <si>
     <t>x509-certificate</t>
+  </si>
+  <si>
+    <t>is_self_signed (optional)</t>
+  </si>
+  <si>
+    <t>Specifies whether the certificate is self-signed</t>
+  </si>
+  <si>
+    <t>hashes (required)</t>
+  </si>
+  <si>
+    <t>Specifies any hashes calculated for the entire contents of the certificate</t>
   </si>
 </sst>
 </file>
@@ -2317,7 +2767,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E508"/>
+  <dimension ref="A2:E616"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2645,7 +3095,7 @@
         <v>15</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2664,10 +3114,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -2692,13 +3142,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2706,13 +3156,13 @@
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2720,13 +3170,13 @@
         <v>3</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2734,13 +3184,13 @@
         <v>4</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2748,13 +3198,13 @@
         <v>5</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -2762,13 +3212,13 @@
         <v>6</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -2776,13 +3226,13 @@
         <v>7</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -2790,13 +3240,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -2804,13 +3254,13 @@
         <v>9</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -2818,13 +3268,13 @@
         <v>10</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="2:5">
@@ -2832,13 +3282,13 @@
         <v>11</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -2846,13 +3296,13 @@
         <v>12</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -2860,13 +3310,13 @@
         <v>13</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -2874,13 +3324,13 @@
         <v>14</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="2:5">
@@ -2888,13 +3338,13 @@
         <v>15</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -2902,13 +3352,13 @@
         <v>16</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="2:5">
@@ -2916,13 +3366,13 @@
         <v>17</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="2:5">
@@ -2930,13 +3380,13 @@
         <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="2:5">
@@ -2944,13 +3394,13 @@
         <v>19</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="2:5">
@@ -2958,13 +3408,13 @@
         <v>20</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="2:5">
@@ -2972,13 +3422,13 @@
         <v>21</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2986,13 +3436,13 @@
         <v>22</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3000,13 +3450,13 @@
         <v>23</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3014,7 +3464,7 @@
         <v>15</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -3050,10 +3500,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E73" s="8"/>
     </row>
@@ -3062,10 +3512,10 @@
         <v>2</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E74" s="8"/>
     </row>
@@ -3074,10 +3524,10 @@
         <v>3</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E75" s="8"/>
     </row>
@@ -3086,10 +3536,10 @@
         <v>4</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E76" s="8"/>
     </row>
@@ -3098,10 +3548,10 @@
         <v>5</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E77" s="8"/>
     </row>
@@ -3110,10 +3560,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E78" s="8"/>
     </row>
@@ -3122,10 +3572,10 @@
         <v>7</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E79" s="8"/>
     </row>
@@ -3134,10 +3584,10 @@
         <v>8</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E80" s="8"/>
     </row>
@@ -3146,10 +3596,10 @@
         <v>9</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E81" s="8"/>
     </row>
@@ -3158,10 +3608,10 @@
         <v>10</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E82" s="8"/>
     </row>
@@ -3170,10 +3620,10 @@
         <v>11</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -3182,10 +3632,10 @@
         <v>12</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E84" s="8"/>
     </row>
@@ -3194,10 +3644,10 @@
         <v>13</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E85" s="8"/>
     </row>
@@ -3206,10 +3656,10 @@
         <v>14</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E86" s="8"/>
     </row>
@@ -3218,10 +3668,10 @@
         <v>15</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E87" s="8"/>
     </row>
@@ -3230,10 +3680,10 @@
         <v>16</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E88" s="8"/>
     </row>
@@ -3242,10 +3692,10 @@
         <v>17</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E89" s="8"/>
     </row>
@@ -3254,10 +3704,10 @@
         <v>18</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -3266,10 +3716,10 @@
         <v>19</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E91" s="8"/>
     </row>
@@ -3278,10 +3728,10 @@
         <v>20</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E92" s="8"/>
     </row>
@@ -3290,10 +3740,10 @@
         <v>21</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E93" s="8"/>
     </row>
@@ -3302,10 +3752,10 @@
         <v>22</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E94" s="8"/>
     </row>
@@ -3314,10 +3764,10 @@
         <v>23</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E95" s="8"/>
     </row>
@@ -3326,10 +3776,10 @@
         <v>24</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E96" s="8"/>
     </row>
@@ -3338,10 +3788,10 @@
         <v>25</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -3350,10 +3800,10 @@
         <v>26</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E98" s="8"/>
     </row>
@@ -3362,10 +3812,10 @@
         <v>27</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E99" s="8"/>
     </row>
@@ -3374,10 +3824,10 @@
         <v>28</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E100" s="8"/>
     </row>
@@ -3386,10 +3836,10 @@
         <v>29</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E101" s="8"/>
     </row>
@@ -3398,10 +3848,10 @@
         <v>30</v>
       </c>
       <c r="C102" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="E102" s="8"/>
     </row>
@@ -3410,10 +3860,10 @@
         <v>31</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E103" s="8"/>
     </row>
@@ -3422,10 +3872,10 @@
         <v>32</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -3434,10 +3884,10 @@
         <v>33</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E105" s="8"/>
     </row>
@@ -3446,10 +3896,10 @@
         <v>34</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E106" s="8"/>
     </row>
@@ -3458,10 +3908,10 @@
         <v>35</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E107" s="8"/>
     </row>
@@ -3470,10 +3920,10 @@
         <v>36</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E108" s="8"/>
     </row>
@@ -3482,10 +3932,10 @@
         <v>37</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E109" s="8"/>
     </row>
@@ -3494,10 +3944,10 @@
         <v>38</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E110" s="8"/>
     </row>
@@ -3506,10 +3956,10 @@
         <v>39</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -3518,10 +3968,10 @@
         <v>40</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E112" s="8"/>
     </row>
@@ -3530,10 +3980,10 @@
         <v>41</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E113" s="8"/>
     </row>
@@ -3542,10 +3992,10 @@
         <v>42</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E114" s="8"/>
     </row>
@@ -3554,10 +4004,10 @@
         <v>43</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E115" s="8"/>
     </row>
@@ -3566,10 +4016,10 @@
         <v>44</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E116" s="8"/>
     </row>
@@ -3578,10 +4028,10 @@
         <v>45</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E117" s="8"/>
     </row>
@@ -3590,7 +4040,7 @@
         <v>15</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -3626,10 +4076,10 @@
         <v>1</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="E124" s="8"/>
     </row>
@@ -3638,7 +4088,7 @@
         <v>2</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>49</v>
@@ -3650,7 +4100,7 @@
         <v>15</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -3661,7 +4111,7 @@
         <v>16</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3686,13 +4136,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3700,13 +4150,13 @@
         <v>2</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3714,13 +4164,13 @@
         <v>3</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3728,13 +4178,13 @@
         <v>4</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3742,13 +4192,13 @@
         <v>5</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3756,13 +4206,13 @@
         <v>6</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3770,13 +4220,13 @@
         <v>7</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3784,13 +4234,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3798,13 +4248,13 @@
         <v>9</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3812,13 +4262,13 @@
         <v>10</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3826,13 +4276,13 @@
         <v>11</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3840,13 +4290,13 @@
         <v>12</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3854,13 +4304,13 @@
         <v>13</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3868,10 +4318,10 @@
         <v>14</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>58</v>
@@ -3882,13 +4332,13 @@
         <v>15</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3896,7 +4346,7 @@
         <v>16</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>49</v>
@@ -3910,13 +4360,13 @@
         <v>17</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3924,13 +4374,13 @@
         <v>18</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3938,13 +4388,13 @@
         <v>19</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3952,7 +4402,7 @@
         <v>15</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -3971,10 +4421,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="4" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -3982,10 +4432,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -3996,7 +4446,7 @@
         <v>15</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -4015,10 +4465,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="4" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -4026,10 +4476,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -4040,7 +4490,7 @@
         <v>15</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -4059,10 +4509,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -4073,7 +4523,7 @@
         <v>15</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -4092,10 +4542,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
@@ -4106,7 +4556,7 @@
         <v>15</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -4125,10 +4575,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -4139,7 +4589,7 @@
         <v>15</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -4158,10 +4608,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
@@ -4172,7 +4622,7 @@
         <v>15</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
@@ -4191,10 +4641,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -4219,13 +4669,13 @@
         <v>1</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4233,13 +4683,13 @@
         <v>2</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4250,10 +4700,10 @@
         <v>58</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4261,13 +4711,13 @@
         <v>4</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4275,13 +4725,13 @@
         <v>5</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4289,7 +4739,7 @@
         <v>15</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
@@ -4325,7 +4775,7 @@
         <v>15</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
@@ -4361,7 +4811,7 @@
         <v>15</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
@@ -4380,10 +4830,10 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
@@ -4394,7 +4844,7 @@
         <v>15</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
@@ -4413,10 +4863,10 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
@@ -4427,7 +4877,7 @@
         <v>15</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
@@ -4438,312 +4888,309 @@
         <v>16</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
     </row>
-    <row r="222" spans="1:5">
-      <c r="B222" s="7" t="s">
+    <row r="221" spans="1:5">
+      <c r="A221" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="B223" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C223" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D222" s="7" t="s">
+      <c r="D223" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E222" s="7" t="s">
+      <c r="E223" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="B223" s="8">
-        <v>1</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="E223" s="8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="B224" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E224" s="8" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="B225" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="B226" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="B227" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="B228" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="B229" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="B230" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="B231" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="B232" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="B233" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="B234" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="B235" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="B236" s="8">
+        <v>13</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="B237" s="8">
         <v>14</v>
       </c>
-      <c r="C236" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D236" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="E236" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
+      <c r="C237" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B241" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="B242" s="7" t="s">
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="B243" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="C243" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D242" s="7" t="s">
+      <c r="D243" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E242" s="7" t="s">
+      <c r="E243" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="B243" s="8">
-        <v>1</v>
-      </c>
-      <c r="C243" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E243" s="8" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="B244" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="D244" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>348</v>
+        <v>416</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="B245" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>349</v>
+        <v>417</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>350</v>
+        <v>418</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>351</v>
+        <v>419</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="B246" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>352</v>
+        <v>420</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>353</v>
+        <v>421</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>354</v>
+        <v>422</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4751,7 +5198,7 @@
         <v>15</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>355</v>
+        <v>423</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
@@ -4787,13 +5234,13 @@
         <v>1</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>356</v>
+        <v>424</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>357</v>
+        <v>425</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4801,13 +5248,13 @@
         <v>2</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="D254" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>359</v>
+        <v>427</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4815,7 +5262,7 @@
         <v>15</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>360</v>
+        <v>428</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
@@ -4851,13 +5298,13 @@
         <v>1</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>361</v>
+        <v>429</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>362</v>
+        <v>430</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>363</v>
+        <v>431</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4865,13 +5312,13 @@
         <v>2</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="D262" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>365</v>
+        <v>433</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4879,13 +5326,13 @@
         <v>3</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>366</v>
+        <v>434</v>
       </c>
       <c r="D263" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>367</v>
+        <v>435</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4893,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
@@ -4904,7 +5351,7 @@
         <v>16</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
@@ -4929,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>375</v>
+        <v>443</v>
       </c>
       <c r="D270" s="8" t="s">
         <v>49</v>
@@ -4941,7 +5388,7 @@
         <v>2</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="D271" s="8" t="s">
         <v>49</v>
@@ -4953,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="D272" s="8" t="s">
         <v>49</v>
@@ -4965,7 +5412,7 @@
         <v>4</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>378</v>
+        <v>446</v>
       </c>
       <c r="D273" s="8" t="s">
         <v>49</v>
@@ -4977,7 +5424,7 @@
         <v>5</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="D274" s="8" t="s">
         <v>49</v>
@@ -4989,7 +5436,7 @@
         <v>6</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>380</v>
+        <v>448</v>
       </c>
       <c r="D275" s="8" t="s">
         <v>49</v>
@@ -5001,7 +5448,7 @@
         <v>7</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="D276" s="8" t="s">
         <v>49</v>
@@ -5013,7 +5460,7 @@
         <v>15</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
@@ -5024,7 +5471,7 @@
         <v>16</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="C280" s="6"/>
       <c r="D280" s="6"/>
@@ -5049,13 +5496,13 @@
         <v>1</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="D283" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5063,13 +5510,13 @@
         <v>2</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>384</v>
+        <v>452</v>
       </c>
       <c r="D284" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5077,13 +5524,13 @@
         <v>3</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>386</v>
+        <v>454</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>387</v>
+        <v>455</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5091,13 +5538,13 @@
         <v>4</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5105,13 +5552,13 @@
         <v>5</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5119,13 +5566,13 @@
         <v>6</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>392</v>
+        <v>460</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>393</v>
+        <v>461</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5133,7 +5580,7 @@
         <v>15</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>395</v>
+        <v>463</v>
       </c>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
@@ -5144,7 +5591,7 @@
         <v>16</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>396</v>
+        <v>464</v>
       </c>
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
@@ -5156,7 +5603,7 @@
       </c>
       <c r="C293" s="8"/>
       <c r="D293" s="8" t="s">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="E293" s="8"/>
     </row>
@@ -5165,7 +5612,7 @@
         <v>15</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
@@ -5201,10 +5648,10 @@
         <v>1</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>399</v>
+        <v>467</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="E300" s="8"/>
     </row>
@@ -5213,10 +5660,10 @@
         <v>2</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>400</v>
+        <v>468</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="E301" s="8"/>
     </row>
@@ -5225,7 +5672,7 @@
         <v>15</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
@@ -5236,7 +5683,7 @@
         <v>16</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="C305" s="6"/>
       <c r="D305" s="6"/>
@@ -5244,10 +5691,10 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
@@ -5272,7 +5719,7 @@
         <v>15</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
@@ -5283,7 +5730,7 @@
         <v>16</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
@@ -5291,10 +5738,10 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
@@ -5319,7 +5766,7 @@
         <v>15</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
@@ -5355,13 +5802,13 @@
         <v>1</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>403</v>
+        <v>471</v>
       </c>
       <c r="D322" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>404</v>
+        <v>472</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5369,13 +5816,13 @@
         <v>2</v>
       </c>
       <c r="C323" s="8" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>406</v>
+        <v>474</v>
       </c>
       <c r="E323" s="8" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5383,7 +5830,7 @@
         <v>15</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>408</v>
+        <v>476</v>
       </c>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
@@ -5394,7 +5841,7 @@
         <v>16</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>396</v>
+        <v>464</v>
       </c>
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
@@ -5406,7 +5853,7 @@
       </c>
       <c r="C328" s="8"/>
       <c r="D328" s="8" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="E328" s="8"/>
     </row>
@@ -5415,7 +5862,7 @@
         <v>15</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>410</v>
+        <v>478</v>
       </c>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
@@ -5451,10 +5898,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="D335" s="8" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E335" s="8"/>
     </row>
@@ -5463,10 +5910,10 @@
         <v>2</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="E336" s="8"/>
     </row>
@@ -5475,10 +5922,10 @@
         <v>3</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>413</v>
+        <v>481</v>
       </c>
       <c r="D337" s="8" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="E337" s="8"/>
     </row>
@@ -5487,7 +5934,7 @@
         <v>15</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
@@ -5523,13 +5970,13 @@
         <v>1</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>403</v>
+        <v>471</v>
       </c>
       <c r="D344" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E344" s="8" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -5537,13 +5984,13 @@
         <v>2</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>416</v>
+        <v>484</v>
       </c>
       <c r="D345" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E345" s="8" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -5551,13 +5998,13 @@
         <v>3</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E346" s="8" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -5565,7 +6012,7 @@
         <v>15</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>420</v>
+        <v>488</v>
       </c>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
@@ -5576,7 +6023,7 @@
         <v>16</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="C350" s="6"/>
       <c r="D350" s="6"/>
@@ -5584,10 +6031,10 @@
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>421</v>
+        <v>489</v>
       </c>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
@@ -5612,7 +6059,7 @@
         <v>15</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
@@ -5623,724 +6070,775 @@
         <v>16</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
       <c r="E357" s="6"/>
     </row>
-    <row r="358" spans="1:5">
-      <c r="A358" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B358" s="6" t="s">
+    <row r="359" spans="1:5">
+      <c r="B359" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D359" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E359" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="B360" s="8">
+        <v>1</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D360" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E360" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="B361" s="8">
+        <v>2</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D361" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C358" s="6"/>
-      <c r="D358" s="6"/>
-      <c r="E358" s="6"/>
-    </row>
-    <row r="360" spans="1:5">
-      <c r="B360" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C360" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D360" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E360" s="7" t="s">
-        <v>21</v>
+      <c r="E361" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="B362" s="8">
+        <v>3</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D362" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E362" s="8" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="363" spans="1:5">
-      <c r="A363" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B363" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C363" s="5"/>
-      <c r="D363" s="5"/>
-      <c r="E363" s="5"/>
+      <c r="B363" s="8">
+        <v>4</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D363" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E363" s="8" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="364" spans="1:5">
-      <c r="A364" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B364" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C364" s="6"/>
-      <c r="D364" s="6"/>
-      <c r="E364" s="6"/>
+      <c r="B364" s="8">
+        <v>5</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D364" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E364" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="B365" s="8">
+        <v>6</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D365" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E365" s="8" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="366" spans="1:5">
-      <c r="B366" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C366" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D366" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E366" s="7" t="s">
-        <v>21</v>
+      <c r="B366" s="8">
+        <v>7</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D366" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E366" s="8" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="B367" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="D367" s="8" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="E367" s="8" t="s">
-        <v>423</v>
+        <v>502</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="B368" s="8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>425</v>
+        <v>231</v>
       </c>
       <c r="E368" s="8" t="s">
-        <v>426</v>
+        <v>503</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="B369" s="8">
+        <v>10</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D369" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E369" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="B370" s="8">
+        <v>11</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="D370" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E370" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="B371" s="8">
+        <v>12</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D371" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E371" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="B372" s="8">
+        <v>13</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="D372" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="E372" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="B373" s="8">
+        <v>14</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="D373" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E373" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="B374" s="8">
+        <v>15</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D374" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="E374" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="B375" s="8">
+        <v>16</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="D375" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E375" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C378" s="5"/>
+      <c r="D378" s="5"/>
+      <c r="E378" s="5"/>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C379" s="6"/>
+      <c r="D379" s="6"/>
+      <c r="E379" s="6"/>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="B380" s="8">
+        <v>0</v>
+      </c>
+      <c r="C380" s="8"/>
+      <c r="D380" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E380" s="8"/>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C383" s="5"/>
+      <c r="D383" s="5"/>
+      <c r="E383" s="5"/>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C384" s="6"/>
+      <c r="D384" s="6"/>
+      <c r="E384" s="6"/>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="B386" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D386" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E386" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="B387" s="8">
+        <v>1</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="D387" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="E387" s="8"/>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="B388" s="8">
+        <v>2</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D388" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="E388" s="8"/>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="B389" s="8">
         <v>3</v>
       </c>
-      <c r="C369" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="D369" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E369" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
-      <c r="A372" s="4" t="s">
+      <c r="C389" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="D389" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E389" s="8"/>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="B390" s="8">
+        <v>4</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="D390" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E390" s="8"/>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="B391" s="8">
+        <v>5</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="D391" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="E391" s="8"/>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B372" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C372" s="5"/>
-      <c r="D372" s="5"/>
-      <c r="E372" s="5"/>
-    </row>
-    <row r="373" spans="1:5">
-      <c r="A373" s="4" t="s">
+      <c r="B394" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C394" s="5"/>
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B373" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C373" s="6"/>
-      <c r="D373" s="6"/>
-      <c r="E373" s="6"/>
-    </row>
-    <row r="375" spans="1:5">
-      <c r="B375" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C375" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D375" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E375" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
-      <c r="B376" s="8">
-        <v>1</v>
-      </c>
-      <c r="C376" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="D376" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E376" s="8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
-      <c r="B377" s="8">
-        <v>2</v>
-      </c>
-      <c r="C377" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="D377" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="E377" s="8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
-      <c r="B378" s="8">
-        <v>3</v>
-      </c>
-      <c r="C378" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="D378" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E378" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="A381" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B381" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C381" s="5"/>
-      <c r="D381" s="5"/>
-      <c r="E381" s="5"/>
-    </row>
-    <row r="382" spans="1:5">
-      <c r="A382" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B382" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C382" s="6"/>
-      <c r="D382" s="6"/>
-      <c r="E382" s="6"/>
-    </row>
-    <row r="383" spans="1:5">
-      <c r="B383" s="8">
-        <v>0</v>
-      </c>
-      <c r="C383" s="8"/>
-      <c r="D383" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E383" s="8"/>
-    </row>
-    <row r="386" spans="1:5">
-      <c r="A386" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B386" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="C386" s="5"/>
-      <c r="D386" s="5"/>
-      <c r="E386" s="5"/>
-    </row>
-    <row r="387" spans="1:5">
-      <c r="A387" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B387" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C387" s="6"/>
-      <c r="D387" s="6"/>
-      <c r="E387" s="6"/>
-    </row>
-    <row r="388" spans="1:5">
-      <c r="A388" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B388" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C388" s="6"/>
-      <c r="D388" s="6"/>
-      <c r="E388" s="6"/>
-    </row>
-    <row r="391" spans="1:5">
-      <c r="A391" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B391" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C391" s="5"/>
-      <c r="D391" s="5"/>
-      <c r="E391" s="5"/>
-    </row>
-    <row r="392" spans="1:5">
-      <c r="A392" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B392" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C392" s="6"/>
-      <c r="D392" s="6"/>
-      <c r="E392" s="6"/>
-    </row>
-    <row r="393" spans="1:5">
-      <c r="B393" s="8">
-        <v>0</v>
-      </c>
-      <c r="C393" s="8"/>
-      <c r="D393" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="E393" s="8"/>
+      <c r="B395" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C395" s="6"/>
+      <c r="D395" s="6"/>
+      <c r="E395" s="6"/>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C396" s="6"/>
+      <c r="D396" s="6"/>
+      <c r="E396" s="6"/>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="B398" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D398" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E398" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B396" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C396" s="5"/>
-      <c r="D396" s="5"/>
-      <c r="E396" s="5"/>
-    </row>
-    <row r="397" spans="1:5">
-      <c r="A397" s="4" t="s">
+      <c r="B401" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C401" s="5"/>
+      <c r="D401" s="5"/>
+      <c r="E401" s="5"/>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B397" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C397" s="6"/>
-      <c r="D397" s="6"/>
-      <c r="E397" s="6"/>
-    </row>
-    <row r="398" spans="1:5">
-      <c r="A398" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B398" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C398" s="6"/>
-      <c r="D398" s="6"/>
-      <c r="E398" s="6"/>
-    </row>
-    <row r="400" spans="1:5">
-      <c r="B400" s="7" t="s">
+      <c r="B402" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C402" s="6"/>
+      <c r="D402" s="6"/>
+      <c r="E402" s="6"/>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C403" s="6"/>
+      <c r="D403" s="6"/>
+      <c r="E403" s="6"/>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="B405" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C400" s="7" t="s">
+      <c r="C405" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D400" s="7" t="s">
+      <c r="D405" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E400" s="7" t="s">
+      <c r="E405" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
-      <c r="B401" s="8">
-        <v>1</v>
-      </c>
-      <c r="C401" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="D401" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="E401" s="8" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
-      <c r="B402" s="8">
-        <v>2</v>
-      </c>
-      <c r="C402" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="D402" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="E402" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
-      <c r="B403" s="8">
-        <v>3</v>
-      </c>
-      <c r="C403" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="D403" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="E403" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
-      <c r="B404" s="8">
-        <v>4</v>
-      </c>
-      <c r="C404" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D404" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="E404" s="8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
-      <c r="B405" s="8">
-        <v>5</v>
-      </c>
-      <c r="C405" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="D405" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="E405" s="8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
-      <c r="B406" s="8">
-        <v>6</v>
-      </c>
-      <c r="C406" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D406" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="E406" s="8" t="s">
-        <v>453</v>
-      </c>
+    <row r="408" spans="1:5">
+      <c r="A408" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C408" s="5"/>
+      <c r="D408" s="5"/>
+      <c r="E408" s="5"/>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B409" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C409" s="5"/>
-      <c r="D409" s="5"/>
-      <c r="E409" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C409" s="6"/>
+      <c r="D409" s="6"/>
+      <c r="E409" s="6"/>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="4" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>17</v>
+        <v>532</v>
       </c>
       <c r="C410" s="6"/>
       <c r="D410" s="6"/>
       <c r="E410" s="6"/>
     </row>
-    <row r="411" spans="1:5">
-      <c r="A411" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B411" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="C411" s="6"/>
-      <c r="D411" s="6"/>
-      <c r="E411" s="6"/>
-    </row>
-    <row r="413" spans="1:5">
-      <c r="B413" s="7" t="s">
+    <row r="412" spans="1:5">
+      <c r="B412" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C413" s="7" t="s">
+      <c r="C412" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D413" s="7" t="s">
+      <c r="D412" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E413" s="7" t="s">
+      <c r="E412" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
-      <c r="B414" s="8">
+    <row r="415" spans="1:5">
+      <c r="A415" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C415" s="5"/>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B416" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C416" s="6"/>
+      <c r="D416" s="6"/>
+      <c r="E416" s="6"/>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C417" s="6"/>
+      <c r="D417" s="6"/>
+      <c r="E417" s="6"/>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="B419" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D419" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E419" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C422" s="5"/>
+      <c r="D422" s="5"/>
+      <c r="E422" s="5"/>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B423" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C423" s="6"/>
+      <c r="D423" s="6"/>
+      <c r="E423" s="6"/>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B424" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C424" s="6"/>
+      <c r="D424" s="6"/>
+      <c r="E424" s="6"/>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="B426" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D426" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E426" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C429" s="5"/>
+      <c r="D429" s="5"/>
+      <c r="E429" s="5"/>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B430" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C430" s="6"/>
+      <c r="D430" s="6"/>
+      <c r="E430" s="6"/>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="B432" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C432" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D432" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E432" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="B433" s="8">
         <v>1</v>
       </c>
-      <c r="C414" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="D414" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="E414" s="8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
-      <c r="B415" s="8">
+      <c r="C433" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D433" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E433" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="B434" s="8">
         <v>2</v>
       </c>
-      <c r="C415" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="D415" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="E415" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
-      <c r="A418" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B418" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C418" s="5"/>
-      <c r="D418" s="5"/>
-      <c r="E418" s="5"/>
-    </row>
-    <row r="419" spans="1:5">
-      <c r="A419" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B419" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C419" s="6"/>
-      <c r="D419" s="6"/>
-      <c r="E419" s="6"/>
-    </row>
-    <row r="420" spans="1:5">
-      <c r="A420" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B420" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C420" s="6"/>
-      <c r="D420" s="6"/>
-      <c r="E420" s="6"/>
-    </row>
-    <row r="422" spans="1:5">
-      <c r="B422" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C422" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D422" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E422" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
-      <c r="A425" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B425" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C425" s="5"/>
-      <c r="D425" s="5"/>
-      <c r="E425" s="5"/>
-    </row>
-    <row r="426" spans="1:5">
-      <c r="A426" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B426" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C426" s="6"/>
-      <c r="D426" s="6"/>
-      <c r="E426" s="6"/>
-    </row>
-    <row r="428" spans="1:5">
-      <c r="B428" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C428" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D428" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E428" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
-      <c r="A431" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B431" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C431" s="5"/>
-      <c r="D431" s="5"/>
-      <c r="E431" s="5"/>
-    </row>
-    <row r="432" spans="1:5">
-      <c r="A432" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B432" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C432" s="6"/>
-      <c r="D432" s="6"/>
-      <c r="E432" s="6"/>
-    </row>
-    <row r="434" spans="1:5">
-      <c r="B434" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C434" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D434" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E434" s="7" t="s">
-        <v>21</v>
+      <c r="C434" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D434" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E434" s="8" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="435" spans="1:5">
       <c r="B435" s="8">
+        <v>3</v>
+      </c>
+      <c r="C435" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D435" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="E435" s="8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C438" s="5"/>
+      <c r="D438" s="5"/>
+      <c r="E438" s="5"/>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B439" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C439" s="6"/>
+      <c r="D439" s="6"/>
+      <c r="E439" s="6"/>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="B441" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C441" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D441" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E441" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="B442" s="8">
         <v>1</v>
       </c>
-      <c r="C435" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="D435" s="8" t="s">
+      <c r="C442" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D442" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E435" s="8" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
-      <c r="B436" s="8">
+      <c r="E442" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="B443" s="8">
         <v>2</v>
       </c>
-      <c r="C436" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="D436" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E436" s="8" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
-      <c r="B437" s="8">
+      <c r="C443" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D443" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E443" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="B444" s="8">
         <v>3</v>
       </c>
-      <c r="C437" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="D437" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E437" s="8" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
-      <c r="B438" s="8">
-        <v>4</v>
-      </c>
-      <c r="C438" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="D438" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E438" s="8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
-      <c r="B439" s="8">
-        <v>5</v>
-      </c>
-      <c r="C439" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="D439" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E439" s="8" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
-      <c r="A442" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B442" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C442" s="5"/>
-      <c r="D442" s="5"/>
-      <c r="E442" s="5"/>
-    </row>
-    <row r="443" spans="1:5">
-      <c r="A443" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B443" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C443" s="6"/>
-      <c r="D443" s="6"/>
-      <c r="E443" s="6"/>
-    </row>
-    <row r="444" spans="1:5">
-      <c r="A444" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B444" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="C444" s="6"/>
-      <c r="D444" s="6"/>
-      <c r="E444" s="6"/>
+      <c r="C444" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D444" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="E444" s="8" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="447" spans="1:5">
       <c r="A447" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
@@ -6351,556 +6849,1474 @@
         <v>16</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="C448" s="6"/>
       <c r="D448" s="6"/>
       <c r="E448" s="6"/>
     </row>
-    <row r="450" spans="2:5">
-      <c r="B450" s="7" t="s">
+    <row r="449" spans="1:5">
+      <c r="B449" s="8">
+        <v>0</v>
+      </c>
+      <c r="C449" s="8"/>
+      <c r="D449" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E449" s="8"/>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B452" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C452" s="5"/>
+      <c r="D452" s="5"/>
+      <c r="E452" s="5"/>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B453" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C453" s="6"/>
+      <c r="D453" s="6"/>
+      <c r="E453" s="6"/>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B454" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C454" s="6"/>
+      <c r="D454" s="6"/>
+      <c r="E454" s="6"/>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B457" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C457" s="5"/>
+      <c r="D457" s="5"/>
+      <c r="E457" s="5"/>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B458" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C458" s="6"/>
+      <c r="D458" s="6"/>
+      <c r="E458" s="6"/>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="B459" s="8">
+        <v>0</v>
+      </c>
+      <c r="C459" s="8"/>
+      <c r="D459" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="E459" s="8"/>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B462" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C462" s="5"/>
+      <c r="D462" s="5"/>
+      <c r="E462" s="5"/>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B463" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C463" s="6"/>
+      <c r="D463" s="6"/>
+      <c r="E463" s="6"/>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B464" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C464" s="6"/>
+      <c r="D464" s="6"/>
+      <c r="E464" s="6"/>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="B466" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C450" s="7" t="s">
+      <c r="C466" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D450" s="7" t="s">
+      <c r="D466" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E450" s="7" t="s">
+      <c r="E466" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="451" spans="2:5">
-      <c r="B451" s="8">
+    <row r="467" spans="1:5">
+      <c r="B467" s="8">
         <v>1</v>
       </c>
-      <c r="C451" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="D451" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E451" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="452" spans="2:5">
-      <c r="B452" s="8">
+      <c r="C467" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="D467" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E467" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="B468" s="8">
         <v>2</v>
       </c>
-      <c r="C452" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="D452" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E452" s="8" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="453" spans="2:5">
-      <c r="B453" s="8">
+      <c r="C468" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D468" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="E468" s="8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="B469" s="8">
         <v>3</v>
       </c>
-      <c r="C453" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="D453" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="E453" s="8" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="454" spans="2:5">
-      <c r="B454" s="8">
+      <c r="C469" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="D469" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E469" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="B470" s="8">
         <v>4</v>
       </c>
-      <c r="C454" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="D454" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E454" s="8" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="455" spans="2:5">
-      <c r="B455" s="8">
+      <c r="C470" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="D470" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="E470" s="8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="B471" s="8">
         <v>5</v>
       </c>
-      <c r="C455" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="D455" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="E455" s="8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="456" spans="2:5">
-      <c r="B456" s="8">
-        <v>6</v>
-      </c>
-      <c r="C456" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="D456" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="E456" s="8" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="457" spans="2:5">
-      <c r="B457" s="8">
-        <v>7</v>
-      </c>
-      <c r="C457" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="D457" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="E457" s="8" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="458" spans="2:5">
-      <c r="B458" s="8">
-        <v>8</v>
-      </c>
-      <c r="C458" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="D458" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="E458" s="8" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="459" spans="2:5">
-      <c r="B459" s="8">
-        <v>9</v>
-      </c>
-      <c r="C459" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D459" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E459" s="8" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="460" spans="2:5">
-      <c r="B460" s="8">
-        <v>10</v>
-      </c>
-      <c r="C460" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="D460" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E460" s="8" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="461" spans="2:5">
-      <c r="B461" s="8">
-        <v>11</v>
-      </c>
-      <c r="C461" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="D461" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E461" s="8" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="462" spans="2:5">
-      <c r="B462" s="8">
-        <v>12</v>
-      </c>
-      <c r="C462" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="D462" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E462" s="8" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="463" spans="2:5">
-      <c r="B463" s="8">
-        <v>13</v>
-      </c>
-      <c r="C463" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="D463" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E463" s="8" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
-      <c r="A466" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B466" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="C466" s="5"/>
-      <c r="D466" s="5"/>
-      <c r="E466" s="5"/>
-    </row>
-    <row r="467" spans="1:5">
-      <c r="A467" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B467" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C467" s="6"/>
-      <c r="D467" s="6"/>
-      <c r="E467" s="6"/>
-    </row>
-    <row r="468" spans="1:5">
-      <c r="A468" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B468" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C468" s="6"/>
-      <c r="D468" s="6"/>
-      <c r="E468" s="6"/>
-    </row>
-    <row r="470" spans="1:5">
-      <c r="B470" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C470" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D470" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E470" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
-      <c r="A473" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B473" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C473" s="5"/>
-      <c r="D473" s="5"/>
-      <c r="E473" s="5"/>
+      <c r="C471" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="D471" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E471" s="8" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B474" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C474" s="6"/>
-      <c r="D474" s="6"/>
-      <c r="E474" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C474" s="5"/>
+      <c r="D474" s="5"/>
+      <c r="E474" s="5"/>
     </row>
     <row r="475" spans="1:5">
       <c r="A475" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="C475" s="6"/>
       <c r="D475" s="6"/>
       <c r="E475" s="6"/>
     </row>
-    <row r="477" spans="1:5">
-      <c r="B477" s="7" t="s">
+    <row r="476" spans="1:5">
+      <c r="A476" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B476" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C476" s="6"/>
+      <c r="D476" s="6"/>
+      <c r="E476" s="6"/>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="B478" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C477" s="7" t="s">
+      <c r="C478" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D477" s="7" t="s">
+      <c r="D478" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E477" s="7" t="s">
+      <c r="E478" s="7" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="479" spans="1:5">
+      <c r="B479" s="8">
+        <v>1</v>
+      </c>
+      <c r="C479" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="D479" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E479" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
     <row r="480" spans="1:5">
-      <c r="A480" s="4" t="s">
+      <c r="B480" s="8">
+        <v>2</v>
+      </c>
+      <c r="C480" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="D480" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="E480" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B480" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="C480" s="5"/>
-      <c r="D480" s="5"/>
-      <c r="E480" s="5"/>
-    </row>
-    <row r="481" spans="1:5">
-      <c r="A481" s="4" t="s">
+      <c r="B483" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C483" s="5"/>
+      <c r="D483" s="5"/>
+      <c r="E483" s="5"/>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B481" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C481" s="6"/>
-      <c r="D481" s="6"/>
-      <c r="E481" s="6"/>
-    </row>
-    <row r="483" spans="1:5">
-      <c r="B483" s="7" t="s">
+      <c r="B484" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C484" s="6"/>
+      <c r="D484" s="6"/>
+      <c r="E484" s="6"/>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B485" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C485" s="6"/>
+      <c r="D485" s="6"/>
+      <c r="E485" s="6"/>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="B487" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C483" s="7" t="s">
+      <c r="C487" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D483" s="7" t="s">
+      <c r="D487" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E483" s="7" t="s">
+      <c r="E487" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
-      <c r="B484" s="8">
-        <v>1</v>
-      </c>
-      <c r="C484" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="D484" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E484" s="8" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5">
-      <c r="B485" s="8">
-        <v>2</v>
-      </c>
-      <c r="C485" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="D485" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="E485" s="8" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5">
-      <c r="B486" s="8">
-        <v>3</v>
-      </c>
-      <c r="C486" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="D486" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E486" s="8" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5">
-      <c r="B487" s="8">
-        <v>4</v>
-      </c>
-      <c r="C487" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D487" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E487" s="8" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
-      <c r="B488" s="8">
-        <v>5</v>
-      </c>
-      <c r="C488" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D488" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="E488" s="8" t="s">
-        <v>568</v>
-      </c>
+    <row r="490" spans="1:5">
+      <c r="A490" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C490" s="5"/>
+      <c r="D490" s="5"/>
+      <c r="E490" s="5"/>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B491" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="C491" s="5"/>
-      <c r="D491" s="5"/>
-      <c r="E491" s="5"/>
-    </row>
-    <row r="492" spans="1:5">
-      <c r="A492" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B492" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C492" s="6"/>
-      <c r="D492" s="6"/>
-      <c r="E492" s="6"/>
+      <c r="B491" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C491" s="6"/>
+      <c r="D491" s="6"/>
+      <c r="E491" s="6"/>
     </row>
     <row r="493" spans="1:5">
-      <c r="B493" s="8">
-        <v>0</v>
-      </c>
-      <c r="C493" s="8"/>
-      <c r="D493" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="E493" s="8"/>
+      <c r="B493" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C493" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D493" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E493" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="B494" s="8">
+        <v>1</v>
+      </c>
+      <c r="C494" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D494" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="E494" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="B495" s="8">
+        <v>2</v>
+      </c>
+      <c r="C495" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="D495" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E495" s="8" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="496" spans="1:5">
-      <c r="A496" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B496" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="C496" s="5"/>
-      <c r="D496" s="5"/>
-      <c r="E496" s="5"/>
+      <c r="B496" s="8">
+        <v>3</v>
+      </c>
+      <c r="C496" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D496" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E496" s="8" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="497" spans="1:5">
-      <c r="A497" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B497" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C497" s="6"/>
-      <c r="D497" s="6"/>
-      <c r="E497" s="6"/>
+      <c r="B497" s="8">
+        <v>4</v>
+      </c>
+      <c r="C497" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D497" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E497" s="8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="B498" s="8">
+        <v>5</v>
+      </c>
+      <c r="C498" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D498" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E498" s="8" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="499" spans="1:5">
-      <c r="B499" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C499" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D499" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E499" s="7" t="s">
-        <v>21</v>
+      <c r="B499" s="8">
+        <v>6</v>
+      </c>
+      <c r="C499" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="D499" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E499" s="8" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="500" spans="1:5">
       <c r="B500" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C500" s="8" t="s">
-        <v>495</v>
+        <v>617</v>
       </c>
       <c r="D500" s="8" t="s">
-        <v>49</v>
+        <v>618</v>
       </c>
       <c r="E500" s="8" t="s">
-        <v>572</v>
+        <v>619</v>
       </c>
     </row>
     <row r="501" spans="1:5">
       <c r="B501" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C501" s="8" t="s">
-        <v>573</v>
+        <v>620</v>
       </c>
       <c r="D501" s="8" t="s">
-        <v>49</v>
+        <v>621</v>
       </c>
       <c r="E501" s="8" t="s">
-        <v>574</v>
+        <v>622</v>
       </c>
     </row>
     <row r="502" spans="1:5">
       <c r="B502" s="8">
+        <v>9</v>
+      </c>
+      <c r="C502" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="D502" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="E502" s="8" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="B503" s="8">
+        <v>10</v>
+      </c>
+      <c r="C503" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="D503" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E503" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="B504" s="8">
+        <v>11</v>
+      </c>
+      <c r="C504" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="D504" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E504" s="8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="B505" s="8">
+        <v>12</v>
+      </c>
+      <c r="C505" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="D505" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E505" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="B506" s="8">
+        <v>13</v>
+      </c>
+      <c r="C506" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="D506" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E506" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B509" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C509" s="5"/>
+      <c r="D509" s="5"/>
+      <c r="E509" s="5"/>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B510" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C510" s="6"/>
+      <c r="D510" s="6"/>
+      <c r="E510" s="6"/>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="B512" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C512" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D512" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E512" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="B513" s="8">
+        <v>1</v>
+      </c>
+      <c r="C513" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="D513" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="E513" s="8"/>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="B514" s="8">
+        <v>2</v>
+      </c>
+      <c r="C514" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="D514" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="E514" s="8"/>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B517" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C517" s="5"/>
+      <c r="D517" s="5"/>
+      <c r="E517" s="5"/>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B518" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C518" s="6"/>
+      <c r="D518" s="6"/>
+      <c r="E518" s="6"/>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="B519" s="8">
+        <v>0</v>
+      </c>
+      <c r="C519" s="8"/>
+      <c r="D519" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E519" s="8"/>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C522" s="5"/>
+      <c r="D522" s="5"/>
+      <c r="E522" s="5"/>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B523" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C523" s="6"/>
+      <c r="D523" s="6"/>
+      <c r="E523" s="6"/>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B524" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C524" s="6"/>
+      <c r="D524" s="6"/>
+      <c r="E524" s="6"/>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="B526" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C526" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D526" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E526" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B529" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C529" s="5"/>
+      <c r="D529" s="5"/>
+      <c r="E529" s="5"/>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B530" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C530" s="6"/>
+      <c r="D530" s="6"/>
+      <c r="E530" s="6"/>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B531" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C531" s="6"/>
+      <c r="D531" s="6"/>
+      <c r="E531" s="6"/>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="B533" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C533" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D533" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E533" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B536" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C536" s="5"/>
+      <c r="D536" s="5"/>
+      <c r="E536" s="5"/>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B537" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C537" s="6"/>
+      <c r="D537" s="6"/>
+      <c r="E537" s="6"/>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="B539" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C539" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D539" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E539" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="B540" s="8">
+        <v>1</v>
+      </c>
+      <c r="C540" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D540" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E540" s="8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="B541" s="8">
+        <v>2</v>
+      </c>
+      <c r="C541" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="D541" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E541" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="B542" s="8">
         <v>3</v>
       </c>
-      <c r="C502" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="D502" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="E502" s="8" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5">
-      <c r="A505" s="4" t="s">
+      <c r="C542" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D542" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E542" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="B543" s="8">
+        <v>4</v>
+      </c>
+      <c r="C543" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="D543" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E543" s="8" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="B544" s="8">
+        <v>5</v>
+      </c>
+      <c r="C544" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="D544" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E544" s="8" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B505" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="C505" s="5"/>
-      <c r="D505" s="5"/>
-      <c r="E505" s="5"/>
-    </row>
-    <row r="506" spans="1:5">
-      <c r="A506" s="4" t="s">
+      <c r="B547" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C547" s="5"/>
+      <c r="D547" s="5"/>
+      <c r="E547" s="5"/>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="A548" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B506" s="6" t="s">
+      <c r="B548" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C548" s="6"/>
+      <c r="D548" s="6"/>
+      <c r="E548" s="6"/>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B549" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C549" s="6"/>
+      <c r="D549" s="6"/>
+      <c r="E549" s="6"/>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="A552" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B552" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C552" s="5"/>
+      <c r="D552" s="5"/>
+      <c r="E552" s="5"/>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="A553" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B553" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C553" s="6"/>
+      <c r="D553" s="6"/>
+      <c r="E553" s="6"/>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="B555" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C555" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D555" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E555" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5">
+      <c r="B556" s="8">
+        <v>1</v>
+      </c>
+      <c r="C556" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="D556" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E556" s="8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5">
+      <c r="B557" s="8">
+        <v>2</v>
+      </c>
+      <c r="C557" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D557" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E557" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="B558" s="8">
+        <v>3</v>
+      </c>
+      <c r="C558" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="D558" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="E558" s="8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5">
+      <c r="B559" s="8">
+        <v>4</v>
+      </c>
+      <c r="C559" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D559" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E559" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="B560" s="8">
+        <v>5</v>
+      </c>
+      <c r="C560" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="D560" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E560" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="B561" s="8">
+        <v>6</v>
+      </c>
+      <c r="C561" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D561" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E561" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="B562" s="8">
+        <v>7</v>
+      </c>
+      <c r="C562" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="D562" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E562" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="B563" s="8">
+        <v>8</v>
+      </c>
+      <c r="C563" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="D563" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E563" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="B564" s="8">
+        <v>9</v>
+      </c>
+      <c r="C564" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="D564" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E564" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="B565" s="8">
+        <v>10</v>
+      </c>
+      <c r="C565" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="D565" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E565" s="8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="B566" s="8">
+        <v>11</v>
+      </c>
+      <c r="C566" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="D566" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E566" s="8" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="B567" s="8">
+        <v>12</v>
+      </c>
+      <c r="C567" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="D567" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E567" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="B568" s="8">
+        <v>13</v>
+      </c>
+      <c r="C568" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="D568" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E568" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B571" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="C571" s="5"/>
+      <c r="D571" s="5"/>
+      <c r="E571" s="5"/>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B572" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C572" s="6"/>
+      <c r="D572" s="6"/>
+      <c r="E572" s="6"/>
+    </row>
+    <row r="573" spans="1:5">
+      <c r="A573" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B573" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C573" s="6"/>
+      <c r="D573" s="6"/>
+      <c r="E573" s="6"/>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="B575" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C575" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D575" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E575" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5">
+      <c r="A578" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C578" s="5"/>
+      <c r="D578" s="5"/>
+      <c r="E578" s="5"/>
+    </row>
+    <row r="579" spans="1:5">
+      <c r="A579" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B579" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C579" s="6"/>
+      <c r="D579" s="6"/>
+      <c r="E579" s="6"/>
+    </row>
+    <row r="580" spans="1:5">
+      <c r="A580" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B580" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C580" s="6"/>
+      <c r="D580" s="6"/>
+      <c r="E580" s="6"/>
+    </row>
+    <row r="582" spans="1:5">
+      <c r="B582" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C582" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D582" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E582" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5">
+      <c r="A585" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B585" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="C585" s="5"/>
+      <c r="D585" s="5"/>
+      <c r="E585" s="5"/>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="A586" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B586" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C506" s="6"/>
-      <c r="D506" s="6"/>
-      <c r="E506" s="6"/>
-    </row>
-    <row r="508" spans="1:5">
-      <c r="B508" s="7" t="s">
+      <c r="C586" s="6"/>
+      <c r="D586" s="6"/>
+      <c r="E586" s="6"/>
+    </row>
+    <row r="588" spans="1:5">
+      <c r="B588" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C508" s="7" t="s">
+      <c r="C588" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D508" s="7" t="s">
+      <c r="D588" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E508" s="7" t="s">
+      <c r="E588" s="7" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="589" spans="1:5">
+      <c r="B589" s="8">
+        <v>1</v>
+      </c>
+      <c r="C589" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="D589" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E589" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="B590" s="8">
+        <v>2</v>
+      </c>
+      <c r="C590" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="D590" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="E590" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5">
+      <c r="B591" s="8">
+        <v>3</v>
+      </c>
+      <c r="C591" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D591" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E591" s="8" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5">
+      <c r="B592" s="8">
+        <v>4</v>
+      </c>
+      <c r="C592" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="D592" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E592" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5">
+      <c r="B593" s="8">
+        <v>5</v>
+      </c>
+      <c r="C593" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D593" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E593" s="8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5">
+      <c r="A596" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B596" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C596" s="5"/>
+      <c r="D596" s="5"/>
+      <c r="E596" s="5"/>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="A597" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B597" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C597" s="6"/>
+      <c r="D597" s="6"/>
+      <c r="E597" s="6"/>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="B598" s="8">
+        <v>0</v>
+      </c>
+      <c r="C598" s="8"/>
+      <c r="D598" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="E598" s="8"/>
+    </row>
+    <row r="601" spans="1:5">
+      <c r="A601" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B601" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C601" s="5"/>
+      <c r="D601" s="5"/>
+      <c r="E601" s="5"/>
+    </row>
+    <row r="602" spans="1:5">
+      <c r="A602" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B602" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C602" s="6"/>
+      <c r="D602" s="6"/>
+      <c r="E602" s="6"/>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="B604" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C604" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D604" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E604" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="B605" s="8">
+        <v>1</v>
+      </c>
+      <c r="C605" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D605" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E605" s="8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="B606" s="8">
+        <v>2</v>
+      </c>
+      <c r="C606" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="D606" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E606" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5">
+      <c r="B607" s="8">
+        <v>3</v>
+      </c>
+      <c r="C607" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="D607" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="E607" s="8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
+      <c r="A610" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B610" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="C610" s="5"/>
+      <c r="D610" s="5"/>
+      <c r="E610" s="5"/>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="A611" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B611" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C611" s="6"/>
+      <c r="D611" s="6"/>
+      <c r="E611" s="6"/>
+    </row>
+    <row r="612" spans="1:5">
+      <c r="A612" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B612" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C612" s="6"/>
+      <c r="D612" s="6"/>
+      <c r="E612" s="6"/>
+    </row>
+    <row r="614" spans="1:5">
+      <c r="B614" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C614" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D614" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E614" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5">
+      <c r="B615" s="8">
+        <v>1</v>
+      </c>
+      <c r="C615" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="D615" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E615" s="8" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5">
+      <c r="B616" s="8">
+        <v>2</v>
+      </c>
+      <c r="C616" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="D616" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="E616" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="129">
+  <mergeCells count="159">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B11:E11"/>
@@ -6953,8 +8369,9 @@
     <mergeCell ref="B216:E216"/>
     <mergeCell ref="B219:E219"/>
     <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B239:E239"/>
+    <mergeCell ref="B221:E221"/>
     <mergeCell ref="B240:E240"/>
+    <mergeCell ref="B241:E241"/>
     <mergeCell ref="B249:E249"/>
     <mergeCell ref="B250:E250"/>
     <mergeCell ref="B257:E257"/>
@@ -6986,50 +8403,79 @@
     <mergeCell ref="B351:E351"/>
     <mergeCell ref="B356:E356"/>
     <mergeCell ref="B357:E357"/>
-    <mergeCell ref="B358:E358"/>
-    <mergeCell ref="B363:E363"/>
-    <mergeCell ref="B364:E364"/>
-    <mergeCell ref="B372:E372"/>
-    <mergeCell ref="B373:E373"/>
-    <mergeCell ref="B381:E381"/>
-    <mergeCell ref="B382:E382"/>
-    <mergeCell ref="B386:E386"/>
-    <mergeCell ref="B387:E387"/>
-    <mergeCell ref="B388:E388"/>
-    <mergeCell ref="B391:E391"/>
-    <mergeCell ref="B392:E392"/>
+    <mergeCell ref="B378:E378"/>
+    <mergeCell ref="B379:E379"/>
+    <mergeCell ref="B383:E383"/>
+    <mergeCell ref="B384:E384"/>
+    <mergeCell ref="B394:E394"/>
+    <mergeCell ref="B395:E395"/>
     <mergeCell ref="B396:E396"/>
-    <mergeCell ref="B397:E397"/>
-    <mergeCell ref="B398:E398"/>
+    <mergeCell ref="B401:E401"/>
+    <mergeCell ref="B402:E402"/>
+    <mergeCell ref="B403:E403"/>
+    <mergeCell ref="B408:E408"/>
     <mergeCell ref="B409:E409"/>
     <mergeCell ref="B410:E410"/>
-    <mergeCell ref="B411:E411"/>
-    <mergeCell ref="B418:E418"/>
-    <mergeCell ref="B419:E419"/>
-    <mergeCell ref="B420:E420"/>
-    <mergeCell ref="B425:E425"/>
-    <mergeCell ref="B426:E426"/>
-    <mergeCell ref="B431:E431"/>
-    <mergeCell ref="B432:E432"/>
-    <mergeCell ref="B442:E442"/>
-    <mergeCell ref="B443:E443"/>
-    <mergeCell ref="B444:E444"/>
+    <mergeCell ref="B415:E415"/>
+    <mergeCell ref="B416:E416"/>
+    <mergeCell ref="B417:E417"/>
+    <mergeCell ref="B422:E422"/>
+    <mergeCell ref="B423:E423"/>
+    <mergeCell ref="B424:E424"/>
+    <mergeCell ref="B429:E429"/>
+    <mergeCell ref="B430:E430"/>
+    <mergeCell ref="B438:E438"/>
+    <mergeCell ref="B439:E439"/>
     <mergeCell ref="B447:E447"/>
     <mergeCell ref="B448:E448"/>
-    <mergeCell ref="B466:E466"/>
-    <mergeCell ref="B467:E467"/>
-    <mergeCell ref="B468:E468"/>
-    <mergeCell ref="B473:E473"/>
+    <mergeCell ref="B452:E452"/>
+    <mergeCell ref="B453:E453"/>
+    <mergeCell ref="B454:E454"/>
+    <mergeCell ref="B457:E457"/>
+    <mergeCell ref="B458:E458"/>
+    <mergeCell ref="B462:E462"/>
+    <mergeCell ref="B463:E463"/>
+    <mergeCell ref="B464:E464"/>
     <mergeCell ref="B474:E474"/>
     <mergeCell ref="B475:E475"/>
-    <mergeCell ref="B480:E480"/>
-    <mergeCell ref="B481:E481"/>
+    <mergeCell ref="B476:E476"/>
+    <mergeCell ref="B483:E483"/>
+    <mergeCell ref="B484:E484"/>
+    <mergeCell ref="B485:E485"/>
+    <mergeCell ref="B490:E490"/>
     <mergeCell ref="B491:E491"/>
-    <mergeCell ref="B492:E492"/>
-    <mergeCell ref="B496:E496"/>
-    <mergeCell ref="B497:E497"/>
-    <mergeCell ref="B505:E505"/>
-    <mergeCell ref="B506:E506"/>
+    <mergeCell ref="B509:E509"/>
+    <mergeCell ref="B510:E510"/>
+    <mergeCell ref="B517:E517"/>
+    <mergeCell ref="B518:E518"/>
+    <mergeCell ref="B522:E522"/>
+    <mergeCell ref="B523:E523"/>
+    <mergeCell ref="B524:E524"/>
+    <mergeCell ref="B529:E529"/>
+    <mergeCell ref="B530:E530"/>
+    <mergeCell ref="B531:E531"/>
+    <mergeCell ref="B536:E536"/>
+    <mergeCell ref="B537:E537"/>
+    <mergeCell ref="B547:E547"/>
+    <mergeCell ref="B548:E548"/>
+    <mergeCell ref="B549:E549"/>
+    <mergeCell ref="B552:E552"/>
+    <mergeCell ref="B553:E553"/>
+    <mergeCell ref="B571:E571"/>
+    <mergeCell ref="B572:E572"/>
+    <mergeCell ref="B573:E573"/>
+    <mergeCell ref="B578:E578"/>
+    <mergeCell ref="B579:E579"/>
+    <mergeCell ref="B580:E580"/>
+    <mergeCell ref="B585:E585"/>
+    <mergeCell ref="B586:E586"/>
+    <mergeCell ref="B596:E596"/>
+    <mergeCell ref="B597:E597"/>
+    <mergeCell ref="B601:E601"/>
+    <mergeCell ref="B602:E602"/>
+    <mergeCell ref="B610:E610"/>
+    <mergeCell ref="B611:E611"/>
+    <mergeCell ref="B612:E612"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7037,7 +8483,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D172"/>
+  <dimension ref="A2:D196"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7121,266 +8567,324 @@
       <c r="C9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="8">
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="8">
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="8">
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="8">
         <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="8">
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="8">
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="8">
         <v>12</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="8">
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="8">
         <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="8">
         <v>15</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="8">
         <v>16</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="8">
         <v>17</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="8">
         <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="8">
         <v>19</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="8">
         <v>20</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="8">
         <v>21</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="8">
         <v>22</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="8">
         <v>23</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="8">
         <v>24</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="8">
         <v>25</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="8">
         <v>26</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="8">
         <v>27</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="8"/>
+        <v>110</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="8">
         <v>28</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="B33" s="8">
         <v>29</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="B34" s="8">
         <v>30</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="B35" s="8">
         <v>31</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="B36" s="8">
         <v>32</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="B37" s="8">
         <v>33</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -7401,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="D42" s="8"/>
     </row>
@@ -7410,7 +8914,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="D43" s="8"/>
     </row>
@@ -7419,7 +8923,7 @@
         <v>55</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -7440,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="D48" s="8"/>
     </row>
@@ -7449,7 +8953,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="D49" s="8"/>
     </row>
@@ -7458,7 +8962,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="D50" s="8"/>
     </row>
@@ -7467,7 +8971,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="D51" s="8"/>
     </row>
@@ -7476,7 +8980,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="D52" s="8"/>
     </row>
@@ -7485,7 +8989,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -7506,7 +9010,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="D57" s="8"/>
     </row>
@@ -7515,7 +9019,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="D58" s="8"/>
     </row>
@@ -7524,7 +9028,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="D59" s="8"/>
     </row>
@@ -7533,7 +9037,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -7554,7 +9058,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D64" s="8"/>
     </row>
@@ -7563,7 +9067,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="D65" s="8"/>
     </row>
@@ -7572,7 +9076,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -7593,7 +9097,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="D70" s="8"/>
     </row>
@@ -7602,7 +9106,7 @@
         <v>55</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -7623,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="D75" s="8"/>
     </row>
@@ -7632,7 +9136,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="D76" s="8"/>
     </row>
@@ -7641,7 +9145,7 @@
         <v>55</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -7662,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="D81" s="8"/>
     </row>
@@ -7671,7 +9175,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="D82" s="8"/>
     </row>
@@ -7680,7 +9184,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="D83" s="8"/>
     </row>
@@ -7689,7 +9193,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="D84" s="8"/>
     </row>
@@ -7698,7 +9202,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -7719,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="D89" s="8"/>
     </row>
@@ -7728,7 +9232,7 @@
         <v>2</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="D90" s="8"/>
     </row>
@@ -7737,10 +9241,10 @@
         <v>3</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7748,14 +9252,14 @@
         <v>55</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>47</v>
@@ -7779,10 +9283,10 @@
         <v>102</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7790,10 +9294,10 @@
         <v>200</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7801,10 +9305,10 @@
         <v>400</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -7812,10 +9316,10 @@
         <v>401</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7823,7 +9327,7 @@
         <v>403</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="D101" s="8"/>
     </row>
@@ -7832,10 +9336,10 @@
         <v>500</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -7843,7 +9347,7 @@
         <v>501</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="D103" s="8"/>
     </row>
@@ -7852,17 +9356,17 @@
         <v>55</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>101</v>
+        <v>375</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -7883,10 +9387,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7894,10 +9398,10 @@
         <v>2</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -7905,567 +9409,807 @@
         <v>3</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="B112" s="8">
+        <v>4</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="8">
+        <v>5</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="8">
+        <v>6</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="8">
+        <v>7</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" s="8">
+        <v>8</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="8">
+        <v>9</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="8">
+        <v>10</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" s="8">
+        <v>11</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" s="8">
+        <v>12</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" s="8">
+        <v>13</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" s="8">
+        <v>14</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123" s="8">
+        <v>15</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" s="8">
+        <v>16</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125" s="8">
+        <v>17</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" s="8">
+        <v>18</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" s="8">
+        <v>19</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="B116" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="B117" s="8">
-        <v>2048</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="B118" s="8">
-        <v>2054</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="B119" s="8">
-        <v>34525</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="B120" s="8">
-        <v>34887</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="B125" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="B126" s="8">
-        <v>1</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="B127" s="8">
-        <v>6</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="B128" s="8">
-        <v>17</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>478</v>
-      </c>
+      <c r="B129" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="B132" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="B133" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>21</v>
+      <c r="B133" s="8">
+        <v>1</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="B134" s="8">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="B135" s="8">
+        <v>3</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="B140" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D140" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C135" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="B136" s="8">
-        <v>22</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="B137" s="8">
-        <v>23</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="B138" s="8">
-        <v>25</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="B139" s="8">
-        <v>80</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="B140" s="8">
-        <v>443</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>494</v>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="B141" s="8">
+        <v>2048</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="4" t="s">
+      <c r="B142" s="8">
+        <v>2054</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="B143" s="8">
+        <v>34525</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="B144" s="8">
+        <v>34887</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B142" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="B144" s="7" t="s">
+      <c r="B146" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="B149" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C149" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D149" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="B145" s="8">
-        <v>1</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="B146" s="8">
-        <v>2</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="B147" s="8">
-        <v>3</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="B148" s="8">
-        <v>4</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="B149" s="8">
-        <v>5</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="B150" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>545</v>
+        <v>585</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>546</v>
+        <v>586</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="B151" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>548</v>
+        <v>588</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="B152" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="B153" s="8">
-        <v>9</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="B154" s="8">
-        <v>10</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>554</v>
-      </c>
+      <c r="A154" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="B155" s="8">
-        <v>11</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>556</v>
-      </c>
+      <c r="A155" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
+      <c r="B157" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="B158" s="8">
+        <v>20</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="B159" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D159" s="7" t="s">
+      <c r="B159" s="8">
         <v>21</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="B160" s="8">
+        <v>22</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="B161" s="8">
+        <v>23</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="B162" s="8">
+        <v>25</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="B163" s="8">
+        <v>80</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="B164" s="8">
+        <v>443</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="B168" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="B169" s="8">
+        <v>1</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="B170" s="8">
+        <v>2</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="B171" s="8">
+        <v>3</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="B172" s="8">
+        <v>4</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="B173" s="8">
+        <v>5</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="B174" s="8">
+        <v>6</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="B175" s="8">
+        <v>7</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="B176" s="8">
+        <v>8</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="B177" s="8">
+        <v>9</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="B178" s="8">
+        <v>10</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="B179" s="8">
+        <v>11</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="B183" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="B184" s="8">
         <v>0</v>
       </c>
-      <c r="C160" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4">
-      <c r="B161" s="8">
+      <c r="C184" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="B185" s="8">
         <v>1</v>
       </c>
-      <c r="C161" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4">
-      <c r="B162" s="8">
+      <c r="C185" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="B186" s="8">
         <v>2</v>
       </c>
-      <c r="C162" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4">
-      <c r="B163" s="8">
+      <c r="C186" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="B187" s="8">
         <v>3</v>
       </c>
-      <c r="C163" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4">
-      <c r="B164" s="8">
+      <c r="C187" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="B188" s="8">
         <v>4</v>
       </c>
-      <c r="C164" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4">
-      <c r="B165" s="8">
+      <c r="C188" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="B189" s="8">
         <v>5</v>
       </c>
-      <c r="C165" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4">
-      <c r="B166" s="8">
+      <c r="C189" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="B190" s="8">
         <v>6</v>
       </c>
-      <c r="C166" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4">
-      <c r="B167" s="8">
+      <c r="C190" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="B191" s="8">
         <v>7</v>
       </c>
-      <c r="C167" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4">
-      <c r="B168" s="8">
+      <c r="C191" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="B192" s="8">
         <v>8</v>
       </c>
-      <c r="C168" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4">
-      <c r="B169" s="8">
+      <c r="C192" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4">
+      <c r="B193" s="8">
         <v>9</v>
       </c>
-      <c r="C169" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4">
-      <c r="B170" s="8">
+      <c r="C193" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="B194" s="8">
         <v>10</v>
       </c>
-      <c r="C170" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4">
-      <c r="B171" s="8">
+      <c r="C194" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="B195" s="8">
         <v>11</v>
       </c>
-      <c r="C171" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4">
-      <c r="B172" s="8">
+      <c r="C195" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4">
+      <c r="B196" s="8">
         <v>12</v>
       </c>
-      <c r="C172" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>604</v>
+      <c r="C196" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B45:D45"/>
@@ -8479,14 +10223,16 @@
     <mergeCell ref="B94:D94"/>
     <mergeCell ref="B105:D105"/>
     <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B129:D129"/>
     <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B181:D181"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="756">
   <si>
-    <t>Generated from schema\openc2.jaen, Sat Apr  8 16:07:57 2017</t>
+    <t>Generated from schema\openc2.jaen, Mon Apr 10 13:29:06 2017</t>
   </si>
   <si>
     <t>module</t>

--- a/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="756">
   <si>
-    <t>Generated from schema\openc2.jaen, Mon Apr 10 13:29:06 2017</t>
+    <t>Generated from schema\openc2.jaen, Tue Apr 11 09:49:57 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -1056,7 +1056,7 @@
     <t>Hash values for algorithms included in hash-algo-ov</t>
   </si>
   <si>
-    <t>MD5 (required)</t>
+    <t>MD5 (optional)</t>
   </si>
   <si>
     <t>Hex (String)</t>
@@ -1065,79 +1065,79 @@
     <t>MD5 message digest as defined in RFC3121</t>
   </si>
   <si>
-    <t>MD6 (required)</t>
+    <t>MD6 (optional)</t>
   </si>
   <si>
     <t>MD6 message digest as defined in MD6 proposal</t>
   </si>
   <si>
-    <t>RIPEMD-160 (required)</t>
+    <t>RIPEMD-160 (optional)</t>
   </si>
   <si>
     <t>RACE Integrity Primitives Evaluation Message as defined in RIPEMD-160 specification</t>
   </si>
   <si>
-    <t>SHA-1 (required)</t>
+    <t>SHA-1 (optional)</t>
   </si>
   <si>
     <t>Secure Hash Algorithm (SHA)-1 as defined in RFC3174</t>
   </si>
   <si>
-    <t>SHA-224 (required)</t>
+    <t>SHA-224 (optional)</t>
   </si>
   <si>
     <t>SHA-224 as defined in RFC6234 (US Secure Hash Algorithms)</t>
   </si>
   <si>
-    <t>SHA-256 (required)</t>
+    <t>SHA-256 (optional)</t>
   </si>
   <si>
     <t>SHA-256 as defined in RFC6234</t>
   </si>
   <si>
-    <t>SHA-384 (required)</t>
+    <t>SHA-384 (optional)</t>
   </si>
   <si>
     <t>SHA-384 as defined in RFC6234</t>
   </si>
   <si>
-    <t>SHA-512 (required)</t>
+    <t>SHA-512 (optional)</t>
   </si>
   <si>
     <t>SHA-512 as defined in RFC6234</t>
   </si>
   <si>
-    <t>SHA3-224 (required)</t>
+    <t>SHA3-224 (optional)</t>
   </si>
   <si>
     <t>SHA3-224 as defined in FIPS PUP 202</t>
   </si>
   <si>
-    <t>SHA3-256 (required)</t>
+    <t>SHA3-256 (optional)</t>
   </si>
   <si>
     <t>SHA3-256 as defined in FIPS PUP 202</t>
   </si>
   <si>
-    <t>SHA3-384 (required)</t>
+    <t>SHA3-384 (optional)</t>
   </si>
   <si>
     <t>SHA3-384 as defined in FIPS PUP 202</t>
   </si>
   <si>
-    <t>SHA3-512 (required)</t>
+    <t>SHA3-512 (optional)</t>
   </si>
   <si>
     <t>SHA3-512 as defined in FIPS PUP 202</t>
   </si>
   <si>
-    <t>ssdeep (required)</t>
+    <t>ssdeep (optional)</t>
   </si>
   <si>
     <t>ssdeep fuzzy hashing algorithm as defined in the SSDEEP specification</t>
   </si>
   <si>
-    <t>WHIRLPOOL (required)</t>
+    <t>WHIRLPOOL (optional)</t>
   </si>
   <si>
     <t>whirlpool cryptographic hash function as defined in ISO/IEC 10118-3:2004</t>

--- a/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="756">
   <si>
-    <t>Generated from schema\openc2.jaen, Tue Apr 11 09:49:57 2017</t>
+    <t>Generated from schema\openc2.jaen, Thu Apr 20 15:52:14 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -690,7 +690,7 @@
     <t>ActuatorSpecifiers</t>
   </si>
   <si>
-    <t>device_id (optional)</t>
+    <t>actuator_id (optional)</t>
   </si>
   <si>
     <t>asset_id (optional)</t>
@@ -1533,7 +1533,7 @@
     <t>Date/time the file was last accessed.</t>
   </si>
   <si>
-    <t>parent-directory (optional)</t>
+    <t>parent_directory (optional)</t>
   </si>
   <si>
     <t>Parent directory of the file.</t>

--- a/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="756">
-  <si>
-    <t>Generated from schema\openc2.jaen, Thu Apr 20 15:52:14 2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="758">
+  <si>
+    <t>Generated from schema\openc2.jaen, Thu May  4 10:54:12 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -135,16 +135,34 @@
     <t>OpenC2Response</t>
   </si>
   <si>
-    <t>source (required)</t>
+    <t>status (required)</t>
+  </si>
+  <si>
+    <t>status-code (vocab)</t>
+  </si>
+  <si>
+    <t>Adapted from HTTP Status Codes, RFC 7231</t>
+  </si>
+  <si>
+    <t>statusText (optional)</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Status description</t>
+  </si>
+  <si>
+    <t>response_src (optional)</t>
   </si>
   <si>
     <t>device-id (String)</t>
   </si>
   <si>
-    <t>ID of the command issuer, from "command_src" modifier</t>
-  </si>
-  <si>
-    <t>command_ref (required)</t>
+    <t>ID of the responder/actuator</t>
+  </si>
+  <si>
+    <t>command_id (optional)</t>
   </si>
   <si>
     <t>command-id (String)</t>
@@ -153,25 +171,7 @@
     <t>Command unique identifier, from "command_id" modifier</t>
   </si>
   <si>
-    <t>status (required)</t>
-  </si>
-  <si>
-    <t>status-code (vocab)</t>
-  </si>
-  <si>
-    <t>Adapted from HTTP Status Codes, RFC 7231</t>
-  </si>
-  <si>
-    <t>statusText (required)</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Status description</t>
-  </si>
-  <si>
-    <t>results (required)</t>
+    <t>results (optional)</t>
   </si>
   <si>
     <t>Results of executing the command</t>
@@ -729,9 +729,6 @@
     <t>report, notify, restart, update, sync</t>
   </si>
   <si>
-    <t>command_id (optional)</t>
-  </si>
-  <si>
     <t>universal  (was "id")</t>
   </si>
   <si>
@@ -876,7 +873,7 @@
     <t>method-value</t>
   </si>
   <si>
-    <t>Method must agree with Action (test descriptions)</t>
+    <t>Method must agree with Action</t>
   </si>
   <si>
     <t>DenyMethod (vocab)</t>
@@ -1872,55 +1869,64 @@
     <t>arguments (optional)</t>
   </si>
   <si>
+    <t>arguments (Array)</t>
+  </si>
+  <si>
+    <t>List of arguments used in executing the process</t>
+  </si>
+  <si>
+    <t>environment_variables (optional)</t>
+  </si>
+  <si>
+    <t>envars (Array)</t>
+  </si>
+  <si>
+    <t>List of environment variables associated with the process</t>
+  </si>
+  <si>
+    <t>opened_connections (optional)</t>
+  </si>
+  <si>
+    <t>opened-connections (Array)</t>
+  </si>
+  <si>
+    <t>List of network connections opened by the process</t>
+  </si>
+  <si>
+    <t>creator_user (optional)</t>
+  </si>
+  <si>
+    <t>User that created the process</t>
+  </si>
+  <si>
+    <t>binary (optional)</t>
+  </si>
+  <si>
+    <t>Executable binary that was executed as the process</t>
+  </si>
+  <si>
+    <t>parent (optional)</t>
+  </si>
+  <si>
+    <t>Process that spawned this one</t>
+  </si>
+  <si>
+    <t>children (optional)</t>
+  </si>
+  <si>
+    <t>process-children (Array)</t>
+  </si>
+  <si>
+    <t>Processes that were spawned by this one</t>
+  </si>
+  <si>
     <t>arguments</t>
   </si>
   <si>
-    <t>List of arguments used in executing the process</t>
-  </si>
-  <si>
-    <t>environment_variables (optional)</t>
-  </si>
-  <si>
     <t>envars</t>
   </si>
   <si>
-    <t>List of environment variables associated with the process</t>
-  </si>
-  <si>
-    <t>opened_connections (optional)</t>
-  </si>
-  <si>
     <t>opened-connections</t>
-  </si>
-  <si>
-    <t>List of network connections opened by the process</t>
-  </si>
-  <si>
-    <t>creator_user (optional)</t>
-  </si>
-  <si>
-    <t>User that created the process</t>
-  </si>
-  <si>
-    <t>binary (optional)</t>
-  </si>
-  <si>
-    <t>Executable binary that was executed as the process</t>
-  </si>
-  <si>
-    <t>parent (optional)</t>
-  </si>
-  <si>
-    <t>Process that spawned this one</t>
-  </si>
-  <si>
-    <t>children (optional)</t>
-  </si>
-  <si>
-    <t>process-children (Array)</t>
-  </si>
-  <si>
-    <t>Processes that were spawned by this one</t>
   </si>
   <si>
     <t>process-ext</t>
@@ -2767,7 +2773,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E616"/>
+  <dimension ref="A2:E631"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3036,7 +3042,7 @@
         <v>51</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>52</v>
@@ -3086,7 +3092,7 @@
         <v>54</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E36" s="8"/>
     </row>
@@ -4091,7 +4097,7 @@
         <v>225</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E125" s="8"/>
     </row>
@@ -4139,7 +4145,7 @@
         <v>228</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>229</v>
@@ -4206,13 +4212,13 @@
         <v>6</v>
       </c>
       <c r="C137" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E137" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4220,13 +4226,13 @@
         <v>7</v>
       </c>
       <c r="C138" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E138" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4234,10 +4240,10 @@
         <v>8</v>
       </c>
       <c r="C139" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D139" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>229</v>
@@ -4248,13 +4254,13 @@
         <v>9</v>
       </c>
       <c r="C140" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D140" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="E140" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4262,10 +4268,10 @@
         <v>10</v>
       </c>
       <c r="C141" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D141" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>88</v>
@@ -4276,13 +4282,13 @@
         <v>11</v>
       </c>
       <c r="C142" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E142" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4290,13 +4296,13 @@
         <v>12</v>
       </c>
       <c r="C143" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E143" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4304,13 +4310,13 @@
         <v>13</v>
       </c>
       <c r="C144" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D144" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="E144" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4318,10 +4324,10 @@
         <v>14</v>
       </c>
       <c r="C145" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D145" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>256</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>58</v>
@@ -4332,13 +4338,13 @@
         <v>15</v>
       </c>
       <c r="C146" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D146" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="E146" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4346,10 +4352,10 @@
         <v>16</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>66</v>
@@ -4360,10 +4366,10 @@
         <v>17</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>84</v>
@@ -4374,13 +4380,13 @@
         <v>18</v>
       </c>
       <c r="C149" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D149" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="E149" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4388,13 +4394,13 @@
         <v>19</v>
       </c>
       <c r="C150" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D150" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D150" s="8" t="s">
-        <v>266</v>
-      </c>
       <c r="E150" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4402,7 +4408,7 @@
         <v>15</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -4413,7 +4419,7 @@
         <v>16</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -4421,10 +4427,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -4435,7 +4441,7 @@
         <v>125</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -4446,7 +4452,7 @@
         <v>15</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -4457,7 +4463,7 @@
         <v>16</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -4465,10 +4471,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -4479,7 +4485,7 @@
         <v>125</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -4490,7 +4496,7 @@
         <v>15</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -4501,7 +4507,7 @@
         <v>16</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -4512,7 +4518,7 @@
         <v>125</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -4523,7 +4529,7 @@
         <v>15</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -4534,7 +4540,7 @@
         <v>16</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -4545,7 +4551,7 @@
         <v>125</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
@@ -4556,7 +4562,7 @@
         <v>15</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -4567,7 +4573,7 @@
         <v>16</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -4578,7 +4584,7 @@
         <v>125</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -4589,7 +4595,7 @@
         <v>15</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -4600,7 +4606,7 @@
         <v>16</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
@@ -4611,7 +4617,7 @@
         <v>125</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
@@ -4622,7 +4628,7 @@
         <v>15</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
@@ -4644,7 +4650,7 @@
         <v>125</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -4672,10 +4678,10 @@
         <v>68</v>
       </c>
       <c r="D190" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E190" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="E190" s="8" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4686,10 +4692,10 @@
         <v>80</v>
       </c>
       <c r="D191" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E191" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="E191" s="8" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4700,10 +4706,10 @@
         <v>58</v>
       </c>
       <c r="D192" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E192" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="E192" s="8" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4714,10 +4720,10 @@
         <v>74</v>
       </c>
       <c r="D193" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E193" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4728,10 +4734,10 @@
         <v>76</v>
       </c>
       <c r="D194" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E194" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4739,7 +4745,7 @@
         <v>15</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
@@ -4775,7 +4781,7 @@
         <v>15</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
@@ -4811,7 +4817,7 @@
         <v>15</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
@@ -4822,7 +4828,7 @@
         <v>16</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
@@ -4833,7 +4839,7 @@
         <v>125</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
@@ -4844,7 +4850,7 @@
         <v>15</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
@@ -4855,7 +4861,7 @@
         <v>16</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
@@ -4866,7 +4872,7 @@
         <v>125</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
@@ -4877,7 +4883,7 @@
         <v>15</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
@@ -4899,7 +4905,7 @@
         <v>125</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
@@ -4924,13 +4930,13 @@
         <v>1</v>
       </c>
       <c r="C224" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D224" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D224" s="8" t="s">
+      <c r="E224" s="8" t="s">
         <v>347</v>
-      </c>
-      <c r="E224" s="8" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4938,13 +4944,13 @@
         <v>2</v>
       </c>
       <c r="C225" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E225" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="D225" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E225" s="8" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4952,13 +4958,13 @@
         <v>3</v>
       </c>
       <c r="C226" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E226" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E226" s="8" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4966,13 +4972,13 @@
         <v>4</v>
       </c>
       <c r="C227" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E227" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E227" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4980,13 +4986,13 @@
         <v>5</v>
       </c>
       <c r="C228" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E228" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E228" s="8" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4994,13 +5000,13 @@
         <v>6</v>
       </c>
       <c r="C229" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E229" s="8" t="s">
         <v>357</v>
-      </c>
-      <c r="D229" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E229" s="8" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5008,13 +5014,13 @@
         <v>7</v>
       </c>
       <c r="C230" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E230" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="D230" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E230" s="8" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5022,13 +5028,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E231" s="8" t="s">
         <v>361</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E231" s="8" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5036,13 +5042,13 @@
         <v>9</v>
       </c>
       <c r="C232" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E232" s="8" t="s">
         <v>363</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E232" s="8" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5050,13 +5056,13 @@
         <v>10</v>
       </c>
       <c r="C233" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E233" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E233" s="8" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5064,13 +5070,13 @@
         <v>11</v>
       </c>
       <c r="C234" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E234" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E234" s="8" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5078,13 +5084,13 @@
         <v>12</v>
       </c>
       <c r="C235" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E235" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="D235" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E235" s="8" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5092,13 +5098,13 @@
         <v>13</v>
       </c>
       <c r="C236" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E236" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="D236" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E236" s="8" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5106,13 +5112,13 @@
         <v>14</v>
       </c>
       <c r="C237" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E237" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E237" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5156,13 +5162,13 @@
         <v>1</v>
       </c>
       <c r="C244" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E244" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="D244" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E244" s="8" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5170,13 +5176,13 @@
         <v>2</v>
       </c>
       <c r="C245" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D245" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="D245" s="8" t="s">
+      <c r="E245" s="8" t="s">
         <v>418</v>
-      </c>
-      <c r="E245" s="8" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5184,13 +5190,13 @@
         <v>3</v>
       </c>
       <c r="C246" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D246" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="D246" s="8" t="s">
+      <c r="E246" s="8" t="s">
         <v>421</v>
-      </c>
-      <c r="E246" s="8" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5198,7 +5204,7 @@
         <v>15</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
@@ -5234,13 +5240,13 @@
         <v>1</v>
       </c>
       <c r="C253" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D253" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="D253" s="8" t="s">
+      <c r="E253" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="E253" s="8" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5251,10 +5257,10 @@
         <v>165</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5262,7 +5268,7 @@
         <v>15</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
@@ -5298,13 +5304,13 @@
         <v>1</v>
       </c>
       <c r="C261" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D261" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="D261" s="8" t="s">
+      <c r="E261" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="E261" s="8" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5312,13 +5318,13 @@
         <v>2</v>
       </c>
       <c r="C262" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="D262" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E262" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="D262" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E262" s="8" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5326,13 +5332,13 @@
         <v>3</v>
       </c>
       <c r="C263" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D263" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E263" s="8" t="s">
         <v>434</v>
-      </c>
-      <c r="D263" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E263" s="8" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5376,10 +5382,10 @@
         <v>1</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E270" s="8"/>
     </row>
@@ -5388,10 +5394,10 @@
         <v>2</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E271" s="8"/>
     </row>
@@ -5400,10 +5406,10 @@
         <v>3</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E272" s="8"/>
     </row>
@@ -5412,10 +5418,10 @@
         <v>4</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E273" s="8"/>
     </row>
@@ -5424,10 +5430,10 @@
         <v>5</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E274" s="8"/>
     </row>
@@ -5436,10 +5442,10 @@
         <v>6</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E275" s="8"/>
     </row>
@@ -5448,10 +5454,10 @@
         <v>7</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E276" s="8"/>
     </row>
@@ -5496,13 +5502,13 @@
         <v>1</v>
       </c>
       <c r="C283" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D283" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E283" s="8" t="s">
         <v>450</v>
-      </c>
-      <c r="D283" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E283" s="8" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5510,13 +5516,13 @@
         <v>2</v>
       </c>
       <c r="C284" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D284" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E284" s="8" t="s">
         <v>452</v>
-      </c>
-      <c r="D284" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E284" s="8" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5524,13 +5530,13 @@
         <v>3</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D285" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5538,13 +5544,13 @@
         <v>4</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D286" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5552,13 +5558,13 @@
         <v>5</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D287" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5566,13 +5572,13 @@
         <v>6</v>
       </c>
       <c r="C288" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D288" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="D288" s="8" t="s">
+      <c r="E288" s="8" t="s">
         <v>461</v>
-      </c>
-      <c r="E288" s="8" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5580,7 +5586,7 @@
         <v>15</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
@@ -5591,7 +5597,7 @@
         <v>16</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
@@ -5603,7 +5609,7 @@
       </c>
       <c r="C293" s="8"/>
       <c r="D293" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E293" s="8"/>
     </row>
@@ -5612,7 +5618,7 @@
         <v>15</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
@@ -5648,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D300" s="8" t="s">
         <v>137</v>
@@ -5660,7 +5666,7 @@
         <v>2</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D301" s="8" t="s">
         <v>149</v>
@@ -5719,7 +5725,7 @@
         <v>15</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
@@ -5766,7 +5772,7 @@
         <v>15</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
@@ -5802,13 +5808,13 @@
         <v>1</v>
       </c>
       <c r="C322" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D322" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E322" s="8" t="s">
         <v>471</v>
-      </c>
-      <c r="D322" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E322" s="8" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5816,13 +5822,13 @@
         <v>2</v>
       </c>
       <c r="C323" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="D323" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="D323" s="8" t="s">
+      <c r="E323" s="8" t="s">
         <v>474</v>
-      </c>
-      <c r="E323" s="8" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5830,7 +5836,7 @@
         <v>15</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
@@ -5841,7 +5847,7 @@
         <v>16</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
@@ -5853,7 +5859,7 @@
       </c>
       <c r="C328" s="8"/>
       <c r="D328" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E328" s="8"/>
     </row>
@@ -5862,7 +5868,7 @@
         <v>15</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
@@ -5898,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D335" s="8" t="s">
         <v>151</v>
@@ -5910,7 +5916,7 @@
         <v>2</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D336" s="8" t="s">
         <v>153</v>
@@ -5922,7 +5928,7 @@
         <v>3</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D337" s="8" t="s">
         <v>143</v>
@@ -5934,7 +5940,7 @@
         <v>15</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
@@ -5970,13 +5976,13 @@
         <v>1</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E344" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -5984,13 +5990,13 @@
         <v>2</v>
       </c>
       <c r="C345" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D345" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E345" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="D345" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E345" s="8" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -5998,13 +6004,13 @@
         <v>3</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D346" s="8" t="s">
         <v>168</v>
       </c>
       <c r="E346" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6012,7 +6018,7 @@
         <v>15</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
@@ -6034,7 +6040,7 @@
         <v>125</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
@@ -6095,13 +6101,13 @@
         <v>1</v>
       </c>
       <c r="C360" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="D360" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="D360" s="8" t="s">
+      <c r="E360" s="8" t="s">
         <v>491</v>
-      </c>
-      <c r="E360" s="8" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6109,13 +6115,13 @@
         <v>2</v>
       </c>
       <c r="C361" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D361" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="D361" s="8" t="s">
-        <v>421</v>
-      </c>
       <c r="E361" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6123,13 +6129,13 @@
         <v>3</v>
       </c>
       <c r="C362" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="D362" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E362" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="D362" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="E362" s="8" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6137,13 +6143,13 @@
         <v>4</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D363" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E363" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6151,13 +6157,13 @@
         <v>5</v>
       </c>
       <c r="C364" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="D364" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E364" s="8" t="s">
         <v>497</v>
-      </c>
-      <c r="D364" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E364" s="8" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6165,13 +6171,13 @@
         <v>6</v>
       </c>
       <c r="C365" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="D365" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E365" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="D365" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E365" s="8" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6179,13 +6185,13 @@
         <v>7</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D366" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E366" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6193,13 +6199,13 @@
         <v>8</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D367" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E367" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6207,13 +6213,13 @@
         <v>9</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D368" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E368" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6221,13 +6227,13 @@
         <v>10</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D369" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E369" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6235,13 +6241,13 @@
         <v>11</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D370" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E370" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6249,13 +6255,13 @@
         <v>12</v>
       </c>
       <c r="C371" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D371" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="D371" s="8" t="s">
+      <c r="E371" s="8" t="s">
         <v>508</v>
-      </c>
-      <c r="E371" s="8" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6263,13 +6269,13 @@
         <v>13</v>
       </c>
       <c r="C372" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="D372" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="D372" s="8" t="s">
+      <c r="E372" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="E372" s="8" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6277,13 +6283,13 @@
         <v>14</v>
       </c>
       <c r="C373" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="D373" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E373" s="8" t="s">
         <v>513</v>
-      </c>
-      <c r="D373" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E373" s="8" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6291,13 +6297,13 @@
         <v>15</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D374" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="E374" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="E374" s="8" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6305,13 +6311,13 @@
         <v>16</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D375" s="8" t="s">
         <v>128</v>
       </c>
       <c r="E375" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6319,7 +6325,7 @@
         <v>15</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
@@ -6330,7 +6336,7 @@
         <v>16</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C379" s="6"/>
       <c r="D379" s="6"/>
@@ -6351,7 +6357,7 @@
         <v>15</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
@@ -6387,10 +6393,10 @@
         <v>1</v>
       </c>
       <c r="C387" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="D387" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="D387" s="8" t="s">
-        <v>522</v>
       </c>
       <c r="E387" s="8"/>
     </row>
@@ -6399,10 +6405,10 @@
         <v>2</v>
       </c>
       <c r="C388" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="D388" s="8" t="s">
         <v>523</v>
-      </c>
-      <c r="D388" s="8" t="s">
-        <v>524</v>
       </c>
       <c r="E388" s="8"/>
     </row>
@@ -6411,10 +6417,10 @@
         <v>3</v>
       </c>
       <c r="C389" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D389" s="8" t="s">
         <v>525</v>
-      </c>
-      <c r="D389" s="8" t="s">
-        <v>526</v>
       </c>
       <c r="E389" s="8"/>
     </row>
@@ -6423,10 +6429,10 @@
         <v>4</v>
       </c>
       <c r="C390" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="D390" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="D390" s="8" t="s">
-        <v>528</v>
       </c>
       <c r="E390" s="8"/>
     </row>
@@ -6435,10 +6441,10 @@
         <v>5</v>
       </c>
       <c r="C391" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D391" s="8" t="s">
         <v>529</v>
-      </c>
-      <c r="D391" s="8" t="s">
-        <v>530</v>
       </c>
       <c r="E391" s="8"/>
     </row>
@@ -6447,7 +6453,7 @@
         <v>15</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
@@ -6469,7 +6475,7 @@
         <v>125</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C396" s="6"/>
       <c r="D396" s="6"/>
@@ -6494,7 +6500,7 @@
         <v>15</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
@@ -6516,7 +6522,7 @@
         <v>125</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
@@ -6541,7 +6547,7 @@
         <v>15</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
@@ -6563,7 +6569,7 @@
         <v>125</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C410" s="6"/>
       <c r="D410" s="6"/>
@@ -6588,7 +6594,7 @@
         <v>15</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
@@ -6610,7 +6616,7 @@
         <v>125</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C417" s="6"/>
       <c r="D417" s="6"/>
@@ -6635,7 +6641,7 @@
         <v>15</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
@@ -6657,7 +6663,7 @@
         <v>125</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C424" s="6"/>
       <c r="D424" s="6"/>
@@ -6682,7 +6688,7 @@
         <v>15</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
@@ -6718,13 +6724,13 @@
         <v>1</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D433" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E433" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -6732,13 +6738,13 @@
         <v>2</v>
       </c>
       <c r="C434" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D434" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="D434" s="8" t="s">
+      <c r="E434" s="8" t="s">
         <v>540</v>
-      </c>
-      <c r="E434" s="8" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -6746,13 +6752,13 @@
         <v>3</v>
       </c>
       <c r="C435" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D435" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="D435" s="8" t="s">
+      <c r="E435" s="8" t="s">
         <v>543</v>
-      </c>
-      <c r="E435" s="8" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -6760,7 +6766,7 @@
         <v>15</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
@@ -6796,13 +6802,13 @@
         <v>1</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D442" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E442" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -6810,13 +6816,13 @@
         <v>2</v>
       </c>
       <c r="C443" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D443" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="D443" s="8" t="s">
+      <c r="E443" s="8" t="s">
         <v>540</v>
-      </c>
-      <c r="E443" s="8" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -6824,13 +6830,13 @@
         <v>3</v>
       </c>
       <c r="C444" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D444" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="D444" s="8" t="s">
+      <c r="E444" s="8" t="s">
         <v>543</v>
-      </c>
-      <c r="E444" s="8" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -6838,7 +6844,7 @@
         <v>15</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
@@ -6849,7 +6855,7 @@
         <v>16</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C448" s="6"/>
       <c r="D448" s="6"/>
@@ -6870,7 +6876,7 @@
         <v>15</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
@@ -6881,7 +6887,7 @@
         <v>16</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C453" s="6"/>
       <c r="D453" s="6"/>
@@ -6892,7 +6898,7 @@
         <v>125</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C454" s="6"/>
       <c r="D454" s="6"/>
@@ -6903,7 +6909,7 @@
         <v>15</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
@@ -6914,7 +6920,7 @@
         <v>16</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C458" s="6"/>
       <c r="D458" s="6"/>
@@ -6926,7 +6932,7 @@
       </c>
       <c r="C459" s="8"/>
       <c r="D459" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E459" s="8"/>
     </row>
@@ -6935,7 +6941,7 @@
         <v>15</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
@@ -6957,7 +6963,7 @@
         <v>125</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C464" s="6"/>
       <c r="D464" s="6"/>
@@ -6982,13 +6988,13 @@
         <v>1</v>
       </c>
       <c r="C467" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D467" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E467" s="8" t="s">
         <v>554</v>
-      </c>
-      <c r="D467" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="E467" s="8" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -6996,13 +7002,13 @@
         <v>2</v>
       </c>
       <c r="C468" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="D468" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="D468" s="8" t="s">
+      <c r="E468" s="8" t="s">
         <v>557</v>
-      </c>
-      <c r="E468" s="8" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -7010,13 +7016,13 @@
         <v>3</v>
       </c>
       <c r="C469" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="D469" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E469" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="D469" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="E469" s="8" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -7024,13 +7030,13 @@
         <v>4</v>
       </c>
       <c r="C470" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D470" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="E470" s="8" t="s">
         <v>561</v>
-      </c>
-      <c r="D470" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="E470" s="8" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -7038,13 +7044,13 @@
         <v>5</v>
       </c>
       <c r="C471" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="D471" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="D471" s="8" t="s">
+      <c r="E471" s="8" t="s">
         <v>564</v>
-      </c>
-      <c r="E471" s="8" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -7052,7 +7058,7 @@
         <v>15</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
@@ -7074,7 +7080,7 @@
         <v>125</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C476" s="6"/>
       <c r="D476" s="6"/>
@@ -7099,13 +7105,13 @@
         <v>1</v>
       </c>
       <c r="C479" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D479" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E479" s="8" t="s">
         <v>568</v>
-      </c>
-      <c r="D479" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="E479" s="8" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -7113,13 +7119,13 @@
         <v>2</v>
       </c>
       <c r="C480" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="D480" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="D480" s="8" t="s">
+      <c r="E480" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="E480" s="8" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -7210,13 +7216,13 @@
         <v>1</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D494" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="E494" s="8" t="s">
         <v>607</v>
-      </c>
-      <c r="E494" s="8" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -7224,13 +7230,13 @@
         <v>2</v>
       </c>
       <c r="C495" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="D495" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E495" s="8" t="s">
         <v>609</v>
-      </c>
-      <c r="D495" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E495" s="8" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -7238,13 +7244,13 @@
         <v>3</v>
       </c>
       <c r="C496" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D496" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E496" s="8" t="s">
         <v>611</v>
-      </c>
-      <c r="D496" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="E496" s="8" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -7252,13 +7258,13 @@
         <v>4</v>
       </c>
       <c r="C497" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D497" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E497" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -7266,13 +7272,13 @@
         <v>5</v>
       </c>
       <c r="C498" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D498" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E498" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -7280,13 +7286,13 @@
         <v>6</v>
       </c>
       <c r="C499" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="D499" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E499" s="8" t="s">
         <v>615</v>
-      </c>
-      <c r="D499" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E499" s="8" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -7294,13 +7300,13 @@
         <v>7</v>
       </c>
       <c r="C500" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="D500" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="D500" s="8" t="s">
+      <c r="E500" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="E500" s="8" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -7308,13 +7314,13 @@
         <v>8</v>
       </c>
       <c r="C501" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="D501" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="D501" s="8" t="s">
+      <c r="E501" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="E501" s="8" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -7322,13 +7328,13 @@
         <v>9</v>
       </c>
       <c r="C502" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="D502" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="D502" s="8" t="s">
+      <c r="E502" s="8" t="s">
         <v>624</v>
-      </c>
-      <c r="E502" s="8" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -7336,13 +7342,13 @@
         <v>10</v>
       </c>
       <c r="C503" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D503" s="8" t="s">
         <v>168</v>
       </c>
       <c r="E503" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -7350,13 +7356,13 @@
         <v>11</v>
       </c>
       <c r="C504" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D504" s="8" t="s">
         <v>149</v>
       </c>
       <c r="E504" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -7364,13 +7370,13 @@
         <v>12</v>
       </c>
       <c r="C505" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D505" s="8" t="s">
         <v>162</v>
       </c>
       <c r="E505" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -7378,13 +7384,13 @@
         <v>13</v>
       </c>
       <c r="C506" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="D506" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="D506" s="8" t="s">
+      <c r="E506" s="8" t="s">
         <v>633</v>
-      </c>
-      <c r="E506" s="8" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -7392,7 +7398,7 @@
         <v>15</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C509" s="5"/>
       <c r="D509" s="5"/>
@@ -7403,920 +7409,1016 @@
         <v>16</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>227</v>
+        <v>463</v>
       </c>
       <c r="C510" s="6"/>
       <c r="D510" s="6"/>
       <c r="E510" s="6"/>
     </row>
-    <row r="512" spans="1:5">
-      <c r="B512" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C512" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D512" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E512" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5">
-      <c r="B513" s="8">
-        <v>1</v>
-      </c>
-      <c r="C513" s="8" t="s">
+    <row r="511" spans="1:5">
+      <c r="B511" s="8">
+        <v>0</v>
+      </c>
+      <c r="C511" s="8"/>
+      <c r="D511" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E511" s="8"/>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C514" s="5"/>
+      <c r="D514" s="5"/>
+      <c r="E514" s="5"/>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B515" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C515" s="6"/>
+      <c r="D515" s="6"/>
+      <c r="E515" s="6"/>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="B516" s="8">
+        <v>0</v>
+      </c>
+      <c r="C516" s="8"/>
+      <c r="D516" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E516" s="8"/>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B519" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="D513" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="E513" s="8"/>
-    </row>
-    <row r="514" spans="1:5">
-      <c r="B514" s="8">
-        <v>2</v>
-      </c>
-      <c r="C514" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="D514" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="E514" s="8"/>
-    </row>
-    <row r="517" spans="1:5">
-      <c r="A517" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B517" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="C517" s="5"/>
-      <c r="D517" s="5"/>
-      <c r="E517" s="5"/>
-    </row>
-    <row r="518" spans="1:5">
-      <c r="A518" s="4" t="s">
+      <c r="C519" s="5"/>
+      <c r="D519" s="5"/>
+      <c r="E519" s="5"/>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B518" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="C518" s="6"/>
-      <c r="D518" s="6"/>
-      <c r="E518" s="6"/>
-    </row>
-    <row r="519" spans="1:5">
-      <c r="B519" s="8">
+      <c r="B520" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C520" s="6"/>
+      <c r="D520" s="6"/>
+      <c r="E520" s="6"/>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="B521" s="8">
         <v>0</v>
       </c>
-      <c r="C519" s="8"/>
-      <c r="D519" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E519" s="8"/>
-    </row>
-    <row r="522" spans="1:5">
-      <c r="A522" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B522" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="C522" s="5"/>
-      <c r="D522" s="5"/>
-      <c r="E522" s="5"/>
-    </row>
-    <row r="523" spans="1:5">
-      <c r="A523" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B523" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C523" s="6"/>
-      <c r="D523" s="6"/>
-      <c r="E523" s="6"/>
+      <c r="C521" s="8"/>
+      <c r="D521" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E521" s="8"/>
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B524" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="C524" s="6"/>
-      <c r="D524" s="6"/>
-      <c r="E524" s="6"/>
-    </row>
-    <row r="526" spans="1:5">
-      <c r="B526" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B524" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C524" s="5"/>
+      <c r="D524" s="5"/>
+      <c r="E524" s="5"/>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B525" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C525" s="6"/>
+      <c r="D525" s="6"/>
+      <c r="E525" s="6"/>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="B527" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C526" s="7" t="s">
+      <c r="C527" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D526" s="7" t="s">
+      <c r="D527" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E526" s="7" t="s">
+      <c r="E527" s="7" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="528" spans="1:5">
+      <c r="B528" s="8">
+        <v>1</v>
+      </c>
+      <c r="C528" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="D528" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="E528" s="8"/>
+    </row>
     <row r="529" spans="1:5">
-      <c r="A529" s="4" t="s">
+      <c r="B529" s="8">
+        <v>2</v>
+      </c>
+      <c r="C529" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="D529" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="E529" s="8"/>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B529" s="5" t="s">
+      <c r="B532" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="C529" s="5"/>
-      <c r="D529" s="5"/>
-      <c r="E529" s="5"/>
-    </row>
-    <row r="530" spans="1:5">
-      <c r="A530" s="4" t="s">
+      <c r="C532" s="5"/>
+      <c r="D532" s="5"/>
+      <c r="E532" s="5"/>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B530" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C530" s="6"/>
-      <c r="D530" s="6"/>
-      <c r="E530" s="6"/>
-    </row>
-    <row r="531" spans="1:5">
-      <c r="A531" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B531" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="C531" s="6"/>
-      <c r="D531" s="6"/>
-      <c r="E531" s="6"/>
-    </row>
-    <row r="533" spans="1:5">
-      <c r="B533" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C533" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D533" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E533" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5">
-      <c r="A536" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B536" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C536" s="5"/>
-      <c r="D536" s="5"/>
-      <c r="E536" s="5"/>
+      <c r="B533" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C533" s="6"/>
+      <c r="D533" s="6"/>
+      <c r="E533" s="6"/>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="B534" s="8">
+        <v>0</v>
+      </c>
+      <c r="C534" s="8"/>
+      <c r="D534" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E534" s="8"/>
     </row>
     <row r="537" spans="1:5">
       <c r="A537" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B537" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C537" s="5"/>
+      <c r="D537" s="5"/>
+      <c r="E537" s="5"/>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B537" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C537" s="6"/>
-      <c r="D537" s="6"/>
-      <c r="E537" s="6"/>
+      <c r="B538" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C538" s="6"/>
+      <c r="D538" s="6"/>
+      <c r="E538" s="6"/>
     </row>
     <row r="539" spans="1:5">
-      <c r="B539" s="7" t="s">
+      <c r="A539" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B539" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C539" s="6"/>
+      <c r="D539" s="6"/>
+      <c r="E539" s="6"/>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="B541" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C539" s="7" t="s">
+      <c r="C541" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D539" s="7" t="s">
+      <c r="D541" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E539" s="7" t="s">
+      <c r="E541" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
-      <c r="B540" s="8">
-        <v>1</v>
-      </c>
-      <c r="C540" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="D540" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E540" s="8" t="s">
+    <row r="544" spans="1:5">
+      <c r="A544" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B544" s="5" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="541" spans="1:5">
-      <c r="B541" s="8">
-        <v>2</v>
-      </c>
-      <c r="C541" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="D541" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E541" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="542" spans="1:5">
-      <c r="B542" s="8">
-        <v>3</v>
-      </c>
-      <c r="C542" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="D542" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E542" s="8" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="543" spans="1:5">
-      <c r="B543" s="8">
-        <v>4</v>
-      </c>
-      <c r="C543" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="D543" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E543" s="8" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="544" spans="1:5">
-      <c r="B544" s="8">
-        <v>5</v>
-      </c>
-      <c r="C544" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="D544" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E544" s="8" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="547" spans="1:5">
-      <c r="A547" s="4" t="s">
+      <c r="C544" s="5"/>
+      <c r="D544" s="5"/>
+      <c r="E544" s="5"/>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="A545" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B545" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C545" s="6"/>
+      <c r="D545" s="6"/>
+      <c r="E545" s="6"/>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="A546" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B546" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C546" s="6"/>
+      <c r="D546" s="6"/>
+      <c r="E546" s="6"/>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="B548" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C548" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D548" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E548" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="A551" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B547" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C547" s="5"/>
-      <c r="D547" s="5"/>
-      <c r="E547" s="5"/>
-    </row>
-    <row r="548" spans="1:5">
-      <c r="A548" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B548" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C548" s="6"/>
-      <c r="D548" s="6"/>
-      <c r="E548" s="6"/>
-    </row>
-    <row r="549" spans="1:5">
-      <c r="A549" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B549" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="C549" s="6"/>
-      <c r="D549" s="6"/>
-      <c r="E549" s="6"/>
+      <c r="B551" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C551" s="5"/>
+      <c r="D551" s="5"/>
+      <c r="E551" s="5"/>
     </row>
     <row r="552" spans="1:5">
       <c r="A552" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B552" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="C552" s="5"/>
-      <c r="D552" s="5"/>
-      <c r="E552" s="5"/>
-    </row>
-    <row r="553" spans="1:5">
-      <c r="A553" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B553" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C553" s="6"/>
-      <c r="D553" s="6"/>
-      <c r="E553" s="6"/>
+      <c r="B552" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C552" s="6"/>
+      <c r="D552" s="6"/>
+      <c r="E552" s="6"/>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="B554" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C554" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D554" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E554" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="555" spans="1:5">
-      <c r="B555" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C555" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D555" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E555" s="7" t="s">
-        <v>21</v>
+      <c r="B555" s="8">
+        <v>1</v>
+      </c>
+      <c r="C555" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="D555" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E555" s="8" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="556" spans="1:5">
       <c r="B556" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C556" s="8" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="D556" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E556" s="8" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="557" spans="1:5">
       <c r="B557" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C557" s="8" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D557" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E557" s="8" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="558" spans="1:5">
       <c r="B558" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C558" s="8" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="D558" s="8" t="s">
-        <v>660</v>
+        <v>43</v>
       </c>
       <c r="E558" s="8" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="559" spans="1:5">
       <c r="B559" s="8">
+        <v>5</v>
+      </c>
+      <c r="C559" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="D559" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E559" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B562" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C562" s="5"/>
+      <c r="D562" s="5"/>
+      <c r="E562" s="5"/>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="A563" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B563" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C563" s="6"/>
+      <c r="D563" s="6"/>
+      <c r="E563" s="6"/>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B564" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C564" s="6"/>
+      <c r="D564" s="6"/>
+      <c r="E564" s="6"/>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B567" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C567" s="5"/>
+      <c r="D567" s="5"/>
+      <c r="E567" s="5"/>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="A568" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B568" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C568" s="6"/>
+      <c r="D568" s="6"/>
+      <c r="E568" s="6"/>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="B570" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C570" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D570" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E570" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="B571" s="8">
+        <v>1</v>
+      </c>
+      <c r="C571" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D571" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E571" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="B572" s="8">
+        <v>2</v>
+      </c>
+      <c r="C572" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="D572" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E572" s="8" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5">
+      <c r="B573" s="8">
+        <v>3</v>
+      </c>
+      <c r="C573" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="D573" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="E573" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5">
+      <c r="B574" s="8">
         <v>4</v>
       </c>
-      <c r="C559" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="D559" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E559" s="8" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="560" spans="1:5">
-      <c r="B560" s="8">
+      <c r="C574" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D574" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E574" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="B575" s="8">
         <v>5</v>
       </c>
-      <c r="C560" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="D560" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E560" s="8" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="561" spans="1:5">
-      <c r="B561" s="8">
+      <c r="C575" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D575" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E575" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5">
+      <c r="B576" s="8">
         <v>6</v>
       </c>
-      <c r="C561" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D561" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E561" s="8" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="562" spans="1:5">
-      <c r="B562" s="8">
+      <c r="C576" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="D576" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E576" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5">
+      <c r="B577" s="8">
         <v>7</v>
       </c>
-      <c r="C562" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="D562" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E562" s="8" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="563" spans="1:5">
-      <c r="B563" s="8">
+      <c r="C577" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="D577" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E577" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5">
+      <c r="B578" s="8">
         <v>8</v>
       </c>
-      <c r="C563" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="D563" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E563" s="8" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="564" spans="1:5">
-      <c r="B564" s="8">
+      <c r="C578" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="D578" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E578" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5">
+      <c r="B579" s="8">
         <v>9</v>
       </c>
-      <c r="C564" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="D564" s="8" t="s">
+      <c r="C579" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="D579" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E564" s="8" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="565" spans="1:5">
-      <c r="B565" s="8">
+      <c r="E579" s="8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5">
+      <c r="B580" s="8">
         <v>10</v>
       </c>
-      <c r="C565" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="D565" s="8" t="s">
+      <c r="C580" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="D580" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E565" s="8" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="566" spans="1:5">
-      <c r="B566" s="8">
+      <c r="E580" s="8" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5">
+      <c r="B581" s="8">
         <v>11</v>
       </c>
-      <c r="C566" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="D566" s="8" t="s">
+      <c r="C581" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="D581" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E566" s="8" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="567" spans="1:5">
-      <c r="B567" s="8">
+      <c r="E581" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5">
+      <c r="B582" s="8">
         <v>12</v>
       </c>
-      <c r="C567" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="D567" s="8" t="s">
+      <c r="C582" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="D582" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E567" s="8" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="568" spans="1:5">
-      <c r="B568" s="8">
+      <c r="E582" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5">
+      <c r="B583" s="8">
         <v>13</v>
       </c>
-      <c r="C568" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="D568" s="8" t="s">
+      <c r="C583" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="D583" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E568" s="8" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="571" spans="1:5">
-      <c r="A571" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B571" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="C571" s="5"/>
-      <c r="D571" s="5"/>
-      <c r="E571" s="5"/>
-    </row>
-    <row r="572" spans="1:5">
-      <c r="A572" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B572" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C572" s="6"/>
-      <c r="D572" s="6"/>
-      <c r="E572" s="6"/>
-    </row>
-    <row r="573" spans="1:5">
-      <c r="A573" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B573" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C573" s="6"/>
-      <c r="D573" s="6"/>
-      <c r="E573" s="6"/>
-    </row>
-    <row r="575" spans="1:5">
-      <c r="B575" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C575" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D575" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E575" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="578" spans="1:5">
-      <c r="A578" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B578" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C578" s="5"/>
-      <c r="D578" s="5"/>
-      <c r="E578" s="5"/>
-    </row>
-    <row r="579" spans="1:5">
-      <c r="A579" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B579" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C579" s="6"/>
-      <c r="D579" s="6"/>
-      <c r="E579" s="6"/>
-    </row>
-    <row r="580" spans="1:5">
-      <c r="A580" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B580" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C580" s="6"/>
-      <c r="D580" s="6"/>
-      <c r="E580" s="6"/>
-    </row>
-    <row r="582" spans="1:5">
-      <c r="B582" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C582" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D582" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E582" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="585" spans="1:5">
-      <c r="A585" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B585" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="C585" s="5"/>
-      <c r="D585" s="5"/>
-      <c r="E585" s="5"/>
+      <c r="E583" s="8" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="586" spans="1:5">
       <c r="A586" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B586" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C586" s="5"/>
+      <c r="D586" s="5"/>
+      <c r="E586" s="5"/>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="A587" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B586" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C586" s="6"/>
-      <c r="D586" s="6"/>
-      <c r="E586" s="6"/>
+      <c r="B587" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C587" s="6"/>
+      <c r="D587" s="6"/>
+      <c r="E587" s="6"/>
     </row>
     <row r="588" spans="1:5">
-      <c r="B588" s="7" t="s">
+      <c r="A588" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B588" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C588" s="6"/>
+      <c r="D588" s="6"/>
+      <c r="E588" s="6"/>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="B590" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C588" s="7" t="s">
+      <c r="C590" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D588" s="7" t="s">
+      <c r="D590" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E588" s="7" t="s">
+      <c r="E590" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
-      <c r="B589" s="8">
-        <v>1</v>
-      </c>
-      <c r="C589" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="D589" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E589" s="8" t="s">
+    <row r="593" spans="1:5">
+      <c r="A593" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B593" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C593" s="5"/>
+      <c r="D593" s="5"/>
+      <c r="E593" s="5"/>
+    </row>
+    <row r="594" spans="1:5">
+      <c r="A594" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B594" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C594" s="6"/>
+      <c r="D594" s="6"/>
+      <c r="E594" s="6"/>
+    </row>
+    <row r="595" spans="1:5">
+      <c r="A595" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B595" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C595" s="6"/>
+      <c r="D595" s="6"/>
+      <c r="E595" s="6"/>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="B597" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C597" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D597" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E597" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5">
+      <c r="A600" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B600" s="5" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="590" spans="1:5">
-      <c r="B590" s="8">
-        <v>2</v>
-      </c>
-      <c r="C590" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="D590" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="E590" s="8" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="591" spans="1:5">
-      <c r="B591" s="8">
-        <v>3</v>
-      </c>
-      <c r="C591" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="D591" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E591" s="8" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="592" spans="1:5">
-      <c r="B592" s="8">
-        <v>4</v>
-      </c>
-      <c r="C592" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="D592" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E592" s="8" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="593" spans="1:5">
-      <c r="B593" s="8">
-        <v>5</v>
-      </c>
-      <c r="C593" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="D593" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="E593" s="8" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="596" spans="1:5">
-      <c r="A596" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B596" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="C596" s="5"/>
-      <c r="D596" s="5"/>
-      <c r="E596" s="5"/>
-    </row>
-    <row r="597" spans="1:5">
-      <c r="A597" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B597" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="C597" s="6"/>
-      <c r="D597" s="6"/>
-      <c r="E597" s="6"/>
-    </row>
-    <row r="598" spans="1:5">
-      <c r="B598" s="8">
-        <v>0</v>
-      </c>
-      <c r="C598" s="8"/>
-      <c r="D598" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="E598" s="8"/>
+      <c r="C600" s="5"/>
+      <c r="D600" s="5"/>
+      <c r="E600" s="5"/>
     </row>
     <row r="601" spans="1:5">
       <c r="A601" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B601" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="C601" s="5"/>
-      <c r="D601" s="5"/>
-      <c r="E601" s="5"/>
-    </row>
-    <row r="602" spans="1:5">
-      <c r="A602" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B602" s="6" t="s">
+      <c r="B601" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C602" s="6"/>
-      <c r="D602" s="6"/>
-      <c r="E602" s="6"/>
+      <c r="C601" s="6"/>
+      <c r="D601" s="6"/>
+      <c r="E601" s="6"/>
+    </row>
+    <row r="603" spans="1:5">
+      <c r="B603" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C603" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D603" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E603" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="604" spans="1:5">
-      <c r="B604" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C604" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D604" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E604" s="7" t="s">
-        <v>21</v>
+      <c r="B604" s="8">
+        <v>1</v>
+      </c>
+      <c r="C604" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="D604" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E604" s="8" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="605" spans="1:5">
       <c r="B605" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C605" s="8" t="s">
-        <v>643</v>
+        <v>710</v>
       </c>
       <c r="D605" s="8" t="s">
-        <v>49</v>
+        <v>711</v>
       </c>
       <c r="E605" s="8" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="606" spans="1:5">
       <c r="B606" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C606" s="8" t="s">
-        <v>719</v>
+        <v>455</v>
       </c>
       <c r="D606" s="8" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="E606" s="8" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="607" spans="1:5">
       <c r="B607" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C607" s="8" t="s">
-        <v>721</v>
+        <v>625</v>
       </c>
       <c r="D607" s="8" t="s">
-        <v>722</v>
+        <v>168</v>
       </c>
       <c r="E607" s="8" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="610" spans="1:5">
-      <c r="A610" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B610" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="C610" s="5"/>
-      <c r="D610" s="5"/>
-      <c r="E610" s="5"/>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5">
+      <c r="B608" s="8">
+        <v>5</v>
+      </c>
+      <c r="C608" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="D608" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E608" s="8" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="611" spans="1:5">
       <c r="A611" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B611" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C611" s="6"/>
-      <c r="D611" s="6"/>
-      <c r="E611" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B611" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C611" s="5"/>
+      <c r="D611" s="5"/>
+      <c r="E611" s="5"/>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="4" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="B612" s="6" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="C612" s="6"/>
       <c r="D612" s="6"/>
       <c r="E612" s="6"/>
     </row>
-    <row r="614" spans="1:5">
-      <c r="B614" s="7" t="s">
+    <row r="613" spans="1:5">
+      <c r="B613" s="8">
+        <v>0</v>
+      </c>
+      <c r="C613" s="8"/>
+      <c r="D613" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E613" s="8"/>
+    </row>
+    <row r="616" spans="1:5">
+      <c r="A616" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B616" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="C616" s="5"/>
+      <c r="D616" s="5"/>
+      <c r="E616" s="5"/>
+    </row>
+    <row r="617" spans="1:5">
+      <c r="A617" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B617" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C617" s="6"/>
+      <c r="D617" s="6"/>
+      <c r="E617" s="6"/>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="B619" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C614" s="7" t="s">
+      <c r="C619" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D614" s="7" t="s">
+      <c r="D619" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E614" s="7" t="s">
+      <c r="E619" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
-      <c r="B615" s="8">
+    <row r="620" spans="1:5">
+      <c r="B620" s="8">
         <v>1</v>
       </c>
-      <c r="C615" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="D615" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E615" s="8" t="s">
+      <c r="C620" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="D620" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E620" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="B621" s="8">
+        <v>2</v>
+      </c>
+      <c r="C621" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="D621" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E621" s="8" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
+      <c r="B622" s="8">
+        <v>3</v>
+      </c>
+      <c r="C622" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="D622" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="E622" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5">
+      <c r="A625" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B625" s="5" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="616" spans="1:5">
-      <c r="B616" s="8">
+      <c r="C625" s="5"/>
+      <c r="D625" s="5"/>
+      <c r="E625" s="5"/>
+    </row>
+    <row r="626" spans="1:5">
+      <c r="A626" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B626" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C626" s="6"/>
+      <c r="D626" s="6"/>
+      <c r="E626" s="6"/>
+    </row>
+    <row r="627" spans="1:5">
+      <c r="A627" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B627" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C627" s="6"/>
+      <c r="D627" s="6"/>
+      <c r="E627" s="6"/>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="B629" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C629" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D629" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E629" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="B630" s="8">
+        <v>1</v>
+      </c>
+      <c r="C630" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="D630" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E630" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="B631" s="8">
         <v>2</v>
       </c>
-      <c r="C616" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="D616" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="E616" s="8" t="s">
-        <v>755</v>
+      <c r="C631" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="D631" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E631" s="8" t="s">
+        <v>757</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="165">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B11:E11"/>
@@ -8446,36 +8548,42 @@
     <mergeCell ref="B491:E491"/>
     <mergeCell ref="B509:E509"/>
     <mergeCell ref="B510:E510"/>
-    <mergeCell ref="B517:E517"/>
-    <mergeCell ref="B518:E518"/>
-    <mergeCell ref="B522:E522"/>
-    <mergeCell ref="B523:E523"/>
+    <mergeCell ref="B514:E514"/>
+    <mergeCell ref="B515:E515"/>
+    <mergeCell ref="B519:E519"/>
+    <mergeCell ref="B520:E520"/>
     <mergeCell ref="B524:E524"/>
-    <mergeCell ref="B529:E529"/>
-    <mergeCell ref="B530:E530"/>
-    <mergeCell ref="B531:E531"/>
-    <mergeCell ref="B536:E536"/>
+    <mergeCell ref="B525:E525"/>
+    <mergeCell ref="B532:E532"/>
+    <mergeCell ref="B533:E533"/>
     <mergeCell ref="B537:E537"/>
-    <mergeCell ref="B547:E547"/>
-    <mergeCell ref="B548:E548"/>
-    <mergeCell ref="B549:E549"/>
+    <mergeCell ref="B538:E538"/>
+    <mergeCell ref="B539:E539"/>
+    <mergeCell ref="B544:E544"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="B551:E551"/>
     <mergeCell ref="B552:E552"/>
-    <mergeCell ref="B553:E553"/>
-    <mergeCell ref="B571:E571"/>
-    <mergeCell ref="B572:E572"/>
-    <mergeCell ref="B573:E573"/>
-    <mergeCell ref="B578:E578"/>
-    <mergeCell ref="B579:E579"/>
-    <mergeCell ref="B580:E580"/>
-    <mergeCell ref="B585:E585"/>
+    <mergeCell ref="B562:E562"/>
+    <mergeCell ref="B563:E563"/>
+    <mergeCell ref="B564:E564"/>
+    <mergeCell ref="B567:E567"/>
+    <mergeCell ref="B568:E568"/>
     <mergeCell ref="B586:E586"/>
-    <mergeCell ref="B596:E596"/>
-    <mergeCell ref="B597:E597"/>
+    <mergeCell ref="B587:E587"/>
+    <mergeCell ref="B588:E588"/>
+    <mergeCell ref="B593:E593"/>
+    <mergeCell ref="B594:E594"/>
+    <mergeCell ref="B595:E595"/>
+    <mergeCell ref="B600:E600"/>
     <mergeCell ref="B601:E601"/>
-    <mergeCell ref="B602:E602"/>
-    <mergeCell ref="B610:E610"/>
     <mergeCell ref="B611:E611"/>
     <mergeCell ref="B612:E612"/>
+    <mergeCell ref="B616:E616"/>
+    <mergeCell ref="B617:E617"/>
+    <mergeCell ref="B625:E625"/>
+    <mergeCell ref="B626:E626"/>
+    <mergeCell ref="B627:E627"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8884,7 +8992,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -8905,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D42" s="8"/>
     </row>
@@ -8914,7 +9022,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D43" s="8"/>
     </row>
@@ -8923,7 +9031,7 @@
         <v>55</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -8944,7 +9052,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D48" s="8"/>
     </row>
@@ -8953,7 +9061,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D49" s="8"/>
     </row>
@@ -8962,7 +9070,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D50" s="8"/>
     </row>
@@ -8971,7 +9079,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D51" s="8"/>
     </row>
@@ -8980,7 +9088,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D52" s="8"/>
     </row>
@@ -8989,7 +9097,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -9010,7 +9118,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D57" s="8"/>
     </row>
@@ -9019,7 +9127,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D58" s="8"/>
     </row>
@@ -9028,7 +9136,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D59" s="8"/>
     </row>
@@ -9037,7 +9145,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -9058,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D64" s="8"/>
     </row>
@@ -9067,7 +9175,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D65" s="8"/>
     </row>
@@ -9076,7 +9184,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -9097,7 +9205,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D70" s="8"/>
     </row>
@@ -9106,7 +9214,7 @@
         <v>55</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -9127,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D75" s="8"/>
     </row>
@@ -9136,7 +9244,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D76" s="8"/>
     </row>
@@ -9145,7 +9253,7 @@
         <v>55</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -9166,7 +9274,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D81" s="8"/>
     </row>
@@ -9175,7 +9283,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D82" s="8"/>
     </row>
@@ -9184,7 +9292,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D83" s="8"/>
     </row>
@@ -9193,7 +9301,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D84" s="8"/>
     </row>
@@ -9202,7 +9310,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -9223,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D89" s="8"/>
     </row>
@@ -9232,7 +9340,7 @@
         <v>2</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D90" s="8"/>
     </row>
@@ -9241,10 +9349,10 @@
         <v>3</v>
       </c>
       <c r="C91" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -9252,7 +9360,7 @@
         <v>55</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -9262,7 +9370,7 @@
         <v>125</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -9283,10 +9391,10 @@
         <v>102</v>
       </c>
       <c r="C97" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>328</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -9294,10 +9402,10 @@
         <v>200</v>
       </c>
       <c r="C98" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -9305,10 +9413,10 @@
         <v>400</v>
       </c>
       <c r="C99" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>332</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -9316,10 +9424,10 @@
         <v>401</v>
       </c>
       <c r="C100" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D100" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -9327,7 +9435,7 @@
         <v>403</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D101" s="8"/>
     </row>
@@ -9336,10 +9444,10 @@
         <v>500</v>
       </c>
       <c r="C102" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D102" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -9347,7 +9455,7 @@
         <v>501</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D103" s="8"/>
     </row>
@@ -9356,7 +9464,7 @@
         <v>55</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -9366,7 +9474,7 @@
         <v>125</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -9387,10 +9495,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D109" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -9398,10 +9506,10 @@
         <v>2</v>
       </c>
       <c r="C110" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -9409,10 +9517,10 @@
         <v>3</v>
       </c>
       <c r="C111" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -9420,10 +9528,10 @@
         <v>4</v>
       </c>
       <c r="C112" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D112" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="113" spans="2:4">
@@ -9431,10 +9539,10 @@
         <v>5</v>
       </c>
       <c r="C113" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>385</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="114" spans="2:4">
@@ -9442,10 +9550,10 @@
         <v>6</v>
       </c>
       <c r="C114" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D114" s="8" t="s">
         <v>387</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="115" spans="2:4">
@@ -9453,10 +9561,10 @@
         <v>7</v>
       </c>
       <c r="C115" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D115" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="116" spans="2:4">
@@ -9464,10 +9572,10 @@
         <v>8</v>
       </c>
       <c r="C116" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="117" spans="2:4">
@@ -9475,10 +9583,10 @@
         <v>9</v>
       </c>
       <c r="C117" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D117" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="118" spans="2:4">
@@ -9486,10 +9594,10 @@
         <v>10</v>
       </c>
       <c r="C118" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D118" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="119" spans="2:4">
@@ -9497,10 +9605,10 @@
         <v>11</v>
       </c>
       <c r="C119" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D119" s="8" t="s">
         <v>397</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="120" spans="2:4">
@@ -9508,10 +9616,10 @@
         <v>12</v>
       </c>
       <c r="C120" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D120" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="121" spans="2:4">
@@ -9519,10 +9627,10 @@
         <v>13</v>
       </c>
       <c r="C121" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D121" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="122" spans="2:4">
@@ -9530,10 +9638,10 @@
         <v>14</v>
       </c>
       <c r="C122" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D122" s="8" t="s">
         <v>403</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="123" spans="2:4">
@@ -9541,10 +9649,10 @@
         <v>15</v>
       </c>
       <c r="C123" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D123" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="124" spans="2:4">
@@ -9552,10 +9660,10 @@
         <v>16</v>
       </c>
       <c r="C124" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D124" s="8" t="s">
         <v>407</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="125" spans="2:4">
@@ -9563,10 +9671,10 @@
         <v>17</v>
       </c>
       <c r="C125" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D125" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="126" spans="2:4">
@@ -9574,10 +9682,10 @@
         <v>18</v>
       </c>
       <c r="C126" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D126" s="8" t="s">
         <v>411</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="127" spans="2:4">
@@ -9585,10 +9693,10 @@
         <v>19</v>
       </c>
       <c r="C127" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D127" s="8" t="s">
         <v>413</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -9606,7 +9714,7 @@
         <v>125</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -9627,10 +9735,10 @@
         <v>1</v>
       </c>
       <c r="C133" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D133" s="8" t="s">
         <v>437</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -9638,10 +9746,10 @@
         <v>2</v>
       </c>
       <c r="C134" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D134" s="8" t="s">
         <v>439</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -9649,10 +9757,10 @@
         <v>3</v>
       </c>
       <c r="C135" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D135" s="8" t="s">
         <v>441</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -9660,7 +9768,7 @@
         <v>55</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -9670,7 +9778,7 @@
         <v>125</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -9691,10 +9799,10 @@
         <v>2048</v>
       </c>
       <c r="C141" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="D141" s="8" t="s">
         <v>575</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -9702,10 +9810,10 @@
         <v>2054</v>
       </c>
       <c r="C142" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="D142" s="8" t="s">
         <v>577</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -9713,10 +9821,10 @@
         <v>34525</v>
       </c>
       <c r="C143" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D143" s="8" t="s">
         <v>579</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -9724,10 +9832,10 @@
         <v>34887</v>
       </c>
       <c r="C144" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="D144" s="8" t="s">
         <v>581</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -9735,7 +9843,7 @@
         <v>55</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -9745,7 +9853,7 @@
         <v>125</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -9766,10 +9874,10 @@
         <v>1</v>
       </c>
       <c r="C150" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D150" s="8" t="s">
         <v>585</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -9777,10 +9885,10 @@
         <v>6</v>
       </c>
       <c r="C151" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="D151" s="8" t="s">
         <v>587</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -9788,10 +9896,10 @@
         <v>17</v>
       </c>
       <c r="C152" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="D152" s="8" t="s">
         <v>589</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -9799,7 +9907,7 @@
         <v>55</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -9809,7 +9917,7 @@
         <v>125</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -9830,10 +9938,10 @@
         <v>20</v>
       </c>
       <c r="C158" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="D158" s="8" t="s">
         <v>593</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -9841,10 +9949,10 @@
         <v>21</v>
       </c>
       <c r="C159" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="D159" s="8" t="s">
         <v>595</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -9852,10 +9960,10 @@
         <v>22</v>
       </c>
       <c r="C160" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D160" s="8" t="s">
         <v>597</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -9863,10 +9971,10 @@
         <v>23</v>
       </c>
       <c r="C161" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="D161" s="8" t="s">
         <v>599</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -9874,10 +9982,10 @@
         <v>25</v>
       </c>
       <c r="C162" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="D162" s="8" t="s">
         <v>601</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -9885,10 +9993,10 @@
         <v>80</v>
       </c>
       <c r="C163" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="D163" s="8" t="s">
         <v>603</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -9896,10 +10004,10 @@
         <v>443</v>
       </c>
       <c r="C164" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="D164" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -9907,7 +10015,7 @@
         <v>55</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -9928,10 +10036,10 @@
         <v>1</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -9939,10 +10047,10 @@
         <v>2</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -9950,10 +10058,10 @@
         <v>3</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -9961,10 +10069,10 @@
         <v>4</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -9972,10 +10080,10 @@
         <v>5</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -9983,10 +10091,10 @@
         <v>6</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -9994,10 +10102,10 @@
         <v>7</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -10005,10 +10113,10 @@
         <v>8</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -10016,10 +10124,10 @@
         <v>9</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -10027,10 +10135,10 @@
         <v>10</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -10038,10 +10146,10 @@
         <v>11</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -10049,7 +10157,7 @@
         <v>55</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -10070,10 +10178,10 @@
         <v>0</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -10081,10 +10189,10 @@
         <v>1</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -10092,10 +10200,10 @@
         <v>2</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -10103,10 +10211,10 @@
         <v>3</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -10114,10 +10222,10 @@
         <v>4</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -10125,10 +10233,10 @@
         <v>5</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -10136,10 +10244,10 @@
         <v>6</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -10147,10 +10255,10 @@
         <v>7</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -10158,10 +10266,10 @@
         <v>8</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="193" spans="2:4">
@@ -10169,10 +10277,10 @@
         <v>9</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="194" spans="2:4">
@@ -10180,10 +10288,10 @@
         <v>10</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="195" spans="2:4">
@@ -10191,10 +10299,10 @@
         <v>11</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="196" spans="2:4">
@@ -10202,10 +10310,10 @@
         <v>12</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>

--- a/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="758">
-  <si>
-    <t>Generated from schema\openc2.jaen, Thu May  4 10:54:12 2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="809">
+  <si>
+    <t>Generated from schema\openc2.jaen, Wed May 31 13:55:02 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -174,6 +174,9 @@
     <t>results (optional)</t>
   </si>
   <si>
+    <t>results (Choice)</t>
+  </si>
+  <si>
     <t>Results of executing the command</t>
   </si>
   <si>
@@ -408,13 +411,10 @@
     <t>SCO v2</t>
   </si>
   <si>
-    <t>commands</t>
-  </si>
-  <si>
-    <t>commands (vocab)</t>
-  </si>
-  <si>
-    <t>OpenC2 - query actuator for supported capabilities</t>
+    <t>openc2 (vocab)</t>
+  </si>
+  <si>
+    <t>OpenC2 - query actuator for supported capabilities, set comms</t>
   </si>
   <si>
     <t>device</t>
@@ -1323,6 +1323,954 @@
     <t>Regional Internet Registry (RIR) that assigned the number to the AS</t>
   </si>
   <si>
+    <t>description (optional)</t>
+  </si>
+  <si>
+    <t>device_type (optional)</t>
+  </si>
+  <si>
+    <t>manufacturer (optional)</t>
+  </si>
+  <si>
+    <t>model (optional)</t>
+  </si>
+  <si>
+    <t>serial_number (optional)</t>
+  </si>
+  <si>
+    <t>firmware_version (optional)</t>
+  </si>
+  <si>
+    <t>system_details (optional)</t>
+  </si>
+  <si>
+    <t>path (required)</t>
+  </si>
+  <si>
+    <t>Path, as originally observed, to the directory on the filesystem</t>
+  </si>
+  <si>
+    <t>path_enc (optional)</t>
+  </si>
+  <si>
+    <t>Observed encoding for the path, from the IANA Character Set Registry</t>
+  </si>
+  <si>
+    <t>created (optional)</t>
+  </si>
+  <si>
+    <t>Date/time the directory was created</t>
+  </si>
+  <si>
+    <t>modified (optional)</t>
+  </si>
+  <si>
+    <t>Date/time the directory was last written-to/modified</t>
+  </si>
+  <si>
+    <t>accessed (optional)</t>
+  </si>
+  <si>
+    <t>Date/time the directory was last accessed</t>
+  </si>
+  <si>
+    <t>contains (optional)</t>
+  </si>
+  <si>
+    <t>dir-contents (Array)</t>
+  </si>
+  <si>
+    <t>List of files/directories contained within the directory</t>
+  </si>
+  <si>
+    <t>dir-contents</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>dirfile (Choice)</t>
+  </si>
+  <si>
+    <t>dirfile</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>disk-partition</t>
+  </si>
+  <si>
+    <t>domain-name</t>
+  </si>
+  <si>
+    <t>value (required)</t>
+  </si>
+  <si>
+    <t>Value of the domain name</t>
+  </si>
+  <si>
+    <t>resolves_to (optional)</t>
+  </si>
+  <si>
+    <t>ip-addrs (Array)</t>
+  </si>
+  <si>
+    <t>List of IP addresses or domain names</t>
+  </si>
+  <si>
+    <t>ip-addrs</t>
+  </si>
+  <si>
+    <t>ip-addr (Choice)</t>
+  </si>
+  <si>
+    <t>ip-addr</t>
+  </si>
+  <si>
+    <t>ipv4</t>
+  </si>
+  <si>
+    <t>ipv6</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email-addr</t>
+  </si>
+  <si>
+    <t>Email address (addr-spec in RFC 5322 Section 3.4)</t>
+  </si>
+  <si>
+    <t>display_name (optional)</t>
+  </si>
+  <si>
+    <t>Name that is displayed to the user of a mail application</t>
+  </si>
+  <si>
+    <t>belongs_to (optional)</t>
+  </si>
+  <si>
+    <t>User account that the email address belongs to</t>
+  </si>
+  <si>
+    <t>email-message</t>
+  </si>
+  <si>
+    <t>TODO: finish</t>
+  </si>
+  <si>
+    <t>extensions (optional)</t>
+  </si>
+  <si>
+    <t>file-extensions (Map)</t>
+  </si>
+  <si>
+    <t>Content-specific file information</t>
+  </si>
+  <si>
+    <t>Dictionary of hashes for the file</t>
+  </si>
+  <si>
+    <t>size (optional)</t>
+  </si>
+  <si>
+    <t>Size of the file, in bytes.</t>
+  </si>
+  <si>
+    <t>Name of the file.</t>
+  </si>
+  <si>
+    <t>name_enc (optional)</t>
+  </si>
+  <si>
+    <t>Observed encoding of the file, from IANA Character Set Registry</t>
+  </si>
+  <si>
+    <t>magic_number_hex (optional)</t>
+  </si>
+  <si>
+    <t>Hexadecimal constant associated with a specific file format.</t>
+  </si>
+  <si>
+    <t>MIMI type name for the file, from the IANA media type registry.</t>
+  </si>
+  <si>
+    <t>Date/time the file was created.</t>
+  </si>
+  <si>
+    <t>Date/time the file was last written to / modified.</t>
+  </si>
+  <si>
+    <t>Date/time the file was last accessed.</t>
+  </si>
+  <si>
+    <t>parent_directory (optional)</t>
+  </si>
+  <si>
+    <t>Parent directory of the file.</t>
+  </si>
+  <si>
+    <t>is_encrypted (optional)</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Specifies whether the file is encrypted.</t>
+  </si>
+  <si>
+    <t>encryption_algorithm (optional)</t>
+  </si>
+  <si>
+    <t>encryption-algo (vocab)</t>
+  </si>
+  <si>
+    <t>Specifies the algorithm used to encrypt the file.</t>
+  </si>
+  <si>
+    <t>decryption_key (optional)</t>
+  </si>
+  <si>
+    <t>Decryption key used to decrypt the file.</t>
+  </si>
+  <si>
+    <t>file-contents (Array)</t>
+  </si>
+  <si>
+    <t>List of observables contained within the file</t>
+  </si>
+  <si>
+    <t>content (optional)</t>
+  </si>
+  <si>
+    <t>Content of the file.</t>
+  </si>
+  <si>
+    <t>file-contents</t>
+  </si>
+  <si>
+    <t>file-extensions</t>
+  </si>
+  <si>
+    <t>ntfs_ext (optional)</t>
+  </si>
+  <si>
+    <t>ntfs-ext (Map)</t>
+  </si>
+  <si>
+    <t>raster_image_ext (optional)</t>
+  </si>
+  <si>
+    <t>raster-image-ext (Map)</t>
+  </si>
+  <si>
+    <t>pdf_ext (optional)</t>
+  </si>
+  <si>
+    <t>pdf-ext (Map)</t>
+  </si>
+  <si>
+    <t>archive_ext (optional)</t>
+  </si>
+  <si>
+    <t>archive-ext (Map)</t>
+  </si>
+  <si>
+    <t>windows_pebinary_ext (optional)</t>
+  </si>
+  <si>
+    <t>windows-pebinary-ext (Map)</t>
+  </si>
+  <si>
+    <t>ntfs-ext</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>raster-image-ext</t>
+  </si>
+  <si>
+    <t>pdf-ext</t>
+  </si>
+  <si>
+    <t>archive-ext</t>
+  </si>
+  <si>
+    <t>windows-pebinary-ext</t>
+  </si>
+  <si>
+    <t>ipv4-addr</t>
+  </si>
+  <si>
+    <t>IPv4 address or range in CIDR notation</t>
+  </si>
+  <si>
+    <t>resolves_to_refs (optional)</t>
+  </si>
+  <si>
+    <t>mac-addrs (Array)</t>
+  </si>
+  <si>
+    <t>Specifies a list of references to one or more Layer 2 Media Access Control (MAC) addresses that the IPv4 address resolves to.</t>
+  </si>
+  <si>
+    <t>belongs_to_refs (optional)</t>
+  </si>
+  <si>
+    <t>asystems (Array)</t>
+  </si>
+  <si>
+    <t>Specifies a reference to one or more autonomous systems (AS) that the IPv4 address belongs to.</t>
+  </si>
+  <si>
+    <t>ipv6-addr</t>
+  </si>
+  <si>
+    <t>IPv6 address or range</t>
+  </si>
+  <si>
+    <t>mac-addrs</t>
+  </si>
+  <si>
+    <t>mac-addr</t>
+  </si>
+  <si>
+    <t>Colon-delimited MAC-48 address with leading zeros for each octet</t>
+  </si>
+  <si>
+    <t>asystems</t>
+  </si>
+  <si>
+    <t>autonomous-system (Record)</t>
+  </si>
+  <si>
+    <t>ip-connection</t>
+  </si>
+  <si>
+    <t>5-tuple that specifies a tcp/ip connection</t>
+  </si>
+  <si>
+    <t>src_addr (optional)</t>
+  </si>
+  <si>
+    <t>source address</t>
+  </si>
+  <si>
+    <t>src_port (optional)</t>
+  </si>
+  <si>
+    <t>port (Choice)</t>
+  </si>
+  <si>
+    <t>source TCP/UDP port number</t>
+  </si>
+  <si>
+    <t>dst_addr (optional)</t>
+  </si>
+  <si>
+    <t>destination address</t>
+  </si>
+  <si>
+    <t>dst_port (optional)</t>
+  </si>
+  <si>
+    <t>destination TCP/UDP port number</t>
+  </si>
+  <si>
+    <t>layer4_protocol (optional)</t>
+  </si>
+  <si>
+    <t>layer4-protocol (vocab)</t>
+  </si>
+  <si>
+    <t>Protocol (IPv4) / Next Header (IPv6)</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>TCP/UDP port number or protocol</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Port number (e.g., dynamically assigned)</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>layer7-protocol (vocab)</t>
+  </si>
+  <si>
+    <t>Registered port nummber (registered with IANA)</t>
+  </si>
+  <si>
+    <t>layer3-protocol</t>
+  </si>
+  <si>
+    <t>IEEE 802 Ether Types - any IANA value, RFC 7042</t>
+  </si>
+  <si>
+    <t>IPv4</t>
+  </si>
+  <si>
+    <t>0x0800 Internet Protocol Version 4</t>
+  </si>
+  <si>
+    <t>ARP</t>
+  </si>
+  <si>
+    <t>0x0806 Address Resolution Protocol</t>
+  </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t>0x86DD Internet Protocol Version 6</t>
+  </si>
+  <si>
+    <t>MPLS</t>
+  </si>
+  <si>
+    <t>0x8847 Multi-Protocol Label Switching</t>
+  </si>
+  <si>
+    <t>layer4-protocol</t>
+  </si>
+  <si>
+    <t>protocol (IPv4) or next header (IPv6) field - any IANA value, RFC 5237</t>
+  </si>
+  <si>
+    <t>ICMP</t>
+  </si>
+  <si>
+    <t>Internet Control Message Protocol - RFC 792</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>Transmission Control Protocol - RFC 793</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>User Datagram Protocol - RFC 768</t>
+  </si>
+  <si>
+    <t>layer7-protocol</t>
+  </si>
+  <si>
+    <t>Service Name and Transport Protocol Port - any IANA value, RFC 6335</t>
+  </si>
+  <si>
+    <t>ftp-data</t>
+  </si>
+  <si>
+    <t>File Transfer Protocol (data)</t>
+  </si>
+  <si>
+    <t>ftp</t>
+  </si>
+  <si>
+    <t>File Transfer Protocol (control)</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>Secure Shell Protocol</t>
+  </si>
+  <si>
+    <t>telnet</t>
+  </si>
+  <si>
+    <t>Telnet</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>Simple Mail Transfer Protocol</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>Hypertext Transport Protocol</t>
+  </si>
+  <si>
+    <t>https</t>
+  </si>
+  <si>
+    <t>HTTP over TLS</t>
+  </si>
+  <si>
+    <t>process-ext (Map)</t>
+  </si>
+  <si>
+    <t>Process-type specific info</t>
+  </si>
+  <si>
+    <t>is_hidden (optional)</t>
+  </si>
+  <si>
+    <t>Whether the process is hidden</t>
+  </si>
+  <si>
+    <t>pid (optional)</t>
+  </si>
+  <si>
+    <t>Process ID of the process</t>
+  </si>
+  <si>
+    <t>Name of the process</t>
+  </si>
+  <si>
+    <t>Date/time at which the process was created</t>
+  </si>
+  <si>
+    <t>cwd (optional)</t>
+  </si>
+  <si>
+    <t>Current working directory of the process</t>
+  </si>
+  <si>
+    <t>arguments (optional)</t>
+  </si>
+  <si>
+    <t>arguments (Array)</t>
+  </si>
+  <si>
+    <t>List of arguments used in executing the process</t>
+  </si>
+  <si>
+    <t>environment_variables (optional)</t>
+  </si>
+  <si>
+    <t>envars (Array)</t>
+  </si>
+  <si>
+    <t>List of environment variables associated with the process</t>
+  </si>
+  <si>
+    <t>opened_connections (optional)</t>
+  </si>
+  <si>
+    <t>opened-connections (Array)</t>
+  </si>
+  <si>
+    <t>List of network connections opened by the process</t>
+  </si>
+  <si>
+    <t>creator_user (optional)</t>
+  </si>
+  <si>
+    <t>User that created the process</t>
+  </si>
+  <si>
+    <t>binary (optional)</t>
+  </si>
+  <si>
+    <t>Executable binary that was executed as the process</t>
+  </si>
+  <si>
+    <t>parent (optional)</t>
+  </si>
+  <si>
+    <t>Process that spawned this one</t>
+  </si>
+  <si>
+    <t>children (optional)</t>
+  </si>
+  <si>
+    <t>process-children (Array)</t>
+  </si>
+  <si>
+    <t>Processes that were spawned by this one</t>
+  </si>
+  <si>
+    <t>arguments</t>
+  </si>
+  <si>
+    <t>envars</t>
+  </si>
+  <si>
+    <t>opened-connections</t>
+  </si>
+  <si>
+    <t>process-ext</t>
+  </si>
+  <si>
+    <t>windows_process_ext (optional)</t>
+  </si>
+  <si>
+    <t>windows-process-ext (Map)</t>
+  </si>
+  <si>
+    <t>windows_service_ext (optional)</t>
+  </si>
+  <si>
+    <t>windows-service-ext (Map)</t>
+  </si>
+  <si>
+    <t>process-children</t>
+  </si>
+  <si>
+    <t>windows-process-ext</t>
+  </si>
+  <si>
+    <t>windows-service-ext</t>
+  </si>
+  <si>
+    <t>name (required)</t>
+  </si>
+  <si>
+    <t>Name of the software</t>
+  </si>
+  <si>
+    <t>cpe (optional)</t>
+  </si>
+  <si>
+    <t>From Common Platform Enumeration (CPE) v2.3 dictionary</t>
+  </si>
+  <si>
+    <t>language (optional)</t>
+  </si>
+  <si>
+    <t>Language of the software from ISO 639-2</t>
+  </si>
+  <si>
+    <t>vendor (optional)</t>
+  </si>
+  <si>
+    <t>Vendor of the software</t>
+  </si>
+  <si>
+    <t>version (optional)</t>
+  </si>
+  <si>
+    <t>Version of the software</t>
+  </si>
+  <si>
+    <t>Uniform Resource Locator</t>
+  </si>
+  <si>
+    <t>user-account</t>
+  </si>
+  <si>
+    <t>user_id (required)</t>
+  </si>
+  <si>
+    <t>Identifier of the account.  Format depends on the system the account is maintained in.</t>
+  </si>
+  <si>
+    <t>account_login (optional)</t>
+  </si>
+  <si>
+    <t>Account login string, in cases where user_id is other than what the user types to log in.</t>
+  </si>
+  <si>
+    <t>account_type (optional)</t>
+  </si>
+  <si>
+    <t>account-type (vocab)</t>
+  </si>
+  <si>
+    <t>Value from the account-type vocabulary</t>
+  </si>
+  <si>
+    <t>Display name of the account (e.g., Unix GECOS field)</t>
+  </si>
+  <si>
+    <t>is_service_account (optional)</t>
+  </si>
+  <si>
+    <t>Account is associated with a network service or system process, not an individual.</t>
+  </si>
+  <si>
+    <t>is_privileged (optional)</t>
+  </si>
+  <si>
+    <t>Account has elevated privileges</t>
+  </si>
+  <si>
+    <t>can_escalate_privs (optional)</t>
+  </si>
+  <si>
+    <t>Account has the ability to escalate privileges</t>
+  </si>
+  <si>
+    <t>is_disabled (optional)</t>
+  </si>
+  <si>
+    <t>Account is disabled</t>
+  </si>
+  <si>
+    <t>account_created (optional)</t>
+  </si>
+  <si>
+    <t>Creation date of the account</t>
+  </si>
+  <si>
+    <t>account_expires (optional)</t>
+  </si>
+  <si>
+    <t>Expiration date of the account</t>
+  </si>
+  <si>
+    <t>password_last_changed (optional)</t>
+  </si>
+  <si>
+    <t>When the account password was last changed</t>
+  </si>
+  <si>
+    <t>account_first_login (optional)</t>
+  </si>
+  <si>
+    <t>When the account was first accessed</t>
+  </si>
+  <si>
+    <t>account_last_login (optional)</t>
+  </si>
+  <si>
+    <t>When the account was last accessed</t>
+  </si>
+  <si>
+    <t>account-type</t>
+  </si>
+  <si>
+    <t>unix</t>
+  </si>
+  <si>
+    <t>POSIX account</t>
+  </si>
+  <si>
+    <t>windows-local</t>
+  </si>
+  <si>
+    <t>Windows local account</t>
+  </si>
+  <si>
+    <t>windows-domain</t>
+  </si>
+  <si>
+    <t>Windows domain account</t>
+  </si>
+  <si>
+    <t>ldap</t>
+  </si>
+  <si>
+    <t>Lightweight Directory Access Protocol (LDAP) account</t>
+  </si>
+  <si>
+    <t>tacacs</t>
+  </si>
+  <si>
+    <t>Terminal Access Controller Access Control System (TACACS) account</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>Remote Authentication Dial-in User Service (RADIUS - RFC 2865) account</t>
+  </si>
+  <si>
+    <t>nis</t>
+  </si>
+  <si>
+    <t>Network Information System (NIS) account</t>
+  </si>
+  <si>
+    <t>openid</t>
+  </si>
+  <si>
+    <t>OpenID account</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>Facebook account</t>
+  </si>
+  <si>
+    <t>skype</t>
+  </si>
+  <si>
+    <t>Skype account</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>Twitter account</t>
+  </si>
+  <si>
+    <t>user-session</t>
+  </si>
+  <si>
+    <t>windows-registry-key</t>
+  </si>
+  <si>
+    <t>key (required)</t>
+  </si>
+  <si>
+    <t>Full registry key including the hive.</t>
+  </si>
+  <si>
+    <t>values (optional)</t>
+  </si>
+  <si>
+    <t>windows-registry-values (Array)</t>
+  </si>
+  <si>
+    <t>Values found under the registry key.</t>
+  </si>
+  <si>
+    <t>Last date-time the registry key was modified.</t>
+  </si>
+  <si>
+    <t>User account that created the registry key</t>
+  </si>
+  <si>
+    <t>number_of_subkeys (optional)</t>
+  </si>
+  <si>
+    <t>Number of subkeys contained under the registry key</t>
+  </si>
+  <si>
+    <t>windows-registry-values</t>
+  </si>
+  <si>
+    <t>windows-registry-value (Record)</t>
+  </si>
+  <si>
+    <t>windows-registry-value</t>
+  </si>
+  <si>
+    <t>Name of the registry value.  Empty string specifies the default value.</t>
+  </si>
+  <si>
+    <t>data (optional)</t>
+  </si>
+  <si>
+    <t>Data contained in the registry key.</t>
+  </si>
+  <si>
+    <t>data_type (optional)</t>
+  </si>
+  <si>
+    <t>windows-registry-datatype-enum (vocab)</t>
+  </si>
+  <si>
+    <t>Registry data type used in the registry value.</t>
+  </si>
+  <si>
+    <t>windows-registry-datatype-enum</t>
+  </si>
+  <si>
+    <t>REG_NONE</t>
+  </si>
+  <si>
+    <t>No defined value type.</t>
+  </si>
+  <si>
+    <t>REG_SZ</t>
+  </si>
+  <si>
+    <t>A null-terminated string.</t>
+  </si>
+  <si>
+    <t>REG_EXPAND_SZ</t>
+  </si>
+  <si>
+    <t>A null-terminated string with unexpanded references to environment variables.</t>
+  </si>
+  <si>
+    <t>REG_BINARY</t>
+  </si>
+  <si>
+    <t>Binary data in any form.</t>
+  </si>
+  <si>
+    <t>REG_DWORD</t>
+  </si>
+  <si>
+    <t>A 32 bit number.</t>
+  </si>
+  <si>
+    <t>REG_DWORD_BIG_ENDIAN</t>
+  </si>
+  <si>
+    <t>A 32 bit number in big-endian format.</t>
+  </si>
+  <si>
+    <t>REG_LINK</t>
+  </si>
+  <si>
+    <t>A null-terminated string that contains the target path of a symbolic link.</t>
+  </si>
+  <si>
+    <t>REG_MULTI_SZ</t>
+  </si>
+  <si>
+    <t>A sequence of null-terminated strings, terminated by an empty string (\0).</t>
+  </si>
+  <si>
+    <t>REG_RESOURCE_LIST</t>
+  </si>
+  <si>
+    <t>A series of nested lists designed to store a resource list used by a hardware device driver.</t>
+  </si>
+  <si>
+    <t>REG_FULL_RESOURCE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>A series of nested lists designed to store a resource list used by a physical hardware device.</t>
+  </si>
+  <si>
+    <t>REG_RESOURCE_REQUIREMENTS_LIST</t>
+  </si>
+  <si>
+    <t>Device driver list of hardware resource requirements in Resource Map tree.</t>
+  </si>
+  <si>
+    <t>REG_QWORD</t>
+  </si>
+  <si>
+    <t>A 64 bit number.</t>
+  </si>
+  <si>
+    <t>REG_INVALID_TYPE</t>
+  </si>
+  <si>
+    <t>An invalid key.</t>
+  </si>
+  <si>
+    <t>x509-certificate</t>
+  </si>
+  <si>
+    <t>is_self_signed (optional)</t>
+  </si>
+  <si>
+    <t>Specifies whether the certificate is self-signed</t>
+  </si>
+  <si>
+    <t>hashes (required)</t>
+  </si>
+  <si>
+    <t>Specifies any hashes calculated for the entire contents of the certificate</t>
+  </si>
+  <si>
     <t>Target used to query Actuator for its supported capabilities</t>
   </si>
   <si>
@@ -1338,958 +2286,163 @@
     <t>results = JAEN syntax of supported commands</t>
   </si>
   <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>results = communication protocol parameters</t>
+  </si>
+  <si>
     <t>actuator_groups</t>
   </si>
   <si>
     <t>results = JSON array of actuator group names</t>
   </si>
   <si>
-    <t>description (optional)</t>
-  </si>
-  <si>
-    <t>device_type (optional)</t>
-  </si>
-  <si>
-    <t>manufacturer (optional)</t>
-  </si>
-  <si>
-    <t>model (optional)</t>
-  </si>
-  <si>
-    <t>serial_number (optional)</t>
-  </si>
-  <si>
-    <t>firmware_version (optional)</t>
-  </si>
-  <si>
-    <t>system_details (optional)</t>
-  </si>
-  <si>
-    <t>path (required)</t>
-  </si>
-  <si>
-    <t>Path, as originally observed, to the directory on the filesystem</t>
-  </si>
-  <si>
-    <t>path_enc (optional)</t>
-  </si>
-  <si>
-    <t>Observed encoding for the path, from the IANA Character Set Registry</t>
-  </si>
-  <si>
-    <t>created (optional)</t>
-  </si>
-  <si>
-    <t>Date/time the directory was created</t>
-  </si>
-  <si>
-    <t>modified (optional)</t>
-  </si>
-  <si>
-    <t>Date/time the directory was last written-to/modified</t>
-  </si>
-  <si>
-    <t>accessed (optional)</t>
-  </si>
-  <si>
-    <t>Date/time the directory was last accessed</t>
-  </si>
-  <si>
-    <t>contains (optional)</t>
-  </si>
-  <si>
-    <t>dir-contents (Array)</t>
-  </si>
-  <si>
-    <t>List of files/directories contained within the directory</t>
-  </si>
-  <si>
-    <t>dir-contents</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>dirfile (Choice)</t>
-  </si>
-  <si>
-    <t>dirfile</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>disk-partition</t>
-  </si>
-  <si>
-    <t>domain-name</t>
-  </si>
-  <si>
-    <t>value (required)</t>
-  </si>
-  <si>
-    <t>Value of the domain name</t>
-  </si>
-  <si>
-    <t>resolves_to (optional)</t>
-  </si>
-  <si>
-    <t>ip-addrs (Array)</t>
-  </si>
-  <si>
-    <t>List of IP addresses or domain names</t>
-  </si>
-  <si>
-    <t>ip-addrs</t>
-  </si>
-  <si>
-    <t>ip-addr (Choice)</t>
-  </si>
-  <si>
-    <t>ip-addr</t>
-  </si>
-  <si>
-    <t>ipv4</t>
-  </si>
-  <si>
-    <t>ipv6</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>email-addr</t>
-  </si>
-  <si>
-    <t>Email address (addr-spec in RFC 5322 Section 3.4)</t>
-  </si>
-  <si>
-    <t>display_name (optional)</t>
-  </si>
-  <si>
-    <t>Name that is displayed to the user of a mail application</t>
-  </si>
-  <si>
-    <t>belongs_to (optional)</t>
-  </si>
-  <si>
-    <t>User account that the email address belongs to</t>
-  </si>
-  <si>
-    <t>email-message</t>
-  </si>
-  <si>
-    <t>TODO: finish</t>
-  </si>
-  <si>
-    <t>extensions (optional)</t>
-  </si>
-  <si>
-    <t>file-extensions (Map)</t>
-  </si>
-  <si>
-    <t>Content-specific file information</t>
-  </si>
-  <si>
-    <t>Dictionary of hashes for the file</t>
-  </si>
-  <si>
-    <t>size (optional)</t>
-  </si>
-  <si>
-    <t>Size of the file, in bytes.</t>
-  </si>
-  <si>
-    <t>Name of the file.</t>
-  </si>
-  <si>
-    <t>name_enc (optional)</t>
-  </si>
-  <si>
-    <t>Observed encoding of the file, from IANA Character Set Registry</t>
-  </si>
-  <si>
-    <t>magic_number_hex (optional)</t>
-  </si>
-  <si>
-    <t>Hexadecimal constant associated with a specific file format.</t>
-  </si>
-  <si>
-    <t>MIMI type name for the file, from the IANA media type registry.</t>
-  </si>
-  <si>
-    <t>Date/time the file was created.</t>
-  </si>
-  <si>
-    <t>Date/time the file was last written to / modified.</t>
-  </si>
-  <si>
-    <t>Date/time the file was last accessed.</t>
-  </si>
-  <si>
-    <t>parent_directory (optional)</t>
-  </si>
-  <si>
-    <t>Parent directory of the file.</t>
-  </si>
-  <si>
-    <t>is_encrypted (optional)</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>Specifies whether the file is encrypted.</t>
-  </si>
-  <si>
-    <t>encryption_algorithm (optional)</t>
-  </si>
-  <si>
-    <t>encryption-algo (vocab)</t>
-  </si>
-  <si>
-    <t>Specifies the algorithm used to encrypt the file.</t>
-  </si>
-  <si>
-    <t>decryption_key (optional)</t>
-  </si>
-  <si>
-    <t>Decryption key used to decrypt the file.</t>
-  </si>
-  <si>
-    <t>file-contents (Array)</t>
-  </si>
-  <si>
-    <t>List of observables contained within the file</t>
-  </si>
-  <si>
-    <t>content (optional)</t>
-  </si>
-  <si>
-    <t>Content of the file.</t>
-  </si>
-  <si>
-    <t>file-contents</t>
-  </si>
-  <si>
-    <t>file-extensions</t>
-  </si>
-  <si>
-    <t>ntfs_ext (optional)</t>
-  </si>
-  <si>
-    <t>ntfs-ext (Map)</t>
-  </si>
-  <si>
-    <t>raster_image_ext (optional)</t>
-  </si>
-  <si>
-    <t>raster-image-ext (Map)</t>
-  </si>
-  <si>
-    <t>pdf_ext (optional)</t>
-  </si>
-  <si>
-    <t>pdf-ext (Map)</t>
-  </si>
-  <si>
-    <t>archive_ext (optional)</t>
-  </si>
-  <si>
-    <t>archive-ext (Map)</t>
-  </si>
-  <si>
-    <t>windows_pebinary_ext (optional)</t>
-  </si>
-  <si>
-    <t>windows-pebinary-ext (Map)</t>
-  </si>
-  <si>
-    <t>ntfs-ext</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>raster-image-ext</t>
-  </si>
-  <si>
-    <t>pdf-ext</t>
-  </si>
-  <si>
-    <t>archive-ext</t>
-  </si>
-  <si>
-    <t>windows-pebinary-ext</t>
-  </si>
-  <si>
-    <t>ipv4-addr</t>
-  </si>
-  <si>
-    <t>IPv4 address or range in CIDR notation</t>
-  </si>
-  <si>
-    <t>resolves_to_refs (optional)</t>
-  </si>
-  <si>
-    <t>mac-addrs (Array)</t>
-  </si>
-  <si>
-    <t>Specifies a list of references to one or more Layer 2 Media Access Control (MAC) addresses that the IPv4 address resolves to.</t>
-  </si>
-  <si>
-    <t>belongs_to_refs (optional)</t>
-  </si>
-  <si>
-    <t>asystems (Array)</t>
-  </si>
-  <si>
-    <t>Specifies a reference to one or more autonomous systems (AS) that the IPv4 address belongs to.</t>
-  </si>
-  <si>
-    <t>ipv6-addr</t>
-  </si>
-  <si>
-    <t>IPv6 address or range</t>
-  </si>
-  <si>
-    <t>mac-addrs</t>
-  </si>
-  <si>
-    <t>mac-addr</t>
-  </si>
-  <si>
-    <t>Colon-delimited MAC-48 address with leading zeros for each octet</t>
-  </si>
-  <si>
-    <t>asystems</t>
-  </si>
-  <si>
-    <t>autonomous-system (Record)</t>
-  </si>
-  <si>
-    <t>ip-connection</t>
-  </si>
-  <si>
-    <t>5-tuple that specifies a tcp/ip connection</t>
-  </si>
-  <si>
-    <t>src_addr (optional)</t>
-  </si>
-  <si>
-    <t>source address</t>
-  </si>
-  <si>
-    <t>src_port (optional)</t>
-  </si>
-  <si>
-    <t>port (Choice)</t>
-  </si>
-  <si>
-    <t>source TCP/UDP port number</t>
-  </si>
-  <si>
-    <t>dst_addr (optional)</t>
-  </si>
-  <si>
-    <t>destination address</t>
-  </si>
-  <si>
-    <t>dst_port (optional)</t>
-  </si>
-  <si>
-    <t>destination TCP/UDP port number</t>
-  </si>
-  <si>
-    <t>layer4_protocol (optional)</t>
-  </si>
-  <si>
-    <t>layer4-protocol (vocab)</t>
-  </si>
-  <si>
-    <t>Protocol (IPv4) / Next Header (IPv6)</t>
-  </si>
-  <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>TCP/UDP port number or protocol</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Port number (e.g., dynamically assigned)</t>
-  </si>
-  <si>
-    <t>protocol</t>
-  </si>
-  <si>
-    <t>layer7-protocol (vocab)</t>
-  </si>
-  <si>
-    <t>Registered port nummber (registered with IANA)</t>
-  </si>
-  <si>
-    <t>layer3-protocol</t>
-  </si>
-  <si>
-    <t>IEEE 802 Ether Types - any IANA value, RFC 7042</t>
-  </si>
-  <si>
-    <t>IPv4</t>
-  </si>
-  <si>
-    <t>0x0800 Internet Protocol Version 4</t>
-  </si>
-  <si>
-    <t>ARP</t>
-  </si>
-  <si>
-    <t>0x0806 Address Resolution Protocol</t>
-  </si>
-  <si>
-    <t>IPv6</t>
-  </si>
-  <si>
-    <t>0x86DD Internet Protocol Version 6</t>
-  </si>
-  <si>
-    <t>MPLS</t>
-  </si>
-  <si>
-    <t>0x8847 Multi-Protocol Label Switching</t>
-  </si>
-  <si>
-    <t>layer4-protocol</t>
-  </si>
-  <si>
-    <t>protocol (IPv4) or next header (IPv6) field - any IANA value, RFC 5237</t>
-  </si>
-  <si>
-    <t>ICMP</t>
-  </si>
-  <si>
-    <t>Internet Control Message Protocol - RFC 792</t>
-  </si>
-  <si>
-    <t>TCP</t>
-  </si>
-  <si>
-    <t>Transmission Control Protocol - RFC 793</t>
-  </si>
-  <si>
-    <t>UDP</t>
-  </si>
-  <si>
-    <t>User Datagram Protocol - RFC 768</t>
-  </si>
-  <si>
-    <t>layer7-protocol</t>
-  </si>
-  <si>
-    <t>Service Name and Transport Protocol Port - any IANA value, RFC 6335</t>
-  </si>
-  <si>
-    <t>ftp-data</t>
-  </si>
-  <si>
-    <t>File Transfer Protocol (data)</t>
-  </si>
-  <si>
-    <t>ftp</t>
-  </si>
-  <si>
-    <t>File Transfer Protocol (control)</t>
-  </si>
-  <si>
-    <t>ssh</t>
-  </si>
-  <si>
-    <t>Secure Shell Protocol</t>
-  </si>
-  <si>
-    <t>telnet</t>
-  </si>
-  <si>
-    <t>Telnet</t>
-  </si>
-  <si>
-    <t>smtp</t>
-  </si>
-  <si>
-    <t>Simple Mail Transfer Protocol</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>Hypertext Transport Protocol</t>
-  </si>
-  <si>
-    <t>https</t>
-  </si>
-  <si>
-    <t>HTTP over TLS</t>
-  </si>
-  <si>
-    <t>process-ext (Map)</t>
-  </si>
-  <si>
-    <t>Process-type specific info</t>
-  </si>
-  <si>
-    <t>is_hidden (optional)</t>
-  </si>
-  <si>
-    <t>Whether the process is hidden</t>
-  </si>
-  <si>
-    <t>pid (optional)</t>
-  </si>
-  <si>
-    <t>Process ID of the process</t>
-  </si>
-  <si>
-    <t>Name of the process</t>
-  </si>
-  <si>
-    <t>Date/time at which the process was created</t>
-  </si>
-  <si>
-    <t>cwd (optional)</t>
-  </si>
-  <si>
-    <t>Current working directory of the process</t>
-  </si>
-  <si>
-    <t>arguments (optional)</t>
-  </si>
-  <si>
-    <t>arguments (Array)</t>
-  </si>
-  <si>
-    <t>List of arguments used in executing the process</t>
-  </si>
-  <si>
-    <t>environment_variables (optional)</t>
-  </si>
-  <si>
-    <t>envars (Array)</t>
-  </si>
-  <si>
-    <t>List of environment variables associated with the process</t>
-  </si>
-  <si>
-    <t>opened_connections (optional)</t>
-  </si>
-  <si>
-    <t>opened-connections (Array)</t>
-  </si>
-  <si>
-    <t>List of network connections opened by the process</t>
-  </si>
-  <si>
-    <t>creator_user (optional)</t>
-  </si>
-  <si>
-    <t>User that created the process</t>
-  </si>
-  <si>
-    <t>binary (optional)</t>
-  </si>
-  <si>
-    <t>Executable binary that was executed as the process</t>
-  </si>
-  <si>
-    <t>parent (optional)</t>
-  </si>
-  <si>
-    <t>Process that spawned this one</t>
-  </si>
-  <si>
-    <t>children (optional)</t>
-  </si>
-  <si>
-    <t>process-children (Array)</t>
-  </si>
-  <si>
-    <t>Processes that were spawned by this one</t>
-  </si>
-  <si>
-    <t>arguments</t>
-  </si>
-  <si>
-    <t>envars</t>
-  </si>
-  <si>
-    <t>opened-connections</t>
-  </si>
-  <si>
-    <t>process-ext</t>
-  </si>
-  <si>
-    <t>windows_process_ext (optional)</t>
-  </si>
-  <si>
-    <t>windows-process-ext (Map)</t>
-  </si>
-  <si>
-    <t>windows_service_ext (optional)</t>
-  </si>
-  <si>
-    <t>windows-service-ext (Map)</t>
-  </si>
-  <si>
-    <t>process-children</t>
-  </si>
-  <si>
-    <t>windows-process-ext</t>
-  </si>
-  <si>
-    <t>windows-service-ext</t>
-  </si>
-  <si>
-    <t>name (required)</t>
-  </si>
-  <si>
-    <t>Name of the software</t>
-  </si>
-  <si>
-    <t>cpe (optional)</t>
-  </si>
-  <si>
-    <t>From Common Platform Enumeration (CPE) v2.3 dictionary</t>
-  </si>
-  <si>
-    <t>language (optional)</t>
-  </si>
-  <si>
-    <t>Language of the software from ISO 639-2</t>
-  </si>
-  <si>
-    <t>vendor (optional)</t>
-  </si>
-  <si>
-    <t>Vendor of the software</t>
-  </si>
-  <si>
-    <t>version (optional)</t>
-  </si>
-  <si>
-    <t>Version of the software</t>
-  </si>
-  <si>
-    <t>Uniform Resource Locator</t>
-  </si>
-  <si>
-    <t>user-account</t>
-  </si>
-  <si>
-    <t>user_id (required)</t>
-  </si>
-  <si>
-    <t>Identifier of the account.  Format depends on the system the account is maintained in.</t>
-  </si>
-  <si>
-    <t>account_login (optional)</t>
-  </si>
-  <si>
-    <t>Account login string, in cases where user_id is other than what the user types to log in.</t>
-  </si>
-  <si>
-    <t>account_type (optional)</t>
-  </si>
-  <si>
-    <t>account-type (vocab)</t>
-  </si>
-  <si>
-    <t>Value from the account-type vocabulary</t>
-  </si>
-  <si>
-    <t>Display name of the account (e.g., Unix GECOS field)</t>
-  </si>
-  <si>
-    <t>is_service_account (optional)</t>
-  </si>
-  <si>
-    <t>Account is associated with a network service or system process, not an individual.</t>
-  </si>
-  <si>
-    <t>is_privileged (optional)</t>
-  </si>
-  <si>
-    <t>Account has elevated privileges</t>
-  </si>
-  <si>
-    <t>can_escalate_privs (optional)</t>
-  </si>
-  <si>
-    <t>Account has the ability to escalate privileges</t>
-  </si>
-  <si>
-    <t>is_disabled (optional)</t>
-  </si>
-  <si>
-    <t>Account is disabled</t>
-  </si>
-  <si>
-    <t>account_created (optional)</t>
-  </si>
-  <si>
-    <t>Creation date of the account</t>
-  </si>
-  <si>
-    <t>account_expires (optional)</t>
-  </si>
-  <si>
-    <t>Expiration date of the account</t>
-  </si>
-  <si>
-    <t>password_last_changed (optional)</t>
-  </si>
-  <si>
-    <t>When the account password was last changed</t>
-  </si>
-  <si>
-    <t>account_first_login (optional)</t>
-  </si>
-  <si>
-    <t>When the account was first accessed</t>
-  </si>
-  <si>
-    <t>account_last_login (optional)</t>
-  </si>
-  <si>
-    <t>When the account was last accessed</t>
-  </si>
-  <si>
-    <t>account-type</t>
-  </si>
-  <si>
-    <t>unix</t>
-  </si>
-  <si>
-    <t>POSIX account</t>
-  </si>
-  <si>
-    <t>windows-local</t>
-  </si>
-  <si>
-    <t>Windows local account</t>
-  </si>
-  <si>
-    <t>windows-domain</t>
-  </si>
-  <si>
-    <t>Windows domain account</t>
-  </si>
-  <si>
-    <t>ldap</t>
-  </si>
-  <si>
-    <t>Lightweight Directory Access Protocol (LDAP) account</t>
-  </si>
-  <si>
-    <t>tacacs</t>
-  </si>
-  <si>
-    <t>Terminal Access Controller Access Control System (TACACS) account</t>
-  </si>
-  <si>
-    <t>radius</t>
-  </si>
-  <si>
-    <t>Remote Authentication Dial-in User Service (RADIUS - RFC 2865) account</t>
-  </si>
-  <si>
-    <t>nis</t>
-  </si>
-  <si>
-    <t>Network Information System (NIS) account</t>
-  </si>
-  <si>
-    <t>openid</t>
-  </si>
-  <si>
-    <t>OpenID account</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>Facebook account</t>
-  </si>
-  <si>
-    <t>skype</t>
-  </si>
-  <si>
-    <t>Skype account</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>Twitter account</t>
-  </si>
-  <si>
-    <t>user-session</t>
-  </si>
-  <si>
-    <t>windows-registry-key</t>
-  </si>
-  <si>
-    <t>key (required)</t>
-  </si>
-  <si>
-    <t>Full registry key including the hive.</t>
-  </si>
-  <si>
-    <t>values (optional)</t>
-  </si>
-  <si>
-    <t>windows-registry-values (Array)</t>
-  </si>
-  <si>
-    <t>Values found under the registry key.</t>
-  </si>
-  <si>
-    <t>Last date-time the registry key was modified.</t>
-  </si>
-  <si>
-    <t>User account that created the registry key</t>
-  </si>
-  <si>
-    <t>number_of_subkeys (optional)</t>
-  </si>
-  <si>
-    <t>Number of subkeys contained under the registry key</t>
-  </si>
-  <si>
-    <t>windows-registry-values</t>
-  </si>
-  <si>
-    <t>windows-registry-value (Record)</t>
-  </si>
-  <si>
-    <t>windows-registry-value</t>
-  </si>
-  <si>
-    <t>Name of the registry value.  Empty string specifies the default value.</t>
-  </si>
-  <si>
-    <t>data (optional)</t>
-  </si>
-  <si>
-    <t>Data contained in the registry key.</t>
-  </si>
-  <si>
-    <t>data_type (optional)</t>
-  </si>
-  <si>
-    <t>windows-registry-datatype-enum (vocab)</t>
-  </si>
-  <si>
-    <t>Registry data type used in the registry value.</t>
-  </si>
-  <si>
-    <t>windows-registry-datatype-enum</t>
-  </si>
-  <si>
-    <t>REG_NONE</t>
-  </si>
-  <si>
-    <t>No defined value type.</t>
-  </si>
-  <si>
-    <t>REG_SZ</t>
-  </si>
-  <si>
-    <t>A null-terminated string.</t>
-  </si>
-  <si>
-    <t>REG_EXPAND_SZ</t>
-  </si>
-  <si>
-    <t>A null-terminated string with unexpanded references to environment variables.</t>
-  </si>
-  <si>
-    <t>REG_BINARY</t>
-  </si>
-  <si>
-    <t>Binary data in any form.</t>
-  </si>
-  <si>
-    <t>REG_DWORD</t>
-  </si>
-  <si>
-    <t>A 32 bit number.</t>
-  </si>
-  <si>
-    <t>REG_DWORD_BIG_ENDIAN</t>
-  </si>
-  <si>
-    <t>A 32 bit number in big-endian format.</t>
-  </si>
-  <si>
-    <t>REG_LINK</t>
-  </si>
-  <si>
-    <t>A null-terminated string that contains the target path of a symbolic link.</t>
-  </si>
-  <si>
-    <t>REG_MULTI_SZ</t>
-  </si>
-  <si>
-    <t>A sequence of null-terminated strings, terminated by an empty string (\0).</t>
-  </si>
-  <si>
-    <t>REG_RESOURCE_LIST</t>
-  </si>
-  <si>
-    <t>A series of nested lists designed to store a resource list used by a hardware device driver.</t>
-  </si>
-  <si>
-    <t>REG_FULL_RESOURCE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>A series of nested lists designed to store a resource list used by a physical hardware device.</t>
-  </si>
-  <si>
-    <t>REG_RESOURCE_REQUIREMENTS_LIST</t>
-  </si>
-  <si>
-    <t>Device driver list of hardware resource requirements in Resource Map tree.</t>
-  </si>
-  <si>
-    <t>REG_QWORD</t>
-  </si>
-  <si>
-    <t>A 64 bit number.</t>
-  </si>
-  <si>
-    <t>REG_INVALID_TYPE</t>
-  </si>
-  <si>
-    <t>An invalid key.</t>
-  </si>
-  <si>
-    <t>x509-certificate</t>
-  </si>
-  <si>
-    <t>is_self_signed (optional)</t>
-  </si>
-  <si>
-    <t>Specifies whether the certificate is self-signed</t>
-  </si>
-  <si>
-    <t>hashes (required)</t>
-  </si>
-  <si>
-    <t>Specifies any hashes calculated for the entire contents of the certificate</t>
+    <t>openc2-set</t>
+  </si>
+  <si>
+    <t>Target used to set Actuator communication protocol parameters</t>
+  </si>
+  <si>
+    <t>serialization (required)</t>
+  </si>
+  <si>
+    <t>serialization (vocab)</t>
+  </si>
+  <si>
+    <t>Payload serialization format</t>
+  </si>
+  <si>
+    <t>connection (required)</t>
+  </si>
+  <si>
+    <t>connection (Choice)</t>
+  </si>
+  <si>
+    <t>Connection protocol</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>strings</t>
+  </si>
+  <si>
+    <t>strings (Array)</t>
+  </si>
+  <si>
+    <t>comms</t>
+  </si>
+  <si>
+    <t>comms (Record)</t>
+  </si>
+  <si>
+    <t>Structure that is returned in response to a "query communication" command</t>
+  </si>
+  <si>
+    <t>serializations (Array)</t>
+  </si>
+  <si>
+    <t>connections (Array)</t>
+  </si>
+  <si>
+    <t>serializations</t>
+  </si>
+  <si>
+    <t>serialization</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>JSON (uncompressed)</t>
+  </si>
+  <si>
+    <t>JSON-min</t>
+  </si>
+  <si>
+    <t>JSON Minified</t>
+  </si>
+  <si>
+    <t>CBOR</t>
+  </si>
+  <si>
+    <t>Concise Binary Object Representation (RFC 7049)</t>
+  </si>
+  <si>
+    <t>Protobuf</t>
+  </si>
+  <si>
+    <t>Google Protocol Buffers v3</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>Extensible Markup Language</t>
+  </si>
+  <si>
+    <t>connections</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>REST-params (Record)</t>
+  </si>
+  <si>
+    <t>Representational State Transfer web service protocol</t>
+  </si>
+  <si>
+    <t>DXL</t>
+  </si>
+  <si>
+    <t>DXL-params (Record)</t>
+  </si>
+  <si>
+    <t>Data Exchange Layer protocol</t>
+  </si>
+  <si>
+    <t>REST-params</t>
+  </si>
+  <si>
+    <t>(concept example - fix with real params)</t>
+  </si>
+  <si>
+    <t>port (required)</t>
+  </si>
+  <si>
+    <t>TCP/UDP port number or application protocol name</t>
+  </si>
+  <si>
+    <t>proto (required)</t>
+  </si>
+  <si>
+    <t>IP protocol (TCP, UDP, etc)</t>
+  </si>
+  <si>
+    <t>ipver (optional)</t>
+  </si>
+  <si>
+    <t>layer3-protocol (vocab)</t>
+  </si>
+  <si>
+    <t>IPv4 or v6</t>
+  </si>
+  <si>
+    <t>DXL-params</t>
+  </si>
+  <si>
+    <t>channel (required)</t>
+  </si>
+  <si>
+    <t>DXL channel name</t>
   </si>
 </sst>
 </file>
@@ -2773,7 +2926,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E631"/>
+  <dimension ref="A2:E700"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3042,10 +3195,10 @@
         <v>51</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3053,7 +3206,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -3089,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>43</v>
@@ -3101,7 +3254,7 @@
         <v>15</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -3120,10 +3273,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -3148,13 +3301,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3162,7 +3315,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>131</v>
@@ -3196,7 +3349,7 @@
         <v>137</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3238,7 +3391,7 @@
         <v>143</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -3252,7 +3405,7 @@
         <v>145</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -3266,7 +3419,7 @@
         <v>147</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -3280,7 +3433,7 @@
         <v>149</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="2:5">
@@ -3294,7 +3447,7 @@
         <v>151</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -3308,7 +3461,7 @@
         <v>153</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -3322,7 +3475,7 @@
         <v>155</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -3364,7 +3517,7 @@
         <v>162</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="2:5">
@@ -3378,7 +3531,7 @@
         <v>164</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="2:5">
@@ -3392,7 +3545,7 @@
         <v>166</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="2:5">
@@ -3406,7 +3559,7 @@
         <v>168</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="2:5">
@@ -3448,7 +3601,7 @@
         <v>174</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3462,7 +3615,7 @@
         <v>176</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4190,7 +4343,7 @@
         <v>234</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4274,7 +4427,7 @@
         <v>246</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4330,7 +4483,7 @@
         <v>255</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4358,7 +4511,7 @@
         <v>43</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4372,7 +4525,7 @@
         <v>49</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4438,7 +4591,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>269</v>
@@ -4482,7 +4635,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>272</v>
@@ -4515,7 +4668,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>274</v>
@@ -4548,7 +4701,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>276</v>
@@ -4581,7 +4734,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>278</v>
@@ -4614,7 +4767,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>280</v>
@@ -4647,7 +4800,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>285</v>
@@ -4675,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D190" s="8" t="s">
         <v>286</v>
@@ -4689,7 +4842,7 @@
         <v>2</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D191" s="8" t="s">
         <v>288</v>
@@ -4703,7 +4856,7 @@
         <v>3</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D192" s="8" t="s">
         <v>290</v>
@@ -4717,7 +4870,7 @@
         <v>4</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>292</v>
@@ -4731,7 +4884,7 @@
         <v>5</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D194" s="8" t="s">
         <v>294</v>
@@ -4836,7 +4989,7 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>340</v>
@@ -4869,7 +5022,7 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>342</v>
@@ -4902,7 +5055,7 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>344</v>
@@ -5126,7 +5279,7 @@
         <v>15</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
@@ -5382,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D270" s="8" t="s">
         <v>43</v>
@@ -5394,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D271" s="8" t="s">
         <v>43</v>
@@ -5406,7 +5559,7 @@
         <v>3</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D272" s="8" t="s">
         <v>43</v>
@@ -5418,7 +5571,7 @@
         <v>4</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D273" s="8" t="s">
         <v>43</v>
@@ -5430,7 +5583,7 @@
         <v>5</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D274" s="8" t="s">
         <v>43</v>
@@ -5442,7 +5595,7 @@
         <v>6</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D275" s="8" t="s">
         <v>43</v>
@@ -5454,7 +5607,7 @@
         <v>7</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D276" s="8" t="s">
         <v>43</v>
@@ -5502,13 +5655,13 @@
         <v>1</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D283" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5516,13 +5669,13 @@
         <v>2</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D284" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5530,13 +5683,13 @@
         <v>3</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D285" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5544,13 +5697,13 @@
         <v>4</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D286" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5558,13 +5711,13 @@
         <v>5</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D287" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5572,13 +5725,13 @@
         <v>6</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5586,7 +5739,7 @@
         <v>15</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
@@ -5597,7 +5750,7 @@
         <v>16</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
@@ -5609,7 +5762,7 @@
       </c>
       <c r="C293" s="8"/>
       <c r="D293" s="8" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E293" s="8"/>
     </row>
@@ -5618,7 +5771,7 @@
         <v>15</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
@@ -5654,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D300" s="8" t="s">
         <v>137</v>
@@ -5666,7 +5819,7 @@
         <v>2</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D301" s="8" t="s">
         <v>149</v>
@@ -5697,7 +5850,7 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B306" s="6" t="s">
         <v>135</v>
@@ -5725,7 +5878,7 @@
         <v>15</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
@@ -5744,7 +5897,7 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B313" s="6" t="s">
         <v>135</v>
@@ -5772,7 +5925,7 @@
         <v>15</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
@@ -5808,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D322" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5822,13 +5975,13 @@
         <v>2</v>
       </c>
       <c r="C323" s="8" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E323" s="8" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5836,7 +5989,7 @@
         <v>15</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
@@ -5847,7 +6000,7 @@
         <v>16</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
@@ -5859,7 +6012,7 @@
       </c>
       <c r="C328" s="8"/>
       <c r="D328" s="8" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E328" s="8"/>
     </row>
@@ -5868,7 +6021,7 @@
         <v>15</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
@@ -5904,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D335" s="8" t="s">
         <v>151</v>
@@ -5916,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D336" s="8" t="s">
         <v>153</v>
@@ -5928,7 +6081,7 @@
         <v>3</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D337" s="8" t="s">
         <v>143</v>
@@ -5940,7 +6093,7 @@
         <v>15</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
@@ -5976,13 +6129,13 @@
         <v>1</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D344" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E344" s="8" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -5990,13 +6143,13 @@
         <v>2</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D345" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E345" s="8" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6004,13 +6157,13 @@
         <v>3</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D346" s="8" t="s">
         <v>168</v>
       </c>
       <c r="E346" s="8" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6018,7 +6171,7 @@
         <v>15</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
@@ -6037,10 +6190,10 @@
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
@@ -6101,13 +6254,13 @@
         <v>1</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="E360" s="8" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6121,7 +6274,7 @@
         <v>420</v>
       </c>
       <c r="E361" s="8" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6129,13 +6282,13 @@
         <v>3</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D362" s="8" t="s">
         <v>429</v>
       </c>
       <c r="E362" s="8" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6149,7 +6302,7 @@
         <v>43</v>
       </c>
       <c r="E363" s="8" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6157,13 +6310,13 @@
         <v>5</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D364" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E364" s="8" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6171,13 +6324,13 @@
         <v>6</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D365" s="8" t="s">
         <v>346</v>
       </c>
       <c r="E365" s="8" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6191,7 +6344,7 @@
         <v>43</v>
       </c>
       <c r="E366" s="8" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6199,13 +6352,13 @@
         <v>8</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D367" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E367" s="8" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6213,13 +6366,13 @@
         <v>9</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D368" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E368" s="8" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6227,13 +6380,13 @@
         <v>10</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D369" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E369" s="8" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6241,13 +6394,13 @@
         <v>11</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D370" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E370" s="8" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6255,13 +6408,13 @@
         <v>12</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D371" s="8" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E371" s="8" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6269,13 +6422,13 @@
         <v>13</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E372" s="8" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6283,13 +6436,13 @@
         <v>14</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D373" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E373" s="8" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6297,13 +6450,13 @@
         <v>15</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D374" s="8" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E374" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6311,13 +6464,13 @@
         <v>16</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D375" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E375" s="8" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6325,7 +6478,7 @@
         <v>15</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
@@ -6336,7 +6489,7 @@
         <v>16</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C379" s="6"/>
       <c r="D379" s="6"/>
@@ -6357,7 +6510,7 @@
         <v>15</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
@@ -6393,10 +6546,10 @@
         <v>1</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D387" s="8" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E387" s="8"/>
     </row>
@@ -6405,10 +6558,10 @@
         <v>2</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D388" s="8" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="E388" s="8"/>
     </row>
@@ -6417,10 +6570,10 @@
         <v>3</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D389" s="8" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E389" s="8"/>
     </row>
@@ -6429,10 +6582,10 @@
         <v>4</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D390" s="8" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E390" s="8"/>
     </row>
@@ -6441,10 +6594,10 @@
         <v>5</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D391" s="8" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E391" s="8"/>
     </row>
@@ -6453,7 +6606,7 @@
         <v>15</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
@@ -6472,10 +6625,10 @@
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C396" s="6"/>
       <c r="D396" s="6"/>
@@ -6500,7 +6653,7 @@
         <v>15</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
@@ -6519,10 +6672,10 @@
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
@@ -6547,7 +6700,7 @@
         <v>15</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
@@ -6566,10 +6719,10 @@
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C410" s="6"/>
       <c r="D410" s="6"/>
@@ -6594,7 +6747,7 @@
         <v>15</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
@@ -6613,10 +6766,10 @@
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C417" s="6"/>
       <c r="D417" s="6"/>
@@ -6641,7 +6794,7 @@
         <v>15</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
@@ -6660,10 +6813,10 @@
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C424" s="6"/>
       <c r="D424" s="6"/>
@@ -6688,7 +6841,7 @@
         <v>15</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
@@ -6724,13 +6877,13 @@
         <v>1</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D433" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E433" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -6738,13 +6891,13 @@
         <v>2</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D434" s="8" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E434" s="8" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -6752,13 +6905,13 @@
         <v>3</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="D435" s="8" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="E435" s="8" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -6766,7 +6919,7 @@
         <v>15</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
@@ -6802,13 +6955,13 @@
         <v>1</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D442" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E442" s="8" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -6816,13 +6969,13 @@
         <v>2</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D443" s="8" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E443" s="8" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -6830,13 +6983,13 @@
         <v>3</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="D444" s="8" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="E444" s="8" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -6844,7 +6997,7 @@
         <v>15</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
@@ -6855,7 +7008,7 @@
         <v>16</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C448" s="6"/>
       <c r="D448" s="6"/>
@@ -6876,7 +7029,7 @@
         <v>15</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
@@ -6895,10 +7048,10 @@
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C454" s="6"/>
       <c r="D454" s="6"/>
@@ -6909,7 +7062,7 @@
         <v>15</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
@@ -6920,7 +7073,7 @@
         <v>16</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C458" s="6"/>
       <c r="D458" s="6"/>
@@ -6932,7 +7085,7 @@
       </c>
       <c r="C459" s="8"/>
       <c r="D459" s="8" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="E459" s="8"/>
     </row>
@@ -6941,7 +7094,7 @@
         <v>15</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
@@ -6960,10 +7113,10 @@
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C464" s="6"/>
       <c r="D464" s="6"/>
@@ -6988,13 +7141,13 @@
         <v>1</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D467" s="8" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E467" s="8" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -7002,13 +7155,13 @@
         <v>2</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="D468" s="8" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="E468" s="8" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -7016,13 +7169,13 @@
         <v>3</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="D469" s="8" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E469" s="8" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -7030,13 +7183,13 @@
         <v>4</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D470" s="8" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="E470" s="8" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -7044,13 +7197,13 @@
         <v>5</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D471" s="8" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="E471" s="8" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -7058,7 +7211,7 @@
         <v>15</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
@@ -7077,10 +7230,10 @@
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C476" s="6"/>
       <c r="D476" s="6"/>
@@ -7105,13 +7258,13 @@
         <v>1</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D479" s="8" t="s">
         <v>429</v>
       </c>
       <c r="E479" s="8" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -7119,13 +7272,13 @@
         <v>2</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D480" s="8" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="E480" s="8" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -7152,7 +7305,7 @@
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B485" s="6" t="s">
         <v>135</v>
@@ -7216,13 +7369,13 @@
         <v>1</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D494" s="8" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="E494" s="8" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -7230,13 +7383,13 @@
         <v>2</v>
       </c>
       <c r="C495" s="8" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D495" s="8" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E495" s="8" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -7244,13 +7397,13 @@
         <v>3</v>
       </c>
       <c r="C496" s="8" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D496" s="8" t="s">
         <v>429</v>
       </c>
       <c r="E496" s="8" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -7264,7 +7417,7 @@
         <v>43</v>
       </c>
       <c r="E497" s="8" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -7272,13 +7425,13 @@
         <v>5</v>
       </c>
       <c r="C498" s="8" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D498" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E498" s="8" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -7286,13 +7439,13 @@
         <v>6</v>
       </c>
       <c r="C499" s="8" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="D499" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E499" s="8" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -7300,13 +7453,13 @@
         <v>7</v>
       </c>
       <c r="C500" s="8" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="D500" s="8" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E500" s="8" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -7314,13 +7467,13 @@
         <v>8</v>
       </c>
       <c r="C501" s="8" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="D501" s="8" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="E501" s="8" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -7328,13 +7481,13 @@
         <v>9</v>
       </c>
       <c r="C502" s="8" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="D502" s="8" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="E502" s="8" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -7342,13 +7495,13 @@
         <v>10</v>
       </c>
       <c r="C503" s="8" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D503" s="8" t="s">
         <v>168</v>
       </c>
       <c r="E503" s="8" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -7356,13 +7509,13 @@
         <v>11</v>
       </c>
       <c r="C504" s="8" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D504" s="8" t="s">
         <v>149</v>
       </c>
       <c r="E504" s="8" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -7370,13 +7523,13 @@
         <v>12</v>
       </c>
       <c r="C505" s="8" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D505" s="8" t="s">
         <v>162</v>
       </c>
       <c r="E505" s="8" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -7384,13 +7537,13 @@
         <v>13</v>
       </c>
       <c r="C506" s="8" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D506" s="8" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E506" s="8" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -7398,7 +7551,7 @@
         <v>15</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C509" s="5"/>
       <c r="D509" s="5"/>
@@ -7409,7 +7562,7 @@
         <v>16</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C510" s="6"/>
       <c r="D510" s="6"/>
@@ -7430,7 +7583,7 @@
         <v>15</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C514" s="5"/>
       <c r="D514" s="5"/>
@@ -7441,7 +7594,7 @@
         <v>16</v>
       </c>
       <c r="B515" s="6" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C515" s="6"/>
       <c r="D515" s="6"/>
@@ -7462,7 +7615,7 @@
         <v>15</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C519" s="5"/>
       <c r="D519" s="5"/>
@@ -7473,7 +7626,7 @@
         <v>16</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C520" s="6"/>
       <c r="D520" s="6"/>
@@ -7494,7 +7647,7 @@
         <v>15</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C524" s="5"/>
       <c r="D524" s="5"/>
@@ -7530,10 +7683,10 @@
         <v>1</v>
       </c>
       <c r="C528" s="8" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="D528" s="8" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E528" s="8"/>
     </row>
@@ -7542,10 +7695,10 @@
         <v>2</v>
       </c>
       <c r="C529" s="8" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="D529" s="8" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E529" s="8"/>
     </row>
@@ -7554,7 +7707,7 @@
         <v>15</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C532" s="5"/>
       <c r="D532" s="5"/>
@@ -7565,7 +7718,7 @@
         <v>16</v>
       </c>
       <c r="B533" s="6" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C533" s="6"/>
       <c r="D533" s="6"/>
@@ -7586,7 +7739,7 @@
         <v>15</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C537" s="5"/>
       <c r="D537" s="5"/>
@@ -7605,10 +7758,10 @@
     </row>
     <row r="539" spans="1:5">
       <c r="A539" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B539" s="6" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C539" s="6"/>
       <c r="D539" s="6"/>
@@ -7633,7 +7786,7 @@
         <v>15</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C544" s="5"/>
       <c r="D544" s="5"/>
@@ -7652,10 +7805,10 @@
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C546" s="6"/>
       <c r="D546" s="6"/>
@@ -7716,13 +7869,13 @@
         <v>1</v>
       </c>
       <c r="C555" s="8" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="D555" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E555" s="8" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -7730,13 +7883,13 @@
         <v>2</v>
       </c>
       <c r="C556" s="8" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="D556" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E556" s="8" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -7744,13 +7897,13 @@
         <v>3</v>
       </c>
       <c r="C557" s="8" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="D557" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E557" s="8" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -7758,13 +7911,13 @@
         <v>4</v>
       </c>
       <c r="C558" s="8" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="D558" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E558" s="8" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -7772,13 +7925,13 @@
         <v>5</v>
       </c>
       <c r="C559" s="8" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="D559" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E559" s="8" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -7805,10 +7958,10 @@
     </row>
     <row r="564" spans="1:5">
       <c r="A564" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B564" s="6" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C564" s="6"/>
       <c r="D564" s="6"/>
@@ -7819,7 +7972,7 @@
         <v>15</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C567" s="5"/>
       <c r="D567" s="5"/>
@@ -7855,13 +8008,13 @@
         <v>1</v>
       </c>
       <c r="C571" s="8" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="D571" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E571" s="8" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -7869,13 +8022,13 @@
         <v>2</v>
       </c>
       <c r="C572" s="8" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="D572" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E572" s="8" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -7883,13 +8036,13 @@
         <v>3</v>
       </c>
       <c r="C573" s="8" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D573" s="8" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E573" s="8" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -7897,13 +8050,13 @@
         <v>4</v>
       </c>
       <c r="C574" s="8" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D574" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E574" s="8" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -7911,13 +8064,13 @@
         <v>5</v>
       </c>
       <c r="C575" s="8" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D575" s="8" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E575" s="8" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -7925,13 +8078,13 @@
         <v>6</v>
       </c>
       <c r="C576" s="8" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="D576" s="8" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E576" s="8" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -7939,13 +8092,13 @@
         <v>7</v>
       </c>
       <c r="C577" s="8" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="D577" s="8" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E577" s="8" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -7953,13 +8106,13 @@
         <v>8</v>
       </c>
       <c r="C578" s="8" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D578" s="8" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E578" s="8" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -7967,13 +8120,13 @@
         <v>9</v>
       </c>
       <c r="C579" s="8" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="D579" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E579" s="8" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -7981,13 +8134,13 @@
         <v>10</v>
       </c>
       <c r="C580" s="8" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="D580" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E580" s="8" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -7995,13 +8148,13 @@
         <v>11</v>
       </c>
       <c r="C581" s="8" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="D581" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E581" s="8" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -8009,13 +8162,13 @@
         <v>12</v>
       </c>
       <c r="C582" s="8" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="D582" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E582" s="8" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -8023,13 +8176,13 @@
         <v>13</v>
       </c>
       <c r="C583" s="8" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="D583" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E583" s="8" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -8037,7 +8190,7 @@
         <v>15</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C586" s="5"/>
       <c r="D586" s="5"/>
@@ -8056,7 +8209,7 @@
     </row>
     <row r="588" spans="1:5">
       <c r="A588" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B588" s="6" t="s">
         <v>135</v>
@@ -8103,7 +8256,7 @@
     </row>
     <row r="595" spans="1:5">
       <c r="A595" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B595" s="6" t="s">
         <v>135</v>
@@ -8131,7 +8284,7 @@
         <v>15</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="C600" s="5"/>
       <c r="D600" s="5"/>
@@ -8167,13 +8320,13 @@
         <v>1</v>
       </c>
       <c r="C604" s="8" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="D604" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E604" s="8" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -8181,13 +8334,13 @@
         <v>2</v>
       </c>
       <c r="C605" s="8" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="D605" s="8" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="E605" s="8" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -8195,13 +8348,13 @@
         <v>3</v>
       </c>
       <c r="C606" s="8" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D606" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E606" s="8" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -8209,13 +8362,13 @@
         <v>4</v>
       </c>
       <c r="C607" s="8" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D607" s="8" t="s">
         <v>168</v>
       </c>
       <c r="E607" s="8" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -8223,13 +8376,13 @@
         <v>5</v>
       </c>
       <c r="C608" s="8" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="D608" s="8" t="s">
         <v>429</v>
       </c>
       <c r="E608" s="8" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -8237,7 +8390,7 @@
         <v>15</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C611" s="5"/>
       <c r="D611" s="5"/>
@@ -8248,7 +8401,7 @@
         <v>16</v>
       </c>
       <c r="B612" s="6" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C612" s="6"/>
       <c r="D612" s="6"/>
@@ -8260,7 +8413,7 @@
       </c>
       <c r="C613" s="8"/>
       <c r="D613" s="8" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E613" s="8"/>
     </row>
@@ -8269,7 +8422,7 @@
         <v>15</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C616" s="5"/>
       <c r="D616" s="5"/>
@@ -8305,13 +8458,13 @@
         <v>1</v>
       </c>
       <c r="C620" s="8" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="D620" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E620" s="8" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -8319,13 +8472,13 @@
         <v>2</v>
       </c>
       <c r="C621" s="8" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="D621" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E621" s="8" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -8333,13 +8486,13 @@
         <v>3</v>
       </c>
       <c r="C622" s="8" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="D622" s="8" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E622" s="8" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -8347,7 +8500,7 @@
         <v>15</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="C625" s="5"/>
       <c r="D625" s="5"/>
@@ -8366,10 +8519,10 @@
     </row>
     <row r="627" spans="1:5">
       <c r="A627" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B627" s="6" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C627" s="6"/>
       <c r="D627" s="6"/>
@@ -8394,13 +8547,13 @@
         <v>1</v>
       </c>
       <c r="C630" s="8" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D630" s="8" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E630" s="8" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -8408,17 +8561,560 @@
         <v>2</v>
       </c>
       <c r="C631" s="8" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="D631" s="8" t="s">
         <v>420</v>
       </c>
       <c r="E631" s="8" t="s">
-        <v>757</v>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
+      <c r="A634" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B634" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="C634" s="5"/>
+      <c r="D634" s="5"/>
+      <c r="E634" s="5"/>
+    </row>
+    <row r="635" spans="1:5">
+      <c r="A635" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B635" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C635" s="6"/>
+      <c r="D635" s="6"/>
+      <c r="E635" s="6"/>
+    </row>
+    <row r="636" spans="1:5">
+      <c r="A636" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B636" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="C636" s="6"/>
+      <c r="D636" s="6"/>
+      <c r="E636" s="6"/>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="B638" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C638" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D638" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E638" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="B639" s="8">
+        <v>1</v>
+      </c>
+      <c r="C639" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="D639" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="E639" s="8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="B640" s="8">
+        <v>2</v>
+      </c>
+      <c r="C640" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="D640" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="E640" s="8" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5">
+      <c r="A643" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B643" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="C643" s="5"/>
+      <c r="D643" s="5"/>
+      <c r="E643" s="5"/>
+    </row>
+    <row r="644" spans="1:5">
+      <c r="A644" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B644" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C644" s="6"/>
+      <c r="D644" s="6"/>
+      <c r="E644" s="6"/>
+    </row>
+    <row r="646" spans="1:5">
+      <c r="B646" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C646" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D646" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E646" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5">
+      <c r="B647" s="8">
+        <v>1</v>
+      </c>
+      <c r="C647" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="D647" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E647" s="8"/>
+    </row>
+    <row r="648" spans="1:5">
+      <c r="B648" s="8">
+        <v>2</v>
+      </c>
+      <c r="C648" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="D648" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="E648" s="8"/>
+    </row>
+    <row r="649" spans="1:5">
+      <c r="B649" s="8">
+        <v>3</v>
+      </c>
+      <c r="C649" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="D649" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="E649" s="8"/>
+    </row>
+    <row r="652" spans="1:5">
+      <c r="A652" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B652" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="C652" s="5"/>
+      <c r="D652" s="5"/>
+      <c r="E652" s="5"/>
+    </row>
+    <row r="653" spans="1:5">
+      <c r="A653" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B653" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C653" s="6"/>
+      <c r="D653" s="6"/>
+      <c r="E653" s="6"/>
+    </row>
+    <row r="654" spans="1:5">
+      <c r="B654" s="8">
+        <v>0</v>
+      </c>
+      <c r="C654" s="8"/>
+      <c r="D654" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E654" s="8"/>
+    </row>
+    <row r="657" spans="1:5">
+      <c r="A657" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B657" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C657" s="5"/>
+      <c r="D657" s="5"/>
+      <c r="E657" s="5"/>
+    </row>
+    <row r="658" spans="1:5">
+      <c r="A658" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B658" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C658" s="6"/>
+      <c r="D658" s="6"/>
+      <c r="E658" s="6"/>
+    </row>
+    <row r="659" spans="1:5">
+      <c r="A659" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B659" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="C659" s="6"/>
+      <c r="D659" s="6"/>
+      <c r="E659" s="6"/>
+    </row>
+    <row r="661" spans="1:5">
+      <c r="B661" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C661" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D661" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E661" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5">
+      <c r="B662" s="8">
+        <v>1</v>
+      </c>
+      <c r="C662" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="D662" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="E662" s="8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="B663" s="8">
+        <v>2</v>
+      </c>
+      <c r="C663" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="D663" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="E663" s="8" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5">
+      <c r="A666" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B666" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="C666" s="5"/>
+      <c r="D666" s="5"/>
+      <c r="E666" s="5"/>
+    </row>
+    <row r="667" spans="1:5">
+      <c r="A667" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B667" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C667" s="6"/>
+      <c r="D667" s="6"/>
+      <c r="E667" s="6"/>
+    </row>
+    <row r="668" spans="1:5">
+      <c r="B668" s="8">
+        <v>0</v>
+      </c>
+      <c r="C668" s="8"/>
+      <c r="D668" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="E668" s="8"/>
+    </row>
+    <row r="671" spans="1:5">
+      <c r="A671" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B671" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="C671" s="5"/>
+      <c r="D671" s="5"/>
+      <c r="E671" s="5"/>
+    </row>
+    <row r="672" spans="1:5">
+      <c r="A672" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B672" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C672" s="6"/>
+      <c r="D672" s="6"/>
+      <c r="E672" s="6"/>
+    </row>
+    <row r="673" spans="1:5">
+      <c r="B673" s="8">
+        <v>0</v>
+      </c>
+      <c r="C673" s="8"/>
+      <c r="D673" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="E673" s="8"/>
+    </row>
+    <row r="676" spans="1:5">
+      <c r="A676" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B676" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="C676" s="5"/>
+      <c r="D676" s="5"/>
+      <c r="E676" s="5"/>
+    </row>
+    <row r="677" spans="1:5">
+      <c r="A677" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B677" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C677" s="6"/>
+      <c r="D677" s="6"/>
+      <c r="E677" s="6"/>
+    </row>
+    <row r="678" spans="1:5">
+      <c r="A678" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B678" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="C678" s="6"/>
+      <c r="D678" s="6"/>
+      <c r="E678" s="6"/>
+    </row>
+    <row r="680" spans="1:5">
+      <c r="B680" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C680" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D680" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E680" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5">
+      <c r="B681" s="8">
+        <v>1</v>
+      </c>
+      <c r="C681" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="D681" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="E681" s="8" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5">
+      <c r="B682" s="8">
+        <v>2</v>
+      </c>
+      <c r="C682" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="D682" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="E682" s="8" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5">
+      <c r="A685" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B685" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="C685" s="5"/>
+      <c r="D685" s="5"/>
+      <c r="E685" s="5"/>
+    </row>
+    <row r="686" spans="1:5">
+      <c r="A686" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B686" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C686" s="6"/>
+      <c r="D686" s="6"/>
+      <c r="E686" s="6"/>
+    </row>
+    <row r="687" spans="1:5">
+      <c r="A687" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B687" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="C687" s="6"/>
+      <c r="D687" s="6"/>
+      <c r="E687" s="6"/>
+    </row>
+    <row r="689" spans="1:5">
+      <c r="B689" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C689" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D689" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E689" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5">
+      <c r="B690" s="8">
+        <v>1</v>
+      </c>
+      <c r="C690" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="D690" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E690" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5">
+      <c r="B691" s="8">
+        <v>2</v>
+      </c>
+      <c r="C691" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="D691" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="E691" s="8" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5">
+      <c r="B692" s="8">
+        <v>3</v>
+      </c>
+      <c r="C692" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="D692" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="E692" s="8" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5">
+      <c r="A695" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B695" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="C695" s="5"/>
+      <c r="D695" s="5"/>
+      <c r="E695" s="5"/>
+    </row>
+    <row r="696" spans="1:5">
+      <c r="A696" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B696" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C696" s="6"/>
+      <c r="D696" s="6"/>
+      <c r="E696" s="6"/>
+    </row>
+    <row r="697" spans="1:5">
+      <c r="A697" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B697" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="C697" s="6"/>
+      <c r="D697" s="6"/>
+      <c r="E697" s="6"/>
+    </row>
+    <row r="699" spans="1:5">
+      <c r="B699" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C699" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D699" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E699" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5">
+      <c r="B700" s="8">
+        <v>1</v>
+      </c>
+      <c r="C700" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="D700" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E700" s="8" t="s">
+        <v>808</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="165">
+  <mergeCells count="188">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B11:E11"/>
@@ -8584,6 +9280,29 @@
     <mergeCell ref="B625:E625"/>
     <mergeCell ref="B626:E626"/>
     <mergeCell ref="B627:E627"/>
+    <mergeCell ref="B634:E634"/>
+    <mergeCell ref="B635:E635"/>
+    <mergeCell ref="B636:E636"/>
+    <mergeCell ref="B643:E643"/>
+    <mergeCell ref="B644:E644"/>
+    <mergeCell ref="B652:E652"/>
+    <mergeCell ref="B653:E653"/>
+    <mergeCell ref="B657:E657"/>
+    <mergeCell ref="B658:E658"/>
+    <mergeCell ref="B659:E659"/>
+    <mergeCell ref="B666:E666"/>
+    <mergeCell ref="B667:E667"/>
+    <mergeCell ref="B671:E671"/>
+    <mergeCell ref="B672:E672"/>
+    <mergeCell ref="B676:E676"/>
+    <mergeCell ref="B677:E677"/>
+    <mergeCell ref="B678:E678"/>
+    <mergeCell ref="B685:E685"/>
+    <mergeCell ref="B686:E686"/>
+    <mergeCell ref="B687:E687"/>
+    <mergeCell ref="B695:E695"/>
+    <mergeCell ref="B696:E696"/>
+    <mergeCell ref="B697:E697"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8591,7 +9310,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D196"/>
+  <dimension ref="A2:D207"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8605,10 +9324,10 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -8618,7 +9337,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>21</v>
@@ -8629,10 +9348,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8640,10 +9359,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8651,10 +9370,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8662,10 +9381,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8673,10 +9392,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8684,10 +9403,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8695,10 +9414,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8706,10 +9425,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8717,10 +9436,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8728,10 +9447,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8739,10 +9458,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8750,10 +9469,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -8761,10 +9480,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -8772,10 +9491,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -8783,10 +9502,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -8794,10 +9513,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -8805,10 +9524,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -8816,10 +9535,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -8827,10 +9546,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -8838,10 +9557,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -8849,10 +9568,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -8860,10 +9579,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -8871,10 +9590,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -8882,10 +9601,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -8893,10 +9612,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -8904,10 +9623,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -8915,10 +9634,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -8926,10 +9645,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8937,10 +9656,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8948,10 +9667,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -8959,10 +9678,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8970,10 +9689,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -8981,15 +9700,15 @@
         <v>33</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>281</v>
@@ -9002,7 +9721,7 @@
         <v>18</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>21</v>
@@ -9028,7 +9747,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>296</v>
@@ -9041,7 +9760,7 @@
         <v>18</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>21</v>
@@ -9094,7 +9813,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>302</v>
@@ -9107,7 +9826,7 @@
         <v>18</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>21</v>
@@ -9142,7 +9861,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>306</v>
@@ -9155,7 +9874,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>21</v>
@@ -9181,7 +9900,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>309</v>
@@ -9194,7 +9913,7 @@
         <v>18</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>21</v>
@@ -9211,7 +9930,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>311</v>
@@ -9224,7 +9943,7 @@
         <v>18</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>21</v>
@@ -9250,7 +9969,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>314</v>
@@ -9263,7 +9982,7 @@
         <v>18</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>21</v>
@@ -9307,7 +10026,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>319</v>
@@ -9320,7 +10039,7 @@
         <v>18</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>21</v>
@@ -9357,7 +10076,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>326</v>
@@ -9367,7 +10086,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>41</v>
@@ -9380,7 +10099,7 @@
         <v>18</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>21</v>
@@ -9461,7 +10180,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>374</v>
@@ -9471,7 +10190,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>375</v>
@@ -9484,7 +10203,7 @@
         <v>18</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>21</v>
@@ -9701,20 +10420,20 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>130</v>
+        <v>565</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>435</v>
+        <v>566</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -9724,7 +10443,7 @@
         <v>18</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>21</v>
@@ -9732,128 +10451,128 @@
     </row>
     <row r="133" spans="1:4">
       <c r="B133" s="8">
-        <v>1</v>
+        <v>2048</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>436</v>
+        <v>567</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>437</v>
+        <v>568</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="B134" s="8">
-        <v>2</v>
+        <v>2054</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>438</v>
+        <v>569</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>439</v>
+        <v>570</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="B135" s="8">
-        <v>3</v>
+        <v>34525</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>440</v>
+        <v>571</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B137" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="B136" s="8">
+        <v>34887</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="B140" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="B141" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C140" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D140" s="7" t="s">
+      <c r="C141" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D141" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="B141" s="8">
-        <v>2048</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="B142" s="8">
-        <v>2054</v>
+        <v>1</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="B143" s="8">
-        <v>34525</v>
+        <v>6</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="B144" s="8">
-        <v>34887</v>
+        <v>17</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -9863,7 +10582,7 @@
         <v>18</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>21</v>
@@ -9871,453 +10590,550 @@
     </row>
     <row r="150" spans="1:4">
       <c r="B150" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="B151" s="8">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="B152" s="8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="B153" s="8">
+        <v>23</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
+      <c r="B154" s="8">
+        <v>25</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="B157" s="7" t="s">
+      <c r="B155" s="8">
+        <v>80</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="B156" s="8">
+        <v>443</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="B160" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C157" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D157" s="7" t="s">
+      <c r="C160" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D160" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="B158" s="8">
-        <v>20</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="B159" s="8">
-        <v>21</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="B160" s="8">
-        <v>22</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="B161" s="8">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>598</v>
+        <v>677</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>599</v>
+        <v>678</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="B162" s="8">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>600</v>
+        <v>679</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>601</v>
+        <v>680</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="B163" s="8">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>603</v>
+        <v>682</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="B164" s="8">
-        <v>443</v>
+        <v>4</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>605</v>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="B165" s="8">
+        <v>5</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
+      <c r="B166" s="8">
+        <v>6</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="B167" s="8">
+        <v>7</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="B168" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>21</v>
+      <c r="B168" s="8">
+        <v>8</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="B169" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="B170" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="B171" s="8">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="B172" s="8">
-        <v>4</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="B173" s="8">
-        <v>5</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="B174" s="8">
-        <v>6</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>695</v>
-      </c>
+      <c r="A173" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
     </row>
     <row r="175" spans="1:4">
-      <c r="B175" s="8">
-        <v>7</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>697</v>
+      <c r="B175" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="B176" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>699</v>
+        <v>721</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="B177" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="B178" s="8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>703</v>
+        <v>725</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="B179" s="8">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>705</v>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="B180" s="8">
+        <v>4</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
+      <c r="B181" s="8">
+        <v>5</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="B182" s="8">
+        <v>6</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="B183" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>21</v>
+      <c r="B183" s="8">
+        <v>7</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="B184" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="B185" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="B186" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="B187" s="8">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="B188" s="8">
+        <v>12</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="B193" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="B194" s="8">
+        <v>1</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="B195" s="8">
+        <v>2</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="B196" s="8">
+        <v>3</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="B197" s="8">
         <v>4</v>
       </c>
-      <c r="C188" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="B189" s="8">
+      <c r="C197" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="B202" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="B203" s="8">
+        <v>1</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="B204" s="8">
+        <v>2</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="B205" s="8">
+        <v>3</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="B206" s="8">
+        <v>4</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="B207" s="8">
         <v>5</v>
       </c>
-      <c r="C189" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="B190" s="8">
-        <v>6</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="B191" s="8">
-        <v>7</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="B192" s="8">
-        <v>8</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4">
-      <c r="B193" s="8">
-        <v>9</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4">
-      <c r="B194" s="8">
-        <v>10</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4">
-      <c r="B195" s="8">
-        <v>11</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="196" spans="2:4">
-      <c r="B196" s="8">
-        <v>12</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>752</v>
+      <c r="C207" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>788</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B45:D45"/>
@@ -10333,14 +11149,16 @@
     <mergeCell ref="B106:D106"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B137:D137"/>
     <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
     <mergeCell ref="B146:D146"/>
     <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B155:D155"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="B200:D200"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="809">
   <si>
-    <t>Generated from schema\openc2.jaen, Wed May 31 13:55:02 2017</t>
+    <t>Generated from schema\openc2.jaen, Tue Jun  6 10:46:31 2017</t>
   </si>
   <si>
     <t>module</t>

--- a/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
+++ b/pub-jaen/jaen/schema_gen/openc2_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="855">
   <si>
-    <t>Generated from schema\openc2.jaen, Wed Jun 28 10:20:03 2017</t>
+    <t>Generated from schema\openc2.jaen, Thu Jun 29 12:34:39 2017</t>
   </si>
   <si>
     <t>module</t>
